--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -43290,31 +43290,31 @@
         <v>3.15</v>
       </c>
       <c r="AU204">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV204">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW204">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX204">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY204">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ204">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA204">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB204">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC204">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD204">
         <v>3.86</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="324">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,18 @@
     <t>['12', '53']</t>
   </si>
   <si>
+    <t>['4', '21', '87']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['21', '45+2', '68', '74']</t>
+  </si>
+  <si>
+    <t>['21', '88']</t>
+  </si>
+  <si>
     <t>['60', '90+5']</t>
   </si>
   <si>
@@ -965,6 +977,15 @@
   </si>
   <si>
     <t>['30', '67']</t>
+  </si>
+  <si>
+    <t>['38', '59', '72']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP205"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1606,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q2">
         <v>1.44</v>
@@ -1663,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ2">
         <v>0.44</v>
@@ -1791,7 +1812,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1869,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ3">
         <v>1.12</v>
@@ -2203,7 +2224,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2284,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2615,7 +2636,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2696,7 +2717,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3108,7 +3129,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ9">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3311,10 +3332,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ10">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3439,7 +3460,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3517,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ11">
         <v>2.33</v>
@@ -3929,10 +3950,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4057,7 +4078,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4135,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ14">
         <v>2.24</v>
@@ -4341,10 +4362,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ15">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR15">
         <v>2.29</v>
@@ -4469,7 +4490,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4550,7 +4571,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ16">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR16">
         <v>1.85</v>
@@ -4675,7 +4696,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4753,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ17">
         <v>1.06</v>
@@ -4959,10 +4980,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ18">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR18">
         <v>1.05</v>
@@ -5087,7 +5108,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5293,7 +5314,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5499,7 +5520,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q21">
         <v>3.25</v>
@@ -5705,7 +5726,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5786,7 +5807,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ22">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR22">
         <v>1.25</v>
@@ -6117,7 +6138,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6323,7 +6344,7 @@
         <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6401,10 +6422,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ25">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR25">
         <v>1.08</v>
@@ -6529,7 +6550,7 @@
         <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6813,7 +6834,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ27">
         <v>1.06</v>
@@ -7147,7 +7168,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7228,7 +7249,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ29">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR29">
         <v>1.31</v>
@@ -7353,7 +7374,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7431,10 +7452,10 @@
         <v>2</v>
       </c>
       <c r="AP30">
+        <v>1.17</v>
+      </c>
+      <c r="AQ30">
         <v>1.06</v>
-      </c>
-      <c r="AQ30">
-        <v>0.9399999999999999</v>
       </c>
       <c r="AR30">
         <v>1.42</v>
@@ -7559,7 +7580,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7637,10 +7658,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ31">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR31">
         <v>1.44</v>
@@ -7765,7 +7786,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7971,7 +7992,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -8049,7 +8070,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ33">
         <v>1.06</v>
@@ -8258,7 +8279,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR34">
         <v>1.61</v>
@@ -8464,7 +8485,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ35">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR35">
         <v>1.4</v>
@@ -8667,7 +8688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ36">
         <v>0.44</v>
@@ -9001,7 +9022,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9079,7 +9100,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38">
         <v>2.33</v>
@@ -9288,7 +9309,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR39">
         <v>0.93</v>
@@ -9413,7 +9434,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q40">
         <v>1.67</v>
@@ -9619,7 +9640,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9697,10 +9718,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ41">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9906,7 +9927,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ42">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10237,7 +10258,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q44">
         <v>1.53</v>
@@ -10315,7 +10336,7 @@
         <v>0.67</v>
       </c>
       <c r="AP44">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ44">
         <v>1.06</v>
@@ -10443,7 +10464,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10524,7 +10545,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ45">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR45">
         <v>1.2</v>
@@ -10855,7 +10876,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q47">
         <v>6.5</v>
@@ -11139,10 +11160,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ48">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR48">
         <v>1.25</v>
@@ -11348,7 +11369,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ49">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR49">
         <v>1.91</v>
@@ -11473,7 +11494,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11554,7 +11575,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ50">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -11679,7 +11700,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11963,7 +11984,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ52">
         <v>0.44</v>
@@ -12172,7 +12193,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ53">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR53">
         <v>1.16</v>
@@ -12503,7 +12524,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12709,7 +12730,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12787,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ56">
         <v>0.44</v>
@@ -13121,7 +13142,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q58">
         <v>1.73</v>
@@ -13202,7 +13223,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ58">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13327,7 +13348,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13533,7 +13554,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13611,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ60">
         <v>0.9399999999999999</v>
@@ -13820,7 +13841,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ61">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR61">
         <v>1.32</v>
@@ -13945,7 +13966,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14229,10 +14250,10 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ63">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR63">
         <v>2.33</v>
@@ -14357,7 +14378,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q64">
         <v>7.5</v>
@@ -14435,7 +14456,7 @@
         <v>2.25</v>
       </c>
       <c r="AP64">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ64">
         <v>2.24</v>
@@ -14563,7 +14584,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q65">
         <v>11</v>
@@ -14641,7 +14662,7 @@
         <v>2.67</v>
       </c>
       <c r="AP65">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ65">
         <v>2.33</v>
@@ -15053,10 +15074,10 @@
         <v>0.83</v>
       </c>
       <c r="AP67">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ67">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR67">
         <v>1.23</v>
@@ -15181,7 +15202,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15387,7 +15408,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q69">
         <v>3.3</v>
@@ -15468,7 +15489,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ69">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR69">
         <v>1.2</v>
@@ -15671,10 +15692,10 @@
         <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ70">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -16005,7 +16026,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q72">
         <v>3.25</v>
@@ -16083,10 +16104,10 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ72">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR72">
         <v>1.39</v>
@@ -16417,7 +16438,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -16701,7 +16722,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ75">
         <v>0.9399999999999999</v>
@@ -16829,7 +16850,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q76">
         <v>1.5</v>
@@ -16907,7 +16928,7 @@
         <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ76">
         <v>1.12</v>
@@ -17035,7 +17056,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17113,10 +17134,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ77">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR77">
         <v>1.23</v>
@@ -17322,7 +17343,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ78">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR78">
         <v>1.3</v>
@@ -17525,7 +17546,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ79">
         <v>1.06</v>
@@ -17734,7 +17755,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ80">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -17937,7 +17958,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ81">
         <v>2.24</v>
@@ -18143,10 +18164,10 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ82">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR82">
         <v>1.25</v>
@@ -18271,7 +18292,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18349,7 +18370,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ83">
         <v>1.06</v>
@@ -18477,7 +18498,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18558,7 +18579,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ84">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR84">
         <v>1.55</v>
@@ -18683,7 +18704,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -19176,7 +19197,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ87">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR87">
         <v>2.04</v>
@@ -19379,7 +19400,7 @@
         <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ88">
         <v>1.12</v>
@@ -19507,7 +19528,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>1.62</v>
@@ -19585,10 +19606,10 @@
         <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ89">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR89">
         <v>2.41</v>
@@ -19794,7 +19815,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR90">
         <v>0.99</v>
@@ -19997,7 +20018,7 @@
         <v>0.43</v>
       </c>
       <c r="AP91">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ91">
         <v>1.06</v>
@@ -20125,7 +20146,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20537,7 +20558,7 @@
         <v>129</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20615,10 +20636,10 @@
         <v>1.71</v>
       </c>
       <c r="AP94">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ94">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR94">
         <v>1.2</v>
@@ -20743,7 +20764,7 @@
         <v>84</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20824,7 +20845,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ95">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR95">
         <v>1.09</v>
@@ -20949,7 +20970,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q96">
         <v>2.88</v>
@@ -21027,10 +21048,10 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ96">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR96">
         <v>1.31</v>
@@ -21155,7 +21176,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>1.57</v>
@@ -21361,7 +21382,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q98">
         <v>6.5</v>
@@ -21567,7 +21588,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21645,7 +21666,7 @@
         <v>0.86</v>
       </c>
       <c r="AP99">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ99">
         <v>1.06</v>
@@ -22060,7 +22081,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR101">
         <v>1.04</v>
@@ -22391,7 +22412,7 @@
         <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22469,10 +22490,10 @@
         <v>1.5</v>
       </c>
       <c r="AP103">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ103">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR103">
         <v>2.45</v>
@@ -22597,7 +22618,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -22675,10 +22696,10 @@
         <v>0.63</v>
       </c>
       <c r="AP104">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ104">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -22884,7 +22905,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ105">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR105">
         <v>2.1</v>
@@ -23087,10 +23108,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP106">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ106">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR106">
         <v>2.43</v>
@@ -23296,7 +23317,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ107">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR107">
         <v>1.54</v>
@@ -23502,7 +23523,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ108">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR108">
         <v>1.55</v>
@@ -23627,7 +23648,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q109">
         <v>7.5</v>
@@ -23705,7 +23726,7 @@
         <v>2.38</v>
       </c>
       <c r="AP109">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ109">
         <v>2.24</v>
@@ -23833,7 +23854,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -23911,7 +23932,7 @@
         <v>2.44</v>
       </c>
       <c r="AP110">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ110">
         <v>2.33</v>
@@ -24120,7 +24141,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ111">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR111">
         <v>1.06</v>
@@ -24451,7 +24472,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -24532,7 +24553,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ113">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR113">
         <v>1.47</v>
@@ -24735,7 +24756,7 @@
         <v>2.44</v>
       </c>
       <c r="AP114">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ114">
         <v>2.24</v>
@@ -24863,7 +24884,7 @@
         <v>156</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q115">
         <v>2.3</v>
@@ -25069,7 +25090,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25147,10 +25168,10 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ116">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR116">
         <v>1.29</v>
@@ -25275,7 +25296,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>2.55</v>
@@ -25353,10 +25374,10 @@
         <v>0.5</v>
       </c>
       <c r="AP117">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ117">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR117">
         <v>1.32</v>
@@ -25481,7 +25502,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q118">
         <v>2.6</v>
@@ -25687,7 +25708,7 @@
         <v>123</v>
       </c>
       <c r="P119" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q119">
         <v>4.75</v>
@@ -25768,7 +25789,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ119">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR119">
         <v>1.1</v>
@@ -26099,7 +26120,7 @@
         <v>84</v>
       </c>
       <c r="P121" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q121">
         <v>3.75</v>
@@ -26177,7 +26198,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ121">
         <v>0.9399999999999999</v>
@@ -26305,7 +26326,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26511,7 +26532,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -26717,7 +26738,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26923,7 +26944,7 @@
         <v>132</v>
       </c>
       <c r="P125" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q125">
         <v>4.5</v>
@@ -27129,7 +27150,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -27335,7 +27356,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q127">
         <v>7.5</v>
@@ -27541,7 +27562,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27622,7 +27643,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ128">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -27825,7 +27846,7 @@
         <v>0.78</v>
       </c>
       <c r="AP129">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ129">
         <v>0.44</v>
@@ -28159,7 +28180,7 @@
         <v>132</v>
       </c>
       <c r="P131" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q131">
         <v>3.5</v>
@@ -28365,7 +28386,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28571,7 +28592,7 @@
         <v>166</v>
       </c>
       <c r="P133" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q133">
         <v>2.3</v>
@@ -28649,7 +28670,7 @@
         <v>1.18</v>
       </c>
       <c r="AP133">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ133">
         <v>1.06</v>
@@ -29061,7 +29082,7 @@
         <v>2.55</v>
       </c>
       <c r="AP135">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ135">
         <v>2.33</v>
@@ -29189,7 +29210,7 @@
         <v>84</v>
       </c>
       <c r="P136" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>3.1</v>
@@ -29267,10 +29288,10 @@
         <v>0.4</v>
       </c>
       <c r="AP136">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ136">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR136">
         <v>1.22</v>
@@ -29476,7 +29497,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ137">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR137">
         <v>2.16</v>
@@ -29601,7 +29622,7 @@
         <v>170</v>
       </c>
       <c r="P138" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>3.6</v>
@@ -29679,7 +29700,7 @@
         <v>0.91</v>
       </c>
       <c r="AP138">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ138">
         <v>1.06</v>
@@ -29807,7 +29828,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q139">
         <v>2.75</v>
@@ -29888,7 +29909,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ139">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR139">
         <v>1.38</v>
@@ -30013,7 +30034,7 @@
         <v>171</v>
       </c>
       <c r="P140" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30091,10 +30112,10 @@
         <v>1.91</v>
       </c>
       <c r="AP140">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ140">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR140">
         <v>1.21</v>
@@ -30297,7 +30318,7 @@
         <v>0.73</v>
       </c>
       <c r="AP141">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ141">
         <v>0.44</v>
@@ -30425,7 +30446,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q142">
         <v>1.73</v>
@@ -30631,7 +30652,7 @@
         <v>84</v>
       </c>
       <c r="P143" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q143">
         <v>4.25</v>
@@ -30712,7 +30733,7 @@
         <v>1</v>
       </c>
       <c r="AQ143">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR143">
         <v>1.15</v>
@@ -30918,7 +30939,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ144">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR144">
         <v>1.49</v>
@@ -31043,7 +31064,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q145">
         <v>7.01</v>
@@ -31455,7 +31476,7 @@
         <v>177</v>
       </c>
       <c r="P147" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31533,10 +31554,10 @@
         <v>0.64</v>
       </c>
       <c r="AP147">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ147">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR147">
         <v>1.26</v>
@@ -31661,7 +31682,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q148">
         <v>1.57</v>
@@ -31867,7 +31888,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q149">
         <v>2.3</v>
@@ -31945,7 +31966,7 @@
         <v>0.82</v>
       </c>
       <c r="AP149">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ149">
         <v>1.12</v>
@@ -32073,7 +32094,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32151,10 +32172,10 @@
         <v>1.18</v>
       </c>
       <c r="AP150">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ150">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR150">
         <v>1.32</v>
@@ -32357,7 +32378,7 @@
         <v>0.92</v>
       </c>
       <c r="AP151">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ151">
         <v>1.06</v>
@@ -32563,7 +32584,7 @@
         <v>0.62</v>
       </c>
       <c r="AP152">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ152">
         <v>0.44</v>
@@ -32978,7 +32999,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ154">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR154">
         <v>1.19</v>
@@ -33103,7 +33124,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -33390,7 +33411,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ156">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR156">
         <v>2.4</v>
@@ -33596,7 +33617,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ157">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR157">
         <v>1.28</v>
@@ -33721,7 +33742,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33799,10 +33820,10 @@
         <v>0.38</v>
       </c>
       <c r="AP158">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ158">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR158">
         <v>1.24</v>
@@ -34339,7 +34360,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -34417,7 +34438,7 @@
         <v>2.46</v>
       </c>
       <c r="AP161">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ161">
         <v>2.33</v>
@@ -34623,10 +34644,10 @@
         <v>1.08</v>
       </c>
       <c r="AP162">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ162">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR162">
         <v>1.28</v>
@@ -34751,7 +34772,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q163">
         <v>2.3</v>
@@ -34829,10 +34850,10 @@
         <v>0.54</v>
       </c>
       <c r="AP163">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ163">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR163">
         <v>1.42</v>
@@ -35035,7 +35056,7 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ164">
         <v>1.06</v>
@@ -35163,7 +35184,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -35244,7 +35265,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ165">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR165">
         <v>1.65</v>
@@ -35369,7 +35390,7 @@
         <v>138</v>
       </c>
       <c r="P166" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -35575,7 +35596,7 @@
         <v>165</v>
       </c>
       <c r="P167" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>3.6</v>
@@ -35781,7 +35802,7 @@
         <v>193</v>
       </c>
       <c r="P168" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35859,7 +35880,7 @@
         <v>0.92</v>
       </c>
       <c r="AP168">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ168">
         <v>1.06</v>
@@ -36274,7 +36295,7 @@
         <v>1</v>
       </c>
       <c r="AQ170">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR170">
         <v>1.08</v>
@@ -36605,7 +36626,7 @@
         <v>175</v>
       </c>
       <c r="P172" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q172">
         <v>1.57</v>
@@ -37017,7 +37038,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37095,10 +37116,10 @@
         <v>1.15</v>
       </c>
       <c r="AP174">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ174">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR174">
         <v>1.23</v>
@@ -37301,7 +37322,7 @@
         <v>0.86</v>
       </c>
       <c r="AP175">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ175">
         <v>0.9399999999999999</v>
@@ -37429,7 +37450,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q176">
         <v>1.4</v>
@@ -37507,10 +37528,10 @@
         <v>0.71</v>
       </c>
       <c r="AP176">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ176">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR176">
         <v>2.28</v>
@@ -37716,7 +37737,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ177">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR177">
         <v>1.39</v>
@@ -37841,7 +37862,7 @@
         <v>202</v>
       </c>
       <c r="P178" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q178">
         <v>2.88</v>
@@ -37922,7 +37943,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ178">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR178">
         <v>1.53</v>
@@ -38125,7 +38146,7 @@
         <v>0.8</v>
       </c>
       <c r="AP179">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ179">
         <v>0.9399999999999999</v>
@@ -38253,7 +38274,7 @@
         <v>203</v>
       </c>
       <c r="P180" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q180">
         <v>4.5</v>
@@ -38331,10 +38352,10 @@
         <v>1.93</v>
       </c>
       <c r="AP180">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ180">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR180">
         <v>1.21</v>
@@ -38540,7 +38561,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ181">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR181">
         <v>2.41</v>
@@ -38665,7 +38686,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q182">
         <v>3.2</v>
@@ -38743,10 +38764,10 @@
         <v>1</v>
       </c>
       <c r="AP182">
+        <v>1.17</v>
+      </c>
+      <c r="AQ182">
         <v>1.06</v>
-      </c>
-      <c r="AQ182">
-        <v>0.9399999999999999</v>
       </c>
       <c r="AR182">
         <v>1.34</v>
@@ -38871,7 +38892,7 @@
         <v>175</v>
       </c>
       <c r="P183" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q183">
         <v>3.4</v>
@@ -39077,7 +39098,7 @@
         <v>206</v>
       </c>
       <c r="P184" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39155,7 +39176,7 @@
         <v>0.53</v>
       </c>
       <c r="AP184">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ184">
         <v>0.44</v>
@@ -39283,7 +39304,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q185">
         <v>2.63</v>
@@ -39489,7 +39510,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -39695,7 +39716,7 @@
         <v>83</v>
       </c>
       <c r="P187" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -39776,7 +39797,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ187">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR187">
         <v>1.32</v>
@@ -39901,7 +39922,7 @@
         <v>208</v>
       </c>
       <c r="P188" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -39979,7 +40000,7 @@
         <v>1.07</v>
       </c>
       <c r="AP188">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ188">
         <v>1.12</v>
@@ -40107,7 +40128,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q189">
         <v>2.1</v>
@@ -40188,7 +40209,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ189">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR189">
         <v>1.37</v>
@@ -40725,7 +40746,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q192">
         <v>2.88</v>
@@ -41009,7 +41030,7 @@
         <v>1.06</v>
       </c>
       <c r="AP193">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ193">
         <v>1.06</v>
@@ -41215,10 +41236,10 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ194">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR194">
         <v>2.32</v>
@@ -41343,7 +41364,7 @@
         <v>212</v>
       </c>
       <c r="P195" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q195">
         <v>1.91</v>
@@ -41424,7 +41445,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ195">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR195">
         <v>1.61</v>
@@ -41627,10 +41648,10 @@
         <v>1.07</v>
       </c>
       <c r="AP196">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ196">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR196">
         <v>1.33</v>
@@ -41755,7 +41776,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q197">
         <v>4.33</v>
@@ -41961,7 +41982,7 @@
         <v>214</v>
       </c>
       <c r="P198" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q198">
         <v>7.5</v>
@@ -42039,7 +42060,7 @@
         <v>2.43</v>
       </c>
       <c r="AP198">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ198">
         <v>2.24</v>
@@ -42245,7 +42266,7 @@
         <v>2.27</v>
       </c>
       <c r="AP199">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ199">
         <v>2.24</v>
@@ -42373,7 +42394,7 @@
         <v>97</v>
       </c>
       <c r="P200" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q200">
         <v>4.33</v>
@@ -42454,7 +42475,7 @@
         <v>1</v>
       </c>
       <c r="AQ200">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR200">
         <v>1.13</v>
@@ -42866,7 +42887,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ202">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AR202">
         <v>1.53</v>
@@ -43069,7 +43090,7 @@
         <v>1.19</v>
       </c>
       <c r="AP203">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ203">
         <v>1.12</v>
@@ -43197,7 +43218,7 @@
         <v>136</v>
       </c>
       <c r="P204" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q204">
         <v>7</v>
@@ -43403,7 +43424,7 @@
         <v>205</v>
       </c>
       <c r="P205" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q205">
         <v>8</v>
@@ -43481,7 +43502,7 @@
         <v>2.29</v>
       </c>
       <c r="AP205">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ205">
         <v>2.33</v>
@@ -43560,6 +43581,1036 @@
       </c>
       <c r="BP205">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7415798</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F206">
+        <v>35</v>
+      </c>
+      <c r="G206" t="s">
+        <v>70</v>
+      </c>
+      <c r="H206" t="s">
+        <v>80</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206">
+        <v>3</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>3</v>
+      </c>
+      <c r="O206" t="s">
+        <v>216</v>
+      </c>
+      <c r="P206" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q206">
+        <v>1.62</v>
+      </c>
+      <c r="R206">
+        <v>2.88</v>
+      </c>
+      <c r="S206">
+        <v>8.5</v>
+      </c>
+      <c r="T206">
+        <v>1.22</v>
+      </c>
+      <c r="U206">
+        <v>4</v>
+      </c>
+      <c r="V206">
+        <v>2</v>
+      </c>
+      <c r="W206">
+        <v>1.73</v>
+      </c>
+      <c r="X206">
+        <v>4.33</v>
+      </c>
+      <c r="Y206">
+        <v>1.2</v>
+      </c>
+      <c r="Z206">
+        <v>1.22</v>
+      </c>
+      <c r="AA206">
+        <v>6.5</v>
+      </c>
+      <c r="AB206">
+        <v>11</v>
+      </c>
+      <c r="AC206">
+        <v>1.01</v>
+      </c>
+      <c r="AD206">
+        <v>29</v>
+      </c>
+      <c r="AE206">
+        <v>1.11</v>
+      </c>
+      <c r="AF206">
+        <v>6.25</v>
+      </c>
+      <c r="AG206">
+        <v>1.44</v>
+      </c>
+      <c r="AH206">
+        <v>2.42</v>
+      </c>
+      <c r="AI206">
+        <v>1.91</v>
+      </c>
+      <c r="AJ206">
+        <v>1.91</v>
+      </c>
+      <c r="AK206">
+        <v>1.05</v>
+      </c>
+      <c r="AL206">
+        <v>1.11</v>
+      </c>
+      <c r="AM206">
+        <v>3.9</v>
+      </c>
+      <c r="AN206">
+        <v>2.44</v>
+      </c>
+      <c r="AO206">
+        <v>1.82</v>
+      </c>
+      <c r="AP206">
+        <v>2.47</v>
+      </c>
+      <c r="AQ206">
+        <v>1.72</v>
+      </c>
+      <c r="AR206">
+        <v>2.3</v>
+      </c>
+      <c r="AS206">
+        <v>1.33</v>
+      </c>
+      <c r="AT206">
+        <v>3.63</v>
+      </c>
+      <c r="AU206">
+        <v>9</v>
+      </c>
+      <c r="AV206">
+        <v>3</v>
+      </c>
+      <c r="AW206">
+        <v>6</v>
+      </c>
+      <c r="AX206">
+        <v>1</v>
+      </c>
+      <c r="AY206">
+        <v>15</v>
+      </c>
+      <c r="AZ206">
+        <v>4</v>
+      </c>
+      <c r="BA206">
+        <v>17</v>
+      </c>
+      <c r="BB206">
+        <v>8</v>
+      </c>
+      <c r="BC206">
+        <v>25</v>
+      </c>
+      <c r="BD206">
+        <v>1.17</v>
+      </c>
+      <c r="BE206">
+        <v>14</v>
+      </c>
+      <c r="BF206">
+        <v>6.17</v>
+      </c>
+      <c r="BG206">
+        <v>1.1</v>
+      </c>
+      <c r="BH206">
+        <v>5.75</v>
+      </c>
+      <c r="BI206">
+        <v>1.14</v>
+      </c>
+      <c r="BJ206">
+        <v>4.7</v>
+      </c>
+      <c r="BK206">
+        <v>1.28</v>
+      </c>
+      <c r="BL206">
+        <v>3.2</v>
+      </c>
+      <c r="BM206">
+        <v>1.5</v>
+      </c>
+      <c r="BN206">
+        <v>2.41</v>
+      </c>
+      <c r="BO206">
+        <v>1.83</v>
+      </c>
+      <c r="BP206">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7415799</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F207">
+        <v>35</v>
+      </c>
+      <c r="G207" t="s">
+        <v>71</v>
+      </c>
+      <c r="H207" t="s">
+        <v>76</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>3</v>
+      </c>
+      <c r="N207">
+        <v>4</v>
+      </c>
+      <c r="O207" t="s">
+        <v>217</v>
+      </c>
+      <c r="P207" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q207">
+        <v>3.2</v>
+      </c>
+      <c r="R207">
+        <v>2.1</v>
+      </c>
+      <c r="S207">
+        <v>3.5</v>
+      </c>
+      <c r="T207">
+        <v>1.4</v>
+      </c>
+      <c r="U207">
+        <v>2.75</v>
+      </c>
+      <c r="V207">
+        <v>3</v>
+      </c>
+      <c r="W207">
+        <v>1.36</v>
+      </c>
+      <c r="X207">
+        <v>9</v>
+      </c>
+      <c r="Y207">
+        <v>1.07</v>
+      </c>
+      <c r="Z207">
+        <v>2.4</v>
+      </c>
+      <c r="AA207">
+        <v>3</v>
+      </c>
+      <c r="AB207">
+        <v>2.75</v>
+      </c>
+      <c r="AC207">
+        <v>1.07</v>
+      </c>
+      <c r="AD207">
+        <v>10.25</v>
+      </c>
+      <c r="AE207">
+        <v>1.33</v>
+      </c>
+      <c r="AF207">
+        <v>3.37</v>
+      </c>
+      <c r="AG207">
+        <v>1.95</v>
+      </c>
+      <c r="AH207">
+        <v>1.75</v>
+      </c>
+      <c r="AI207">
+        <v>1.75</v>
+      </c>
+      <c r="AJ207">
+        <v>2</v>
+      </c>
+      <c r="AK207">
+        <v>1.42</v>
+      </c>
+      <c r="AL207">
+        <v>1.28</v>
+      </c>
+      <c r="AM207">
+        <v>1.5</v>
+      </c>
+      <c r="AN207">
+        <v>1.35</v>
+      </c>
+      <c r="AO207">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP207">
+        <v>1.28</v>
+      </c>
+      <c r="AQ207">
+        <v>1.06</v>
+      </c>
+      <c r="AR207">
+        <v>1.3</v>
+      </c>
+      <c r="AS207">
+        <v>1.09</v>
+      </c>
+      <c r="AT207">
+        <v>2.39</v>
+      </c>
+      <c r="AU207">
+        <v>5</v>
+      </c>
+      <c r="AV207">
+        <v>8</v>
+      </c>
+      <c r="AW207">
+        <v>3</v>
+      </c>
+      <c r="AX207">
+        <v>5</v>
+      </c>
+      <c r="AY207">
+        <v>8</v>
+      </c>
+      <c r="AZ207">
+        <v>13</v>
+      </c>
+      <c r="BA207">
+        <v>4</v>
+      </c>
+      <c r="BB207">
+        <v>8</v>
+      </c>
+      <c r="BC207">
+        <v>12</v>
+      </c>
+      <c r="BD207">
+        <v>2.08</v>
+      </c>
+      <c r="BE207">
+        <v>9.5</v>
+      </c>
+      <c r="BF207">
+        <v>1.97</v>
+      </c>
+      <c r="BG207">
+        <v>1.1</v>
+      </c>
+      <c r="BH207">
+        <v>5.5</v>
+      </c>
+      <c r="BI207">
+        <v>1.22</v>
+      </c>
+      <c r="BJ207">
+        <v>3.65</v>
+      </c>
+      <c r="BK207">
+        <v>1.43</v>
+      </c>
+      <c r="BL207">
+        <v>2.62</v>
+      </c>
+      <c r="BM207">
+        <v>1.74</v>
+      </c>
+      <c r="BN207">
+        <v>2.02</v>
+      </c>
+      <c r="BO207">
+        <v>2.16</v>
+      </c>
+      <c r="BP207">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7415800</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F208">
+        <v>35</v>
+      </c>
+      <c r="G208" t="s">
+        <v>79</v>
+      </c>
+      <c r="H208" t="s">
+        <v>73</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+      <c r="O208" t="s">
+        <v>83</v>
+      </c>
+      <c r="P208" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q208">
+        <v>2.3</v>
+      </c>
+      <c r="R208">
+        <v>2.2</v>
+      </c>
+      <c r="S208">
+        <v>5.5</v>
+      </c>
+      <c r="T208">
+        <v>1.44</v>
+      </c>
+      <c r="U208">
+        <v>2.63</v>
+      </c>
+      <c r="V208">
+        <v>3</v>
+      </c>
+      <c r="W208">
+        <v>1.36</v>
+      </c>
+      <c r="X208">
+        <v>9</v>
+      </c>
+      <c r="Y208">
+        <v>1.07</v>
+      </c>
+      <c r="Z208">
+        <v>1.67</v>
+      </c>
+      <c r="AA208">
+        <v>3.7</v>
+      </c>
+      <c r="AB208">
+        <v>5.25</v>
+      </c>
+      <c r="AC208">
+        <v>1.07</v>
+      </c>
+      <c r="AD208">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE208">
+        <v>1.36</v>
+      </c>
+      <c r="AF208">
+        <v>3.18</v>
+      </c>
+      <c r="AG208">
+        <v>2</v>
+      </c>
+      <c r="AH208">
+        <v>1.73</v>
+      </c>
+      <c r="AI208">
+        <v>1.95</v>
+      </c>
+      <c r="AJ208">
+        <v>1.8</v>
+      </c>
+      <c r="AK208">
+        <v>1.18</v>
+      </c>
+      <c r="AL208">
+        <v>1.3</v>
+      </c>
+      <c r="AM208">
+        <v>2.1</v>
+      </c>
+      <c r="AN208">
+        <v>1.29</v>
+      </c>
+      <c r="AO208">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP208">
+        <v>1.39</v>
+      </c>
+      <c r="AQ208">
+        <v>0.76</v>
+      </c>
+      <c r="AR208">
+        <v>1.46</v>
+      </c>
+      <c r="AS208">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT208">
+        <v>2.4</v>
+      </c>
+      <c r="AU208">
+        <v>7</v>
+      </c>
+      <c r="AV208">
+        <v>6</v>
+      </c>
+      <c r="AW208">
+        <v>5</v>
+      </c>
+      <c r="AX208">
+        <v>5</v>
+      </c>
+      <c r="AY208">
+        <v>12</v>
+      </c>
+      <c r="AZ208">
+        <v>11</v>
+      </c>
+      <c r="BA208">
+        <v>7</v>
+      </c>
+      <c r="BB208">
+        <v>4</v>
+      </c>
+      <c r="BC208">
+        <v>11</v>
+      </c>
+      <c r="BD208">
+        <v>1.47</v>
+      </c>
+      <c r="BE208">
+        <v>10</v>
+      </c>
+      <c r="BF208">
+        <v>3.28</v>
+      </c>
+      <c r="BG208">
+        <v>1.13</v>
+      </c>
+      <c r="BH208">
+        <v>4.75</v>
+      </c>
+      <c r="BI208">
+        <v>1.28</v>
+      </c>
+      <c r="BJ208">
+        <v>3.2</v>
+      </c>
+      <c r="BK208">
+        <v>1.53</v>
+      </c>
+      <c r="BL208">
+        <v>2.34</v>
+      </c>
+      <c r="BM208">
+        <v>1.9</v>
+      </c>
+      <c r="BN208">
+        <v>1.9</v>
+      </c>
+      <c r="BO208">
+        <v>2.41</v>
+      </c>
+      <c r="BP208">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7415801</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F209">
+        <v>35</v>
+      </c>
+      <c r="G209" t="s">
+        <v>81</v>
+      </c>
+      <c r="H209" t="s">
+        <v>72</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="L209">
+        <v>4</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>5</v>
+      </c>
+      <c r="O209" t="s">
+        <v>218</v>
+      </c>
+      <c r="P209" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q209">
+        <v>2.25</v>
+      </c>
+      <c r="R209">
+        <v>2.25</v>
+      </c>
+      <c r="S209">
+        <v>5.5</v>
+      </c>
+      <c r="T209">
+        <v>1.4</v>
+      </c>
+      <c r="U209">
+        <v>2.75</v>
+      </c>
+      <c r="V209">
+        <v>2.75</v>
+      </c>
+      <c r="W209">
+        <v>1.4</v>
+      </c>
+      <c r="X209">
+        <v>8</v>
+      </c>
+      <c r="Y209">
+        <v>1.08</v>
+      </c>
+      <c r="Z209">
+        <v>1.8</v>
+      </c>
+      <c r="AA209">
+        <v>3.6</v>
+      </c>
+      <c r="AB209">
+        <v>4.5</v>
+      </c>
+      <c r="AC209">
+        <v>1.05</v>
+      </c>
+      <c r="AD209">
+        <v>9</v>
+      </c>
+      <c r="AE209">
+        <v>1.28</v>
+      </c>
+      <c r="AF209">
+        <v>3.5</v>
+      </c>
+      <c r="AG209">
+        <v>1.91</v>
+      </c>
+      <c r="AH209">
+        <v>1.8</v>
+      </c>
+      <c r="AI209">
+        <v>1.95</v>
+      </c>
+      <c r="AJ209">
+        <v>1.8</v>
+      </c>
+      <c r="AK209">
+        <v>1.18</v>
+      </c>
+      <c r="AL209">
+        <v>1.27</v>
+      </c>
+      <c r="AM209">
+        <v>2.2</v>
+      </c>
+      <c r="AN209">
+        <v>1.06</v>
+      </c>
+      <c r="AO209">
+        <v>0.35</v>
+      </c>
+      <c r="AP209">
+        <v>1.17</v>
+      </c>
+      <c r="AQ209">
+        <v>0.33</v>
+      </c>
+      <c r="AR209">
+        <v>1.31</v>
+      </c>
+      <c r="AS209">
+        <v>0.96</v>
+      </c>
+      <c r="AT209">
+        <v>2.27</v>
+      </c>
+      <c r="AU209">
+        <v>7</v>
+      </c>
+      <c r="AV209">
+        <v>2</v>
+      </c>
+      <c r="AW209">
+        <v>6</v>
+      </c>
+      <c r="AX209">
+        <v>2</v>
+      </c>
+      <c r="AY209">
+        <v>13</v>
+      </c>
+      <c r="AZ209">
+        <v>4</v>
+      </c>
+      <c r="BA209">
+        <v>6</v>
+      </c>
+      <c r="BB209">
+        <v>5</v>
+      </c>
+      <c r="BC209">
+        <v>11</v>
+      </c>
+      <c r="BD209">
+        <v>1.47</v>
+      </c>
+      <c r="BE209">
+        <v>9.9</v>
+      </c>
+      <c r="BF209">
+        <v>3.28</v>
+      </c>
+      <c r="BG209">
+        <v>1.19</v>
+      </c>
+      <c r="BH209">
+        <v>3.96</v>
+      </c>
+      <c r="BI209">
+        <v>1.39</v>
+      </c>
+      <c r="BJ209">
+        <v>2.76</v>
+      </c>
+      <c r="BK209">
+        <v>1.7</v>
+      </c>
+      <c r="BL209">
+        <v>2.08</v>
+      </c>
+      <c r="BM209">
+        <v>2.12</v>
+      </c>
+      <c r="BN209">
+        <v>1.64</v>
+      </c>
+      <c r="BO209">
+        <v>2.75</v>
+      </c>
+      <c r="BP209">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7415802</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F210">
+        <v>35</v>
+      </c>
+      <c r="G210" t="s">
+        <v>78</v>
+      </c>
+      <c r="H210" t="s">
+        <v>75</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>2</v>
+      </c>
+      <c r="L210">
+        <v>2</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>3</v>
+      </c>
+      <c r="O210" t="s">
+        <v>219</v>
+      </c>
+      <c r="P210" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q210">
+        <v>4</v>
+      </c>
+      <c r="R210">
+        <v>2.3</v>
+      </c>
+      <c r="S210">
+        <v>2.6</v>
+      </c>
+      <c r="T210">
+        <v>1.33</v>
+      </c>
+      <c r="U210">
+        <v>3.25</v>
+      </c>
+      <c r="V210">
+        <v>2.5</v>
+      </c>
+      <c r="W210">
+        <v>1.5</v>
+      </c>
+      <c r="X210">
+        <v>6.5</v>
+      </c>
+      <c r="Y210">
+        <v>1.11</v>
+      </c>
+      <c r="Z210">
+        <v>3.9</v>
+      </c>
+      <c r="AA210">
+        <v>3.5</v>
+      </c>
+      <c r="AB210">
+        <v>1.91</v>
+      </c>
+      <c r="AC210">
+        <v>1.04</v>
+      </c>
+      <c r="AD210">
+        <v>13.75</v>
+      </c>
+      <c r="AE210">
+        <v>1.22</v>
+      </c>
+      <c r="AF210">
+        <v>4.28</v>
+      </c>
+      <c r="AG210">
+        <v>1.7</v>
+      </c>
+      <c r="AH210">
+        <v>2.05</v>
+      </c>
+      <c r="AI210">
+        <v>1.62</v>
+      </c>
+      <c r="AJ210">
+        <v>2.2</v>
+      </c>
+      <c r="AK210">
+        <v>1.78</v>
+      </c>
+      <c r="AL210">
+        <v>1.32</v>
+      </c>
+      <c r="AM210">
+        <v>1.27</v>
+      </c>
+      <c r="AN210">
+        <v>1.38</v>
+      </c>
+      <c r="AO210">
+        <v>1.18</v>
+      </c>
+      <c r="AP210">
+        <v>1.47</v>
+      </c>
+      <c r="AQ210">
+        <v>1.11</v>
+      </c>
+      <c r="AR210">
+        <v>1.24</v>
+      </c>
+      <c r="AS210">
+        <v>1.16</v>
+      </c>
+      <c r="AT210">
+        <v>2.4</v>
+      </c>
+      <c r="AU210">
+        <v>5</v>
+      </c>
+      <c r="AV210">
+        <v>6</v>
+      </c>
+      <c r="AW210">
+        <v>5</v>
+      </c>
+      <c r="AX210">
+        <v>7</v>
+      </c>
+      <c r="AY210">
+        <v>10</v>
+      </c>
+      <c r="AZ210">
+        <v>13</v>
+      </c>
+      <c r="BA210">
+        <v>3</v>
+      </c>
+      <c r="BB210">
+        <v>5</v>
+      </c>
+      <c r="BC210">
+        <v>8</v>
+      </c>
+      <c r="BD210">
+        <v>2.58</v>
+      </c>
+      <c r="BE210">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF210">
+        <v>1.68</v>
+      </c>
+      <c r="BG210">
+        <v>1.12</v>
+      </c>
+      <c r="BH210">
+        <v>5</v>
+      </c>
+      <c r="BI210">
+        <v>1.26</v>
+      </c>
+      <c r="BJ210">
+        <v>3.34</v>
+      </c>
+      <c r="BK210">
+        <v>1.49</v>
+      </c>
+      <c r="BL210">
+        <v>2.44</v>
+      </c>
+      <c r="BM210">
+        <v>2</v>
+      </c>
+      <c r="BN210">
+        <v>1.8</v>
+      </c>
+      <c r="BO210">
+        <v>2.33</v>
+      </c>
+      <c r="BP210">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>['21', '88']</t>
+  </si>
+  <si>
+    <t>['45+8', '62', '71', '90+3']</t>
   </si>
   <si>
     <t>['60', '90+5']</t>
@@ -1347,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1606,7 +1609,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q2">
         <v>1.44</v>
@@ -1812,7 +1815,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -2224,7 +2227,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2636,7 +2639,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3126,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ9">
         <v>0.33</v>
@@ -3460,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3747,7 +3750,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ12">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4078,7 +4081,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4490,7 +4493,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4696,7 +4699,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4777,7 +4780,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ17">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -5108,7 +5111,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5314,7 +5317,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5520,7 +5523,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q21">
         <v>3.25</v>
@@ -5726,7 +5729,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -6010,7 +6013,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ23">
         <v>2.33</v>
@@ -6138,7 +6141,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6344,7 +6347,7 @@
         <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6550,7 +6553,7 @@
         <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -7168,7 +7171,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7374,7 +7377,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7580,7 +7583,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7786,7 +7789,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7992,7 +7995,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -8073,7 +8076,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ33">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.14</v>
@@ -8894,7 +8897,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ37">
         <v>1.12</v>
@@ -9022,7 +9025,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9434,7 +9437,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q40">
         <v>1.67</v>
@@ -9512,7 +9515,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ40">
         <v>0.9399999999999999</v>
@@ -9640,7 +9643,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -10258,7 +10261,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>1.53</v>
@@ -10339,7 +10342,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ44">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>2.25</v>
@@ -10464,7 +10467,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10876,7 +10879,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q47">
         <v>6.5</v>
@@ -11366,7 +11369,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ49">
         <v>1.11</v>
@@ -11494,7 +11497,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11700,7 +11703,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -12524,7 +12527,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12730,7 +12733,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13142,7 +13145,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q58">
         <v>1.73</v>
@@ -13220,7 +13223,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ58">
         <v>1.72</v>
@@ -13348,7 +13351,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13554,7 +13557,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13966,7 +13969,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14047,7 +14050,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>0.96</v>
@@ -14378,7 +14381,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q64">
         <v>7.5</v>
@@ -14584,7 +14587,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q65">
         <v>11</v>
@@ -15202,7 +15205,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15408,7 +15411,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q69">
         <v>3.3</v>
@@ -16026,7 +16029,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q72">
         <v>3.25</v>
@@ -16313,7 +16316,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ73">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>1.61</v>
@@ -16438,7 +16441,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -16850,7 +16853,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q76">
         <v>1.5</v>
@@ -17056,7 +17059,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17549,7 +17552,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ79">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.2</v>
@@ -18292,7 +18295,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18498,7 +18501,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18704,7 +18707,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -19194,7 +19197,7 @@
         <v>1.14</v>
       </c>
       <c r="AP87">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ87">
         <v>1.06</v>
@@ -19528,7 +19531,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>1.62</v>
@@ -20021,7 +20024,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ91">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>1.19</v>
@@ -20146,7 +20149,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20558,7 +20561,7 @@
         <v>129</v>
       </c>
       <c r="P94" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20764,7 +20767,7 @@
         <v>84</v>
       </c>
       <c r="P95" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20970,7 +20973,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>2.88</v>
@@ -21176,7 +21179,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>1.57</v>
@@ -21254,7 +21257,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ97">
         <v>1.06</v>
@@ -21382,7 +21385,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q98">
         <v>6.5</v>
@@ -21588,7 +21591,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -22287,7 +22290,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ102">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>1.12</v>
@@ -22412,7 +22415,7 @@
         <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22618,7 +22621,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -22902,7 +22905,7 @@
         <v>0.43</v>
       </c>
       <c r="AP105">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ105">
         <v>0.76</v>
@@ -23648,7 +23651,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q109">
         <v>7.5</v>
@@ -23854,7 +23857,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -24347,7 +24350,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ112">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.31</v>
@@ -24472,7 +24475,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -24884,7 +24887,7 @@
         <v>156</v>
       </c>
       <c r="P115" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q115">
         <v>2.3</v>
@@ -25090,7 +25093,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25296,7 +25299,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>2.55</v>
@@ -25502,7 +25505,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q118">
         <v>2.6</v>
@@ -25708,7 +25711,7 @@
         <v>123</v>
       </c>
       <c r="P119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q119">
         <v>4.75</v>
@@ -25992,10 +25995,10 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ120">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>2.17</v>
@@ -26120,7 +26123,7 @@
         <v>84</v>
       </c>
       <c r="P121" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>3.75</v>
@@ -26326,7 +26329,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26532,7 +26535,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -26738,7 +26741,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26944,7 +26947,7 @@
         <v>132</v>
       </c>
       <c r="P125" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q125">
         <v>4.5</v>
@@ -27150,7 +27153,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -27356,7 +27359,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q127">
         <v>7.5</v>
@@ -27562,7 +27565,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -28180,7 +28183,7 @@
         <v>132</v>
       </c>
       <c r="P131" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q131">
         <v>3.5</v>
@@ -28386,7 +28389,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28592,7 +28595,7 @@
         <v>166</v>
       </c>
       <c r="P133" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q133">
         <v>2.3</v>
@@ -29210,7 +29213,7 @@
         <v>84</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q136">
         <v>3.1</v>
@@ -29494,7 +29497,7 @@
         <v>0.45</v>
       </c>
       <c r="AP137">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ137">
         <v>0.33</v>
@@ -29622,7 +29625,7 @@
         <v>170</v>
       </c>
       <c r="P138" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q138">
         <v>3.6</v>
@@ -29703,7 +29706,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ138">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
@@ -29828,7 +29831,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q139">
         <v>2.75</v>
@@ -30034,7 +30037,7 @@
         <v>171</v>
       </c>
       <c r="P140" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30446,7 +30449,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q142">
         <v>1.73</v>
@@ -30524,7 +30527,7 @@
         <v>1.09</v>
       </c>
       <c r="AP142">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ142">
         <v>0.9399999999999999</v>
@@ -30652,7 +30655,7 @@
         <v>84</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q143">
         <v>4.25</v>
@@ -31064,7 +31067,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q145">
         <v>7.01</v>
@@ -31476,7 +31479,7 @@
         <v>177</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31682,7 +31685,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q148">
         <v>1.57</v>
@@ -31760,7 +31763,7 @@
         <v>0.67</v>
       </c>
       <c r="AP148">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ148">
         <v>0.44</v>
@@ -31888,7 +31891,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q149">
         <v>2.3</v>
@@ -32094,7 +32097,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32381,7 +32384,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ151">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>2.32</v>
@@ -33124,7 +33127,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -33408,7 +33411,7 @@
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ156">
         <v>1.72</v>
@@ -33742,7 +33745,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34360,7 +34363,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -34772,7 +34775,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q163">
         <v>2.3</v>
@@ -35184,7 +35187,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -35390,7 +35393,7 @@
         <v>138</v>
       </c>
       <c r="P166" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -35596,7 +35599,7 @@
         <v>165</v>
       </c>
       <c r="P167" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q167">
         <v>3.6</v>
@@ -35802,7 +35805,7 @@
         <v>193</v>
       </c>
       <c r="P168" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35883,7 +35886,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ168">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR168">
         <v>1.34</v>
@@ -36626,7 +36629,7 @@
         <v>175</v>
       </c>
       <c r="P172" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>1.57</v>
@@ -36704,7 +36707,7 @@
         <v>0.93</v>
       </c>
       <c r="AP172">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ172">
         <v>1.12</v>
@@ -37038,7 +37041,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37450,7 +37453,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q176">
         <v>1.4</v>
@@ -37862,7 +37865,7 @@
         <v>202</v>
       </c>
       <c r="P178" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q178">
         <v>2.88</v>
@@ -38274,7 +38277,7 @@
         <v>203</v>
       </c>
       <c r="P180" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q180">
         <v>4.5</v>
@@ -38558,7 +38561,7 @@
         <v>1.14</v>
       </c>
       <c r="AP181">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ181">
         <v>1.11</v>
@@ -38686,7 +38689,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q182">
         <v>3.2</v>
@@ -38892,7 +38895,7 @@
         <v>175</v>
       </c>
       <c r="P183" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q183">
         <v>3.4</v>
@@ -39098,7 +39101,7 @@
         <v>206</v>
       </c>
       <c r="P184" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39304,7 +39307,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q185">
         <v>2.63</v>
@@ -39385,7 +39388,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ185">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR185">
         <v>1.6</v>
@@ -39510,7 +39513,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -39716,7 +39719,7 @@
         <v>83</v>
       </c>
       <c r="P187" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -39922,7 +39925,7 @@
         <v>208</v>
       </c>
       <c r="P188" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40128,7 +40131,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q189">
         <v>2.1</v>
@@ -40746,7 +40749,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q192">
         <v>2.88</v>
@@ -40824,7 +40827,7 @@
         <v>2.38</v>
       </c>
       <c r="AP192">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ192">
         <v>2.33</v>
@@ -41364,7 +41367,7 @@
         <v>212</v>
       </c>
       <c r="P195" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q195">
         <v>1.91</v>
@@ -41776,7 +41779,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q197">
         <v>4.33</v>
@@ -41857,7 +41860,7 @@
         <v>1</v>
       </c>
       <c r="AQ197">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR197">
         <v>1.13</v>
@@ -41982,7 +41985,7 @@
         <v>214</v>
       </c>
       <c r="P198" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q198">
         <v>7.5</v>
@@ -42394,7 +42397,7 @@
         <v>97</v>
       </c>
       <c r="P200" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q200">
         <v>4.33</v>
@@ -43218,7 +43221,7 @@
         <v>136</v>
       </c>
       <c r="P204" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q204">
         <v>7</v>
@@ -43424,7 +43427,7 @@
         <v>205</v>
       </c>
       <c r="P205" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q205">
         <v>8</v>
@@ -43723,31 +43726,31 @@
         <v>3.63</v>
       </c>
       <c r="AU206">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV206">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW206">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AY206">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AZ206">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BA206">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="BB206">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BC206">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="BD206">
         <v>1.17</v>
@@ -43836,7 +43839,7 @@
         <v>217</v>
       </c>
       <c r="P207" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q207">
         <v>3.2</v>
@@ -43929,31 +43932,31 @@
         <v>2.39</v>
       </c>
       <c r="AU207">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV207">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AW207">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX207">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY207">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AZ207">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BA207">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB207">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BC207">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BD207">
         <v>2.08</v>
@@ -44135,31 +44138,31 @@
         <v>2.4</v>
       </c>
       <c r="AU208">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV208">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW208">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX208">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY208">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AZ208">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BA208">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BB208">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC208">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BD208">
         <v>1.47</v>
@@ -44248,7 +44251,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -44341,31 +44344,31 @@
         <v>2.27</v>
       </c>
       <c r="AU209">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV209">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW209">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX209">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY209">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AZ209">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BA209">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BB209">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC209">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BD209">
         <v>1.47</v>
@@ -44454,7 +44457,7 @@
         <v>219</v>
       </c>
       <c r="P210" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -44547,31 +44550,31 @@
         <v>2.4</v>
       </c>
       <c r="AU210">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV210">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW210">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX210">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AY210">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AZ210">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BA210">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BB210">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC210">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BD210">
         <v>2.58</v>
@@ -44611,6 +44614,212 @@
       </c>
       <c r="BP210">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7415803</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45417.375</v>
+      </c>
+      <c r="F211">
+        <v>35</v>
+      </c>
+      <c r="G211" t="s">
+        <v>77</v>
+      </c>
+      <c r="H211" t="s">
+        <v>74</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="L211">
+        <v>4</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>5</v>
+      </c>
+      <c r="O211" t="s">
+        <v>220</v>
+      </c>
+      <c r="P211" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q211">
+        <v>1.67</v>
+      </c>
+      <c r="R211">
+        <v>2.75</v>
+      </c>
+      <c r="S211">
+        <v>8.5</v>
+      </c>
+      <c r="T211">
+        <v>1.25</v>
+      </c>
+      <c r="U211">
+        <v>3.75</v>
+      </c>
+      <c r="V211">
+        <v>2.2</v>
+      </c>
+      <c r="W211">
+        <v>1.62</v>
+      </c>
+      <c r="X211">
+        <v>5</v>
+      </c>
+      <c r="Y211">
+        <v>1.17</v>
+      </c>
+      <c r="Z211">
+        <v>1.23</v>
+      </c>
+      <c r="AA211">
+        <v>6.2</v>
+      </c>
+      <c r="AB211">
+        <v>11.03</v>
+      </c>
+      <c r="AC211">
+        <v>1.02</v>
+      </c>
+      <c r="AD211">
+        <v>13</v>
+      </c>
+      <c r="AE211">
+        <v>1.15</v>
+      </c>
+      <c r="AF211">
+        <v>5.5</v>
+      </c>
+      <c r="AG211">
+        <v>1.46</v>
+      </c>
+      <c r="AH211">
+        <v>2.52</v>
+      </c>
+      <c r="AI211">
+        <v>2</v>
+      </c>
+      <c r="AJ211">
+        <v>1.75</v>
+      </c>
+      <c r="AK211">
+        <v>1.01</v>
+      </c>
+      <c r="AL211">
+        <v>1.09</v>
+      </c>
+      <c r="AM211">
+        <v>4</v>
+      </c>
+      <c r="AN211">
+        <v>2.35</v>
+      </c>
+      <c r="AO211">
+        <v>1.06</v>
+      </c>
+      <c r="AP211">
+        <v>2.39</v>
+      </c>
+      <c r="AQ211">
+        <v>1</v>
+      </c>
+      <c r="AR211">
+        <v>2.34</v>
+      </c>
+      <c r="AS211">
+        <v>1.28</v>
+      </c>
+      <c r="AT211">
+        <v>3.62</v>
+      </c>
+      <c r="AU211">
+        <v>-1</v>
+      </c>
+      <c r="AV211">
+        <v>-1</v>
+      </c>
+      <c r="AW211">
+        <v>-1</v>
+      </c>
+      <c r="AX211">
+        <v>-1</v>
+      </c>
+      <c r="AY211">
+        <v>-1</v>
+      </c>
+      <c r="AZ211">
+        <v>-1</v>
+      </c>
+      <c r="BA211">
+        <v>-1</v>
+      </c>
+      <c r="BB211">
+        <v>-1</v>
+      </c>
+      <c r="BC211">
+        <v>-1</v>
+      </c>
+      <c r="BD211">
+        <v>1.26</v>
+      </c>
+      <c r="BE211">
+        <v>11</v>
+      </c>
+      <c r="BF211">
+        <v>4.82</v>
+      </c>
+      <c r="BG211">
+        <v>1.15</v>
+      </c>
+      <c r="BH211">
+        <v>4.75</v>
+      </c>
+      <c r="BI211">
+        <v>1.23</v>
+      </c>
+      <c r="BJ211">
+        <v>3.6</v>
+      </c>
+      <c r="BK211">
+        <v>1.43</v>
+      </c>
+      <c r="BL211">
+        <v>2.6</v>
+      </c>
+      <c r="BM211">
+        <v>1.7</v>
+      </c>
+      <c r="BN211">
+        <v>2.05</v>
+      </c>
+      <c r="BO211">
+        <v>2.15</v>
+      </c>
+      <c r="BP211">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -43726,31 +43726,31 @@
         <v>3.63</v>
       </c>
       <c r="AU206">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV206">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW206">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX206">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY206">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ206">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BA206">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BB206">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC206">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="BD206">
         <v>1.17</v>
@@ -43932,31 +43932,31 @@
         <v>2.39</v>
       </c>
       <c r="AU207">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV207">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW207">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX207">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY207">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ207">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA207">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB207">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC207">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD207">
         <v>2.08</v>
@@ -44138,31 +44138,31 @@
         <v>2.4</v>
       </c>
       <c r="AU208">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV208">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW208">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX208">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY208">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ208">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA208">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB208">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC208">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD208">
         <v>1.47</v>
@@ -44344,31 +44344,31 @@
         <v>2.27</v>
       </c>
       <c r="AU209">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV209">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW209">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX209">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY209">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ209">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BA209">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB209">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC209">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD209">
         <v>1.47</v>
@@ -44550,31 +44550,31 @@
         <v>2.4</v>
       </c>
       <c r="AU210">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV210">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW210">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX210">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY210">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ210">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA210">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB210">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC210">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD210">
         <v>2.58</v>
@@ -44756,31 +44756,31 @@
         <v>3.62</v>
       </c>
       <c r="AU211">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AV211">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW211">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX211">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY211">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="AZ211">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA211">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BB211">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC211">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BD211">
         <v>1.26</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,6 +679,18 @@
     <t>['45+8', '62', '71', '90+3']</t>
   </si>
   <si>
+    <t>['35', '38']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['35', '53', '90']</t>
+  </si>
+  <si>
+    <t>['72', '90+5']</t>
+  </si>
+  <si>
     <t>['60', '90+5']</t>
   </si>
   <si>
@@ -871,9 +883,6 @@
     <t>['30', '45+2', '74']</t>
   </si>
   <si>
-    <t>['14']</t>
-  </si>
-  <si>
     <t>['66', '81']</t>
   </si>
   <si>
@@ -989,6 +998,12 @@
   </si>
   <si>
     <t>['15']</t>
+  </si>
+  <si>
+    <t>['8', '40', '82', '90', '90+4']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1609,7 +1624,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q2">
         <v>1.44</v>
@@ -1687,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2">
         <v>0.44</v>
@@ -1815,7 +1830,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1896,7 +1911,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ3">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2099,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>0.9399999999999999</v>
@@ -2227,7 +2242,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2514,7 +2529,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ6">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2639,7 +2654,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2923,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3335,10 +3350,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ10">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3463,7 +3478,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3747,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4081,7 +4096,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4159,10 +4174,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ14">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR14">
         <v>1.92</v>
@@ -4365,10 +4380,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR15">
         <v>2.29</v>
@@ -4493,7 +4508,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4699,7 +4714,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4780,7 +4795,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -5111,7 +5126,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5189,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>0.9399999999999999</v>
@@ -5317,7 +5332,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5523,7 +5538,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q21">
         <v>3.25</v>
@@ -5604,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>1.04</v>
@@ -5729,7 +5744,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5807,7 +5822,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>1.06</v>
@@ -6141,7 +6156,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6219,10 +6234,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ24">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR24">
         <v>1</v>
@@ -6347,7 +6362,7 @@
         <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6553,7 +6568,7 @@
         <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6634,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR26">
         <v>1.11</v>
@@ -6837,10 +6852,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>2.27</v>
@@ -7043,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ28">
         <v>0.9399999999999999</v>
@@ -7171,7 +7186,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7377,7 +7392,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7583,7 +7598,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7661,7 +7676,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ31">
         <v>0.33</v>
@@ -7789,7 +7804,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7867,7 +7882,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>2.33</v>
@@ -7995,7 +8010,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -8076,7 +8091,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR33">
         <v>1.14</v>
@@ -8282,7 +8297,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR34">
         <v>1.61</v>
@@ -8485,7 +8500,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>1.72</v>
@@ -8900,7 +8915,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ37">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR37">
         <v>1.9</v>
@@ -9025,7 +9040,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9437,7 +9452,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q40">
         <v>1.67</v>
@@ -9643,7 +9658,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9721,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ41">
         <v>1.72</v>
@@ -10136,7 +10151,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ43">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.77</v>
@@ -10261,7 +10276,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q44">
         <v>1.53</v>
@@ -10339,10 +10354,10 @@
         <v>0.67</v>
       </c>
       <c r="AP44">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR44">
         <v>2.25</v>
@@ -10467,7 +10482,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10545,7 +10560,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ45">
         <v>1.11</v>
@@ -10751,10 +10766,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR46">
         <v>1.32</v>
@@ -10879,7 +10894,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q47">
         <v>6.5</v>
@@ -10957,10 +10972,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR47">
         <v>1.4</v>
@@ -11166,7 +11181,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ48">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR48">
         <v>1.25</v>
@@ -11497,7 +11512,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11703,7 +11718,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11781,7 +11796,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ51">
         <v>2.33</v>
@@ -12193,10 +12208,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR53">
         <v>1.16</v>
@@ -12527,7 +12542,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12605,10 +12620,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12733,7 +12748,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13145,7 +13160,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q58">
         <v>1.73</v>
@@ -13351,7 +13366,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13557,7 +13572,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13841,7 +13856,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ61">
         <v>0.33</v>
@@ -13969,7 +13984,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14050,7 +14065,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR62">
         <v>0.96</v>
@@ -14253,7 +14268,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ63">
         <v>1.06</v>
@@ -14381,7 +14396,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q64">
         <v>7.5</v>
@@ -14462,7 +14477,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ64">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR64">
         <v>1.26</v>
@@ -14587,7 +14602,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q65">
         <v>11</v>
@@ -14665,7 +14680,7 @@
         <v>2.67</v>
       </c>
       <c r="AP65">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ65">
         <v>2.33</v>
@@ -14874,7 +14889,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ66">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR66">
         <v>1.48</v>
@@ -15205,7 +15220,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15286,7 +15301,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR68">
         <v>0.99</v>
@@ -15411,7 +15426,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q69">
         <v>3.3</v>
@@ -15489,7 +15504,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>1.11</v>
@@ -16029,7 +16044,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q72">
         <v>3.25</v>
@@ -16316,7 +16331,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR73">
         <v>1.61</v>
@@ -16441,7 +16456,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -16519,10 +16534,10 @@
         <v>2.4</v>
       </c>
       <c r="AP74">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR74">
         <v>1.17</v>
@@ -16725,7 +16740,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ75">
         <v>0.9399999999999999</v>
@@ -16853,7 +16868,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q76">
         <v>1.5</v>
@@ -16931,10 +16946,10 @@
         <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ76">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR76">
         <v>2.44</v>
@@ -17059,7 +17074,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17343,7 +17358,7 @@
         <v>0.71</v>
       </c>
       <c r="AP78">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>0.33</v>
@@ -17549,10 +17564,10 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR79">
         <v>1.2</v>
@@ -17755,10 +17770,10 @@
         <v>0.4</v>
       </c>
       <c r="AP80">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ80">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -17964,7 +17979,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ81">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR81">
         <v>1.24</v>
@@ -18167,7 +18182,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ82">
         <v>1.06</v>
@@ -18295,7 +18310,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18376,7 +18391,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ83">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18501,7 +18516,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18707,7 +18722,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -19403,10 +19418,10 @@
         <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ88">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR88">
         <v>1.21</v>
@@ -19531,7 +19546,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>1.62</v>
@@ -19609,7 +19624,7 @@
         <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ89">
         <v>1.11</v>
@@ -20024,7 +20039,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR91">
         <v>1.19</v>
@@ -20149,7 +20164,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20227,10 +20242,10 @@
         <v>2.29</v>
       </c>
       <c r="AP92">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ92">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR92">
         <v>1.57</v>
@@ -20433,7 +20448,7 @@
         <v>0.86</v>
       </c>
       <c r="AP93">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>0.44</v>
@@ -20561,7 +20576,7 @@
         <v>129</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20767,7 +20782,7 @@
         <v>84</v>
       </c>
       <c r="P95" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20845,7 +20860,7 @@
         <v>1.13</v>
       </c>
       <c r="AP95">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
         <v>1.11</v>
@@ -20973,7 +20988,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>2.88</v>
@@ -21054,7 +21069,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ96">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR96">
         <v>1.31</v>
@@ -21179,7 +21194,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q97">
         <v>1.57</v>
@@ -21260,7 +21275,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ97">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>2.09</v>
@@ -21385,7 +21400,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q98">
         <v>6.5</v>
@@ -21591,7 +21606,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21669,10 +21684,10 @@
         <v>0.86</v>
       </c>
       <c r="AP99">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ99">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.25</v>
@@ -21875,10 +21890,10 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR100">
         <v>1.33</v>
@@ -22287,10 +22302,10 @@
         <v>0.75</v>
       </c>
       <c r="AP102">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR102">
         <v>1.12</v>
@@ -22415,7 +22430,7 @@
         <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22493,7 +22508,7 @@
         <v>1.5</v>
       </c>
       <c r="AP103">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ103">
         <v>1.72</v>
@@ -22621,7 +22636,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -22908,7 +22923,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ105">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR105">
         <v>2.1</v>
@@ -23111,7 +23126,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP106">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ106">
         <v>0.33</v>
@@ -23317,7 +23332,7 @@
         <v>0.89</v>
       </c>
       <c r="AP107">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ107">
         <v>1.06</v>
@@ -23526,7 +23541,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ108">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR108">
         <v>1.55</v>
@@ -23651,7 +23666,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q109">
         <v>7.5</v>
@@ -23732,7 +23747,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ109">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR109">
         <v>1.38</v>
@@ -23857,7 +23872,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -24141,10 +24156,10 @@
         <v>0.33</v>
       </c>
       <c r="AP111">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ111">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR111">
         <v>1.06</v>
@@ -24347,10 +24362,10 @@
         <v>0.78</v>
       </c>
       <c r="AP112">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR112">
         <v>1.31</v>
@@ -24475,7 +24490,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -24759,10 +24774,10 @@
         <v>2.44</v>
       </c>
       <c r="AP114">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ114">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR114">
         <v>2.44</v>
@@ -24887,7 +24902,7 @@
         <v>156</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q115">
         <v>2.3</v>
@@ -24965,7 +24980,7 @@
         <v>0.75</v>
       </c>
       <c r="AP115">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ115">
         <v>0.44</v>
@@ -25093,7 +25108,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25299,7 +25314,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>2.55</v>
@@ -25505,7 +25520,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q118">
         <v>2.6</v>
@@ -25586,7 +25601,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ118">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>1.57</v>
@@ -25711,7 +25726,7 @@
         <v>123</v>
       </c>
       <c r="P119" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>4.75</v>
@@ -25789,7 +25804,7 @@
         <v>1.8</v>
       </c>
       <c r="AP119">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
         <v>1.72</v>
@@ -25998,7 +26013,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR120">
         <v>2.17</v>
@@ -26123,7 +26138,7 @@
         <v>84</v>
       </c>
       <c r="P121" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q121">
         <v>3.75</v>
@@ -26201,7 +26216,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ121">
         <v>0.9399999999999999</v>
@@ -26329,7 +26344,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26410,7 +26425,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ122">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR122">
         <v>1.45</v>
@@ -26535,7 +26550,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -26613,7 +26628,7 @@
         <v>2.5</v>
       </c>
       <c r="AP123">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
         <v>2.33</v>
@@ -26741,7 +26756,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26819,10 +26834,10 @@
         <v>1.11</v>
       </c>
       <c r="AP124">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ124">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR124">
         <v>1.58</v>
@@ -26947,7 +26962,7 @@
         <v>132</v>
       </c>
       <c r="P125" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q125">
         <v>4.5</v>
@@ -27153,7 +27168,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -27234,7 +27249,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ126">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR126">
         <v>1.43</v>
@@ -27359,7 +27374,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="Q127">
         <v>7.5</v>
@@ -27437,10 +27452,10 @@
         <v>2.27</v>
       </c>
       <c r="AP127">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR127">
         <v>1.24</v>
@@ -27565,7 +27580,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27849,7 +27864,7 @@
         <v>0.78</v>
       </c>
       <c r="AP129">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ129">
         <v>0.44</v>
@@ -28055,7 +28070,7 @@
         <v>1.2</v>
       </c>
       <c r="AP130">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ130">
         <v>0.9399999999999999</v>
@@ -28183,7 +28198,7 @@
         <v>132</v>
       </c>
       <c r="P131" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q131">
         <v>3.5</v>
@@ -28261,10 +28276,10 @@
         <v>1</v>
       </c>
       <c r="AP131">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ131">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.12</v>
@@ -28389,7 +28404,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28470,7 +28485,7 @@
         <v>1</v>
       </c>
       <c r="AQ132">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR132">
         <v>1.16</v>
@@ -28595,7 +28610,7 @@
         <v>166</v>
       </c>
       <c r="P133" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q133">
         <v>2.3</v>
@@ -28676,7 +28691,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ133">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR133">
         <v>1.31</v>
@@ -28879,7 +28894,7 @@
         <v>0.7</v>
       </c>
       <c r="AP134">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ134">
         <v>0.44</v>
@@ -29213,7 +29228,7 @@
         <v>84</v>
       </c>
       <c r="P136" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q136">
         <v>3.1</v>
@@ -29291,10 +29306,10 @@
         <v>0.4</v>
       </c>
       <c r="AP136">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ136">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR136">
         <v>1.22</v>
@@ -29625,7 +29640,7 @@
         <v>170</v>
       </c>
       <c r="P138" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q138">
         <v>3.6</v>
@@ -29706,7 +29721,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
@@ -29831,7 +29846,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q139">
         <v>2.75</v>
@@ -30037,7 +30052,7 @@
         <v>171</v>
       </c>
       <c r="P140" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30449,7 +30464,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q142">
         <v>1.73</v>
@@ -30655,7 +30670,7 @@
         <v>84</v>
       </c>
       <c r="P143" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>4.25</v>
@@ -31067,7 +31082,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q145">
         <v>7.01</v>
@@ -31351,10 +31366,10 @@
         <v>1.17</v>
       </c>
       <c r="AP146">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR146">
         <v>1.22</v>
@@ -31479,7 +31494,7 @@
         <v>177</v>
       </c>
       <c r="P147" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31560,7 +31575,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ147">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR147">
         <v>1.26</v>
@@ -31685,7 +31700,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q148">
         <v>1.57</v>
@@ -31891,7 +31906,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q149">
         <v>2.3</v>
@@ -31972,7 +31987,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ149">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR149">
         <v>1.27</v>
@@ -32097,7 +32112,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32381,10 +32396,10 @@
         <v>0.92</v>
       </c>
       <c r="AP151">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR151">
         <v>2.32</v>
@@ -32793,10 +32808,10 @@
         <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ153">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR153">
         <v>1.6</v>
@@ -32999,7 +33014,7 @@
         <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ154">
         <v>1.06</v>
@@ -33127,7 +33142,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -33208,7 +33223,7 @@
         <v>1</v>
       </c>
       <c r="AQ155">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR155">
         <v>1.13</v>
@@ -33617,10 +33632,10 @@
         <v>0.58</v>
       </c>
       <c r="AP157">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ157">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR157">
         <v>1.28</v>
@@ -33745,7 +33760,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33823,7 +33838,7 @@
         <v>0.38</v>
       </c>
       <c r="AP158">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ158">
         <v>0.33</v>
@@ -34238,7 +34253,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ160">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR160">
         <v>1.33</v>
@@ -34363,7 +34378,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -34647,7 +34662,7 @@
         <v>1.08</v>
       </c>
       <c r="AP162">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ162">
         <v>1.06</v>
@@ -34775,7 +34790,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q163">
         <v>2.3</v>
@@ -34856,7 +34871,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ163">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR163">
         <v>1.42</v>
@@ -35059,10 +35074,10 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ164">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR164">
         <v>2.27</v>
@@ -35187,7 +35202,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -35265,7 +35280,7 @@
         <v>1.17</v>
       </c>
       <c r="AP165">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ165">
         <v>1.11</v>
@@ -35393,7 +35408,7 @@
         <v>138</v>
       </c>
       <c r="P166" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -35474,7 +35489,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ166">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR166">
         <v>1.55</v>
@@ -35599,7 +35614,7 @@
         <v>165</v>
       </c>
       <c r="P167" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q167">
         <v>3.6</v>
@@ -35677,10 +35692,10 @@
         <v>0.77</v>
       </c>
       <c r="AP167">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ167">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR167">
         <v>1.17</v>
@@ -35805,7 +35820,7 @@
         <v>193</v>
       </c>
       <c r="P168" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35886,7 +35901,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR168">
         <v>1.34</v>
@@ -36089,7 +36104,7 @@
         <v>0.92</v>
       </c>
       <c r="AP169">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169">
         <v>0.9399999999999999</v>
@@ -36629,7 +36644,7 @@
         <v>175</v>
       </c>
       <c r="P172" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q172">
         <v>1.57</v>
@@ -36710,7 +36725,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ172">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR172">
         <v>2.39</v>
@@ -36913,7 +36928,7 @@
         <v>2.5</v>
       </c>
       <c r="AP173">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ173">
         <v>2.33</v>
@@ -37041,7 +37056,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37119,7 +37134,7 @@
         <v>1.15</v>
       </c>
       <c r="AP174">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ174">
         <v>1.11</v>
@@ -37453,7 +37468,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q176">
         <v>1.4</v>
@@ -37531,10 +37546,10 @@
         <v>0.71</v>
       </c>
       <c r="AP176">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ176">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR176">
         <v>2.28</v>
@@ -37865,7 +37880,7 @@
         <v>202</v>
       </c>
       <c r="P178" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q178">
         <v>2.88</v>
@@ -38277,7 +38292,7 @@
         <v>203</v>
       </c>
       <c r="P180" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q180">
         <v>4.5</v>
@@ -38355,7 +38370,7 @@
         <v>1.93</v>
       </c>
       <c r="AP180">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ180">
         <v>1.72</v>
@@ -38689,7 +38704,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q182">
         <v>3.2</v>
@@ -38895,7 +38910,7 @@
         <v>175</v>
       </c>
       <c r="P183" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q183">
         <v>3.4</v>
@@ -38976,7 +38991,7 @@
         <v>1</v>
       </c>
       <c r="AQ183">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR183">
         <v>1.09</v>
@@ -39101,7 +39116,7 @@
         <v>206</v>
       </c>
       <c r="P184" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39307,7 +39322,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q185">
         <v>2.63</v>
@@ -39385,10 +39400,10 @@
         <v>0.93</v>
       </c>
       <c r="AP185">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ185">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR185">
         <v>1.6</v>
@@ -39513,7 +39528,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -39591,7 +39606,7 @@
         <v>2.33</v>
       </c>
       <c r="AP186">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
         <v>2.33</v>
@@ -39719,7 +39734,7 @@
         <v>83</v>
       </c>
       <c r="P187" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -39797,7 +39812,7 @@
         <v>1.8</v>
       </c>
       <c r="AP187">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ187">
         <v>1.72</v>
@@ -39925,7 +39940,7 @@
         <v>208</v>
       </c>
       <c r="P188" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40006,7 +40021,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ188">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR188">
         <v>1.37</v>
@@ -40131,7 +40146,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q189">
         <v>2.1</v>
@@ -40212,7 +40227,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ189">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR189">
         <v>1.37</v>
@@ -40621,7 +40636,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP191">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ191">
         <v>0.9399999999999999</v>
@@ -40749,7 +40764,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q192">
         <v>2.88</v>
@@ -41036,7 +41051,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ193">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR193">
         <v>1.43</v>
@@ -41239,7 +41254,7 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ194">
         <v>1.06</v>
@@ -41367,7 +41382,7 @@
         <v>212</v>
       </c>
       <c r="P195" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q195">
         <v>1.91</v>
@@ -41445,7 +41460,7 @@
         <v>0.38</v>
       </c>
       <c r="AP195">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ195">
         <v>0.33</v>
@@ -41779,7 +41794,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q197">
         <v>4.33</v>
@@ -41860,7 +41875,7 @@
         <v>1</v>
       </c>
       <c r="AQ197">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR197">
         <v>1.13</v>
@@ -41985,7 +42000,7 @@
         <v>214</v>
       </c>
       <c r="P198" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q198">
         <v>7.5</v>
@@ -42063,10 +42078,10 @@
         <v>2.43</v>
       </c>
       <c r="AP198">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ198">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR198">
         <v>1.22</v>
@@ -42272,7 +42287,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ199">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR199">
         <v>1.33</v>
@@ -42397,7 +42412,7 @@
         <v>97</v>
       </c>
       <c r="P200" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q200">
         <v>4.33</v>
@@ -42681,7 +42696,7 @@
         <v>0.47</v>
       </c>
       <c r="AP201">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ201">
         <v>0.44</v>
@@ -43096,7 +43111,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ203">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR203">
         <v>1.42</v>
@@ -43221,7 +43236,7 @@
         <v>136</v>
       </c>
       <c r="P204" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q204">
         <v>7</v>
@@ -43299,10 +43314,10 @@
         <v>2.19</v>
       </c>
       <c r="AP204">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ204">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR204">
         <v>1.29</v>
@@ -43427,7 +43442,7 @@
         <v>205</v>
       </c>
       <c r="P205" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q205">
         <v>8</v>
@@ -43711,7 +43726,7 @@
         <v>1.82</v>
       </c>
       <c r="AP206">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ206">
         <v>1.72</v>
@@ -43839,7 +43854,7 @@
         <v>217</v>
       </c>
       <c r="P207" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q207">
         <v>3.2</v>
@@ -44126,7 +44141,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ208">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR208">
         <v>1.46</v>
@@ -44251,7 +44266,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -44457,7 +44472,7 @@
         <v>219</v>
       </c>
       <c r="P210" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -44535,7 +44550,7 @@
         <v>1.18</v>
       </c>
       <c r="AP210">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ210">
         <v>1.11</v>
@@ -44663,7 +44678,7 @@
         <v>220</v>
       </c>
       <c r="P211" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q211">
         <v>1.67</v>
@@ -44744,7 +44759,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ211">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR211">
         <v>2.34</v>
@@ -44820,6 +44835,1036 @@
       </c>
       <c r="BP211">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7415804</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45423.35416666666</v>
+      </c>
+      <c r="F212">
+        <v>36</v>
+      </c>
+      <c r="G212" t="s">
+        <v>70</v>
+      </c>
+      <c r="H212" t="s">
+        <v>77</v>
+      </c>
+      <c r="I212">
+        <v>2</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>3</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>3</v>
+      </c>
+      <c r="O212" t="s">
+        <v>221</v>
+      </c>
+      <c r="P212" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q212">
+        <v>2.5</v>
+      </c>
+      <c r="R212">
+        <v>2.4</v>
+      </c>
+      <c r="S212">
+        <v>3.75</v>
+      </c>
+      <c r="T212">
+        <v>1.29</v>
+      </c>
+      <c r="U212">
+        <v>3.5</v>
+      </c>
+      <c r="V212">
+        <v>2.25</v>
+      </c>
+      <c r="W212">
+        <v>1.57</v>
+      </c>
+      <c r="X212">
+        <v>5.5</v>
+      </c>
+      <c r="Y212">
+        <v>1.14</v>
+      </c>
+      <c r="Z212">
+        <v>1.8</v>
+      </c>
+      <c r="AA212">
+        <v>4.1</v>
+      </c>
+      <c r="AB212">
+        <v>3.8</v>
+      </c>
+      <c r="AC212">
+        <v>1.04</v>
+      </c>
+      <c r="AD212">
+        <v>10</v>
+      </c>
+      <c r="AE212">
+        <v>1.18</v>
+      </c>
+      <c r="AF212">
+        <v>4.75</v>
+      </c>
+      <c r="AG212">
+        <v>1.53</v>
+      </c>
+      <c r="AH212">
+        <v>2.38</v>
+      </c>
+      <c r="AI212">
+        <v>1.5</v>
+      </c>
+      <c r="AJ212">
+        <v>2.5</v>
+      </c>
+      <c r="AK212">
+        <v>1.25</v>
+      </c>
+      <c r="AL212">
+        <v>1.22</v>
+      </c>
+      <c r="AM212">
+        <v>1.85</v>
+      </c>
+      <c r="AN212">
+        <v>2.47</v>
+      </c>
+      <c r="AO212">
+        <v>2.24</v>
+      </c>
+      <c r="AP212">
+        <v>2.5</v>
+      </c>
+      <c r="AQ212">
+        <v>2.11</v>
+      </c>
+      <c r="AR212">
+        <v>2.3</v>
+      </c>
+      <c r="AS212">
+        <v>1.86</v>
+      </c>
+      <c r="AT212">
+        <v>4.16</v>
+      </c>
+      <c r="AU212">
+        <v>7</v>
+      </c>
+      <c r="AV212">
+        <v>2</v>
+      </c>
+      <c r="AW212">
+        <v>8</v>
+      </c>
+      <c r="AX212">
+        <v>3</v>
+      </c>
+      <c r="AY212">
+        <v>15</v>
+      </c>
+      <c r="AZ212">
+        <v>5</v>
+      </c>
+      <c r="BA212">
+        <v>10</v>
+      </c>
+      <c r="BB212">
+        <v>5</v>
+      </c>
+      <c r="BC212">
+        <v>15</v>
+      </c>
+      <c r="BD212">
+        <v>1.51</v>
+      </c>
+      <c r="BE212">
+        <v>9</v>
+      </c>
+      <c r="BF212">
+        <v>3.06</v>
+      </c>
+      <c r="BG212">
+        <v>1.15</v>
+      </c>
+      <c r="BH212">
+        <v>4.75</v>
+      </c>
+      <c r="BI212">
+        <v>1.17</v>
+      </c>
+      <c r="BJ212">
+        <v>4.2</v>
+      </c>
+      <c r="BK212">
+        <v>1.42</v>
+      </c>
+      <c r="BL212">
+        <v>2.7</v>
+      </c>
+      <c r="BM212">
+        <v>1.7</v>
+      </c>
+      <c r="BN212">
+        <v>2.05</v>
+      </c>
+      <c r="BO212">
+        <v>2.05</v>
+      </c>
+      <c r="BP212">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7415807</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F213">
+        <v>36</v>
+      </c>
+      <c r="G213" t="s">
+        <v>78</v>
+      </c>
+      <c r="H213" t="s">
+        <v>81</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>2</v>
+      </c>
+      <c r="K213">
+        <v>3</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>5</v>
+      </c>
+      <c r="N213">
+        <v>6</v>
+      </c>
+      <c r="O213" t="s">
+        <v>222</v>
+      </c>
+      <c r="P213" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q213">
+        <v>3.1</v>
+      </c>
+      <c r="R213">
+        <v>2.2</v>
+      </c>
+      <c r="S213">
+        <v>3.25</v>
+      </c>
+      <c r="T213">
+        <v>1.36</v>
+      </c>
+      <c r="U213">
+        <v>3</v>
+      </c>
+      <c r="V213">
+        <v>2.63</v>
+      </c>
+      <c r="W213">
+        <v>1.44</v>
+      </c>
+      <c r="X213">
+        <v>7</v>
+      </c>
+      <c r="Y213">
+        <v>1.1</v>
+      </c>
+      <c r="Z213">
+        <v>2.3</v>
+      </c>
+      <c r="AA213">
+        <v>3.6</v>
+      </c>
+      <c r="AB213">
+        <v>2.9</v>
+      </c>
+      <c r="AC213">
+        <v>1.05</v>
+      </c>
+      <c r="AD213">
+        <v>9.5</v>
+      </c>
+      <c r="AE213">
+        <v>1.25</v>
+      </c>
+      <c r="AF213">
+        <v>3.75</v>
+      </c>
+      <c r="AG213">
+        <v>1.8</v>
+      </c>
+      <c r="AH213">
+        <v>1.93</v>
+      </c>
+      <c r="AI213">
+        <v>1.62</v>
+      </c>
+      <c r="AJ213">
+        <v>2.2</v>
+      </c>
+      <c r="AK213">
+        <v>1.44</v>
+      </c>
+      <c r="AL213">
+        <v>1.25</v>
+      </c>
+      <c r="AM213">
+        <v>1.5</v>
+      </c>
+      <c r="AN213">
+        <v>1.47</v>
+      </c>
+      <c r="AO213">
+        <v>1.12</v>
+      </c>
+      <c r="AP213">
+        <v>1.39</v>
+      </c>
+      <c r="AQ213">
+        <v>1.22</v>
+      </c>
+      <c r="AR213">
+        <v>1.24</v>
+      </c>
+      <c r="AS213">
+        <v>1.22</v>
+      </c>
+      <c r="AT213">
+        <v>2.46</v>
+      </c>
+      <c r="AU213">
+        <v>3</v>
+      </c>
+      <c r="AV213">
+        <v>8</v>
+      </c>
+      <c r="AW213">
+        <v>6</v>
+      </c>
+      <c r="AX213">
+        <v>6</v>
+      </c>
+      <c r="AY213">
+        <v>9</v>
+      </c>
+      <c r="AZ213">
+        <v>14</v>
+      </c>
+      <c r="BA213">
+        <v>8</v>
+      </c>
+      <c r="BB213">
+        <v>4</v>
+      </c>
+      <c r="BC213">
+        <v>12</v>
+      </c>
+      <c r="BD213">
+        <v>2.05</v>
+      </c>
+      <c r="BE213">
+        <v>8.5</v>
+      </c>
+      <c r="BF213">
+        <v>1.95</v>
+      </c>
+      <c r="BG213">
+        <v>1.12</v>
+      </c>
+      <c r="BH213">
+        <v>5</v>
+      </c>
+      <c r="BI213">
+        <v>1.26</v>
+      </c>
+      <c r="BJ213">
+        <v>3.34</v>
+      </c>
+      <c r="BK213">
+        <v>1.55</v>
+      </c>
+      <c r="BL213">
+        <v>2.39</v>
+      </c>
+      <c r="BM213">
+        <v>1.77</v>
+      </c>
+      <c r="BN213">
+        <v>1.95</v>
+      </c>
+      <c r="BO213">
+        <v>2.37</v>
+      </c>
+      <c r="BP213">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7416404</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F214">
+        <v>36</v>
+      </c>
+      <c r="G214" t="s">
+        <v>76</v>
+      </c>
+      <c r="H214" t="s">
+        <v>74</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>1</v>
+      </c>
+      <c r="O214" t="s">
+        <v>84</v>
+      </c>
+      <c r="P214" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q214">
+        <v>3.4</v>
+      </c>
+      <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
+        <v>3.5</v>
+      </c>
+      <c r="T214">
+        <v>1.5</v>
+      </c>
+      <c r="U214">
+        <v>2.5</v>
+      </c>
+      <c r="V214">
+        <v>3.5</v>
+      </c>
+      <c r="W214">
+        <v>1.29</v>
+      </c>
+      <c r="X214">
+        <v>11</v>
+      </c>
+      <c r="Y214">
+        <v>1.05</v>
+      </c>
+      <c r="Z214">
+        <v>2.63</v>
+      </c>
+      <c r="AA214">
+        <v>3.2</v>
+      </c>
+      <c r="AB214">
+        <v>2.75</v>
+      </c>
+      <c r="AC214">
+        <v>1.09</v>
+      </c>
+      <c r="AD214">
+        <v>7</v>
+      </c>
+      <c r="AE214">
+        <v>1.44</v>
+      </c>
+      <c r="AF214">
+        <v>2.75</v>
+      </c>
+      <c r="AG214">
+        <v>2.3</v>
+      </c>
+      <c r="AH214">
+        <v>1.57</v>
+      </c>
+      <c r="AI214">
+        <v>1.95</v>
+      </c>
+      <c r="AJ214">
+        <v>1.8</v>
+      </c>
+      <c r="AK214">
+        <v>1.42</v>
+      </c>
+      <c r="AL214">
+        <v>1.3</v>
+      </c>
+      <c r="AM214">
+        <v>1.45</v>
+      </c>
+      <c r="AN214">
+        <v>1.59</v>
+      </c>
+      <c r="AO214">
+        <v>1</v>
+      </c>
+      <c r="AP214">
+        <v>1.5</v>
+      </c>
+      <c r="AQ214">
+        <v>1.11</v>
+      </c>
+      <c r="AR214">
+        <v>1.3</v>
+      </c>
+      <c r="AS214">
+        <v>1.25</v>
+      </c>
+      <c r="AT214">
+        <v>2.55</v>
+      </c>
+      <c r="AU214">
+        <v>3</v>
+      </c>
+      <c r="AV214">
+        <v>5</v>
+      </c>
+      <c r="AW214">
+        <v>6</v>
+      </c>
+      <c r="AX214">
+        <v>6</v>
+      </c>
+      <c r="AY214">
+        <v>9</v>
+      </c>
+      <c r="AZ214">
+        <v>11</v>
+      </c>
+      <c r="BA214">
+        <v>8</v>
+      </c>
+      <c r="BB214">
+        <v>5</v>
+      </c>
+      <c r="BC214">
+        <v>13</v>
+      </c>
+      <c r="BD214">
+        <v>1.91</v>
+      </c>
+      <c r="BE214">
+        <v>8</v>
+      </c>
+      <c r="BF214">
+        <v>2.1</v>
+      </c>
+      <c r="BG214">
+        <v>1.12</v>
+      </c>
+      <c r="BH214">
+        <v>5</v>
+      </c>
+      <c r="BI214">
+        <v>1.26</v>
+      </c>
+      <c r="BJ214">
+        <v>3.34</v>
+      </c>
+      <c r="BK214">
+        <v>1.5</v>
+      </c>
+      <c r="BL214">
+        <v>2.48</v>
+      </c>
+      <c r="BM214">
+        <v>1.95</v>
+      </c>
+      <c r="BN214">
+        <v>1.85</v>
+      </c>
+      <c r="BO214">
+        <v>2.27</v>
+      </c>
+      <c r="BP214">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7415805</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F215">
+        <v>36</v>
+      </c>
+      <c r="G215" t="s">
+        <v>80</v>
+      </c>
+      <c r="H215" t="s">
+        <v>71</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>3</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>3</v>
+      </c>
+      <c r="O215" t="s">
+        <v>223</v>
+      </c>
+      <c r="P215" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q215">
+        <v>2.25</v>
+      </c>
+      <c r="R215">
+        <v>2.38</v>
+      </c>
+      <c r="S215">
+        <v>4.75</v>
+      </c>
+      <c r="T215">
+        <v>1.33</v>
+      </c>
+      <c r="U215">
+        <v>3.25</v>
+      </c>
+      <c r="V215">
+        <v>2.5</v>
+      </c>
+      <c r="W215">
+        <v>1.5</v>
+      </c>
+      <c r="X215">
+        <v>6.5</v>
+      </c>
+      <c r="Y215">
+        <v>1.11</v>
+      </c>
+      <c r="Z215">
+        <v>1.67</v>
+      </c>
+      <c r="AA215">
+        <v>4</v>
+      </c>
+      <c r="AB215">
+        <v>4.75</v>
+      </c>
+      <c r="AC215">
+        <v>1.04</v>
+      </c>
+      <c r="AD215">
+        <v>10</v>
+      </c>
+      <c r="AE215">
+        <v>1.22</v>
+      </c>
+      <c r="AF215">
+        <v>4.2</v>
+      </c>
+      <c r="AG215">
+        <v>1.65</v>
+      </c>
+      <c r="AH215">
+        <v>2.15</v>
+      </c>
+      <c r="AI215">
+        <v>1.7</v>
+      </c>
+      <c r="AJ215">
+        <v>2.05</v>
+      </c>
+      <c r="AK215">
+        <v>1.18</v>
+      </c>
+      <c r="AL215">
+        <v>1.2</v>
+      </c>
+      <c r="AM215">
+        <v>2.15</v>
+      </c>
+      <c r="AN215">
+        <v>1.88</v>
+      </c>
+      <c r="AO215">
+        <v>1.06</v>
+      </c>
+      <c r="AP215">
+        <v>1.94</v>
+      </c>
+      <c r="AQ215">
+        <v>1</v>
+      </c>
+      <c r="AR215">
+        <v>1.59</v>
+      </c>
+      <c r="AS215">
+        <v>1.12</v>
+      </c>
+      <c r="AT215">
+        <v>2.71</v>
+      </c>
+      <c r="AU215">
+        <v>9</v>
+      </c>
+      <c r="AV215">
+        <v>3</v>
+      </c>
+      <c r="AW215">
+        <v>4</v>
+      </c>
+      <c r="AX215">
+        <v>7</v>
+      </c>
+      <c r="AY215">
+        <v>13</v>
+      </c>
+      <c r="AZ215">
+        <v>10</v>
+      </c>
+      <c r="BA215">
+        <v>2</v>
+      </c>
+      <c r="BB215">
+        <v>5</v>
+      </c>
+      <c r="BC215">
+        <v>7</v>
+      </c>
+      <c r="BD215">
+        <v>1.37</v>
+      </c>
+      <c r="BE215">
+        <v>10</v>
+      </c>
+      <c r="BF215">
+        <v>3.59</v>
+      </c>
+      <c r="BG215">
+        <v>1.11</v>
+      </c>
+      <c r="BH215">
+        <v>5.5</v>
+      </c>
+      <c r="BI215">
+        <v>1.12</v>
+      </c>
+      <c r="BJ215">
+        <v>4.9</v>
+      </c>
+      <c r="BK215">
+        <v>1.26</v>
+      </c>
+      <c r="BL215">
+        <v>3.34</v>
+      </c>
+      <c r="BM215">
+        <v>1.82</v>
+      </c>
+      <c r="BN215">
+        <v>1.98</v>
+      </c>
+      <c r="BO215">
+        <v>1.85</v>
+      </c>
+      <c r="BP215">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7415806</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F216">
+        <v>36</v>
+      </c>
+      <c r="G216" t="s">
+        <v>72</v>
+      </c>
+      <c r="H216" t="s">
+        <v>73</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>224</v>
+      </c>
+      <c r="P216" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q216">
+        <v>3.5</v>
+      </c>
+      <c r="R216">
+        <v>2</v>
+      </c>
+      <c r="S216">
+        <v>3.4</v>
+      </c>
+      <c r="T216">
+        <v>1.5</v>
+      </c>
+      <c r="U216">
+        <v>2.5</v>
+      </c>
+      <c r="V216">
+        <v>3.4</v>
+      </c>
+      <c r="W216">
+        <v>1.3</v>
+      </c>
+      <c r="X216">
+        <v>10</v>
+      </c>
+      <c r="Y216">
+        <v>1.06</v>
+      </c>
+      <c r="Z216">
+        <v>2.8</v>
+      </c>
+      <c r="AA216">
+        <v>3.2</v>
+      </c>
+      <c r="AB216">
+        <v>2.55</v>
+      </c>
+      <c r="AC216">
+        <v>1.09</v>
+      </c>
+      <c r="AD216">
+        <v>7</v>
+      </c>
+      <c r="AE216">
+        <v>1.44</v>
+      </c>
+      <c r="AF216">
+        <v>2.75</v>
+      </c>
+      <c r="AG216">
+        <v>2.3</v>
+      </c>
+      <c r="AH216">
+        <v>1.57</v>
+      </c>
+      <c r="AI216">
+        <v>1.95</v>
+      </c>
+      <c r="AJ216">
+        <v>1.8</v>
+      </c>
+      <c r="AK216">
+        <v>1.44</v>
+      </c>
+      <c r="AL216">
+        <v>1.33</v>
+      </c>
+      <c r="AM216">
+        <v>1.42</v>
+      </c>
+      <c r="AN216">
+        <v>0.88</v>
+      </c>
+      <c r="AO216">
+        <v>0.76</v>
+      </c>
+      <c r="AP216">
+        <v>1</v>
+      </c>
+      <c r="AQ216">
+        <v>0.72</v>
+      </c>
+      <c r="AR216">
+        <v>1.13</v>
+      </c>
+      <c r="AS216">
+        <v>0.96</v>
+      </c>
+      <c r="AT216">
+        <v>2.09</v>
+      </c>
+      <c r="AU216">
+        <v>9</v>
+      </c>
+      <c r="AV216">
+        <v>8</v>
+      </c>
+      <c r="AW216">
+        <v>5</v>
+      </c>
+      <c r="AX216">
+        <v>15</v>
+      </c>
+      <c r="AY216">
+        <v>14</v>
+      </c>
+      <c r="AZ216">
+        <v>23</v>
+      </c>
+      <c r="BA216">
+        <v>4</v>
+      </c>
+      <c r="BB216">
+        <v>8</v>
+      </c>
+      <c r="BC216">
+        <v>12</v>
+      </c>
+      <c r="BD216">
+        <v>2.1</v>
+      </c>
+      <c r="BE216">
+        <v>8</v>
+      </c>
+      <c r="BF216">
+        <v>1.95</v>
+      </c>
+      <c r="BG216">
+        <v>1.23</v>
+      </c>
+      <c r="BH216">
+        <v>3.56</v>
+      </c>
+      <c r="BI216">
+        <v>1.52</v>
+      </c>
+      <c r="BJ216">
+        <v>2.44</v>
+      </c>
+      <c r="BK216">
+        <v>1.73</v>
+      </c>
+      <c r="BL216">
+        <v>2</v>
+      </c>
+      <c r="BM216">
+        <v>2.05</v>
+      </c>
+      <c r="BN216">
+        <v>1.7</v>
+      </c>
+      <c r="BO216">
+        <v>3.08</v>
+      </c>
+      <c r="BP216">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -44977,31 +44977,31 @@
         <v>4.16</v>
       </c>
       <c r="AU212">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV212">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW212">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AX212">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY212">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AZ212">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BA212">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BB212">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC212">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BD212">
         <v>1.51</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="331">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1005,6 +1005,9 @@
   <si>
     <t>['8']</t>
   </si>
+  <si>
+    <t>['30', '39', '52', '90+2']</t>
+  </si>
 </sst>
 </file>
 
@@ -1365,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP216"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2117,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2732,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ7">
         <v>1.06</v>
@@ -4586,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ16">
         <v>0.33</v>
@@ -5207,7 +5210,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -7061,7 +7064,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ28">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR28">
         <v>1.11</v>
@@ -8294,7 +8297,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ34">
         <v>0.72</v>
@@ -9533,7 +9536,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ40">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR40">
         <v>1.85</v>
@@ -10148,7 +10151,7 @@
         <v>0.33</v>
       </c>
       <c r="AP43">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -12414,7 +12417,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ54">
         <v>2.33</v>
@@ -13035,7 +13038,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ57">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR57">
         <v>1.39</v>
@@ -13444,7 +13447,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ59">
         <v>0.44</v>
@@ -13653,7 +13656,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ60">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR60">
         <v>1.46</v>
@@ -16328,7 +16331,7 @@
         <v>0.4</v>
       </c>
       <c r="AP73">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ73">
         <v>1.11</v>
@@ -16743,7 +16746,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ75">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR75">
         <v>2.39</v>
@@ -19006,10 +19009,10 @@
         <v>1.14</v>
       </c>
       <c r="AP86">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ86">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR86">
         <v>1.54</v>
@@ -24568,7 +24571,7 @@
         <v>1.67</v>
       </c>
       <c r="AP113">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ113">
         <v>1.72</v>
@@ -26219,7 +26222,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ121">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR121">
         <v>1.24</v>
@@ -26422,7 +26425,7 @@
         <v>0.78</v>
       </c>
       <c r="AP122">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ122">
         <v>1.22</v>
@@ -27043,7 +27046,7 @@
         <v>1</v>
       </c>
       <c r="AQ125">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR125">
         <v>1.11</v>
@@ -27246,7 +27249,7 @@
         <v>2.2</v>
       </c>
       <c r="AP126">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ126">
         <v>2.11</v>
@@ -28073,7 +28076,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ130">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR130">
         <v>1.6</v>
@@ -29924,7 +29927,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ139">
         <v>1.06</v>
@@ -30545,7 +30548,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ142">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR142">
         <v>2.22</v>
@@ -31160,7 +31163,7 @@
         <v>2.42</v>
       </c>
       <c r="AP145">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ145">
         <v>2.33</v>
@@ -34047,7 +34050,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ159">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -34250,7 +34253,7 @@
         <v>1.08</v>
       </c>
       <c r="AP160">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ160">
         <v>1</v>
@@ -36107,7 +36110,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ169">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR169">
         <v>1.31</v>
@@ -36516,7 +36519,7 @@
         <v>0.57</v>
       </c>
       <c r="AP171">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ171">
         <v>0.44</v>
@@ -37343,7 +37346,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ175">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR175">
         <v>1.35</v>
@@ -37752,7 +37755,7 @@
         <v>0.4</v>
       </c>
       <c r="AP177">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ177">
         <v>0.33</v>
@@ -38167,7 +38170,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ179">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR179">
         <v>1.33</v>
@@ -40224,7 +40227,7 @@
         <v>0.67</v>
       </c>
       <c r="AP189">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ189">
         <v>0.72</v>
@@ -40639,7 +40642,7 @@
         <v>1</v>
       </c>
       <c r="AQ191">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR191">
         <v>1.14</v>
@@ -44977,31 +44980,31 @@
         <v>4.16</v>
       </c>
       <c r="AU212">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV212">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW212">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX212">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY212">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ212">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA212">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB212">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC212">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD212">
         <v>1.51</v>
@@ -45865,6 +45868,212 @@
       </c>
       <c r="BP216">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7415808</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45424.45833333334</v>
+      </c>
+      <c r="F217">
+        <v>36</v>
+      </c>
+      <c r="G217" t="s">
+        <v>75</v>
+      </c>
+      <c r="H217" t="s">
+        <v>79</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>2</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>4</v>
+      </c>
+      <c r="N217">
+        <v>4</v>
+      </c>
+      <c r="O217" t="s">
+        <v>84</v>
+      </c>
+      <c r="P217" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q217">
+        <v>2.63</v>
+      </c>
+      <c r="R217">
+        <v>2.25</v>
+      </c>
+      <c r="S217">
+        <v>4</v>
+      </c>
+      <c r="T217">
+        <v>1.33</v>
+      </c>
+      <c r="U217">
+        <v>3.25</v>
+      </c>
+      <c r="V217">
+        <v>2.63</v>
+      </c>
+      <c r="W217">
+        <v>1.44</v>
+      </c>
+      <c r="X217">
+        <v>6.5</v>
+      </c>
+      <c r="Y217">
+        <v>1.11</v>
+      </c>
+      <c r="Z217">
+        <v>2.05</v>
+      </c>
+      <c r="AA217">
+        <v>3.5</v>
+      </c>
+      <c r="AB217">
+        <v>3.3</v>
+      </c>
+      <c r="AC217">
+        <v>1.01</v>
+      </c>
+      <c r="AD217">
+        <v>10.5</v>
+      </c>
+      <c r="AE217">
+        <v>1.21</v>
+      </c>
+      <c r="AF217">
+        <v>3.75</v>
+      </c>
+      <c r="AG217">
+        <v>1.75</v>
+      </c>
+      <c r="AH217">
+        <v>1.95</v>
+      </c>
+      <c r="AI217">
+        <v>1.62</v>
+      </c>
+      <c r="AJ217">
+        <v>2.2</v>
+      </c>
+      <c r="AK217">
+        <v>1.32</v>
+      </c>
+      <c r="AL217">
+        <v>1.28</v>
+      </c>
+      <c r="AM217">
+        <v>1.78</v>
+      </c>
+      <c r="AN217">
+        <v>1.29</v>
+      </c>
+      <c r="AO217">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP217">
+        <v>1.22</v>
+      </c>
+      <c r="AQ217">
+        <v>1.06</v>
+      </c>
+      <c r="AR217">
+        <v>1.39</v>
+      </c>
+      <c r="AS217">
+        <v>1.13</v>
+      </c>
+      <c r="AT217">
+        <v>2.52</v>
+      </c>
+      <c r="AU217">
+        <v>5</v>
+      </c>
+      <c r="AV217">
+        <v>6</v>
+      </c>
+      <c r="AW217">
+        <v>6</v>
+      </c>
+      <c r="AX217">
+        <v>8</v>
+      </c>
+      <c r="AY217">
+        <v>11</v>
+      </c>
+      <c r="AZ217">
+        <v>14</v>
+      </c>
+      <c r="BA217">
+        <v>8</v>
+      </c>
+      <c r="BB217">
+        <v>3</v>
+      </c>
+      <c r="BC217">
+        <v>11</v>
+      </c>
+      <c r="BD217">
+        <v>1.45</v>
+      </c>
+      <c r="BE217">
+        <v>9</v>
+      </c>
+      <c r="BF217">
+        <v>3.28</v>
+      </c>
+      <c r="BG217">
+        <v>1.11</v>
+      </c>
+      <c r="BH217">
+        <v>5.25</v>
+      </c>
+      <c r="BI217">
+        <v>1.24</v>
+      </c>
+      <c r="BJ217">
+        <v>3.48</v>
+      </c>
+      <c r="BK217">
+        <v>1.48</v>
+      </c>
+      <c r="BL217">
+        <v>2.57</v>
+      </c>
+      <c r="BM217">
+        <v>1.8</v>
+      </c>
+      <c r="BN217">
+        <v>2</v>
+      </c>
+      <c r="BO217">
+        <v>2.24</v>
+      </c>
+      <c r="BP217">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -691,6 +691,9 @@
     <t>['72', '90+5']</t>
   </si>
   <si>
+    <t>['45', '52', '65', '87', '90+3']</t>
+  </si>
+  <si>
     <t>['60', '90+5']</t>
   </si>
   <si>
@@ -1007,6 +1010,9 @@
   </si>
   <si>
     <t>['30', '39', '52', '90+2']</t>
+  </si>
+  <si>
+    <t>['38', '40']</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1627,7 +1633,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q2">
         <v>1.44</v>
@@ -1833,7 +1839,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -2245,7 +2251,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2657,7 +2663,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2944,7 +2950,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3147,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ9">
         <v>0.33</v>
@@ -3481,7 +3487,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -4099,7 +4105,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4511,7 +4517,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4717,7 +4723,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -5129,7 +5135,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5335,7 +5341,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5541,7 +5547,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q21">
         <v>3.25</v>
@@ -5622,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR21">
         <v>1.04</v>
@@ -5747,7 +5753,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -6031,7 +6037,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ23">
         <v>2.33</v>
@@ -6159,7 +6165,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6365,7 +6371,7 @@
         <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6571,7 +6577,7 @@
         <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6858,7 +6864,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR27">
         <v>2.27</v>
@@ -7189,7 +7195,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7395,7 +7401,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7601,7 +7607,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7807,7 +7813,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -8013,7 +8019,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -8915,7 +8921,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ37">
         <v>1.22</v>
@@ -9043,7 +9049,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9455,7 +9461,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q40">
         <v>1.67</v>
@@ -9533,7 +9539,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ40">
         <v>1.06</v>
@@ -9661,7 +9667,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -10154,7 +10160,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR43">
         <v>1.77</v>
@@ -10279,7 +10285,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q44">
         <v>1.53</v>
@@ -10485,7 +10491,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10897,7 +10903,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q47">
         <v>6.5</v>
@@ -11387,7 +11393,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ49">
         <v>1.11</v>
@@ -11515,7 +11521,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11721,7 +11727,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -12545,7 +12551,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12626,7 +12632,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12751,7 +12757,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13163,7 +13169,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q58">
         <v>1.73</v>
@@ -13241,7 +13247,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ58">
         <v>1.72</v>
@@ -13369,7 +13375,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13575,7 +13581,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13987,7 +13993,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14399,7 +14405,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q64">
         <v>7.5</v>
@@ -14605,7 +14611,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q65">
         <v>11</v>
@@ -15223,7 +15229,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15429,7 +15435,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q69">
         <v>3.3</v>
@@ -16047,7 +16053,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q72">
         <v>3.25</v>
@@ -16459,7 +16465,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -16871,7 +16877,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q76">
         <v>1.5</v>
@@ -17077,7 +17083,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -18313,7 +18319,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18394,7 +18400,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18519,7 +18525,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18725,7 +18731,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -19215,7 +19221,7 @@
         <v>1.14</v>
       </c>
       <c r="AP87">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ87">
         <v>1.06</v>
@@ -19549,7 +19555,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>1.62</v>
@@ -20167,7 +20173,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20579,7 +20585,7 @@
         <v>129</v>
       </c>
       <c r="P94" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20785,7 +20791,7 @@
         <v>84</v>
       </c>
       <c r="P95" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20991,7 +20997,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>2.88</v>
@@ -21197,7 +21203,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>1.57</v>
@@ -21275,10 +21281,10 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR97">
         <v>2.09</v>
@@ -21403,7 +21409,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q98">
         <v>6.5</v>
@@ -21609,7 +21615,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21690,7 +21696,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR99">
         <v>1.25</v>
@@ -22433,7 +22439,7 @@
         <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22639,7 +22645,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -22923,7 +22929,7 @@
         <v>0.43</v>
       </c>
       <c r="AP105">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ105">
         <v>0.72</v>
@@ -23669,7 +23675,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q109">
         <v>7.5</v>
@@ -23875,7 +23881,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -24493,7 +24499,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -24905,7 +24911,7 @@
         <v>156</v>
       </c>
       <c r="P115" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q115">
         <v>2.3</v>
@@ -25111,7 +25117,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25317,7 +25323,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q117">
         <v>2.55</v>
@@ -25523,7 +25529,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q118">
         <v>2.6</v>
@@ -25604,7 +25610,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR118">
         <v>1.57</v>
@@ -25729,7 +25735,7 @@
         <v>123</v>
       </c>
       <c r="P119" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q119">
         <v>4.75</v>
@@ -26013,7 +26019,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ120">
         <v>1.11</v>
@@ -26141,7 +26147,7 @@
         <v>84</v>
       </c>
       <c r="P121" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q121">
         <v>3.75</v>
@@ -26347,7 +26353,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26553,7 +26559,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -26759,7 +26765,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26840,7 +26846,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR124">
         <v>1.58</v>
@@ -26965,7 +26971,7 @@
         <v>132</v>
       </c>
       <c r="P125" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q125">
         <v>4.5</v>
@@ -27171,7 +27177,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -27583,7 +27589,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -28201,7 +28207,7 @@
         <v>132</v>
       </c>
       <c r="P131" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q131">
         <v>3.5</v>
@@ -28282,7 +28288,7 @@
         <v>1</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR131">
         <v>1.12</v>
@@ -28407,7 +28413,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28613,7 +28619,7 @@
         <v>166</v>
       </c>
       <c r="P133" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q133">
         <v>2.3</v>
@@ -28694,7 +28700,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR133">
         <v>1.31</v>
@@ -29231,7 +29237,7 @@
         <v>84</v>
       </c>
       <c r="P136" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>3.1</v>
@@ -29515,7 +29521,7 @@
         <v>0.45</v>
       </c>
       <c r="AP137">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ137">
         <v>0.33</v>
@@ -29643,7 +29649,7 @@
         <v>170</v>
       </c>
       <c r="P138" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q138">
         <v>3.6</v>
@@ -29849,7 +29855,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q139">
         <v>2.75</v>
@@ -30055,7 +30061,7 @@
         <v>171</v>
       </c>
       <c r="P140" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30467,7 +30473,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q142">
         <v>1.73</v>
@@ -30545,7 +30551,7 @@
         <v>1.09</v>
       </c>
       <c r="AP142">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ142">
         <v>1.06</v>
@@ -30673,7 +30679,7 @@
         <v>84</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q143">
         <v>4.25</v>
@@ -31085,7 +31091,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q145">
         <v>7.01</v>
@@ -31372,7 +31378,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ146">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR146">
         <v>1.22</v>
@@ -31497,7 +31503,7 @@
         <v>177</v>
       </c>
       <c r="P147" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31703,7 +31709,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q148">
         <v>1.57</v>
@@ -31781,7 +31787,7 @@
         <v>0.67</v>
       </c>
       <c r="AP148">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ148">
         <v>0.44</v>
@@ -31909,7 +31915,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q149">
         <v>2.3</v>
@@ -32115,7 +32121,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -33145,7 +33151,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -33429,7 +33435,7 @@
         <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ156">
         <v>1.72</v>
@@ -33763,7 +33769,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34256,7 +34262,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ160">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR160">
         <v>1.33</v>
@@ -34381,7 +34387,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -34793,7 +34799,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q163">
         <v>2.3</v>
@@ -35080,7 +35086,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ164">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR164">
         <v>2.27</v>
@@ -35205,7 +35211,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -35411,7 +35417,7 @@
         <v>138</v>
       </c>
       <c r="P166" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -35617,7 +35623,7 @@
         <v>165</v>
       </c>
       <c r="P167" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q167">
         <v>3.6</v>
@@ -35823,7 +35829,7 @@
         <v>193</v>
       </c>
       <c r="P168" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -36647,7 +36653,7 @@
         <v>175</v>
       </c>
       <c r="P172" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q172">
         <v>1.57</v>
@@ -36725,7 +36731,7 @@
         <v>0.93</v>
       </c>
       <c r="AP172">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ172">
         <v>1.22</v>
@@ -37059,7 +37065,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37471,7 +37477,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q176">
         <v>1.4</v>
@@ -37883,7 +37889,7 @@
         <v>202</v>
       </c>
       <c r="P178" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q178">
         <v>2.88</v>
@@ -38295,7 +38301,7 @@
         <v>203</v>
       </c>
       <c r="P180" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q180">
         <v>4.5</v>
@@ -38579,7 +38585,7 @@
         <v>1.14</v>
       </c>
       <c r="AP181">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ181">
         <v>1.11</v>
@@ -38707,7 +38713,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q182">
         <v>3.2</v>
@@ -38913,7 +38919,7 @@
         <v>175</v>
       </c>
       <c r="P183" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q183">
         <v>3.4</v>
@@ -38994,7 +39000,7 @@
         <v>1</v>
       </c>
       <c r="AQ183">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR183">
         <v>1.09</v>
@@ -39119,7 +39125,7 @@
         <v>206</v>
       </c>
       <c r="P184" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39325,7 +39331,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q185">
         <v>2.63</v>
@@ -39531,7 +39537,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -39737,7 +39743,7 @@
         <v>83</v>
       </c>
       <c r="P187" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -39943,7 +39949,7 @@
         <v>208</v>
       </c>
       <c r="P188" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40149,7 +40155,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q189">
         <v>2.1</v>
@@ -40767,7 +40773,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q192">
         <v>2.88</v>
@@ -40845,7 +40851,7 @@
         <v>2.38</v>
       </c>
       <c r="AP192">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ192">
         <v>2.33</v>
@@ -41054,7 +41060,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ193">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR193">
         <v>1.43</v>
@@ -41385,7 +41391,7 @@
         <v>212</v>
       </c>
       <c r="P195" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q195">
         <v>1.91</v>
@@ -41797,7 +41803,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q197">
         <v>4.33</v>
@@ -42003,7 +42009,7 @@
         <v>214</v>
       </c>
       <c r="P198" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q198">
         <v>7.5</v>
@@ -42415,7 +42421,7 @@
         <v>97</v>
       </c>
       <c r="P200" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q200">
         <v>4.33</v>
@@ -43239,7 +43245,7 @@
         <v>136</v>
       </c>
       <c r="P204" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q204">
         <v>7</v>
@@ -43445,7 +43451,7 @@
         <v>205</v>
       </c>
       <c r="P205" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q205">
         <v>8</v>
@@ -43857,7 +43863,7 @@
         <v>217</v>
       </c>
       <c r="P207" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q207">
         <v>3.2</v>
@@ -44269,7 +44275,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -44475,7 +44481,7 @@
         <v>219</v>
       </c>
       <c r="P210" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -44681,7 +44687,7 @@
         <v>220</v>
       </c>
       <c r="P211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q211">
         <v>1.67</v>
@@ -44759,7 +44765,7 @@
         <v>1.06</v>
       </c>
       <c r="AP211">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ211">
         <v>1.11</v>
@@ -45093,7 +45099,7 @@
         <v>222</v>
       </c>
       <c r="P213" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45586,7 +45592,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ215">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR215">
         <v>1.59</v>
@@ -45711,7 +45717,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q216">
         <v>3.5</v>
@@ -45917,7 +45923,7 @@
         <v>84</v>
       </c>
       <c r="P217" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46074,6 +46080,212 @@
       </c>
       <c r="BP217">
         <v>1.63</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7415809</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45426.64583333334</v>
+      </c>
+      <c r="F218">
+        <v>37</v>
+      </c>
+      <c r="G218" t="s">
+        <v>77</v>
+      </c>
+      <c r="H218" t="s">
+        <v>71</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>2</v>
+      </c>
+      <c r="K218">
+        <v>3</v>
+      </c>
+      <c r="L218">
+        <v>5</v>
+      </c>
+      <c r="M218">
+        <v>2</v>
+      </c>
+      <c r="N218">
+        <v>7</v>
+      </c>
+      <c r="O218" t="s">
+        <v>225</v>
+      </c>
+      <c r="P218" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q218">
+        <v>1.48</v>
+      </c>
+      <c r="R218">
+        <v>2.8</v>
+      </c>
+      <c r="S218">
+        <v>11</v>
+      </c>
+      <c r="T218">
+        <v>1.22</v>
+      </c>
+      <c r="U218">
+        <v>3.7</v>
+      </c>
+      <c r="V218">
+        <v>2.1</v>
+      </c>
+      <c r="W218">
+        <v>1.67</v>
+      </c>
+      <c r="X218">
+        <v>4.33</v>
+      </c>
+      <c r="Y218">
+        <v>1.18</v>
+      </c>
+      <c r="Z218">
+        <v>1.08</v>
+      </c>
+      <c r="AA218">
+        <v>8</v>
+      </c>
+      <c r="AB218">
+        <v>16</v>
+      </c>
+      <c r="AC218">
+        <v>1.02</v>
+      </c>
+      <c r="AD218">
+        <v>17</v>
+      </c>
+      <c r="AE218">
+        <v>1.14</v>
+      </c>
+      <c r="AF218">
+        <v>5.5</v>
+      </c>
+      <c r="AG218">
+        <v>1.35</v>
+      </c>
+      <c r="AH218">
+        <v>2.94</v>
+      </c>
+      <c r="AI218">
+        <v>2.15</v>
+      </c>
+      <c r="AJ218">
+        <v>1.62</v>
+      </c>
+      <c r="AK218">
+        <v>1.02</v>
+      </c>
+      <c r="AL218">
+        <v>1.08</v>
+      </c>
+      <c r="AM218">
+        <v>5</v>
+      </c>
+      <c r="AN218">
+        <v>2.39</v>
+      </c>
+      <c r="AO218">
+        <v>1</v>
+      </c>
+      <c r="AP218">
+        <v>2.42</v>
+      </c>
+      <c r="AQ218">
+        <v>0.95</v>
+      </c>
+      <c r="AR218">
+        <v>2.39</v>
+      </c>
+      <c r="AS218">
+        <v>1.13</v>
+      </c>
+      <c r="AT218">
+        <v>3.52</v>
+      </c>
+      <c r="AU218">
+        <v>14</v>
+      </c>
+      <c r="AV218">
+        <v>6</v>
+      </c>
+      <c r="AW218">
+        <v>10</v>
+      </c>
+      <c r="AX218">
+        <v>2</v>
+      </c>
+      <c r="AY218">
+        <v>24</v>
+      </c>
+      <c r="AZ218">
+        <v>8</v>
+      </c>
+      <c r="BA218">
+        <v>6</v>
+      </c>
+      <c r="BB218">
+        <v>5</v>
+      </c>
+      <c r="BC218">
+        <v>11</v>
+      </c>
+      <c r="BD218">
+        <v>1.04</v>
+      </c>
+      <c r="BE218">
+        <v>20</v>
+      </c>
+      <c r="BF218">
+        <v>12.75</v>
+      </c>
+      <c r="BG218">
+        <v>1.11</v>
+      </c>
+      <c r="BH218">
+        <v>5.9</v>
+      </c>
+      <c r="BI218">
+        <v>1.18</v>
+      </c>
+      <c r="BJ218">
+        <v>4.1</v>
+      </c>
+      <c r="BK218">
+        <v>1.34</v>
+      </c>
+      <c r="BL218">
+        <v>2.88</v>
+      </c>
+      <c r="BM218">
+        <v>1.56</v>
+      </c>
+      <c r="BN218">
+        <v>2.36</v>
+      </c>
+      <c r="BO218">
+        <v>1.98</v>
+      </c>
+      <c r="BP218">
+        <v>1.81</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -694,6 +694,18 @@
     <t>['45', '52', '65', '87', '90+3']</t>
   </si>
   <si>
+    <t>['7', '65']</t>
+  </si>
+  <si>
+    <t>['58', '74', '77', '81', '90+3']</t>
+  </si>
+  <si>
+    <t>['41', '45', '55']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['60', '90+5']</t>
   </si>
   <si>
@@ -809,9 +821,6 @@
   </si>
   <si>
     <t>['26', '75']</t>
-  </si>
-  <si>
-    <t>['90']</t>
   </si>
   <si>
     <t>['16', '58']</t>
@@ -1013,6 +1022,15 @@
   </si>
   <si>
     <t>['38', '40']</t>
+  </si>
+  <si>
+    <t>['5', '12', '35', '51', '71']</t>
+  </si>
+  <si>
+    <t>['20', '73']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP218"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1633,7 +1651,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q2">
         <v>1.44</v>
@@ -1714,7 +1732,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1839,7 +1857,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1920,7 +1938,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ3">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2251,7 +2269,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2332,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2535,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ6">
         <v>2.11</v>
@@ -2663,7 +2681,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2741,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ7">
         <v>1.06</v>
@@ -2947,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ8">
         <v>0.95</v>
@@ -3156,7 +3174,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ9">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3487,7 +3505,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3565,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ11">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4105,7 +4123,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4517,7 +4535,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4595,10 +4613,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ16">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR16">
         <v>1.85</v>
@@ -4723,7 +4741,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -5010,7 +5028,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ18">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR18">
         <v>1.05</v>
@@ -5135,7 +5153,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5213,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ19">
         <v>1.06</v>
@@ -5341,7 +5359,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5419,10 +5437,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ20">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR20">
         <v>1.21</v>
@@ -5547,7 +5565,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q21">
         <v>3.25</v>
@@ -5753,7 +5771,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -6040,7 +6058,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ23">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR23">
         <v>2.12</v>
@@ -6165,7 +6183,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6246,7 +6264,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ24">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR24">
         <v>1</v>
@@ -6371,7 +6389,7 @@
         <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6449,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ25">
         <v>1.11</v>
@@ -6577,7 +6595,7 @@
         <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -7195,7 +7213,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7273,7 +7291,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ29">
         <v>1.11</v>
@@ -7401,7 +7419,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7607,7 +7625,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7688,7 +7706,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ31">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR31">
         <v>1.44</v>
@@ -7813,7 +7831,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7894,7 +7912,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR32">
         <v>1.24</v>
@@ -8019,7 +8037,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -8303,7 +8321,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ34">
         <v>0.72</v>
@@ -8509,10 +8527,10 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ35">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR35">
         <v>1.4</v>
@@ -8715,10 +8733,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ36">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8924,7 +8942,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ37">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR37">
         <v>1.9</v>
@@ -9049,7 +9067,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9130,7 +9148,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ38">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR38">
         <v>1.57</v>
@@ -9336,7 +9354,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR39">
         <v>0.93</v>
@@ -9461,7 +9479,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q40">
         <v>1.67</v>
@@ -9667,7 +9685,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9748,7 +9766,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ41">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9951,7 +9969,7 @@
         <v>2.33</v>
       </c>
       <c r="AP42">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ42">
         <v>1.06</v>
@@ -10157,7 +10175,7 @@
         <v>0.33</v>
       </c>
       <c r="AP43">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ43">
         <v>0.95</v>
@@ -10285,7 +10303,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q44">
         <v>1.53</v>
@@ -10491,7 +10509,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10778,7 +10796,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR46">
         <v>1.32</v>
@@ -10903,7 +10921,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q47">
         <v>6.5</v>
@@ -10981,7 +10999,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ47">
         <v>2.11</v>
@@ -11187,7 +11205,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ48">
         <v>0.72</v>
@@ -11521,7 +11539,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11599,10 +11617,10 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ50">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -11727,7 +11745,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11808,7 +11826,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ51">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -12014,7 +12032,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ52">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR52">
         <v>1.05</v>
@@ -12217,7 +12235,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ53">
         <v>0.72</v>
@@ -12423,10 +12441,10 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ54">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR54">
         <v>2</v>
@@ -12551,7 +12569,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12757,7 +12775,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12838,7 +12856,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ56">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR56">
         <v>1.48</v>
@@ -13041,7 +13059,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ57">
         <v>1.06</v>
@@ -13169,7 +13187,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q58">
         <v>1.73</v>
@@ -13250,7 +13268,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ58">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13375,7 +13393,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13453,10 +13471,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ59">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR59">
         <v>1.74</v>
@@ -13581,7 +13599,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13868,7 +13886,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ61">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR61">
         <v>1.32</v>
@@ -13993,7 +14011,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14405,7 +14423,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q64">
         <v>7.5</v>
@@ -14611,7 +14629,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q65">
         <v>11</v>
@@ -14692,7 +14710,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ65">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR65">
         <v>1.37</v>
@@ -14895,10 +14913,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ66">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR66">
         <v>1.48</v>
@@ -15104,7 +15122,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ67">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR67">
         <v>1.23</v>
@@ -15229,7 +15247,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15310,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR68">
         <v>0.99</v>
@@ -15435,7 +15453,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q69">
         <v>3.3</v>
@@ -15513,7 +15531,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ69">
         <v>1.11</v>
@@ -15928,7 +15946,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR71">
         <v>0.99</v>
@@ -16053,7 +16071,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q72">
         <v>3.25</v>
@@ -16134,7 +16152,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ72">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR72">
         <v>1.39</v>
@@ -16337,7 +16355,7 @@
         <v>0.4</v>
       </c>
       <c r="AP73">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ73">
         <v>1.11</v>
@@ -16465,7 +16483,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -16877,7 +16895,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>1.5</v>
@@ -16958,7 +16976,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ76">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR76">
         <v>2.44</v>
@@ -17083,7 +17101,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17367,10 +17385,10 @@
         <v>0.71</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ78">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR78">
         <v>1.3</v>
@@ -17985,7 +18003,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ81">
         <v>2.11</v>
@@ -18319,7 +18337,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18525,7 +18543,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18603,10 +18621,10 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ84">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR84">
         <v>1.55</v>
@@ -18731,7 +18749,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -18812,7 +18830,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR85">
         <v>1</v>
@@ -19015,7 +19033,7 @@
         <v>1.14</v>
       </c>
       <c r="AP86">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ86">
         <v>1.06</v>
@@ -19430,7 +19448,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ88">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR88">
         <v>1.21</v>
@@ -19555,7 +19573,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>1.62</v>
@@ -20045,7 +20063,7 @@
         <v>0.43</v>
       </c>
       <c r="AP91">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ91">
         <v>1.11</v>
@@ -20173,7 +20191,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20457,10 +20475,10 @@
         <v>0.86</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ93">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR93">
         <v>1.3</v>
@@ -20585,7 +20603,7 @@
         <v>129</v>
       </c>
       <c r="P94" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20663,10 +20681,10 @@
         <v>1.71</v>
       </c>
       <c r="AP94">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ94">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR94">
         <v>1.2</v>
@@ -20791,7 +20809,7 @@
         <v>84</v>
       </c>
       <c r="P95" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20997,7 +21015,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>2.88</v>
@@ -21203,7 +21221,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q97">
         <v>1.57</v>
@@ -21409,7 +21427,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q98">
         <v>6.5</v>
@@ -21487,10 +21505,10 @@
         <v>2.75</v>
       </c>
       <c r="AP98">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ98">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR98">
         <v>1.55</v>
@@ -21615,7 +21633,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21899,10 +21917,10 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ100">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR100">
         <v>1.33</v>
@@ -22439,7 +22457,7 @@
         <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22520,7 +22538,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ103">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR103">
         <v>2.45</v>
@@ -22645,7 +22663,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -22723,10 +22741,10 @@
         <v>0.63</v>
       </c>
       <c r="AP104">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ104">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -23138,7 +23156,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ106">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR106">
         <v>2.43</v>
@@ -23547,7 +23565,7 @@
         <v>0.38</v>
       </c>
       <c r="AP108">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ108">
         <v>0.72</v>
@@ -23675,7 +23693,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q109">
         <v>7.5</v>
@@ -23881,7 +23899,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -23962,7 +23980,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ110">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR110">
         <v>1.29</v>
@@ -24371,7 +24389,7 @@
         <v>0.78</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ112">
         <v>1.11</v>
@@ -24499,7 +24517,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -24577,10 +24595,10 @@
         <v>1.67</v>
       </c>
       <c r="AP113">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ113">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR113">
         <v>1.47</v>
@@ -24911,7 +24929,7 @@
         <v>156</v>
       </c>
       <c r="P115" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q115">
         <v>2.3</v>
@@ -24992,7 +25010,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ115">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -25117,7 +25135,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25195,7 +25213,7 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ116">
         <v>1.06</v>
@@ -25323,7 +25341,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q117">
         <v>2.55</v>
@@ -25404,7 +25422,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ117">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR117">
         <v>1.32</v>
@@ -25529,7 +25547,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q118">
         <v>2.6</v>
@@ -25607,7 +25625,7 @@
         <v>1.13</v>
       </c>
       <c r="AP118">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ118">
         <v>0.95</v>
@@ -25735,7 +25753,7 @@
         <v>123</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>4.75</v>
@@ -25816,7 +25834,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR119">
         <v>1.1</v>
@@ -26147,7 +26165,7 @@
         <v>84</v>
       </c>
       <c r="P121" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q121">
         <v>3.75</v>
@@ -26353,7 +26371,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26431,10 +26449,10 @@
         <v>0.78</v>
       </c>
       <c r="AP122">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ122">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR122">
         <v>1.45</v>
@@ -26559,7 +26577,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -26637,10 +26655,10 @@
         <v>2.5</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ123">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR123">
         <v>1.33</v>
@@ -26765,7 +26783,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26971,7 +26989,7 @@
         <v>132</v>
       </c>
       <c r="P125" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q125">
         <v>4.5</v>
@@ -27177,7 +27195,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -27255,7 +27273,7 @@
         <v>2.2</v>
       </c>
       <c r="AP126">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ126">
         <v>2.11</v>
@@ -27461,7 +27479,7 @@
         <v>2.27</v>
       </c>
       <c r="AP127">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ127">
         <v>2.11</v>
@@ -27589,7 +27607,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27667,7 +27685,7 @@
         <v>1.2</v>
       </c>
       <c r="AP128">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ128">
         <v>1.11</v>
@@ -27876,7 +27894,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ129">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR129">
         <v>2.36</v>
@@ -28207,7 +28225,7 @@
         <v>132</v>
       </c>
       <c r="P131" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q131">
         <v>3.5</v>
@@ -28413,7 +28431,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28494,7 +28512,7 @@
         <v>1</v>
       </c>
       <c r="AQ132">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR132">
         <v>1.16</v>
@@ -28619,7 +28637,7 @@
         <v>166</v>
       </c>
       <c r="P133" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>2.3</v>
@@ -28697,7 +28715,7 @@
         <v>1.18</v>
       </c>
       <c r="AP133">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ133">
         <v>0.95</v>
@@ -28906,7 +28924,7 @@
         <v>1</v>
       </c>
       <c r="AQ134">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR134">
         <v>1.16</v>
@@ -29109,10 +29127,10 @@
         <v>2.55</v>
       </c>
       <c r="AP135">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ135">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29237,7 +29255,7 @@
         <v>84</v>
       </c>
       <c r="P136" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q136">
         <v>3.1</v>
@@ -29524,7 +29542,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ137">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR137">
         <v>2.16</v>
@@ -29649,7 +29667,7 @@
         <v>170</v>
       </c>
       <c r="P138" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q138">
         <v>3.6</v>
@@ -29855,7 +29873,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q139">
         <v>2.75</v>
@@ -29933,7 +29951,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ139">
         <v>1.06</v>
@@ -30061,7 +30079,7 @@
         <v>171</v>
       </c>
       <c r="P140" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30142,7 +30160,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ140">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR140">
         <v>1.21</v>
@@ -30348,7 +30366,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ141">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR141">
         <v>1.31</v>
@@ -30473,7 +30491,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q142">
         <v>1.73</v>
@@ -30679,7 +30697,7 @@
         <v>84</v>
       </c>
       <c r="P143" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q143">
         <v>4.25</v>
@@ -30760,7 +30778,7 @@
         <v>1</v>
       </c>
       <c r="AQ143">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR143">
         <v>1.15</v>
@@ -30963,10 +30981,10 @@
         <v>0.42</v>
       </c>
       <c r="AP144">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ144">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR144">
         <v>1.49</v>
@@ -31091,7 +31109,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q145">
         <v>7.01</v>
@@ -31169,10 +31187,10 @@
         <v>2.42</v>
       </c>
       <c r="AP145">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ145">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR145">
         <v>1.34</v>
@@ -31375,7 +31393,7 @@
         <v>1.17</v>
       </c>
       <c r="AP146">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ146">
         <v>0.95</v>
@@ -31503,7 +31521,7 @@
         <v>177</v>
       </c>
       <c r="P147" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31709,7 +31727,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q148">
         <v>1.57</v>
@@ -31790,7 +31808,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ148">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR148">
         <v>2.22</v>
@@ -31915,7 +31933,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q149">
         <v>2.3</v>
@@ -31993,10 +32011,10 @@
         <v>0.82</v>
       </c>
       <c r="AP149">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR149">
         <v>1.27</v>
@@ -32121,7 +32139,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32199,7 +32217,7 @@
         <v>1.18</v>
       </c>
       <c r="AP150">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ150">
         <v>1.11</v>
@@ -32614,7 +32632,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ152">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR152">
         <v>1.34</v>
@@ -32820,7 +32838,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ153">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR153">
         <v>1.6</v>
@@ -33151,7 +33169,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -33438,7 +33456,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ156">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR156">
         <v>2.4</v>
@@ -33641,7 +33659,7 @@
         <v>0.58</v>
       </c>
       <c r="AP157">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ157">
         <v>0.72</v>
@@ -33769,7 +33787,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33850,7 +33868,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ158">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR158">
         <v>1.24</v>
@@ -34053,7 +34071,7 @@
         <v>1</v>
       </c>
       <c r="AP159">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ159">
         <v>1.06</v>
@@ -34259,7 +34277,7 @@
         <v>1.08</v>
       </c>
       <c r="AP160">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ160">
         <v>0.95</v>
@@ -34387,7 +34405,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -34468,7 +34486,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ161">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR161">
         <v>1.35</v>
@@ -34799,7 +34817,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q163">
         <v>2.3</v>
@@ -34877,7 +34895,7 @@
         <v>0.54</v>
       </c>
       <c r="AP163">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ163">
         <v>0.72</v>
@@ -35211,7 +35229,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -35417,7 +35435,7 @@
         <v>138</v>
       </c>
       <c r="P166" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -35495,7 +35513,7 @@
         <v>2.38</v>
       </c>
       <c r="AP166">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ166">
         <v>2.11</v>
@@ -35623,7 +35641,7 @@
         <v>165</v>
       </c>
       <c r="P167" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q167">
         <v>3.6</v>
@@ -35704,7 +35722,7 @@
         <v>1</v>
       </c>
       <c r="AQ167">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR167">
         <v>1.17</v>
@@ -35829,7 +35847,7 @@
         <v>193</v>
       </c>
       <c r="P168" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -36113,7 +36131,7 @@
         <v>0.92</v>
       </c>
       <c r="AP169">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ169">
         <v>1.06</v>
@@ -36322,7 +36340,7 @@
         <v>1</v>
       </c>
       <c r="AQ170">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR170">
         <v>1.08</v>
@@ -36525,10 +36543,10 @@
         <v>0.57</v>
       </c>
       <c r="AP171">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ171">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR171">
         <v>1.38</v>
@@ -36653,7 +36671,7 @@
         <v>175</v>
       </c>
       <c r="P172" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q172">
         <v>1.57</v>
@@ -36734,7 +36752,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ172">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR172">
         <v>2.39</v>
@@ -36940,7 +36958,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ173">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR173">
         <v>1.61</v>
@@ -37065,7 +37083,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37477,7 +37495,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q176">
         <v>1.4</v>
@@ -37761,10 +37779,10 @@
         <v>0.4</v>
       </c>
       <c r="AP177">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ177">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR177">
         <v>1.39</v>
@@ -37889,7 +37907,7 @@
         <v>202</v>
       </c>
       <c r="P178" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q178">
         <v>2.88</v>
@@ -37967,7 +37985,7 @@
         <v>1.07</v>
       </c>
       <c r="AP178">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ178">
         <v>1.06</v>
@@ -38301,7 +38319,7 @@
         <v>203</v>
       </c>
       <c r="P180" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q180">
         <v>4.5</v>
@@ -38382,7 +38400,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ180">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR180">
         <v>1.21</v>
@@ -38713,7 +38731,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q182">
         <v>3.2</v>
@@ -38919,7 +38937,7 @@
         <v>175</v>
       </c>
       <c r="P183" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q183">
         <v>3.4</v>
@@ -39125,7 +39143,7 @@
         <v>206</v>
       </c>
       <c r="P184" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39203,10 +39221,10 @@
         <v>0.53</v>
       </c>
       <c r="AP184">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ184">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR184">
         <v>1.44</v>
@@ -39331,7 +39349,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q185">
         <v>2.63</v>
@@ -39537,7 +39555,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -39618,7 +39636,7 @@
         <v>1</v>
       </c>
       <c r="AQ186">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR186">
         <v>1.18</v>
@@ -39743,7 +39761,7 @@
         <v>83</v>
       </c>
       <c r="P187" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -39821,10 +39839,10 @@
         <v>1.8</v>
       </c>
       <c r="AP187">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ187">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR187">
         <v>1.32</v>
@@ -39949,7 +39967,7 @@
         <v>208</v>
       </c>
       <c r="P188" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40030,7 +40048,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ188">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR188">
         <v>1.37</v>
@@ -40155,7 +40173,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q189">
         <v>2.1</v>
@@ -40233,7 +40251,7 @@
         <v>0.67</v>
       </c>
       <c r="AP189">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ189">
         <v>0.72</v>
@@ -40439,10 +40457,10 @@
         <v>0.5</v>
       </c>
       <c r="AP190">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ190">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR190">
         <v>1.54</v>
@@ -40773,7 +40791,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q192">
         <v>2.88</v>
@@ -40854,7 +40872,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ192">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR192">
         <v>2.39</v>
@@ -41057,7 +41075,7 @@
         <v>1.06</v>
       </c>
       <c r="AP193">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ193">
         <v>0.95</v>
@@ -41391,7 +41409,7 @@
         <v>212</v>
       </c>
       <c r="P195" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q195">
         <v>1.91</v>
@@ -41472,7 +41490,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ195">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR195">
         <v>1.61</v>
@@ -41803,7 +41821,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q197">
         <v>4.33</v>
@@ -42009,7 +42027,7 @@
         <v>214</v>
       </c>
       <c r="P198" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q198">
         <v>7.5</v>
@@ -42421,7 +42439,7 @@
         <v>97</v>
       </c>
       <c r="P200" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q200">
         <v>4.33</v>
@@ -42708,7 +42726,7 @@
         <v>1</v>
       </c>
       <c r="AQ201">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR201">
         <v>1.12</v>
@@ -42911,10 +42929,10 @@
         <v>1.88</v>
       </c>
       <c r="AP202">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ202">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR202">
         <v>1.53</v>
@@ -43117,10 +43135,10 @@
         <v>1.19</v>
       </c>
       <c r="AP203">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ203">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR203">
         <v>1.42</v>
@@ -43245,7 +43263,7 @@
         <v>136</v>
       </c>
       <c r="P204" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q204">
         <v>7</v>
@@ -43323,7 +43341,7 @@
         <v>2.19</v>
       </c>
       <c r="AP204">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ204">
         <v>2.11</v>
@@ -43451,7 +43469,7 @@
         <v>205</v>
       </c>
       <c r="P205" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q205">
         <v>8</v>
@@ -43532,7 +43550,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ205">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR205">
         <v>1.29</v>
@@ -43738,7 +43756,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ206">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR206">
         <v>2.3</v>
@@ -43863,7 +43881,7 @@
         <v>217</v>
       </c>
       <c r="P207" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q207">
         <v>3.2</v>
@@ -44147,7 +44165,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP208">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ208">
         <v>0.72</v>
@@ -44275,7 +44293,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -44356,7 +44374,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ209">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR209">
         <v>1.31</v>
@@ -44481,7 +44499,7 @@
         <v>219</v>
       </c>
       <c r="P210" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -44687,7 +44705,7 @@
         <v>220</v>
       </c>
       <c r="P211" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q211">
         <v>1.67</v>
@@ -45099,7 +45117,7 @@
         <v>222</v>
       </c>
       <c r="P213" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45180,7 +45198,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ213">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR213">
         <v>1.24</v>
@@ -45383,7 +45401,7 @@
         <v>1</v>
       </c>
       <c r="AP214">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ214">
         <v>1.11</v>
@@ -45717,7 +45735,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q216">
         <v>3.5</v>
@@ -45923,7 +45941,7 @@
         <v>84</v>
       </c>
       <c r="P217" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46001,7 +46019,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP217">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ217">
         <v>1.06</v>
@@ -46129,7 +46147,7 @@
         <v>225</v>
       </c>
       <c r="P218" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q218">
         <v>1.48</v>
@@ -46286,6 +46304,1036 @@
       </c>
       <c r="BP218">
         <v>1.81</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7415810</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45427.64583333334</v>
+      </c>
+      <c r="F219">
+        <v>37</v>
+      </c>
+      <c r="G219" t="s">
+        <v>74</v>
+      </c>
+      <c r="H219" t="s">
+        <v>70</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>3</v>
+      </c>
+      <c r="K219">
+        <v>3</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>5</v>
+      </c>
+      <c r="N219">
+        <v>5</v>
+      </c>
+      <c r="O219" t="s">
+        <v>84</v>
+      </c>
+      <c r="P219" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q219">
+        <v>6.25</v>
+      </c>
+      <c r="R219">
+        <v>2.6</v>
+      </c>
+      <c r="S219">
+        <v>1.73</v>
+      </c>
+      <c r="T219">
+        <v>1.22</v>
+      </c>
+      <c r="U219">
+        <v>3.75</v>
+      </c>
+      <c r="V219">
+        <v>2.1</v>
+      </c>
+      <c r="W219">
+        <v>1.65</v>
+      </c>
+      <c r="X219">
+        <v>4.33</v>
+      </c>
+      <c r="Y219">
+        <v>1.18</v>
+      </c>
+      <c r="Z219">
+        <v>7.9</v>
+      </c>
+      <c r="AA219">
+        <v>4.95</v>
+      </c>
+      <c r="AB219">
+        <v>1.33</v>
+      </c>
+      <c r="AC219">
+        <v>1.02</v>
+      </c>
+      <c r="AD219">
+        <v>23.5</v>
+      </c>
+      <c r="AE219">
+        <v>1.14</v>
+      </c>
+      <c r="AF219">
+        <v>5.5</v>
+      </c>
+      <c r="AG219">
+        <v>1.5</v>
+      </c>
+      <c r="AH219">
+        <v>2.4</v>
+      </c>
+      <c r="AI219">
+        <v>1.73</v>
+      </c>
+      <c r="AJ219">
+        <v>2</v>
+      </c>
+      <c r="AK219">
+        <v>3.2</v>
+      </c>
+      <c r="AL219">
+        <v>1.11</v>
+      </c>
+      <c r="AM219">
+        <v>1.07</v>
+      </c>
+      <c r="AN219">
+        <v>1.94</v>
+      </c>
+      <c r="AO219">
+        <v>2.33</v>
+      </c>
+      <c r="AP219">
+        <v>1.84</v>
+      </c>
+      <c r="AQ219">
+        <v>2.37</v>
+      </c>
+      <c r="AR219">
+        <v>1.51</v>
+      </c>
+      <c r="AS219">
+        <v>2.04</v>
+      </c>
+      <c r="AT219">
+        <v>3.55</v>
+      </c>
+      <c r="AU219">
+        <v>3</v>
+      </c>
+      <c r="AV219">
+        <v>13</v>
+      </c>
+      <c r="AW219">
+        <v>7</v>
+      </c>
+      <c r="AX219">
+        <v>6</v>
+      </c>
+      <c r="AY219">
+        <v>10</v>
+      </c>
+      <c r="AZ219">
+        <v>19</v>
+      </c>
+      <c r="BA219">
+        <v>2</v>
+      </c>
+      <c r="BB219">
+        <v>9</v>
+      </c>
+      <c r="BC219">
+        <v>11</v>
+      </c>
+      <c r="BD219">
+        <v>4.11</v>
+      </c>
+      <c r="BE219">
+        <v>10</v>
+      </c>
+      <c r="BF219">
+        <v>1.31</v>
+      </c>
+      <c r="BG219">
+        <v>1.12</v>
+      </c>
+      <c r="BH219">
+        <v>5.25</v>
+      </c>
+      <c r="BI219">
+        <v>1.24</v>
+      </c>
+      <c r="BJ219">
+        <v>3.55</v>
+      </c>
+      <c r="BK219">
+        <v>1.44</v>
+      </c>
+      <c r="BL219">
+        <v>2.55</v>
+      </c>
+      <c r="BM219">
+        <v>1.73</v>
+      </c>
+      <c r="BN219">
+        <v>2</v>
+      </c>
+      <c r="BO219">
+        <v>2.17</v>
+      </c>
+      <c r="BP219">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7415811</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45427.65625</v>
+      </c>
+      <c r="F220">
+        <v>37</v>
+      </c>
+      <c r="G220" t="s">
+        <v>76</v>
+      </c>
+      <c r="H220" t="s">
+        <v>80</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>2</v>
+      </c>
+      <c r="M220">
+        <v>2</v>
+      </c>
+      <c r="N220">
+        <v>4</v>
+      </c>
+      <c r="O220" t="s">
+        <v>226</v>
+      </c>
+      <c r="P220" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q220">
+        <v>3.1</v>
+      </c>
+      <c r="R220">
+        <v>2</v>
+      </c>
+      <c r="S220">
+        <v>3.3</v>
+      </c>
+      <c r="T220">
+        <v>1.42</v>
+      </c>
+      <c r="U220">
+        <v>2.65</v>
+      </c>
+      <c r="V220">
+        <v>2.85</v>
+      </c>
+      <c r="W220">
+        <v>1.36</v>
+      </c>
+      <c r="X220">
+        <v>7</v>
+      </c>
+      <c r="Y220">
+        <v>1.07</v>
+      </c>
+      <c r="Z220">
+        <v>2.62</v>
+      </c>
+      <c r="AA220">
+        <v>3.3</v>
+      </c>
+      <c r="AB220">
+        <v>2.54</v>
+      </c>
+      <c r="AC220">
+        <v>1.07</v>
+      </c>
+      <c r="AD220">
+        <v>8</v>
+      </c>
+      <c r="AE220">
+        <v>1.33</v>
+      </c>
+      <c r="AF220">
+        <v>3.2</v>
+      </c>
+      <c r="AG220">
+        <v>2.02</v>
+      </c>
+      <c r="AH220">
+        <v>1.82</v>
+      </c>
+      <c r="AI220">
+        <v>1.73</v>
+      </c>
+      <c r="AJ220">
+        <v>2</v>
+      </c>
+      <c r="AK220">
+        <v>1.42</v>
+      </c>
+      <c r="AL220">
+        <v>1.3</v>
+      </c>
+      <c r="AM220">
+        <v>1.5</v>
+      </c>
+      <c r="AN220">
+        <v>1.5</v>
+      </c>
+      <c r="AO220">
+        <v>1.72</v>
+      </c>
+      <c r="AP220">
+        <v>1.47</v>
+      </c>
+      <c r="AQ220">
+        <v>1.68</v>
+      </c>
+      <c r="AR220">
+        <v>1.29</v>
+      </c>
+      <c r="AS220">
+        <v>1.3</v>
+      </c>
+      <c r="AT220">
+        <v>2.59</v>
+      </c>
+      <c r="AU220">
+        <v>6</v>
+      </c>
+      <c r="AV220">
+        <v>5</v>
+      </c>
+      <c r="AW220">
+        <v>6</v>
+      </c>
+      <c r="AX220">
+        <v>2</v>
+      </c>
+      <c r="AY220">
+        <v>12</v>
+      </c>
+      <c r="AZ220">
+        <v>7</v>
+      </c>
+      <c r="BA220">
+        <v>4</v>
+      </c>
+      <c r="BB220">
+        <v>3</v>
+      </c>
+      <c r="BC220">
+        <v>7</v>
+      </c>
+      <c r="BD220">
+        <v>2</v>
+      </c>
+      <c r="BE220">
+        <v>8.5</v>
+      </c>
+      <c r="BF220">
+        <v>2</v>
+      </c>
+      <c r="BG220">
+        <v>1.13</v>
+      </c>
+      <c r="BH220">
+        <v>5</v>
+      </c>
+      <c r="BI220">
+        <v>1.23</v>
+      </c>
+      <c r="BJ220">
+        <v>3.65</v>
+      </c>
+      <c r="BK220">
+        <v>1.41</v>
+      </c>
+      <c r="BL220">
+        <v>2.63</v>
+      </c>
+      <c r="BM220">
+        <v>1.77</v>
+      </c>
+      <c r="BN220">
+        <v>1.95</v>
+      </c>
+      <c r="BO220">
+        <v>2.12</v>
+      </c>
+      <c r="BP220">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7415812</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45427.65625</v>
+      </c>
+      <c r="F221">
+        <v>37</v>
+      </c>
+      <c r="G221" t="s">
+        <v>79</v>
+      </c>
+      <c r="H221" t="s">
+        <v>72</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>5</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>6</v>
+      </c>
+      <c r="O221" t="s">
+        <v>227</v>
+      </c>
+      <c r="P221" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q221">
+        <v>2.05</v>
+      </c>
+      <c r="R221">
+        <v>2.25</v>
+      </c>
+      <c r="S221">
+        <v>5.75</v>
+      </c>
+      <c r="T221">
+        <v>1.35</v>
+      </c>
+      <c r="U221">
+        <v>2.95</v>
+      </c>
+      <c r="V221">
+        <v>2.55</v>
+      </c>
+      <c r="W221">
+        <v>1.45</v>
+      </c>
+      <c r="X221">
+        <v>5.75</v>
+      </c>
+      <c r="Y221">
+        <v>1.1</v>
+      </c>
+      <c r="Z221">
+        <v>1.52</v>
+      </c>
+      <c r="AA221">
+        <v>4.1</v>
+      </c>
+      <c r="AB221">
+        <v>5.6</v>
+      </c>
+      <c r="AC221">
+        <v>1.05</v>
+      </c>
+      <c r="AD221">
+        <v>9.5</v>
+      </c>
+      <c r="AE221">
+        <v>1.25</v>
+      </c>
+      <c r="AF221">
+        <v>3.75</v>
+      </c>
+      <c r="AG221">
+        <v>1.85</v>
+      </c>
+      <c r="AH221">
+        <v>1.85</v>
+      </c>
+      <c r="AI221">
+        <v>1.77</v>
+      </c>
+      <c r="AJ221">
+        <v>1.93</v>
+      </c>
+      <c r="AK221">
+        <v>1.12</v>
+      </c>
+      <c r="AL221">
+        <v>1.2</v>
+      </c>
+      <c r="AM221">
+        <v>2.35</v>
+      </c>
+      <c r="AN221">
+        <v>1.39</v>
+      </c>
+      <c r="AO221">
+        <v>0.33</v>
+      </c>
+      <c r="AP221">
+        <v>1.47</v>
+      </c>
+      <c r="AQ221">
+        <v>0.32</v>
+      </c>
+      <c r="AR221">
+        <v>1.47</v>
+      </c>
+      <c r="AS221">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT221">
+        <v>2.41</v>
+      </c>
+      <c r="AU221">
+        <v>8</v>
+      </c>
+      <c r="AV221">
+        <v>4</v>
+      </c>
+      <c r="AW221">
+        <v>6</v>
+      </c>
+      <c r="AX221">
+        <v>3</v>
+      </c>
+      <c r="AY221">
+        <v>14</v>
+      </c>
+      <c r="AZ221">
+        <v>7</v>
+      </c>
+      <c r="BA221">
+        <v>6</v>
+      </c>
+      <c r="BB221">
+        <v>2</v>
+      </c>
+      <c r="BC221">
+        <v>8</v>
+      </c>
+      <c r="BD221">
+        <v>1.34</v>
+      </c>
+      <c r="BE221">
+        <v>9.5</v>
+      </c>
+      <c r="BF221">
+        <v>3.86</v>
+      </c>
+      <c r="BG221">
+        <v>1.16</v>
+      </c>
+      <c r="BH221">
+        <v>4.5</v>
+      </c>
+      <c r="BI221">
+        <v>1.3</v>
+      </c>
+      <c r="BJ221">
+        <v>3.05</v>
+      </c>
+      <c r="BK221">
+        <v>1.55</v>
+      </c>
+      <c r="BL221">
+        <v>2.25</v>
+      </c>
+      <c r="BM221">
+        <v>1.95</v>
+      </c>
+      <c r="BN221">
+        <v>1.77</v>
+      </c>
+      <c r="BO221">
+        <v>2.45</v>
+      </c>
+      <c r="BP221">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7415813</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45427.65625</v>
+      </c>
+      <c r="F222">
+        <v>37</v>
+      </c>
+      <c r="G222" t="s">
+        <v>75</v>
+      </c>
+      <c r="H222" t="s">
+        <v>81</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>3</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>3</v>
+      </c>
+      <c r="O222" t="s">
+        <v>228</v>
+      </c>
+      <c r="P222" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q222">
+        <v>2.3</v>
+      </c>
+      <c r="R222">
+        <v>2.15</v>
+      </c>
+      <c r="S222">
+        <v>4.5</v>
+      </c>
+      <c r="T222">
+        <v>1.36</v>
+      </c>
+      <c r="U222">
+        <v>2.9</v>
+      </c>
+      <c r="V222">
+        <v>2.55</v>
+      </c>
+      <c r="W222">
+        <v>1.45</v>
+      </c>
+      <c r="X222">
+        <v>6</v>
+      </c>
+      <c r="Y222">
+        <v>1.09</v>
+      </c>
+      <c r="Z222">
+        <v>1.85</v>
+      </c>
+      <c r="AA222">
+        <v>3.7</v>
+      </c>
+      <c r="AB222">
+        <v>3.7</v>
+      </c>
+      <c r="AC222">
+        <v>1.05</v>
+      </c>
+      <c r="AD222">
+        <v>9.5</v>
+      </c>
+      <c r="AE222">
+        <v>1.25</v>
+      </c>
+      <c r="AF222">
+        <v>3.75</v>
+      </c>
+      <c r="AG222">
+        <v>1.8</v>
+      </c>
+      <c r="AH222">
+        <v>1.91</v>
+      </c>
+      <c r="AI222">
+        <v>1.7</v>
+      </c>
+      <c r="AJ222">
+        <v>2.05</v>
+      </c>
+      <c r="AK222">
+        <v>1.2</v>
+      </c>
+      <c r="AL222">
+        <v>1.22</v>
+      </c>
+      <c r="AM222">
+        <v>1.95</v>
+      </c>
+      <c r="AN222">
+        <v>1.22</v>
+      </c>
+      <c r="AO222">
+        <v>1.22</v>
+      </c>
+      <c r="AP222">
+        <v>1.32</v>
+      </c>
+      <c r="AQ222">
+        <v>1.16</v>
+      </c>
+      <c r="AR222">
+        <v>1.4</v>
+      </c>
+      <c r="AS222">
+        <v>1.24</v>
+      </c>
+      <c r="AT222">
+        <v>2.64</v>
+      </c>
+      <c r="AU222">
+        <v>6</v>
+      </c>
+      <c r="AV222">
+        <v>4</v>
+      </c>
+      <c r="AW222">
+        <v>4</v>
+      </c>
+      <c r="AX222">
+        <v>4</v>
+      </c>
+      <c r="AY222">
+        <v>10</v>
+      </c>
+      <c r="AZ222">
+        <v>8</v>
+      </c>
+      <c r="BA222">
+        <v>8</v>
+      </c>
+      <c r="BB222">
+        <v>4</v>
+      </c>
+      <c r="BC222">
+        <v>12</v>
+      </c>
+      <c r="BD222">
+        <v>1.45</v>
+      </c>
+      <c r="BE222">
+        <v>9</v>
+      </c>
+      <c r="BF222">
+        <v>3.19</v>
+      </c>
+      <c r="BG222">
+        <v>1.17</v>
+      </c>
+      <c r="BH222">
+        <v>4.5</v>
+      </c>
+      <c r="BI222">
+        <v>1.21</v>
+      </c>
+      <c r="BJ222">
+        <v>3.8</v>
+      </c>
+      <c r="BK222">
+        <v>1.38</v>
+      </c>
+      <c r="BL222">
+        <v>2.7</v>
+      </c>
+      <c r="BM222">
+        <v>1.7</v>
+      </c>
+      <c r="BN222">
+        <v>2.05</v>
+      </c>
+      <c r="BO222">
+        <v>2.07</v>
+      </c>
+      <c r="BP222">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7415814</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45427.65625</v>
+      </c>
+      <c r="F223">
+        <v>37</v>
+      </c>
+      <c r="G223" t="s">
+        <v>73</v>
+      </c>
+      <c r="H223" t="s">
+        <v>78</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>2</v>
+      </c>
+      <c r="O223" t="s">
+        <v>229</v>
+      </c>
+      <c r="P223" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q223">
+        <v>2.95</v>
+      </c>
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
+        <v>3.6</v>
+      </c>
+      <c r="T223">
+        <v>1.45</v>
+      </c>
+      <c r="U223">
+        <v>2.55</v>
+      </c>
+      <c r="V223">
+        <v>3</v>
+      </c>
+      <c r="W223">
+        <v>1.33</v>
+      </c>
+      <c r="X223">
+        <v>7</v>
+      </c>
+      <c r="Y223">
+        <v>1.06</v>
+      </c>
+      <c r="Z223">
+        <v>2.28</v>
+      </c>
+      <c r="AA223">
+        <v>3.25</v>
+      </c>
+      <c r="AB223">
+        <v>2.89</v>
+      </c>
+      <c r="AC223">
+        <v>1.07</v>
+      </c>
+      <c r="AD223">
+        <v>8</v>
+      </c>
+      <c r="AE223">
+        <v>1.38</v>
+      </c>
+      <c r="AF223">
+        <v>3</v>
+      </c>
+      <c r="AG223">
+        <v>2.25</v>
+      </c>
+      <c r="AH223">
+        <v>1.57</v>
+      </c>
+      <c r="AI223">
+        <v>1.8</v>
+      </c>
+      <c r="AJ223">
+        <v>1.9</v>
+      </c>
+      <c r="AK223">
+        <v>1.36</v>
+      </c>
+      <c r="AL223">
+        <v>1.3</v>
+      </c>
+      <c r="AM223">
+        <v>1.57</v>
+      </c>
+      <c r="AN223">
+        <v>1</v>
+      </c>
+      <c r="AO223">
+        <v>0.44</v>
+      </c>
+      <c r="AP223">
+        <v>1</v>
+      </c>
+      <c r="AQ223">
+        <v>0.47</v>
+      </c>
+      <c r="AR223">
+        <v>1.13</v>
+      </c>
+      <c r="AS223">
+        <v>1.07</v>
+      </c>
+      <c r="AT223">
+        <v>2.2</v>
+      </c>
+      <c r="AU223">
+        <v>4</v>
+      </c>
+      <c r="AV223">
+        <v>6</v>
+      </c>
+      <c r="AW223">
+        <v>4</v>
+      </c>
+      <c r="AX223">
+        <v>1</v>
+      </c>
+      <c r="AY223">
+        <v>8</v>
+      </c>
+      <c r="AZ223">
+        <v>7</v>
+      </c>
+      <c r="BA223">
+        <v>4</v>
+      </c>
+      <c r="BB223">
+        <v>4</v>
+      </c>
+      <c r="BC223">
+        <v>8</v>
+      </c>
+      <c r="BD223">
+        <v>1.91</v>
+      </c>
+      <c r="BE223">
+        <v>8</v>
+      </c>
+      <c r="BF223">
+        <v>2.1</v>
+      </c>
+      <c r="BG223">
+        <v>1.17</v>
+      </c>
+      <c r="BH223">
+        <v>4.3</v>
+      </c>
+      <c r="BI223">
+        <v>1.33</v>
+      </c>
+      <c r="BJ223">
+        <v>2.95</v>
+      </c>
+      <c r="BK223">
+        <v>1.58</v>
+      </c>
+      <c r="BL223">
+        <v>2.2</v>
+      </c>
+      <c r="BM223">
+        <v>1.95</v>
+      </c>
+      <c r="BN223">
+        <v>1.77</v>
+      </c>
+      <c r="BO223">
+        <v>2.55</v>
+      </c>
+      <c r="BP223">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="343">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,12 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['21', '37', '86']</t>
+  </si>
+  <si>
+    <t>['33', '82', '90+5']</t>
+  </si>
+  <si>
     <t>['60', '90+5']</t>
   </si>
   <si>
@@ -1031,6 +1037,12 @@
   </si>
   <si>
     <t>['52']</t>
+  </si>
+  <si>
+    <t>['7', '26']</t>
+  </si>
+  <si>
+    <t>['52', '69', '79']</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1651,7 +1663,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q2">
         <v>1.44</v>
@@ -1729,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ2">
         <v>0.47</v>
@@ -1857,7 +1869,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1935,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ3">
         <v>1.16</v>
@@ -2269,7 +2281,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2556,7 +2568,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ6">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2681,7 +2693,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2762,7 +2774,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ7">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3505,7 +3517,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3789,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12">
         <v>1.11</v>
@@ -4123,7 +4135,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4204,7 +4216,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ14">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR14">
         <v>1.92</v>
@@ -4407,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ15">
         <v>0.72</v>
@@ -4535,7 +4547,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4741,7 +4753,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -5025,7 +5037,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ18">
         <v>1.68</v>
@@ -5153,7 +5165,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5359,7 +5371,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5565,7 +5577,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q21">
         <v>3.25</v>
@@ -5771,7 +5783,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5852,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.25</v>
@@ -6183,7 +6195,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6261,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ24">
         <v>1.16</v>
@@ -6389,7 +6401,7 @@
         <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6595,7 +6607,7 @@
         <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6676,7 +6688,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR26">
         <v>1.11</v>
@@ -6879,7 +6891,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ27">
         <v>0.95</v>
@@ -7085,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ28">
         <v>1.06</v>
@@ -7213,7 +7225,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7419,7 +7431,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7500,7 +7512,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ30">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.42</v>
@@ -7625,7 +7637,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7831,7 +7843,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -8037,7 +8049,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -8115,7 +8127,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ33">
         <v>1.11</v>
@@ -9067,7 +9079,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9479,7 +9491,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q40">
         <v>1.67</v>
@@ -9685,7 +9697,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9972,7 +9984,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ42">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10303,7 +10315,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q44">
         <v>1.53</v>
@@ -10381,7 +10393,7 @@
         <v>0.67</v>
       </c>
       <c r="AP44">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ44">
         <v>1.11</v>
@@ -10509,7 +10521,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10587,7 +10599,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
         <v>1.11</v>
@@ -10921,7 +10933,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q47">
         <v>6.5</v>
@@ -11002,7 +11014,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ47">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR47">
         <v>1.4</v>
@@ -11539,7 +11551,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11745,7 +11757,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11823,7 +11835,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ51">
         <v>2.37</v>
@@ -12029,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ52">
         <v>0.47</v>
@@ -12569,7 +12581,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12775,7 +12787,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13187,7 +13199,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q58">
         <v>1.73</v>
@@ -13393,7 +13405,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13599,7 +13611,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13883,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ61">
         <v>0.32</v>
@@ -14011,7 +14023,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14295,10 +14307,10 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ63">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>2.33</v>
@@ -14423,7 +14435,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q64">
         <v>7.5</v>
@@ -14501,10 +14513,10 @@
         <v>2.25</v>
       </c>
       <c r="AP64">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ64">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR64">
         <v>1.26</v>
@@ -14629,7 +14641,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q65">
         <v>11</v>
@@ -15119,7 +15131,7 @@
         <v>0.83</v>
       </c>
       <c r="AP67">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ67">
         <v>0.32</v>
@@ -15247,7 +15259,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15453,7 +15465,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q69">
         <v>3.3</v>
@@ -15737,10 +15749,10 @@
         <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ70">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -16071,7 +16083,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q72">
         <v>3.25</v>
@@ -16483,7 +16495,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -16564,7 +16576,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR74">
         <v>1.17</v>
@@ -16767,7 +16779,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ75">
         <v>1.06</v>
@@ -16973,7 +16985,7 @@
         <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ76">
         <v>1.16</v>
@@ -17101,7 +17113,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17179,7 +17191,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ77">
         <v>1.11</v>
@@ -17797,7 +17809,7 @@
         <v>0.4</v>
       </c>
       <c r="AP80">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ80">
         <v>0.72</v>
@@ -18006,7 +18018,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ81">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR81">
         <v>1.24</v>
@@ -18212,7 +18224,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ82">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.25</v>
@@ -18337,7 +18349,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18543,7 +18555,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18749,7 +18761,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -19242,7 +19254,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ87">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>2.04</v>
@@ -19573,7 +19585,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q89">
         <v>1.62</v>
@@ -19651,7 +19663,7 @@
         <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ89">
         <v>1.11</v>
@@ -19860,7 +19872,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>0.99</v>
@@ -20191,7 +20203,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20269,10 +20281,10 @@
         <v>2.29</v>
       </c>
       <c r="AP92">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ92">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR92">
         <v>1.57</v>
@@ -20603,7 +20615,7 @@
         <v>129</v>
       </c>
       <c r="P94" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20809,7 +20821,7 @@
         <v>84</v>
       </c>
       <c r="P95" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -21015,7 +21027,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>2.88</v>
@@ -21221,7 +21233,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q97">
         <v>1.57</v>
@@ -21427,7 +21439,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q98">
         <v>6.5</v>
@@ -21633,7 +21645,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -22457,7 +22469,7 @@
         <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22535,7 +22547,7 @@
         <v>1.5</v>
       </c>
       <c r="AP103">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ103">
         <v>1.68</v>
@@ -22663,7 +22675,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -23153,7 +23165,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP106">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ106">
         <v>0.32</v>
@@ -23359,10 +23371,10 @@
         <v>0.89</v>
       </c>
       <c r="AP107">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ107">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR107">
         <v>1.54</v>
@@ -23693,7 +23705,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q109">
         <v>7.5</v>
@@ -23774,7 +23786,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ109">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR109">
         <v>1.38</v>
@@ -23899,7 +23911,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -23977,7 +23989,7 @@
         <v>2.44</v>
       </c>
       <c r="AP110">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ110">
         <v>2.37</v>
@@ -24517,7 +24529,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -24801,10 +24813,10 @@
         <v>2.44</v>
       </c>
       <c r="AP114">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ114">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR114">
         <v>2.44</v>
@@ -24929,7 +24941,7 @@
         <v>156</v>
       </c>
       <c r="P115" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q115">
         <v>2.3</v>
@@ -25007,7 +25019,7 @@
         <v>0.75</v>
       </c>
       <c r="AP115">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ115">
         <v>0.47</v>
@@ -25135,7 +25147,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25216,7 +25228,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ116">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.29</v>
@@ -25341,7 +25353,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q117">
         <v>2.55</v>
@@ -25547,7 +25559,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q118">
         <v>2.6</v>
@@ -25753,7 +25765,7 @@
         <v>123</v>
       </c>
       <c r="P119" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q119">
         <v>4.75</v>
@@ -26165,7 +26177,7 @@
         <v>84</v>
       </c>
       <c r="P121" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q121">
         <v>3.75</v>
@@ -26371,7 +26383,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26577,7 +26589,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -26783,7 +26795,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26861,7 +26873,7 @@
         <v>1.11</v>
       </c>
       <c r="AP124">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ124">
         <v>0.95</v>
@@ -26989,7 +27001,7 @@
         <v>132</v>
       </c>
       <c r="P125" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q125">
         <v>4.5</v>
@@ -27195,7 +27207,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -27276,7 +27288,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ126">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR126">
         <v>1.43</v>
@@ -27482,7 +27494,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ127">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR127">
         <v>1.24</v>
@@ -27607,7 +27619,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27891,7 +27903,7 @@
         <v>0.78</v>
       </c>
       <c r="AP129">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ129">
         <v>0.47</v>
@@ -28097,7 +28109,7 @@
         <v>1.2</v>
       </c>
       <c r="AP130">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ130">
         <v>1.06</v>
@@ -28225,7 +28237,7 @@
         <v>132</v>
       </c>
       <c r="P131" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q131">
         <v>3.5</v>
@@ -28431,7 +28443,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28637,7 +28649,7 @@
         <v>166</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q133">
         <v>2.3</v>
@@ -29255,7 +29267,7 @@
         <v>84</v>
       </c>
       <c r="P136" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q136">
         <v>3.1</v>
@@ -29667,7 +29679,7 @@
         <v>170</v>
       </c>
       <c r="P138" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q138">
         <v>3.6</v>
@@ -29873,7 +29885,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q139">
         <v>2.75</v>
@@ -29954,7 +29966,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ139">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.38</v>
@@ -30079,7 +30091,7 @@
         <v>171</v>
       </c>
       <c r="P140" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30157,7 +30169,7 @@
         <v>1.91</v>
       </c>
       <c r="AP140">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ140">
         <v>1.68</v>
@@ -30491,7 +30503,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q142">
         <v>1.73</v>
@@ -30697,7 +30709,7 @@
         <v>84</v>
       </c>
       <c r="P143" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q143">
         <v>4.25</v>
@@ -31109,7 +31121,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q145">
         <v>7.01</v>
@@ -31521,7 +31533,7 @@
         <v>177</v>
       </c>
       <c r="P147" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31599,7 +31611,7 @@
         <v>0.64</v>
       </c>
       <c r="AP147">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ147">
         <v>0.72</v>
@@ -31727,7 +31739,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q148">
         <v>1.57</v>
@@ -31933,7 +31945,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q149">
         <v>2.3</v>
@@ -32139,7 +32151,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32423,7 +32435,7 @@
         <v>0.92</v>
       </c>
       <c r="AP151">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ151">
         <v>1.11</v>
@@ -32629,7 +32641,7 @@
         <v>0.62</v>
       </c>
       <c r="AP152">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ152">
         <v>0.47</v>
@@ -32835,7 +32847,7 @@
         <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ153">
         <v>1.16</v>
@@ -33044,7 +33056,7 @@
         <v>1</v>
       </c>
       <c r="AQ154">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR154">
         <v>1.19</v>
@@ -33169,7 +33181,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -33250,7 +33262,7 @@
         <v>1</v>
       </c>
       <c r="AQ155">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR155">
         <v>1.13</v>
@@ -33787,7 +33799,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34405,7 +34417,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -34692,7 +34704,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ162">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR162">
         <v>1.28</v>
@@ -34817,7 +34829,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q163">
         <v>2.3</v>
@@ -35101,7 +35113,7 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ164">
         <v>0.95</v>
@@ -35229,7 +35241,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -35307,7 +35319,7 @@
         <v>1.17</v>
       </c>
       <c r="AP165">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ165">
         <v>1.11</v>
@@ -35435,7 +35447,7 @@
         <v>138</v>
       </c>
       <c r="P166" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -35516,7 +35528,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ166">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR166">
         <v>1.55</v>
@@ -35641,7 +35653,7 @@
         <v>165</v>
       </c>
       <c r="P167" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q167">
         <v>3.6</v>
@@ -35847,7 +35859,7 @@
         <v>193</v>
       </c>
       <c r="P168" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35925,7 +35937,7 @@
         <v>0.92</v>
       </c>
       <c r="AP168">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ168">
         <v>1.11</v>
@@ -36671,7 +36683,7 @@
         <v>175</v>
       </c>
       <c r="P172" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q172">
         <v>1.57</v>
@@ -36955,7 +36967,7 @@
         <v>2.5</v>
       </c>
       <c r="AP173">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ173">
         <v>2.37</v>
@@ -37083,7 +37095,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37367,7 +37379,7 @@
         <v>0.86</v>
       </c>
       <c r="AP175">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ175">
         <v>1.06</v>
@@ -37495,7 +37507,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q176">
         <v>1.4</v>
@@ -37573,7 +37585,7 @@
         <v>0.71</v>
       </c>
       <c r="AP176">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ176">
         <v>0.72</v>
@@ -37907,7 +37919,7 @@
         <v>202</v>
       </c>
       <c r="P178" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q178">
         <v>2.88</v>
@@ -37988,7 +38000,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ178">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR178">
         <v>1.53</v>
@@ -38319,7 +38331,7 @@
         <v>203</v>
       </c>
       <c r="P180" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q180">
         <v>4.5</v>
@@ -38731,7 +38743,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q182">
         <v>3.2</v>
@@ -38812,7 +38824,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ182">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR182">
         <v>1.34</v>
@@ -38937,7 +38949,7 @@
         <v>175</v>
       </c>
       <c r="P183" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q183">
         <v>3.4</v>
@@ -39143,7 +39155,7 @@
         <v>206</v>
       </c>
       <c r="P184" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39349,7 +39361,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q185">
         <v>2.63</v>
@@ -39427,7 +39439,7 @@
         <v>0.93</v>
       </c>
       <c r="AP185">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ185">
         <v>1.11</v>
@@ -39555,7 +39567,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -39761,7 +39773,7 @@
         <v>83</v>
       </c>
       <c r="P187" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -39967,7 +39979,7 @@
         <v>208</v>
       </c>
       <c r="P188" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40045,7 +40057,7 @@
         <v>1.07</v>
       </c>
       <c r="AP188">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ188">
         <v>1.16</v>
@@ -40173,7 +40185,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q189">
         <v>2.1</v>
@@ -40791,7 +40803,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q192">
         <v>2.88</v>
@@ -41281,10 +41293,10 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ194">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR194">
         <v>2.32</v>
@@ -41409,7 +41421,7 @@
         <v>212</v>
       </c>
       <c r="P195" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q195">
         <v>1.91</v>
@@ -41487,7 +41499,7 @@
         <v>0.38</v>
       </c>
       <c r="AP195">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ195">
         <v>0.32</v>
@@ -41821,7 +41833,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q197">
         <v>4.33</v>
@@ -42027,7 +42039,7 @@
         <v>214</v>
       </c>
       <c r="P198" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q198">
         <v>7.5</v>
@@ -42108,7 +42120,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ198">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR198">
         <v>1.22</v>
@@ -42311,10 +42323,10 @@
         <v>2.27</v>
       </c>
       <c r="AP199">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ199">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR199">
         <v>1.33</v>
@@ -42439,7 +42451,7 @@
         <v>97</v>
       </c>
       <c r="P200" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q200">
         <v>4.33</v>
@@ -43263,7 +43275,7 @@
         <v>136</v>
       </c>
       <c r="P204" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q204">
         <v>7</v>
@@ -43344,7 +43356,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ204">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR204">
         <v>1.29</v>
@@ -43469,7 +43481,7 @@
         <v>205</v>
       </c>
       <c r="P205" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q205">
         <v>8</v>
@@ -43547,7 +43559,7 @@
         <v>2.29</v>
       </c>
       <c r="AP205">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ205">
         <v>2.37</v>
@@ -43753,7 +43765,7 @@
         <v>1.82</v>
       </c>
       <c r="AP206">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ206">
         <v>1.68</v>
@@ -43881,7 +43893,7 @@
         <v>217</v>
       </c>
       <c r="P207" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q207">
         <v>3.2</v>
@@ -43959,10 +43971,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP207">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ207">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR207">
         <v>1.3</v>
@@ -44293,7 +44305,7 @@
         <v>218</v>
       </c>
       <c r="P209" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q209">
         <v>2.25</v>
@@ -44499,7 +44511,7 @@
         <v>219</v>
       </c>
       <c r="P210" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -44705,7 +44717,7 @@
         <v>220</v>
       </c>
       <c r="P211" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q211">
         <v>1.67</v>
@@ -44989,10 +45001,10 @@
         <v>2.24</v>
       </c>
       <c r="AP212">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ212">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR212">
         <v>2.3</v>
@@ -45117,7 +45129,7 @@
         <v>222</v>
       </c>
       <c r="P213" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45607,7 +45619,7 @@
         <v>1.06</v>
       </c>
       <c r="AP215">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ215">
         <v>0.95</v>
@@ -45735,7 +45747,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q216">
         <v>3.5</v>
@@ -45941,7 +45953,7 @@
         <v>84</v>
       </c>
       <c r="P217" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46147,7 +46159,7 @@
         <v>225</v>
       </c>
       <c r="P218" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q218">
         <v>1.48</v>
@@ -46353,7 +46365,7 @@
         <v>84</v>
       </c>
       <c r="P219" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q219">
         <v>6.25</v>
@@ -46559,7 +46571,7 @@
         <v>226</v>
       </c>
       <c r="P220" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q220">
         <v>3.1</v>
@@ -46765,7 +46777,7 @@
         <v>227</v>
       </c>
       <c r="P221" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q221">
         <v>2.05</v>
@@ -47177,7 +47189,7 @@
         <v>229</v>
       </c>
       <c r="P223" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q223">
         <v>2.95</v>
@@ -47334,6 +47346,624 @@
       </c>
       <c r="BP223">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7415815</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45430.35416666666</v>
+      </c>
+      <c r="F224">
+        <v>38</v>
+      </c>
+      <c r="G224" t="s">
+        <v>70</v>
+      </c>
+      <c r="H224" t="s">
+        <v>76</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224">
+        <v>2</v>
+      </c>
+      <c r="K224">
+        <v>4</v>
+      </c>
+      <c r="L224">
+        <v>3</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>5</v>
+      </c>
+      <c r="O224" t="s">
+        <v>230</v>
+      </c>
+      <c r="P224" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q224">
+        <v>1.67</v>
+      </c>
+      <c r="R224">
+        <v>2.75</v>
+      </c>
+      <c r="S224">
+        <v>9</v>
+      </c>
+      <c r="T224">
+        <v>1.25</v>
+      </c>
+      <c r="U224">
+        <v>3.75</v>
+      </c>
+      <c r="V224">
+        <v>2.2</v>
+      </c>
+      <c r="W224">
+        <v>1.62</v>
+      </c>
+      <c r="X224">
+        <v>5</v>
+      </c>
+      <c r="Y224">
+        <v>1.17</v>
+      </c>
+      <c r="Z224">
+        <v>1.12</v>
+      </c>
+      <c r="AA224">
+        <v>6.6</v>
+      </c>
+      <c r="AB224">
+        <v>11</v>
+      </c>
+      <c r="AC224">
+        <v>1.02</v>
+      </c>
+      <c r="AD224">
+        <v>21.5</v>
+      </c>
+      <c r="AE224">
+        <v>1.15</v>
+      </c>
+      <c r="AF224">
+        <v>5.25</v>
+      </c>
+      <c r="AG224">
+        <v>1.4</v>
+      </c>
+      <c r="AH224">
+        <v>2.75</v>
+      </c>
+      <c r="AI224">
+        <v>1.95</v>
+      </c>
+      <c r="AJ224">
+        <v>1.8</v>
+      </c>
+      <c r="AK224">
+        <v>1.04</v>
+      </c>
+      <c r="AL224">
+        <v>1.12</v>
+      </c>
+      <c r="AM224">
+        <v>3.9</v>
+      </c>
+      <c r="AN224">
+        <v>2.5</v>
+      </c>
+      <c r="AO224">
+        <v>1.06</v>
+      </c>
+      <c r="AP224">
+        <v>2.53</v>
+      </c>
+      <c r="AQ224">
+        <v>1</v>
+      </c>
+      <c r="AR224">
+        <v>2.28</v>
+      </c>
+      <c r="AS224">
+        <v>1.12</v>
+      </c>
+      <c r="AT224">
+        <v>3.4</v>
+      </c>
+      <c r="AU224">
+        <v>6</v>
+      </c>
+      <c r="AV224">
+        <v>5</v>
+      </c>
+      <c r="AW224">
+        <v>9</v>
+      </c>
+      <c r="AX224">
+        <v>6</v>
+      </c>
+      <c r="AY224">
+        <v>15</v>
+      </c>
+      <c r="AZ224">
+        <v>11</v>
+      </c>
+      <c r="BA224">
+        <v>11</v>
+      </c>
+      <c r="BB224">
+        <v>3</v>
+      </c>
+      <c r="BC224">
+        <v>14</v>
+      </c>
+      <c r="BD224">
+        <v>1.12</v>
+      </c>
+      <c r="BE224">
+        <v>13</v>
+      </c>
+      <c r="BF224">
+        <v>7.08</v>
+      </c>
+      <c r="BG224">
+        <v>0</v>
+      </c>
+      <c r="BH224">
+        <v>0</v>
+      </c>
+      <c r="BI224">
+        <v>1.15</v>
+      </c>
+      <c r="BJ224">
+        <v>4.75</v>
+      </c>
+      <c r="BK224">
+        <v>1.23</v>
+      </c>
+      <c r="BL224">
+        <v>3.6</v>
+      </c>
+      <c r="BM224">
+        <v>1.41</v>
+      </c>
+      <c r="BN224">
+        <v>2.63</v>
+      </c>
+      <c r="BO224">
+        <v>1.7</v>
+      </c>
+      <c r="BP224">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7415816</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45430.35416666666</v>
+      </c>
+      <c r="F225">
+        <v>38</v>
+      </c>
+      <c r="G225" t="s">
+        <v>71</v>
+      </c>
+      <c r="H225" t="s">
+        <v>74</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>2</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225" t="s">
+        <v>136</v>
+      </c>
+      <c r="P225" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q225">
+        <v>3.2</v>
+      </c>
+      <c r="R225">
+        <v>2.25</v>
+      </c>
+      <c r="S225">
+        <v>3.2</v>
+      </c>
+      <c r="T225">
+        <v>1.33</v>
+      </c>
+      <c r="U225">
+        <v>3.25</v>
+      </c>
+      <c r="V225">
+        <v>2.63</v>
+      </c>
+      <c r="W225">
+        <v>1.44</v>
+      </c>
+      <c r="X225">
+        <v>6.5</v>
+      </c>
+      <c r="Y225">
+        <v>1.11</v>
+      </c>
+      <c r="Z225">
+        <v>2.54</v>
+      </c>
+      <c r="AA225">
+        <v>3.4</v>
+      </c>
+      <c r="AB225">
+        <v>2.25</v>
+      </c>
+      <c r="AC225">
+        <v>1.05</v>
+      </c>
+      <c r="AD225">
+        <v>9.5</v>
+      </c>
+      <c r="AE225">
+        <v>1.22</v>
+      </c>
+      <c r="AF225">
+        <v>4</v>
+      </c>
+      <c r="AG225">
+        <v>1.71</v>
+      </c>
+      <c r="AH225">
+        <v>2.01</v>
+      </c>
+      <c r="AI225">
+        <v>1.62</v>
+      </c>
+      <c r="AJ225">
+        <v>2.2</v>
+      </c>
+      <c r="AK225">
+        <v>1.48</v>
+      </c>
+      <c r="AL225">
+        <v>1.28</v>
+      </c>
+      <c r="AM225">
+        <v>1.48</v>
+      </c>
+      <c r="AN225">
+        <v>1.28</v>
+      </c>
+      <c r="AO225">
+        <v>1.11</v>
+      </c>
+      <c r="AP225">
+        <v>1.26</v>
+      </c>
+      <c r="AQ225">
+        <v>1.11</v>
+      </c>
+      <c r="AR225">
+        <v>1.29</v>
+      </c>
+      <c r="AS225">
+        <v>1.25</v>
+      </c>
+      <c r="AT225">
+        <v>2.54</v>
+      </c>
+      <c r="AU225">
+        <v>3</v>
+      </c>
+      <c r="AV225">
+        <v>3</v>
+      </c>
+      <c r="AW225">
+        <v>10</v>
+      </c>
+      <c r="AX225">
+        <v>8</v>
+      </c>
+      <c r="AY225">
+        <v>13</v>
+      </c>
+      <c r="AZ225">
+        <v>11</v>
+      </c>
+      <c r="BA225">
+        <v>-1</v>
+      </c>
+      <c r="BB225">
+        <v>-1</v>
+      </c>
+      <c r="BC225">
+        <v>-1</v>
+      </c>
+      <c r="BD225">
+        <v>2.1</v>
+      </c>
+      <c r="BE225">
+        <v>8.5</v>
+      </c>
+      <c r="BF225">
+        <v>1.91</v>
+      </c>
+      <c r="BG225">
+        <v>1.13</v>
+      </c>
+      <c r="BH225">
+        <v>5</v>
+      </c>
+      <c r="BI225">
+        <v>1.25</v>
+      </c>
+      <c r="BJ225">
+        <v>3.6</v>
+      </c>
+      <c r="BK225">
+        <v>1.32</v>
+      </c>
+      <c r="BL225">
+        <v>3.05</v>
+      </c>
+      <c r="BM225">
+        <v>1.72</v>
+      </c>
+      <c r="BN225">
+        <v>2.07</v>
+      </c>
+      <c r="BO225">
+        <v>1.98</v>
+      </c>
+      <c r="BP225">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7415817</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45430.35416666666</v>
+      </c>
+      <c r="F226">
+        <v>38</v>
+      </c>
+      <c r="G226" t="s">
+        <v>80</v>
+      </c>
+      <c r="H226" t="s">
+        <v>77</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>3</v>
+      </c>
+      <c r="M226">
+        <v>3</v>
+      </c>
+      <c r="N226">
+        <v>6</v>
+      </c>
+      <c r="O226" t="s">
+        <v>231</v>
+      </c>
+      <c r="P226" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q226">
+        <v>4.75</v>
+      </c>
+      <c r="R226">
+        <v>2.6</v>
+      </c>
+      <c r="S226">
+        <v>2.05</v>
+      </c>
+      <c r="T226">
+        <v>1.25</v>
+      </c>
+      <c r="U226">
+        <v>3.75</v>
+      </c>
+      <c r="V226">
+        <v>2.1</v>
+      </c>
+      <c r="W226">
+        <v>1.67</v>
+      </c>
+      <c r="X226">
+        <v>4.5</v>
+      </c>
+      <c r="Y226">
+        <v>1.18</v>
+      </c>
+      <c r="Z226">
+        <v>4.25</v>
+      </c>
+      <c r="AA226">
+        <v>4.2</v>
+      </c>
+      <c r="AB226">
+        <v>1.51</v>
+      </c>
+      <c r="AC226">
+        <v>1.02</v>
+      </c>
+      <c r="AD226">
+        <v>23.5</v>
+      </c>
+      <c r="AE226">
+        <v>1.14</v>
+      </c>
+      <c r="AF226">
+        <v>5.5</v>
+      </c>
+      <c r="AG226">
+        <v>1.5</v>
+      </c>
+      <c r="AH226">
+        <v>2.4</v>
+      </c>
+      <c r="AI226">
+        <v>1.53</v>
+      </c>
+      <c r="AJ226">
+        <v>2.38</v>
+      </c>
+      <c r="AK226">
+        <v>2.38</v>
+      </c>
+      <c r="AL226">
+        <v>1.17</v>
+      </c>
+      <c r="AM226">
+        <v>1.15</v>
+      </c>
+      <c r="AN226">
+        <v>1.94</v>
+      </c>
+      <c r="AO226">
+        <v>2.11</v>
+      </c>
+      <c r="AP226">
+        <v>1.89</v>
+      </c>
+      <c r="AQ226">
+        <v>2.05</v>
+      </c>
+      <c r="AR226">
+        <v>1.61</v>
+      </c>
+      <c r="AS226">
+        <v>1.8</v>
+      </c>
+      <c r="AT226">
+        <v>3.41</v>
+      </c>
+      <c r="AU226">
+        <v>5</v>
+      </c>
+      <c r="AV226">
+        <v>12</v>
+      </c>
+      <c r="AW226">
+        <v>10</v>
+      </c>
+      <c r="AX226">
+        <v>13</v>
+      </c>
+      <c r="AY226">
+        <v>15</v>
+      </c>
+      <c r="AZ226">
+        <v>25</v>
+      </c>
+      <c r="BA226">
+        <v>2</v>
+      </c>
+      <c r="BB226">
+        <v>6</v>
+      </c>
+      <c r="BC226">
+        <v>8</v>
+      </c>
+      <c r="BD226">
+        <v>2.89</v>
+      </c>
+      <c r="BE226">
+        <v>9.5</v>
+      </c>
+      <c r="BF226">
+        <v>1.55</v>
+      </c>
+      <c r="BG226">
+        <v>1.08</v>
+      </c>
+      <c r="BH226">
+        <v>6.9</v>
+      </c>
+      <c r="BI226">
+        <v>1.15</v>
+      </c>
+      <c r="BJ226">
+        <v>4.55</v>
+      </c>
+      <c r="BK226">
+        <v>1.29</v>
+      </c>
+      <c r="BL226">
+        <v>3.14</v>
+      </c>
+      <c r="BM226">
+        <v>1.57</v>
+      </c>
+      <c r="BN226">
+        <v>2.33</v>
+      </c>
+      <c r="BO226">
+        <v>1.77</v>
+      </c>
+      <c r="BP226">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -47488,31 +47488,31 @@
         <v>3.4</v>
       </c>
       <c r="AU224">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV224">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW224">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AX224">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AY224">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AZ224">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BA224">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BB224">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC224">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BD224">
         <v>1.12</v>
@@ -47694,22 +47694,22 @@
         <v>2.54</v>
       </c>
       <c r="AU225">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV225">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW225">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AX225">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AY225">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AZ225">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BA225">
         <v>-1</v>
@@ -47900,31 +47900,31 @@
         <v>3.41</v>
       </c>
       <c r="AU226">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV226">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AW226">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AX226">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AY226">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AZ226">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="BA226">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BB226">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BC226">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BD226">
         <v>2.89</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -715,7 +715,7 @@
     <t>['67']</t>
   </si>
   <si>
-    <t>['5', '68']</t>
+    <t>['5', '67']</t>
   </si>
   <si>
     <t>['60', '90+5']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -42532,25 +42532,25 @@
         <v>1.28</v>
       </c>
       <c r="AN200">
-        <v>1.06</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO200">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AP200">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ200">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR200">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="AS200">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="AT200">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU200">
         <v>4</v>
@@ -42738,22 +42738,22 @@
         <v>1.5</v>
       </c>
       <c r="AN201">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AO201">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AP201">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ201">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR201">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="AS201">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AT201">
         <v>2.19</v>
@@ -42944,25 +42944,25 @@
         <v>1.66</v>
       </c>
       <c r="AN202">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AO202">
         <v>1.88</v>
       </c>
       <c r="AP202">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ202">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR202">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="AS202">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT202">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU202">
         <v>3</v>
@@ -43150,25 +43150,25 @@
         <v>1.75</v>
       </c>
       <c r="AN203">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="AO203">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AP203">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ203">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR203">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AS203">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT203">
-        <v>2.65</v>
+        <v>2.54</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43356,25 +43356,25 @@
         <v>1.11</v>
       </c>
       <c r="AN204">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AO204">
-        <v>2.19</v>
+        <v>2.27</v>
       </c>
       <c r="AP204">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ204">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR204">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AS204">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="AT204">
-        <v>3.15</v>
+        <v>3.29</v>
       </c>
       <c r="AU204">
         <v>6</v>
@@ -43562,25 +43562,25 @@
         <v>1.01</v>
       </c>
       <c r="AN205">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AO205">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AP205">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ205">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR205">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AS205">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="AT205">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="AU205">
         <v>7</v>
@@ -43768,25 +43768,25 @@
         <v>3.9</v>
       </c>
       <c r="AN206">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="AO206">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AP206">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ206">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR206">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="AS206">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT206">
-        <v>3.63</v>
+        <v>3.62</v>
       </c>
       <c r="AU206">
         <v>9</v>
@@ -43974,25 +43974,25 @@
         <v>1.5</v>
       </c>
       <c r="AN207">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="AO207">
-        <v>0.9399999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="AP207">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ207">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR207">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AS207">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="AT207">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="AU207">
         <v>5</v>
@@ -44180,25 +44180,25 @@
         <v>2.1</v>
       </c>
       <c r="AN208">
+        <v>1.12</v>
+      </c>
+      <c r="AO208">
+        <v>0.91</v>
+      </c>
+      <c r="AP208">
+        <v>1.26</v>
+      </c>
+      <c r="AQ208">
+        <v>0.92</v>
+      </c>
+      <c r="AR208">
         <v>1.29</v>
       </c>
-      <c r="AO208">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AP208">
-        <v>1.47</v>
-      </c>
-      <c r="AQ208">
-        <v>0.84</v>
-      </c>
-      <c r="AR208">
-        <v>1.46</v>
-      </c>
       <c r="AS208">
-        <v>0.9399999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="AT208">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AU208">
         <v>7</v>
@@ -44386,25 +44386,25 @@
         <v>2.2</v>
       </c>
       <c r="AN209">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AO209">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="AP209">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ209">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR209">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AS209">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AT209">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AU209">
         <v>7</v>
@@ -44592,25 +44592,25 @@
         <v>1.27</v>
       </c>
       <c r="AN210">
-        <v>1.38</v>
+        <v>0.88</v>
       </c>
       <c r="AO210">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AP210">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ210">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR210">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS210">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="AT210">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -44798,25 +44798,25 @@
         <v>4</v>
       </c>
       <c r="AN211">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="AO211">
-        <v>1.06</v>
+        <v>1.53</v>
       </c>
       <c r="AP211">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ211">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR211">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="AS211">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AT211">
-        <v>3.62</v>
+        <v>3.51</v>
       </c>
       <c r="AU211">
         <v>16</v>
@@ -45004,25 +45004,25 @@
         <v>1.85</v>
       </c>
       <c r="AN212">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AO212">
+        <v>2.31</v>
+      </c>
+      <c r="AP212">
+        <v>2.45</v>
+      </c>
+      <c r="AQ212">
         <v>2.24</v>
       </c>
-      <c r="AP212">
-        <v>2.53</v>
-      </c>
-      <c r="AQ212">
-        <v>2.05</v>
-      </c>
       <c r="AR212">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="AS212">
-        <v>1.86</v>
+        <v>2.13</v>
       </c>
       <c r="AT212">
-        <v>4.16</v>
+        <v>4.29</v>
       </c>
       <c r="AU212">
         <v>7</v>
@@ -45210,25 +45210,25 @@
         <v>1.5</v>
       </c>
       <c r="AN213">
-        <v>1.47</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO213">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AP213">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ213">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR213">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS213">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AT213">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="AU213">
         <v>3</v>
@@ -45416,25 +45416,25 @@
         <v>1.45</v>
       </c>
       <c r="AN214">
-        <v>1.59</v>
+        <v>1.31</v>
       </c>
       <c r="AO214">
-        <v>1</v>
+        <v>1.49</v>
       </c>
       <c r="AP214">
+        <v>1.24</v>
+      </c>
+      <c r="AQ214">
         <v>1.47</v>
       </c>
-      <c r="AQ214">
-        <v>1.11</v>
-      </c>
       <c r="AR214">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AS214">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AT214">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="AU214">
         <v>3</v>
@@ -45622,25 +45622,25 @@
         <v>2.15</v>
       </c>
       <c r="AN215">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AO215">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AP215">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ215">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR215">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="AS215">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="AT215">
-        <v>2.71</v>
+        <v>2.65</v>
       </c>
       <c r="AU215">
         <v>9</v>
@@ -45828,25 +45828,25 @@
         <v>1.42</v>
       </c>
       <c r="AN216">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="AO216">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AP216">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ216">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR216">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="AS216">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="AT216">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="AU216">
         <v>9</v>
@@ -46034,25 +46034,25 @@
         <v>1.78</v>
       </c>
       <c r="AN217">
+        <v>1.2</v>
+      </c>
+      <c r="AO217">
+        <v>1.17</v>
+      </c>
+      <c r="AP217">
+        <v>1.21</v>
+      </c>
+      <c r="AQ217">
+        <v>1.26</v>
+      </c>
+      <c r="AR217">
         <v>1.29</v>
       </c>
-      <c r="AO217">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AP217">
-        <v>1.32</v>
-      </c>
-      <c r="AQ217">
-        <v>1.05</v>
-      </c>
-      <c r="AR217">
-        <v>1.39</v>
-      </c>
       <c r="AS217">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AT217">
-        <v>2.52</v>
+        <v>2.59</v>
       </c>
       <c r="AU217">
         <v>5</v>
@@ -46240,25 +46240,25 @@
         <v>5</v>
       </c>
       <c r="AN218">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="AO218">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AP218">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ218">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR218">
-        <v>2.39</v>
+        <v>2.09</v>
       </c>
       <c r="AS218">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT218">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="AU218">
         <v>14</v>
@@ -46446,22 +46446,22 @@
         <v>1.07</v>
       </c>
       <c r="AN219">
-        <v>1.94</v>
+        <v>1.53</v>
       </c>
       <c r="AO219">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="AP219">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ219">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR219">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="AS219">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="AT219">
         <v>3.55</v>
@@ -46652,25 +46652,25 @@
         <v>1.5</v>
       </c>
       <c r="AN220">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="AO220">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AP220">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ220">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR220">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AS220">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT220">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="AU220">
         <v>6</v>
@@ -46858,25 +46858,25 @@
         <v>2.35</v>
       </c>
       <c r="AN221">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="AO221">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP221">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ221">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR221">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="AS221">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AT221">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="AU221">
         <v>8</v>
@@ -47064,25 +47064,25 @@
         <v>1.95</v>
       </c>
       <c r="AN222">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AO222">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AP222">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ222">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR222">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AS222">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AT222">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="AU222">
         <v>6</v>
@@ -47270,25 +47270,25 @@
         <v>1.57</v>
       </c>
       <c r="AN223">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AO223">
-        <v>0.44</v>
+        <v>0.92</v>
       </c>
       <c r="AP223">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ223">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR223">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AS223">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AT223">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="AU223">
         <v>4</v>
@@ -47476,25 +47476,25 @@
         <v>3.9</v>
       </c>
       <c r="AN224">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AO224">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="AP224">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ224">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR224">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AS224">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT224">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="AU224">
         <v>6</v>
@@ -47682,25 +47682,25 @@
         <v>1.48</v>
       </c>
       <c r="AN225">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AO225">
+        <v>1.49</v>
+      </c>
+      <c r="AP225">
         <v>1.11</v>
       </c>
-      <c r="AP225">
-        <v>1.26</v>
-      </c>
       <c r="AQ225">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR225">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AS225">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT225">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="AU225">
         <v>3</v>
@@ -47888,25 +47888,25 @@
         <v>1.15</v>
       </c>
       <c r="AN226">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="AO226">
+        <v>2.27</v>
+      </c>
+      <c r="AP226">
+        <v>1.79</v>
+      </c>
+      <c r="AQ226">
+        <v>2.24</v>
+      </c>
+      <c r="AR226">
+        <v>1.44</v>
+      </c>
+      <c r="AS226">
         <v>2.11</v>
       </c>
-      <c r="AP226">
-        <v>1.89</v>
-      </c>
-      <c r="AQ226">
-        <v>2.05</v>
-      </c>
-      <c r="AR226">
-        <v>1.61</v>
-      </c>
-      <c r="AS226">
-        <v>1.8</v>
-      </c>
       <c r="AT226">
-        <v>3.41</v>
+        <v>3.55</v>
       </c>
       <c r="AU226">
         <v>5</v>
@@ -48094,25 +48094,25 @@
         <v>1.28</v>
       </c>
       <c r="AN227">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="AO227">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AP227">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ227">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR227">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="AS227">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AT227">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="AU227">
         <v>4</v>
@@ -48300,25 +48300,25 @@
         <v>1.48</v>
       </c>
       <c r="AN228">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AO228">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AP228">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ228">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR228">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AS228">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AT228">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="AU228">
         <v>5</v>
@@ -48506,25 +48506,25 @@
         <v>1.53</v>
       </c>
       <c r="AN229">
-        <v>1.39</v>
+        <v>0.92</v>
       </c>
       <c r="AO229">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="AP229">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ229">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR229">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AS229">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="AT229">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="AU229">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -42532,25 +42532,25 @@
         <v>1.28</v>
       </c>
       <c r="AN200">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AO200">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AP200">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ200">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR200">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="AS200">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="AT200">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AU200">
         <v>4</v>
@@ -42738,22 +42738,22 @@
         <v>1.5</v>
       </c>
       <c r="AN201">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AO201">
-        <v>0.91</v>
+        <v>0.47</v>
       </c>
       <c r="AP201">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ201">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR201">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AS201">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT201">
         <v>2.19</v>
@@ -42944,25 +42944,25 @@
         <v>1.66</v>
       </c>
       <c r="AN202">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="AO202">
         <v>1.88</v>
       </c>
       <c r="AP202">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ202">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR202">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AS202">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT202">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AU202">
         <v>3</v>
@@ -43150,25 +43150,25 @@
         <v>1.75</v>
       </c>
       <c r="AN203">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AO203">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AP203">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ203">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR203">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AS203">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT203">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43356,25 +43356,25 @@
         <v>1.11</v>
       </c>
       <c r="AN204">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="AO204">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AP204">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ204">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR204">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AS204">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="AT204">
-        <v>3.29</v>
+        <v>3.15</v>
       </c>
       <c r="AU204">
         <v>6</v>
@@ -43562,25 +43562,25 @@
         <v>1.01</v>
       </c>
       <c r="AN205">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AO205">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="AP205">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ205">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR205">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AS205">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="AT205">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="AU205">
         <v>7</v>
@@ -43768,25 +43768,25 @@
         <v>3.9</v>
       </c>
       <c r="AN206">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AO206">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AP206">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ206">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR206">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="AS206">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AT206">
-        <v>3.62</v>
+        <v>3.63</v>
       </c>
       <c r="AU206">
         <v>9</v>
@@ -43974,25 +43974,25 @@
         <v>1.5</v>
       </c>
       <c r="AN207">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AO207">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP207">
         <v>1.26</v>
       </c>
-      <c r="AP207">
-        <v>1.11</v>
-      </c>
       <c r="AQ207">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR207">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AS207">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="AT207">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="AU207">
         <v>5</v>
@@ -44180,25 +44180,25 @@
         <v>2.1</v>
       </c>
       <c r="AN208">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AO208">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP208">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ208">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR208">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AS208">
-        <v>1.04</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT208">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU208">
         <v>7</v>
@@ -44386,25 +44386,25 @@
         <v>2.2</v>
       </c>
       <c r="AN209">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AO209">
-        <v>0.62</v>
+        <v>0.35</v>
       </c>
       <c r="AP209">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ209">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR209">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AS209">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="AT209">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AU209">
         <v>7</v>
@@ -44592,25 +44592,25 @@
         <v>1.27</v>
       </c>
       <c r="AN210">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="AO210">
+        <v>1.18</v>
+      </c>
+      <c r="AP210">
+        <v>1.37</v>
+      </c>
+      <c r="AQ210">
+        <v>1.11</v>
+      </c>
+      <c r="AR210">
         <v>1.24</v>
       </c>
-      <c r="AP210">
-        <v>0.92</v>
-      </c>
-      <c r="AQ210">
-        <v>1.21</v>
-      </c>
-      <c r="AR210">
-        <v>1.15</v>
-      </c>
       <c r="AS210">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="AT210">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -44798,25 +44798,25 @@
         <v>4</v>
       </c>
       <c r="AN211">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="AO211">
-        <v>1.53</v>
+        <v>1.06</v>
       </c>
       <c r="AP211">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ211">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR211">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="AS211">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AT211">
-        <v>3.51</v>
+        <v>3.62</v>
       </c>
       <c r="AU211">
         <v>16</v>
@@ -45004,25 +45004,25 @@
         <v>1.85</v>
       </c>
       <c r="AN212">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="AO212">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AP212">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ212">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR212">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="AS212">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="AT212">
-        <v>4.29</v>
+        <v>4.16</v>
       </c>
       <c r="AU212">
         <v>7</v>
@@ -45210,25 +45210,25 @@
         <v>1.5</v>
       </c>
       <c r="AN213">
-        <v>0.9399999999999999</v>
+        <v>1.47</v>
       </c>
       <c r="AO213">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AP213">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ213">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR213">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AS213">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AT213">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU213">
         <v>3</v>
@@ -45416,25 +45416,25 @@
         <v>1.45</v>
       </c>
       <c r="AN214">
-        <v>1.31</v>
+        <v>1.59</v>
       </c>
       <c r="AO214">
-        <v>1.49</v>
+        <v>1</v>
       </c>
       <c r="AP214">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ214">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR214">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AS214">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AT214">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="AU214">
         <v>3</v>
@@ -45622,25 +45622,25 @@
         <v>2.15</v>
       </c>
       <c r="AN215">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AO215">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="AP215">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ215">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR215">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="AS215">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AT215">
-        <v>2.65</v>
+        <v>2.71</v>
       </c>
       <c r="AU215">
         <v>9</v>
@@ -45828,25 +45828,25 @@
         <v>1.42</v>
       </c>
       <c r="AN216">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="AO216">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="AP216">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ216">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR216">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="AS216">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="AT216">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="AU216">
         <v>9</v>
@@ -46034,25 +46034,25 @@
         <v>1.78</v>
       </c>
       <c r="AN217">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AO217">
-        <v>1.17</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP217">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ217">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR217">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AS217">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="AT217">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
       <c r="AU217">
         <v>5</v>
@@ -46240,25 +46240,25 @@
         <v>5</v>
       </c>
       <c r="AN218">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="AO218">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP218">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ218">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR218">
-        <v>2.09</v>
+        <v>2.39</v>
       </c>
       <c r="AS218">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT218">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="AU218">
         <v>14</v>
@@ -46446,22 +46446,22 @@
         <v>1.07</v>
       </c>
       <c r="AN219">
-        <v>1.53</v>
+        <v>1.94</v>
       </c>
       <c r="AO219">
-        <v>2.42</v>
+        <v>2.33</v>
       </c>
       <c r="AP219">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ219">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR219">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="AS219">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="AT219">
         <v>3.55</v>
@@ -46652,25 +46652,25 @@
         <v>1.5</v>
       </c>
       <c r="AN220">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="AO220">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AP220">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ220">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR220">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AS220">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AT220">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="AU220">
         <v>6</v>
@@ -46858,25 +46858,25 @@
         <v>2.35</v>
       </c>
       <c r="AN221">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="AO221">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP221">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ221">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR221">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="AS221">
-        <v>1.05</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT221">
-        <v>2.36</v>
+        <v>2.41</v>
       </c>
       <c r="AU221">
         <v>8</v>
@@ -47064,25 +47064,25 @@
         <v>1.95</v>
       </c>
       <c r="AN222">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AO222">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AP222">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ222">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR222">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AS222">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AT222">
-        <v>2.59</v>
+        <v>2.64</v>
       </c>
       <c r="AU222">
         <v>6</v>
@@ -47270,25 +47270,25 @@
         <v>1.57</v>
       </c>
       <c r="AN223">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AO223">
-        <v>0.92</v>
+        <v>0.44</v>
       </c>
       <c r="AP223">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ223">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR223">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AS223">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT223">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="AU223">
         <v>4</v>
@@ -47476,25 +47476,25 @@
         <v>3.9</v>
       </c>
       <c r="AN224">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AO224">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="AP224">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ224">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR224">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="AS224">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AT224">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="AU224">
         <v>6</v>
@@ -47682,25 +47682,25 @@
         <v>1.48</v>
       </c>
       <c r="AN225">
+        <v>1.28</v>
+      </c>
+      <c r="AO225">
         <v>1.11</v>
       </c>
-      <c r="AO225">
-        <v>1.49</v>
-      </c>
       <c r="AP225">
+        <v>1.26</v>
+      </c>
+      <c r="AQ225">
         <v>1.11</v>
       </c>
-      <c r="AQ225">
-        <v>1.47</v>
-      </c>
       <c r="AR225">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AS225">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AT225">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="AU225">
         <v>3</v>
@@ -47888,25 +47888,25 @@
         <v>1.15</v>
       </c>
       <c r="AN226">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="AO226">
-        <v>2.27</v>
+        <v>2.11</v>
       </c>
       <c r="AP226">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ226">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR226">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AS226">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="AT226">
-        <v>3.55</v>
+        <v>3.41</v>
       </c>
       <c r="AU226">
         <v>5</v>
@@ -48094,25 +48094,25 @@
         <v>1.28</v>
       </c>
       <c r="AN227">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="AO227">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AP227">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ227">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR227">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="AS227">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AT227">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="AU227">
         <v>4</v>
@@ -48300,25 +48300,25 @@
         <v>1.48</v>
       </c>
       <c r="AN228">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AO228">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AP228">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ228">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR228">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AS228">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AT228">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="AU228">
         <v>5</v>
@@ -48506,25 +48506,25 @@
         <v>1.53</v>
       </c>
       <c r="AN229">
-        <v>0.92</v>
+        <v>1.39</v>
       </c>
       <c r="AO229">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="AP229">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ229">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR229">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AS229">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AT229">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="AU229">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -1750,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ2">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ3">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ4">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ5">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ6">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2780,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2980,25 +2980,25 @@
         <v>1.8</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ8">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AU8">
         <v>3</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ9">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="AU9">
         <v>10</v>
@@ -3398,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ10">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AU10">
         <v>9</v>
@@ -3598,25 +3598,25 @@
         <v>1.09</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ11">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AU11">
         <v>3</v>
@@ -3804,25 +3804,25 @@
         <v>2.05</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ12">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="AU12">
         <v>2</v>
@@ -4010,25 +4010,25 @@
         <v>1.5</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ13">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -4216,25 +4216,25 @@
         <v>1.06</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP14">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ14">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR14">
-        <v>1.92</v>
+        <v>1.45</v>
       </c>
       <c r="AS14">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT14">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -4428,19 +4428,19 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ15">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR15">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AS15">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT15">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4631,22 +4631,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP16">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ16">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR16">
-        <v>1.85</v>
+        <v>1.29</v>
       </c>
       <c r="AS16">
-        <v>0.87</v>
+        <v>1.06</v>
       </c>
       <c r="AT16">
-        <v>2.72</v>
+        <v>2.35</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4834,25 +4834,25 @@
         <v>1.65</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP17">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ17">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR17">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="AS17">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AT17">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="AU17">
         <v>8</v>
@@ -5040,25 +5040,25 @@
         <v>1.35</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP18">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ18">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR18">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AS18">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="AT18">
-        <v>3.21</v>
+        <v>2.72</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5249,22 +5249,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ19">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR19">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AS19">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="AT19">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5452,25 +5452,25 @@
         <v>1.75</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ20">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR20">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AS20">
-        <v>0.99</v>
+        <v>1.29</v>
       </c>
       <c r="AT20">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU20">
         <v>5</v>
@@ -5658,25 +5658,25 @@
         <v>1.52</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ21">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR21">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AT21">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AU21">
         <v>4</v>
@@ -5864,25 +5864,25 @@
         <v>1.44</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO22">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR22">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="AS22">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AT22">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -6070,25 +6070,25 @@
         <v>1.6</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP23">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ23">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR23">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AS23">
-        <v>2.11</v>
+        <v>2.22</v>
       </c>
       <c r="AT23">
-        <v>4.23</v>
+        <v>4.29</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -6276,25 +6276,25 @@
         <v>1.77</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP24">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ24">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR24">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AS24">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AT24">
-        <v>2.38</v>
+        <v>2.96</v>
       </c>
       <c r="AU24">
         <v>2</v>
@@ -6482,25 +6482,25 @@
         <v>1.57</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO25">
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ25">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR25">
-        <v>1.08</v>
+        <v>0.86</v>
       </c>
       <c r="AS25">
-        <v>0.74</v>
+        <v>1.32</v>
       </c>
       <c r="AT25">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6694,19 +6694,19 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ26">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR26">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="AS26">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="AT26">
-        <v>3.16</v>
+        <v>3.01</v>
       </c>
       <c r="AU26">
         <v>2</v>
@@ -6894,25 +6894,25 @@
         <v>5</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO27">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP27">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ27">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR27">
-        <v>2.27</v>
+        <v>1.97</v>
       </c>
       <c r="AS27">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AT27">
-        <v>3.55</v>
+        <v>3.18</v>
       </c>
       <c r="AU27">
         <v>8</v>
@@ -7100,25 +7100,25 @@
         <v>1.78</v>
       </c>
       <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>0.5</v>
       </c>
-      <c r="AO28">
-        <v>1</v>
-      </c>
       <c r="AP28">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ28">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR28">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AS28">
-        <v>0.74</v>
+        <v>0.97</v>
       </c>
       <c r="AT28">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="AU28">
         <v>5</v>
@@ -7306,25 +7306,25 @@
         <v>1.53</v>
       </c>
       <c r="AN29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO29">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP29">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ29">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR29">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AS29">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="AT29">
-        <v>2.54</v>
+        <v>2.78</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7512,25 +7512,25 @@
         <v>1.65</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO30">
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR30">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AS30">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT30">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="AU30">
         <v>8</v>
@@ -7721,22 +7721,22 @@
         <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ31">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR31">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="AS31">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT31">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7924,25 +7924,25 @@
         <v>1.04</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ32">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR32">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>2.01</v>
       </c>
       <c r="AT32">
-        <v>2.91</v>
+        <v>3.02</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -8130,25 +8130,25 @@
         <v>1.5</v>
       </c>
       <c r="AN33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ33">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR33">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AS33">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AT33">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -8336,25 +8336,25 @@
         <v>2.25</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AO34">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AP34">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ34">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR34">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="AS34">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AT34">
-        <v>2.59</v>
+        <v>2.31</v>
       </c>
       <c r="AU34">
         <v>9</v>
@@ -8542,25 +8542,25 @@
         <v>1.51</v>
       </c>
       <c r="AN35">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO35">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP35">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ35">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR35">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AS35">
-        <v>1.82</v>
+        <v>1.45</v>
       </c>
       <c r="AT35">
-        <v>3.22</v>
+        <v>2.68</v>
       </c>
       <c r="AU35">
         <v>6</v>
@@ -8748,25 +8748,25 @@
         <v>1.9</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO36">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP36">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ36">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR36">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="AS36">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="AT36">
-        <v>2.27</v>
+        <v>2.39</v>
       </c>
       <c r="AU36">
         <v>7</v>
@@ -8954,25 +8954,25 @@
         <v>3.9</v>
       </c>
       <c r="AN37">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AO37">
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ37">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR37">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="AS37">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AT37">
-        <v>3.19</v>
+        <v>3.42</v>
       </c>
       <c r="AU37">
         <v>8</v>
@@ -9160,25 +9160,25 @@
         <v>1.07</v>
       </c>
       <c r="AN38">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO38">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AP38">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ38">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR38">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="AS38">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="AT38">
-        <v>3.25</v>
+        <v>3.37</v>
       </c>
       <c r="AU38">
         <v>5</v>
@@ -9369,22 +9369,22 @@
         <v>0.33</v>
       </c>
       <c r="AO39">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ39">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR39">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="AS39">
-        <v>0.85</v>
+        <v>1.09</v>
       </c>
       <c r="AT39">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9575,22 +9575,22 @@
         <v>2</v>
       </c>
       <c r="AO40">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP40">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ40">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR40">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="AS40">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AT40">
-        <v>2.79</v>
+        <v>3.01</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9778,25 +9778,25 @@
         <v>1.42</v>
       </c>
       <c r="AN41">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ41">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR41">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="AS41">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
       <c r="AT41">
-        <v>3.15</v>
+        <v>2.73</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9984,25 +9984,25 @@
         <v>1.6</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO42">
         <v>2.33</v>
       </c>
       <c r="AP42">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR42">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="AS42">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AT42">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -10190,25 +10190,25 @@
         <v>2.1</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO43">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ43">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR43">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
       <c r="AS43">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT43">
-        <v>2.84</v>
+        <v>2.54</v>
       </c>
       <c r="AU43">
         <v>10</v>
@@ -10396,25 +10396,25 @@
         <v>5.5</v>
       </c>
       <c r="AN44">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AO44">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ44">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR44">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="AS44">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AT44">
-        <v>3.83</v>
+        <v>3.45</v>
       </c>
       <c r="AU44">
         <v>13</v>
@@ -10602,25 +10602,25 @@
         <v>1.66</v>
       </c>
       <c r="AN45">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AO45">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP45">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ45">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR45">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="AS45">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="AT45">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="AU45">
         <v>6</v>
@@ -10808,25 +10808,25 @@
         <v>1.41</v>
       </c>
       <c r="AN46">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ46">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="AS46">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT46">
-        <v>2.57</v>
+        <v>2.44</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -11014,25 +11014,25 @@
         <v>1.09</v>
       </c>
       <c r="AN47">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AO47">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AP47">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ47">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR47">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="AS47">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="AT47">
-        <v>3.39</v>
+        <v>3.15</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>2.35</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO48">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AP48">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ48">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR48">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AS48">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="AT48">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11426,25 +11426,25 @@
         <v>2.87</v>
       </c>
       <c r="AN49">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AO49">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP49">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ49">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR49">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="AS49">
-        <v>1.18</v>
+        <v>1.59</v>
       </c>
       <c r="AT49">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11632,25 +11632,25 @@
         <v>1.82</v>
       </c>
       <c r="AN50">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AO50">
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ50">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
       </c>
       <c r="AS50">
-        <v>0.87</v>
+        <v>1.08</v>
       </c>
       <c r="AT50">
-        <v>2.26</v>
+        <v>2.47</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -11838,25 +11838,25 @@
         <v>1.13</v>
       </c>
       <c r="AN51">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AO51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AP51">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ51">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR51">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="AS51">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="AT51">
-        <v>3.09</v>
+        <v>3.52</v>
       </c>
       <c r="AU51">
         <v>7</v>
@@ -12044,25 +12044,25 @@
         <v>1.57</v>
       </c>
       <c r="AN52">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO52">
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ52">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR52">
         <v>1.05</v>
       </c>
       <c r="AS52">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AT52">
-        <v>2.16</v>
+        <v>2.31</v>
       </c>
       <c r="AU52">
         <v>10</v>
@@ -12250,25 +12250,25 @@
         <v>2.25</v>
       </c>
       <c r="AN53">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AO53">
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ53">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR53">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="AS53">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AT53">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12459,22 +12459,22 @@
         <v>1</v>
       </c>
       <c r="AO54">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AP54">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ54">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR54">
-        <v>2</v>
+        <v>1.49</v>
       </c>
       <c r="AS54">
-        <v>1.76</v>
+        <v>2.01</v>
       </c>
       <c r="AT54">
-        <v>3.76</v>
+        <v>3.5</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -12662,25 +12662,25 @@
         <v>1.53</v>
       </c>
       <c r="AN55">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AO55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ55">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR55">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="AS55">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AT55">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -12868,25 +12868,25 @@
         <v>1.9</v>
       </c>
       <c r="AN56">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO56">
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ56">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR56">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="AS56">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="AT56">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -13074,25 +13074,25 @@
         <v>1.53</v>
       </c>
       <c r="AN57">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AO57">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP57">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ57">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR57">
         <v>1.39</v>
       </c>
       <c r="AS57">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AT57">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="AU57">
         <v>9</v>
@@ -13280,25 +13280,25 @@
         <v>3.4</v>
       </c>
       <c r="AN58">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO58">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AP58">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ58">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR58">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="AS58">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AT58">
-        <v>3.6</v>
+        <v>3.41</v>
       </c>
       <c r="AU58">
         <v>6</v>
@@ -13492,19 +13492,19 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ59">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR59">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="AS59">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AT59">
-        <v>2.96</v>
+        <v>2.69</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13692,25 +13692,25 @@
         <v>1.47</v>
       </c>
       <c r="AN60">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AO60">
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ60">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR60">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="AS60">
-        <v>0.95</v>
+        <v>1.08</v>
       </c>
       <c r="AT60">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -13898,25 +13898,25 @@
         <v>2.05</v>
       </c>
       <c r="AN61">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AO61">
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ61">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR61">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AS61">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
       <c r="AT61">
-        <v>2.22</v>
+        <v>2.41</v>
       </c>
       <c r="AU61">
         <v>11</v>
@@ -14104,25 +14104,25 @@
         <v>1.44</v>
       </c>
       <c r="AN62">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AO62">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ62">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR62">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AT62">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14310,25 +14310,25 @@
         <v>4.6</v>
       </c>
       <c r="AN63">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AO63">
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR63">
-        <v>2.33</v>
+        <v>1.99</v>
       </c>
       <c r="AS63">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AT63">
-        <v>3.39</v>
+        <v>3.13</v>
       </c>
       <c r="AU63">
         <v>9</v>
@@ -14516,25 +14516,25 @@
         <v>1.07</v>
       </c>
       <c r="AN64">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AO64">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AP64">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ64">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR64">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AS64">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT64">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14725,22 +14725,22 @@
         <v>1</v>
       </c>
       <c r="AO65">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="AP65">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ65">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR65">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AS65">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="AT65">
-        <v>3.14</v>
+        <v>3.31</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -14928,25 +14928,25 @@
         <v>1.55</v>
       </c>
       <c r="AN66">
-        <v>1.83</v>
+        <v>1.18</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AP66">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ66">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR66">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS66">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AT66">
-        <v>2.59</v>
+        <v>2.77</v>
       </c>
       <c r="AU66">
         <v>9</v>
@@ -15134,25 +15134,25 @@
         <v>1.64</v>
       </c>
       <c r="AN67">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AO67">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AP67">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ67">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR67">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AS67">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="AT67">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -15340,25 +15340,25 @@
         <v>1.42</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO68">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ68">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR68">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="AS68">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="AT68">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="AU68">
         <v>4</v>
@@ -15546,25 +15546,25 @@
         <v>1.52</v>
       </c>
       <c r="AN69">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO69">
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ69">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR69">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AS69">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
       <c r="AT69">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="AU69">
         <v>5</v>
@@ -15752,25 +15752,25 @@
         <v>1.57</v>
       </c>
       <c r="AN70">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AO70">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AP70">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR70">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AS70">
-        <v>0.97</v>
+        <v>1.15</v>
       </c>
       <c r="AT70">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15958,25 +15958,25 @@
         <v>1.45</v>
       </c>
       <c r="AN71">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AO71">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ71">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR71">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="AS71">
         <v>1.19</v>
       </c>
       <c r="AT71">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -16164,25 +16164,25 @@
         <v>1.47</v>
       </c>
       <c r="AN72">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO72">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AP72">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ72">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR72">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AS72">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT72">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="AU72">
         <v>2</v>
@@ -16373,22 +16373,22 @@
         <v>1</v>
       </c>
       <c r="AO73">
-        <v>0.4</v>
+        <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ73">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR73">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="AS73">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AT73">
-        <v>3.12</v>
+        <v>2.88</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16576,25 +16576,25 @@
         <v>1.01</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO74">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ74">
+        <v>2.24</v>
+      </c>
+      <c r="AR74">
+        <v>1.02</v>
+      </c>
+      <c r="AS74">
         <v>2.05</v>
       </c>
-      <c r="AR74">
-        <v>1.17</v>
-      </c>
-      <c r="AS74">
-        <v>2.07</v>
-      </c>
       <c r="AT74">
-        <v>3.24</v>
+        <v>3.07</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16782,25 +16782,25 @@
         <v>4.33</v>
       </c>
       <c r="AN75">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AO75">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AP75">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ75">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR75">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="AS75">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="AT75">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="AU75">
         <v>11</v>
@@ -16988,25 +16988,25 @@
         <v>5.5</v>
       </c>
       <c r="AN76">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AO76">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AP76">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ76">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR76">
-        <v>2.44</v>
+        <v>2.21</v>
       </c>
       <c r="AS76">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT76">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -17194,25 +17194,25 @@
         <v>1.53</v>
       </c>
       <c r="AN77">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="AO77">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AP77">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ77">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR77">
         <v>1.23</v>
       </c>
       <c r="AS77">
-        <v>1.07</v>
+        <v>1.32</v>
       </c>
       <c r="AT77">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AU77">
         <v>8</v>
@@ -17400,25 +17400,25 @@
         <v>2.05</v>
       </c>
       <c r="AN78">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AO78">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AP78">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ78">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR78">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AS78">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AT78">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="AU78">
         <v>2</v>
@@ -17606,25 +17606,25 @@
         <v>1.37</v>
       </c>
       <c r="AN79">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AO79">
-        <v>0.33</v>
+        <v>1.23</v>
       </c>
       <c r="AP79">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ79">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR79">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AS79">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AT79">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17812,25 +17812,25 @@
         <v>2.5</v>
       </c>
       <c r="AN80">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AO80">
-        <v>0.4</v>
+        <v>0.92</v>
       </c>
       <c r="AP80">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ80">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR80">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AS80">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AT80">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -18018,25 +18018,25 @@
         <v>1.15</v>
       </c>
       <c r="AN81">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AO81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ81">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR81">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="AS81">
         <v>2.04</v>
       </c>
       <c r="AT81">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="AU81">
         <v>5</v>
@@ -18224,25 +18224,25 @@
         <v>1.47</v>
       </c>
       <c r="AN82">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AO82">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AP82">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR82">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AS82">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AT82">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
       <c r="AU82">
         <v>3</v>
@@ -18430,25 +18430,25 @@
         <v>1.66</v>
       </c>
       <c r="AN83">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AO83">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AP83">
+        <v>1.13</v>
+      </c>
+      <c r="AQ83">
         <v>1.11</v>
       </c>
-      <c r="AQ83">
-        <v>0.95</v>
-      </c>
       <c r="AR83">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AS83">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AT83">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU83">
         <v>5</v>
@@ -18636,22 +18636,22 @@
         <v>1.52</v>
       </c>
       <c r="AN84">
-        <v>2</v>
+        <v>1.21</v>
       </c>
       <c r="AO84">
+        <v>1.54</v>
+      </c>
+      <c r="AP84">
+        <v>1.47</v>
+      </c>
+      <c r="AQ84">
+        <v>1.79</v>
+      </c>
+      <c r="AR84">
+        <v>1.46</v>
+      </c>
+      <c r="AS84">
         <v>1.5</v>
-      </c>
-      <c r="AP84">
-        <v>1.84</v>
-      </c>
-      <c r="AQ84">
-        <v>1.68</v>
-      </c>
-      <c r="AR84">
-        <v>1.55</v>
-      </c>
-      <c r="AS84">
-        <v>1.41</v>
       </c>
       <c r="AT84">
         <v>2.96</v>
@@ -18842,25 +18842,25 @@
         <v>1.04</v>
       </c>
       <c r="AN85">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="AO85">
-        <v>2.71</v>
+        <v>2.57</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ85">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR85">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AS85">
-        <v>2.01</v>
+        <v>2.21</v>
       </c>
       <c r="AT85">
-        <v>3.01</v>
+        <v>3.22</v>
       </c>
       <c r="AU85">
         <v>4</v>
@@ -19051,22 +19051,22 @@
         <v>1.29</v>
       </c>
       <c r="AO86">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="AP86">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ86">
+        <v>1.26</v>
+      </c>
+      <c r="AR86">
+        <v>1.3</v>
+      </c>
+      <c r="AS86">
         <v>1.05</v>
       </c>
-      <c r="AR86">
-        <v>1.54</v>
-      </c>
-      <c r="AS86">
-        <v>0.96</v>
-      </c>
       <c r="AT86">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="AU86">
         <v>4</v>
@@ -19254,25 +19254,25 @@
         <v>4</v>
       </c>
       <c r="AN87">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AO87">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AP87">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR87">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="AS87">
-        <v>0.9399999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="AT87">
-        <v>2.98</v>
+        <v>3.21</v>
       </c>
       <c r="AU87">
         <v>7</v>
@@ -19460,25 +19460,25 @@
         <v>1.55</v>
       </c>
       <c r="AN88">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO88">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AP88">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ88">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR88">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AS88">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AT88">
-        <v>2.29</v>
+        <v>2.37</v>
       </c>
       <c r="AU88">
         <v>7</v>
@@ -19666,25 +19666,25 @@
         <v>4.5</v>
       </c>
       <c r="AN89">
-        <v>2.43</v>
+        <v>2.6</v>
       </c>
       <c r="AO89">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ89">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR89">
-        <v>2.41</v>
+        <v>2.22</v>
       </c>
       <c r="AS89">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="AT89">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="AU89">
         <v>13</v>
@@ -19872,25 +19872,25 @@
         <v>1.47</v>
       </c>
       <c r="AN90">
-        <v>1.13</v>
+        <v>0.79</v>
       </c>
       <c r="AO90">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR90">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="AS90">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AT90">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AU90">
         <v>6</v>
@@ -20081,22 +20081,22 @@
         <v>1</v>
       </c>
       <c r="AO91">
-        <v>0.43</v>
+        <v>1.13</v>
       </c>
       <c r="AP91">
+        <v>1.26</v>
+      </c>
+      <c r="AQ91">
         <v>1.47</v>
       </c>
-      <c r="AQ91">
-        <v>1.11</v>
-      </c>
       <c r="AR91">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AS91">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT91">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20284,25 +20284,25 @@
         <v>1.12</v>
       </c>
       <c r="AN92">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AO92">
-        <v>2.29</v>
+        <v>2.21</v>
       </c>
       <c r="AP92">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ92">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR92">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AS92">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="AT92">
-        <v>3.7</v>
+        <v>3.56</v>
       </c>
       <c r="AU92">
         <v>6</v>
@@ -20490,25 +20490,25 @@
         <v>1.68</v>
       </c>
       <c r="AN93">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AO93">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AP93">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ93">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR93">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AS93">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AT93">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AU93">
         <v>7</v>
@@ -20696,25 +20696,25 @@
         <v>1.44</v>
       </c>
       <c r="AN94">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="AO94">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="AP94">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ94">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR94">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AS94">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT94">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -20902,25 +20902,25 @@
         <v>1.37</v>
       </c>
       <c r="AN95">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AO95">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ95">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR95">
-        <v>1.09</v>
+        <v>0.99</v>
       </c>
       <c r="AS95">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="AT95">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="AU95">
         <v>4</v>
@@ -21108,25 +21108,25 @@
         <v>1.66</v>
       </c>
       <c r="AN96">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO96">
-        <v>0.33</v>
+        <v>0.93</v>
       </c>
       <c r="AP96">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ96">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR96">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AS96">
         <v>1.03</v>
       </c>
       <c r="AT96">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21314,25 +21314,25 @@
         <v>4.8</v>
       </c>
       <c r="AN97">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="AO97">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP97">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ97">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR97">
         <v>2.09</v>
       </c>
       <c r="AS97">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AT97">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="AU97">
         <v>10</v>
@@ -21520,25 +21520,25 @@
         <v>1.1</v>
       </c>
       <c r="AN98">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AO98">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AP98">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ98">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR98">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AS98">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="AT98">
-        <v>3.61</v>
+        <v>3.68</v>
       </c>
       <c r="AU98">
         <v>7</v>
@@ -21726,25 +21726,25 @@
         <v>1.65</v>
       </c>
       <c r="AN99">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="AO99">
-        <v>0.86</v>
+        <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ99">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR99">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AS99">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT99">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="AU99">
         <v>4</v>
@@ -21932,25 +21932,25 @@
         <v>1.72</v>
       </c>
       <c r="AN100">
-        <v>2.13</v>
+        <v>1.47</v>
       </c>
       <c r="AO100">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AP100">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ100">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR100">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AS100">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT100">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -22138,25 +22138,25 @@
         <v>1.32</v>
       </c>
       <c r="AN101">
-        <v>1.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO101">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ101">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR101">
         <v>1.04</v>
       </c>
       <c r="AS101">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="AT101">
-        <v>2.06</v>
+        <v>2.27</v>
       </c>
       <c r="AU101">
         <v>8</v>
@@ -22344,25 +22344,25 @@
         <v>1.35</v>
       </c>
       <c r="AN102">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AO102">
-        <v>0.75</v>
+        <v>1.35</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ102">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR102">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="AS102">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AT102">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="AU102">
         <v>2</v>
@@ -22550,25 +22550,25 @@
         <v>3.8</v>
       </c>
       <c r="AN103">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AO103">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AP103">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ103">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR103">
-        <v>2.45</v>
+        <v>2.22</v>
       </c>
       <c r="AS103">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AT103">
-        <v>3.73</v>
+        <v>3.63</v>
       </c>
       <c r="AU103">
         <v>6</v>
@@ -22756,22 +22756,22 @@
         <v>2.2</v>
       </c>
       <c r="AN104">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AO104">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP104">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ104">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR104">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AS104">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="AT104">
         <v>2.18</v>
@@ -22962,25 +22962,25 @@
         <v>5.8</v>
       </c>
       <c r="AN105">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AO105">
-        <v>0.43</v>
+        <v>1.06</v>
       </c>
       <c r="AP105">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ105">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR105">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="AS105">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AT105">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="AU105">
         <v>9</v>
@@ -23168,25 +23168,25 @@
         <v>6.5</v>
       </c>
       <c r="AN106">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="AO106">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AP106">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ106">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR106">
-        <v>2.43</v>
+        <v>2.23</v>
       </c>
       <c r="AS106">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="AT106">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="AU106">
         <v>8</v>
@@ -23374,25 +23374,25 @@
         <v>1.78</v>
       </c>
       <c r="AN107">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AO107">
-        <v>0.89</v>
+        <v>1.44</v>
       </c>
       <c r="AP107">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR107">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="AS107">
-        <v>0.99</v>
+        <v>1.15</v>
       </c>
       <c r="AT107">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="AU107">
         <v>7</v>
@@ -23580,25 +23580,25 @@
         <v>2.1</v>
       </c>
       <c r="AN108">
-        <v>1.89</v>
+        <v>1.33</v>
       </c>
       <c r="AO108">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ108">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR108">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AS108">
-        <v>0.9399999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AT108">
-        <v>2.49</v>
+        <v>2.46</v>
       </c>
       <c r="AU108">
         <v>7</v>
@@ -23786,25 +23786,25 @@
         <v>1.12</v>
       </c>
       <c r="AN109">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AO109">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="AP109">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ109">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR109">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AS109">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AT109">
-        <v>3.47</v>
+        <v>3.38</v>
       </c>
       <c r="AU109">
         <v>0</v>
@@ -23992,25 +23992,25 @@
         <v>1.07</v>
       </c>
       <c r="AN110">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AO110">
-        <v>2.44</v>
+        <v>2.37</v>
       </c>
       <c r="AP110">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ110">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR110">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AS110">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="AT110">
-        <v>3.31</v>
+        <v>3.51</v>
       </c>
       <c r="AU110">
         <v>2</v>
@@ -24198,25 +24198,25 @@
         <v>1.51</v>
       </c>
       <c r="AN111">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="AO111">
-        <v>0.33</v>
+        <v>0.95</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ111">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR111">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
       <c r="AS111">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AT111">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="AU111">
         <v>4</v>
@@ -24404,25 +24404,25 @@
         <v>1.46</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="AO112">
-        <v>0.78</v>
+        <v>1.42</v>
       </c>
       <c r="AP112">
+        <v>1.24</v>
+      </c>
+      <c r="AQ112">
         <v>1.47</v>
       </c>
-      <c r="AQ112">
-        <v>1.11</v>
-      </c>
       <c r="AR112">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="AS112">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AT112">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24610,25 +24610,25 @@
         <v>1.57</v>
       </c>
       <c r="AN113">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO113">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AP113">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ113">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR113">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AS113">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AT113">
-        <v>2.69</v>
+        <v>2.58</v>
       </c>
       <c r="AU113">
         <v>5</v>
@@ -24816,25 +24816,25 @@
         <v>1.72</v>
       </c>
       <c r="AN114">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AO114">
-        <v>2.44</v>
+        <v>2.39</v>
       </c>
       <c r="AP114">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ114">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR114">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="AS114">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="AT114">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="AU114">
         <v>7</v>
@@ -25022,25 +25022,25 @@
         <v>2.15</v>
       </c>
       <c r="AN115">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="AO115">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ115">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR115">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="AS115">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AT115">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="AU115">
         <v>8</v>
@@ -25228,25 +25228,25 @@
         <v>1.72</v>
       </c>
       <c r="AN116">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AO116">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AP116">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR116">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AS116">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AT116">
-        <v>2.29</v>
+        <v>2.37</v>
       </c>
       <c r="AU116">
         <v>4</v>
@@ -25434,25 +25434,25 @@
         <v>1.95</v>
       </c>
       <c r="AN117">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="AO117">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AP117">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ117">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR117">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AS117">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="AT117">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="AU117">
         <v>5</v>
@@ -25640,25 +25640,25 @@
         <v>1.83</v>
       </c>
       <c r="AN118">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO118">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AP118">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ118">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR118">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AS118">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT118">
-        <v>2.81</v>
+        <v>2.66</v>
       </c>
       <c r="AU118">
         <v>5</v>
@@ -25846,25 +25846,25 @@
         <v>1.3</v>
       </c>
       <c r="AN119">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="AO119">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ119">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR119">
-        <v>1.1</v>
+        <v>0.99</v>
       </c>
       <c r="AS119">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="AT119">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="AU119">
         <v>4</v>
@@ -26052,22 +26052,22 @@
         <v>3.6</v>
       </c>
       <c r="AN120">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AO120">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AP120">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ120">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR120">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AS120">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AT120">
         <v>3.47</v>
@@ -26258,25 +26258,25 @@
         <v>1.38</v>
       </c>
       <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
+        <v>1.12</v>
+      </c>
+      <c r="AP121">
+        <v>0.92</v>
+      </c>
+      <c r="AQ121">
+        <v>1.26</v>
+      </c>
+      <c r="AR121">
+        <v>1.19</v>
+      </c>
+      <c r="AS121">
         <v>1.22</v>
       </c>
-      <c r="AO121">
-        <v>1</v>
-      </c>
-      <c r="AP121">
-        <v>1.37</v>
-      </c>
-      <c r="AQ121">
-        <v>1.05</v>
-      </c>
-      <c r="AR121">
-        <v>1.24</v>
-      </c>
-      <c r="AS121">
-        <v>1.12</v>
-      </c>
       <c r="AT121">
-        <v>2.36</v>
+        <v>2.41</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26464,25 +26464,25 @@
         <v>1.9</v>
       </c>
       <c r="AN122">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AO122">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AP122">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ122">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR122">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AS122">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AT122">
-        <v>2.58</v>
+        <v>2.43</v>
       </c>
       <c r="AU122">
         <v>4</v>
@@ -26670,25 +26670,25 @@
         <v>1.06</v>
       </c>
       <c r="AN123">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AO123">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AP123">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ123">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR123">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AS123">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="AT123">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="AU123">
         <v>0</v>
@@ -26876,25 +26876,25 @@
         <v>2.05</v>
       </c>
       <c r="AN124">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AO124">
+        <v>1.22</v>
+      </c>
+      <c r="AP124">
+        <v>1.79</v>
+      </c>
+      <c r="AQ124">
         <v>1.11</v>
       </c>
-      <c r="AP124">
-        <v>1.89</v>
-      </c>
-      <c r="AQ124">
-        <v>0.95</v>
-      </c>
       <c r="AR124">
-        <v>1.58</v>
+        <v>1.39</v>
       </c>
       <c r="AS124">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AT124">
-        <v>2.81</v>
+        <v>2.61</v>
       </c>
       <c r="AU124">
         <v>7</v>
@@ -27082,25 +27082,25 @@
         <v>1.27</v>
       </c>
       <c r="AN125">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="AO125">
         <v>1.22</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ125">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR125">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="AS125">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AT125">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -27288,25 +27288,25 @@
         <v>1.09</v>
       </c>
       <c r="AN126">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AO126">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AP126">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ126">
+        <v>2.24</v>
+      </c>
+      <c r="AR126">
+        <v>1.2</v>
+      </c>
+      <c r="AS126">
         <v>2.05</v>
       </c>
-      <c r="AR126">
-        <v>1.43</v>
-      </c>
-      <c r="AS126">
-        <v>1.93</v>
-      </c>
       <c r="AT126">
-        <v>3.36</v>
+        <v>3.25</v>
       </c>
       <c r="AU126">
         <v>4</v>
@@ -27494,25 +27494,25 @@
         <v>1.09</v>
       </c>
       <c r="AN127">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="AO127">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AP127">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ127">
+        <v>2.24</v>
+      </c>
+      <c r="AR127">
+        <v>1.12</v>
+      </c>
+      <c r="AS127">
         <v>2.05</v>
       </c>
-      <c r="AR127">
-        <v>1.24</v>
-      </c>
-      <c r="AS127">
-        <v>1.95</v>
-      </c>
       <c r="AT127">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="AU127">
         <v>3</v>
@@ -27700,25 +27700,25 @@
         <v>1.68</v>
       </c>
       <c r="AN128">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
       <c r="AO128">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AP128">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ128">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR128">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>0.98</v>
+        <v>1.19</v>
       </c>
       <c r="AT128">
-        <v>2.51</v>
+        <v>2.59</v>
       </c>
       <c r="AU128">
         <v>2</v>
@@ -27906,25 +27906,25 @@
         <v>6.5</v>
       </c>
       <c r="AN129">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="AO129">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AP129">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ129">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR129">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AS129">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AT129">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="AU129">
         <v>8</v>
@@ -28112,25 +28112,25 @@
         <v>1.65</v>
       </c>
       <c r="AN130">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="AO130">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AP130">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ130">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR130">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="AS130">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AT130">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU130">
         <v>6</v>
@@ -28318,25 +28318,25 @@
         <v>1.42</v>
       </c>
       <c r="AN131">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
       <c r="AO131">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AP131">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ131">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR131">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AS131">
         <v>1.21</v>
       </c>
       <c r="AT131">
-        <v>2.33</v>
+        <v>2.21</v>
       </c>
       <c r="AU131">
         <v>4</v>
@@ -28524,25 +28524,25 @@
         <v>1.57</v>
       </c>
       <c r="AN132">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="AO132">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ132">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR132">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="AS132">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT132">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="AU132">
         <v>5</v>
@@ -28730,25 +28730,25 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AO133">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AP133">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ133">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR133">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AS133">
         <v>1.2</v>
       </c>
       <c r="AT133">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="AU133">
         <v>5</v>
@@ -28936,25 +28936,25 @@
         <v>1.62</v>
       </c>
       <c r="AN134">
-        <v>0.64</v>
+        <v>0.55</v>
       </c>
       <c r="AO134">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AP134">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ134">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR134">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="AS134">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AT134">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29142,25 +29142,25 @@
         <v>1.09</v>
       </c>
       <c r="AN135">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AO135">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AP135">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ135">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR135">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AS135">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="AT135">
-        <v>3.47</v>
+        <v>3.49</v>
       </c>
       <c r="AU135">
         <v>4</v>
@@ -29348,25 +29348,25 @@
         <v>1.58</v>
       </c>
       <c r="AN136">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AO136">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AP136">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ136">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR136">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AS136">
-        <v>0.93</v>
+        <v>1.05</v>
       </c>
       <c r="AT136">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU136">
         <v>6</v>
@@ -29554,22 +29554,22 @@
         <v>6.5</v>
       </c>
       <c r="AN137">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AO137">
-        <v>0.45</v>
+        <v>0.57</v>
       </c>
       <c r="AP137">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ137">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR137">
-        <v>2.16</v>
+        <v>2.01</v>
       </c>
       <c r="AS137">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AT137">
         <v>3.06</v>
@@ -29760,25 +29760,25 @@
         <v>1.38</v>
       </c>
       <c r="AN138">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="AO138">
-        <v>0.91</v>
+        <v>1.39</v>
       </c>
       <c r="AP138">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ138">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR138">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AS138">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT138">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -29969,22 +29969,22 @@
         <v>1.18</v>
       </c>
       <c r="AO139">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="AP139">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR139">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AS139">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AT139">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="AU139">
         <v>2</v>
@@ -30172,25 +30172,25 @@
         <v>1.39</v>
       </c>
       <c r="AN140">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AO140">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AP140">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ140">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR140">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AS140">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="AT140">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AU140">
         <v>9</v>
@@ -30378,25 +30378,25 @@
         <v>1.7</v>
       </c>
       <c r="AN141">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AO141">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="AP141">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ141">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR141">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AS141">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AT141">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU141">
         <v>10</v>
@@ -30584,25 +30584,25 @@
         <v>3.6</v>
       </c>
       <c r="AN142">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="AO142">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AP142">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ142">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR142">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="AS142">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AT142">
-        <v>3.39</v>
+        <v>3.26</v>
       </c>
       <c r="AU142">
         <v>8</v>
@@ -30790,25 +30790,25 @@
         <v>1.28</v>
       </c>
       <c r="AN143">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="AO143">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AP143">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ143">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR143">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="AS143">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AT143">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="AU143">
         <v>3</v>
@@ -30996,25 +30996,25 @@
         <v>2.25</v>
       </c>
       <c r="AN144">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AO144">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="AP144">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ144">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR144">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AS144">
-        <v>0.84</v>
+        <v>1.01</v>
       </c>
       <c r="AT144">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AU144">
         <v>7</v>
@@ -31202,25 +31202,25 @@
         <v>1.07</v>
       </c>
       <c r="AN145">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AO145">
         <v>2.42</v>
       </c>
       <c r="AP145">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ145">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR145">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AS145">
-        <v>2.15</v>
+        <v>2.24</v>
       </c>
       <c r="AT145">
-        <v>3.49</v>
+        <v>3.43</v>
       </c>
       <c r="AU145">
         <v>5</v>
@@ -31408,25 +31408,25 @@
         <v>1.63</v>
       </c>
       <c r="AN146">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO146">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AP146">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ146">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR146">
+        <v>1.13</v>
+      </c>
+      <c r="AS146">
         <v>1.22</v>
       </c>
-      <c r="AS146">
-        <v>1.18</v>
-      </c>
       <c r="AT146">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AU146">
         <v>7</v>
@@ -31614,25 +31614,25 @@
         <v>1.6</v>
       </c>
       <c r="AN147">
+        <v>1.13</v>
+      </c>
+      <c r="AO147">
+        <v>1</v>
+      </c>
+      <c r="AP147">
+        <v>1.11</v>
+      </c>
+      <c r="AQ147">
+        <v>0.92</v>
+      </c>
+      <c r="AR147">
         <v>1.2</v>
       </c>
-      <c r="AO147">
-        <v>0.64</v>
-      </c>
-      <c r="AP147">
-        <v>1.26</v>
-      </c>
-      <c r="AQ147">
-        <v>0.84</v>
-      </c>
-      <c r="AR147">
-        <v>1.26</v>
-      </c>
       <c r="AS147">
-        <v>0.93</v>
+        <v>1.04</v>
       </c>
       <c r="AT147">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU147">
         <v>7</v>
@@ -31820,25 +31820,25 @@
         <v>4.8</v>
       </c>
       <c r="AN148">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AO148">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP148">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ148">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR148">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="AS148">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AT148">
-        <v>3.33</v>
+        <v>3.22</v>
       </c>
       <c r="AU148">
         <v>24</v>
@@ -32026,25 +32026,25 @@
         <v>2</v>
       </c>
       <c r="AN149">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="AO149">
-        <v>0.82</v>
+        <v>1.04</v>
       </c>
       <c r="AP149">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ149">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR149">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AS149">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AT149">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="AU149">
         <v>8</v>
@@ -32232,25 +32232,25 @@
         <v>1.7</v>
       </c>
       <c r="AN150">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AO150">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AP150">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ150">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR150">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AS150">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AT150">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="AU150">
         <v>13</v>
@@ -32438,25 +32438,25 @@
         <v>4</v>
       </c>
       <c r="AN151">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="AO151">
-        <v>0.92</v>
+        <v>1.44</v>
       </c>
       <c r="AP151">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ151">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR151">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="AS151">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AT151">
-        <v>3.54</v>
+        <v>3.56</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32644,25 +32644,25 @@
         <v>1.91</v>
       </c>
       <c r="AN152">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="AO152">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AP152">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ152">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR152">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AS152">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AT152">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="AU152">
         <v>5</v>
@@ -32850,25 +32850,25 @@
         <v>2.1</v>
       </c>
       <c r="AN153">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="AO153">
-        <v>0.83</v>
+        <v>1.04</v>
       </c>
       <c r="AP153">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ153">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR153">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AS153">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AT153">
-        <v>2.76</v>
+        <v>2.69</v>
       </c>
       <c r="AU153">
         <v>8</v>
@@ -33056,25 +33056,25 @@
         <v>1.3</v>
       </c>
       <c r="AN154">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="AO154">
+        <v>1.4</v>
+      </c>
+      <c r="AP154">
+        <v>0.66</v>
+      </c>
+      <c r="AQ154">
+        <v>1.24</v>
+      </c>
+      <c r="AR154">
+        <v>1.02</v>
+      </c>
+      <c r="AS154">
         <v>1.17</v>
       </c>
-      <c r="AP154">
-        <v>1</v>
-      </c>
-      <c r="AQ154">
-        <v>1</v>
-      </c>
-      <c r="AR154">
-        <v>1.19</v>
-      </c>
-      <c r="AS154">
-        <v>1.05</v>
-      </c>
       <c r="AT154">
-        <v>2.24</v>
+        <v>2.19</v>
       </c>
       <c r="AU154">
         <v>4</v>
@@ -33262,25 +33262,25 @@
         <v>1.05</v>
       </c>
       <c r="AN155">
-        <v>1.31</v>
+        <v>0.96</v>
       </c>
       <c r="AO155">
-        <v>2.33</v>
+        <v>2.44</v>
       </c>
       <c r="AP155">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ155">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR155">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AS155">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="AT155">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="AU155">
         <v>0</v>
@@ -33468,25 +33468,25 @@
         <v>3.65</v>
       </c>
       <c r="AN156">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="AO156">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="AP156">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ156">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR156">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="AS156">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="AT156">
-        <v>3.67</v>
+        <v>3.59</v>
       </c>
       <c r="AU156">
         <v>13</v>
@@ -33674,25 +33674,25 @@
         <v>1.95</v>
       </c>
       <c r="AN157">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="AO157">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="AP157">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ157">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR157">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="AS157">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AT157">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AU157">
         <v>7</v>
@@ -33880,25 +33880,25 @@
         <v>1.65</v>
       </c>
       <c r="AN158">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="AO158">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="AP158">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ158">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR158">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS158">
-        <v>0.87</v>
+        <v>1.02</v>
       </c>
       <c r="AT158">
-        <v>2.11</v>
+        <v>2.17</v>
       </c>
       <c r="AU158">
         <v>7</v>
@@ -34086,25 +34086,25 @@
         <v>1.73</v>
       </c>
       <c r="AN159">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="AO159">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AP159">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ159">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR159">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AS159">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AT159">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="AU159">
         <v>10</v>
@@ -34292,25 +34292,25 @@
         <v>1.83</v>
       </c>
       <c r="AN160">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AO160">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="AP160">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ160">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR160">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AS160">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AT160">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="AU160">
         <v>10</v>
@@ -34498,22 +34498,22 @@
         <v>1.06</v>
       </c>
       <c r="AN161">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="AO161">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="AP161">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ161">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR161">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AS161">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="AT161">
         <v>3.43</v>
@@ -34704,22 +34704,22 @@
         <v>1.4</v>
       </c>
       <c r="AN162">
+        <v>0.85</v>
+      </c>
+      <c r="AO162">
+        <v>1.41</v>
+      </c>
+      <c r="AP162">
+        <v>0.92</v>
+      </c>
+      <c r="AQ162">
+        <v>1.24</v>
+      </c>
+      <c r="AR162">
         <v>1.17</v>
       </c>
-      <c r="AO162">
-        <v>1.08</v>
-      </c>
-      <c r="AP162">
-        <v>1.37</v>
-      </c>
-      <c r="AQ162">
-        <v>1</v>
-      </c>
-      <c r="AR162">
-        <v>1.28</v>
-      </c>
       <c r="AS162">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="AT162">
         <v>2.38</v>
@@ -34910,25 +34910,25 @@
         <v>2.25</v>
       </c>
       <c r="AN163">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="AO163">
-        <v>0.54</v>
+        <v>0.89</v>
       </c>
       <c r="AP163">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ163">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR163">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AS163">
-        <v>0.96</v>
+        <v>1.02</v>
       </c>
       <c r="AT163">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="AU163">
         <v>7</v>
@@ -35116,25 +35116,25 @@
         <v>4.2</v>
       </c>
       <c r="AN164">
-        <v>2.31</v>
+        <v>2.41</v>
       </c>
       <c r="AO164">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AP164">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ164">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR164">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="AS164">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AT164">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="AU164">
         <v>11</v>
@@ -35322,25 +35322,25 @@
         <v>1.85</v>
       </c>
       <c r="AN165">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AO165">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AP165">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ165">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR165">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="AS165">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
       <c r="AT165">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AU165">
         <v>3</v>
@@ -35528,25 +35528,25 @@
         <v>1.1</v>
       </c>
       <c r="AN166">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AO166">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="AP166">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ166">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR166">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AS166">
-        <v>1.85</v>
+        <v>2.13</v>
       </c>
       <c r="AT166">
-        <v>3.4</v>
+        <v>3.54</v>
       </c>
       <c r="AU166">
         <v>4</v>
@@ -35734,25 +35734,25 @@
         <v>1.42</v>
       </c>
       <c r="AN167">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AO167">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="AP167">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ167">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR167">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="AS167">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT167">
-        <v>2.32</v>
+        <v>2.29</v>
       </c>
       <c r="AU167">
         <v>5</v>
@@ -35940,25 +35940,25 @@
         <v>1.55</v>
       </c>
       <c r="AN168">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="AO168">
-        <v>0.92</v>
+        <v>1.43</v>
       </c>
       <c r="AP168">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ168">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR168">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AS168">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AT168">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AU168">
         <v>6</v>
@@ -36146,25 +36146,25 @@
         <v>1.52</v>
       </c>
       <c r="AN169">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="AO169">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AP169">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ169">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR169">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AS169">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AT169">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU169">
         <v>6</v>
@@ -36352,25 +36352,25 @@
         <v>1.57</v>
       </c>
       <c r="AN170">
-        <v>1.21</v>
+        <v>0.96</v>
       </c>
       <c r="AO170">
-        <v>0.36</v>
+        <v>0.57</v>
       </c>
       <c r="AP170">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ170">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR170">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="AS170">
-        <v>0.93</v>
+        <v>1.05</v>
       </c>
       <c r="AT170">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="AU170">
         <v>4</v>
@@ -36558,25 +36558,25 @@
         <v>2.25</v>
       </c>
       <c r="AN171">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AO171">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AP171">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ171">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR171">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AS171">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AT171">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="AU171">
         <v>7</v>
@@ -36764,25 +36764,25 @@
         <v>5</v>
       </c>
       <c r="AN172">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AO172">
-        <v>0.93</v>
+        <v>1.04</v>
       </c>
       <c r="AP172">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ172">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR172">
-        <v>2.39</v>
+        <v>2.11</v>
       </c>
       <c r="AS172">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AT172">
-        <v>3.58</v>
+        <v>3.37</v>
       </c>
       <c r="AU172">
         <v>12</v>
@@ -36970,25 +36970,25 @@
         <v>1.14</v>
       </c>
       <c r="AN173">
+        <v>1.86</v>
+      </c>
+      <c r="AO173">
+        <v>2.43</v>
+      </c>
+      <c r="AP173">
         <v>1.79</v>
       </c>
-      <c r="AO173">
-        <v>2.5</v>
-      </c>
-      <c r="AP173">
-        <v>1.89</v>
-      </c>
       <c r="AQ173">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR173">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AS173">
-        <v>2.09</v>
+        <v>2.19</v>
       </c>
       <c r="AT173">
-        <v>3.7</v>
+        <v>3.64</v>
       </c>
       <c r="AU173">
         <v>7</v>
@@ -37176,25 +37176,25 @@
         <v>1.44</v>
       </c>
       <c r="AN174">
-        <v>1.15</v>
+        <v>0.82</v>
       </c>
       <c r="AO174">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AP174">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ174">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR174">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AS174">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AT174">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="AU174">
         <v>4</v>
@@ -37382,25 +37382,25 @@
         <v>1.46</v>
       </c>
       <c r="AN175">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="AO175">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="AP175">
+        <v>1.11</v>
+      </c>
+      <c r="AQ175">
         <v>1.26</v>
       </c>
-      <c r="AQ175">
-        <v>1.05</v>
-      </c>
       <c r="AR175">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AS175">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="AT175">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU175">
         <v>7</v>
@@ -37588,25 +37588,25 @@
         <v>5.5</v>
       </c>
       <c r="AN176">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="AO176">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AP176">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ176">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR176">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AS176">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AT176">
-        <v>3.25</v>
+        <v>3.19</v>
       </c>
       <c r="AU176">
         <v>11</v>
@@ -37794,22 +37794,22 @@
         <v>2.6</v>
       </c>
       <c r="AN177">
+        <v>1.21</v>
+      </c>
+      <c r="AO177">
+        <v>0.59</v>
+      </c>
+      <c r="AP177">
+        <v>1.21</v>
+      </c>
+      <c r="AQ177">
+        <v>0.66</v>
+      </c>
+      <c r="AR177">
         <v>1.27</v>
       </c>
-      <c r="AO177">
-        <v>0.4</v>
-      </c>
-      <c r="AP177">
-        <v>1.32</v>
-      </c>
-      <c r="AQ177">
-        <v>0.32</v>
-      </c>
-      <c r="AR177">
-        <v>1.39</v>
-      </c>
       <c r="AS177">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT177">
         <v>2.33</v>
@@ -38000,25 +38000,25 @@
         <v>1.72</v>
       </c>
       <c r="AN178">
-        <v>1.87</v>
+        <v>1.41</v>
       </c>
       <c r="AO178">
-        <v>1.07</v>
+        <v>1.45</v>
       </c>
       <c r="AP178">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ178">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR178">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AS178">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AT178">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="AU178">
         <v>9</v>
@@ -38206,25 +38206,25 @@
         <v>1.63</v>
       </c>
       <c r="AN179">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AO179">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="AP179">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ179">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR179">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AS179">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="AT179">
-        <v>2.44</v>
+        <v>2.53</v>
       </c>
       <c r="AU179">
         <v>6</v>
@@ -38412,25 +38412,25 @@
         <v>1.22</v>
       </c>
       <c r="AN180">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AO180">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AP180">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ180">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR180">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AS180">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AT180">
-        <v>2.49</v>
+        <v>2.58</v>
       </c>
       <c r="AU180">
         <v>4</v>
@@ -38618,25 +38618,25 @@
         <v>3.75</v>
       </c>
       <c r="AN181">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AO181">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AP181">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ181">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR181">
-        <v>2.41</v>
+        <v>2.13</v>
       </c>
       <c r="AS181">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="AT181">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="AU181">
         <v>9</v>
@@ -38827,22 +38827,22 @@
         <v>1.07</v>
       </c>
       <c r="AO182">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP182">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ182">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR182">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AS182">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="AT182">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -39030,25 +39030,25 @@
         <v>1.47</v>
       </c>
       <c r="AN183">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AO183">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AP183">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ183">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR183">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="AS183">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="AT183">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU183">
         <v>5</v>
@@ -39236,25 +39236,25 @@
         <v>2.1</v>
       </c>
       <c r="AN184">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AO184">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AP184">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ184">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR184">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AS184">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AT184">
-        <v>2.49</v>
+        <v>2.42</v>
       </c>
       <c r="AU184">
         <v>5</v>
@@ -39442,25 +39442,25 @@
         <v>1.83</v>
       </c>
       <c r="AN185">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AO185">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AP185">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ185">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR185">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AS185">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="AT185">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AU185">
         <v>7</v>
@@ -39648,25 +39648,25 @@
         <v>1.02</v>
       </c>
       <c r="AN186">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AO186">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AP186">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ186">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR186">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AS186">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="AT186">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="AU186">
         <v>2</v>
@@ -39854,25 +39854,25 @@
         <v>1.44</v>
       </c>
       <c r="AN187">
-        <v>1.8</v>
+        <v>1.39</v>
       </c>
       <c r="AO187">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AP187">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ187">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR187">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AS187">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="AT187">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="AU187">
         <v>2</v>
@@ -40060,25 +40060,25 @@
         <v>1.63</v>
       </c>
       <c r="AN188">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AO188">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AP188">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ188">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR188">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AS188">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AT188">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AU188">
         <v>3</v>
@@ -40266,25 +40266,25 @@
         <v>2.55</v>
       </c>
       <c r="AN189">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AO189">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AP189">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ189">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR189">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="AS189">
-        <v>0.9399999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="AT189">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="AU189">
         <v>7</v>
@@ -40472,25 +40472,25 @@
         <v>2.65</v>
       </c>
       <c r="AN190">
-        <v>1.94</v>
+        <v>1.45</v>
       </c>
       <c r="AO190">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="AP190">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ190">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR190">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AS190">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AT190">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AU190">
         <v>6</v>
@@ -40678,25 +40678,25 @@
         <v>1.3</v>
       </c>
       <c r="AN191">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="AO191">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AP191">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ191">
+        <v>1.26</v>
+      </c>
+      <c r="AR191">
         <v>1.05</v>
       </c>
-      <c r="AR191">
-        <v>1.14</v>
-      </c>
       <c r="AS191">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="AT191">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU191">
         <v>2</v>
@@ -40884,25 +40884,25 @@
         <v>1.62</v>
       </c>
       <c r="AN192">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
       <c r="AO192">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="AP192">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ192">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR192">
-        <v>2.39</v>
+        <v>2.13</v>
       </c>
       <c r="AS192">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="AT192">
-        <v>4.47</v>
+        <v>4.33</v>
       </c>
       <c r="AU192">
         <v>6</v>
@@ -41090,25 +41090,25 @@
         <v>1.75</v>
       </c>
       <c r="AN193">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AO193">
-        <v>1.06</v>
+        <v>1.26</v>
       </c>
       <c r="AP193">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ193">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR193">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AS193">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT193">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="AU193">
         <v>6</v>
@@ -41296,25 +41296,25 @@
         <v>4.4</v>
       </c>
       <c r="AN194">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="AO194">
-        <v>1</v>
+        <v>1.34</v>
       </c>
       <c r="AP194">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ194">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR194">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="AS194">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT194">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="AU194">
         <v>10</v>
@@ -41502,25 +41502,25 @@
         <v>2.9</v>
       </c>
       <c r="AN195">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="AO195">
-        <v>0.38</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP195">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ195">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR195">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="AS195">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AT195">
-        <v>2.57</v>
+        <v>2.51</v>
       </c>
       <c r="AU195">
         <v>6</v>
@@ -41708,25 +41708,25 @@
         <v>1.44</v>
       </c>
       <c r="AN196">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AO196">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AP196">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ196">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR196">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AS196">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="AT196">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="AU196">
         <v>2</v>
@@ -41914,25 +41914,25 @@
         <v>1.28</v>
       </c>
       <c r="AN197">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="AO197">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="AP197">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ197">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR197">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="AS197">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AT197">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AU197">
         <v>-1</v>
@@ -42120,25 +42120,25 @@
         <v>1.02</v>
       </c>
       <c r="AN198">
-        <v>1.27</v>
+        <v>0.84</v>
       </c>
       <c r="AO198">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
       <c r="AP198">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ198">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR198">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AS198">
-        <v>1.83</v>
+        <v>2.11</v>
       </c>
       <c r="AT198">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="AU198">
         <v>7</v>
@@ -42326,25 +42326,25 @@
         <v>1.07</v>
       </c>
       <c r="AN199">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AO199">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AP199">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ199">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR199">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AS199">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="AT199">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="AU199">
         <v>2</v>
@@ -42532,25 +42532,25 @@
         <v>1.28</v>
       </c>
       <c r="AN200">
-        <v>1.06</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO200">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AP200">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ200">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR200">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="AS200">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="AT200">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU200">
         <v>4</v>
@@ -42738,22 +42738,22 @@
         <v>1.5</v>
       </c>
       <c r="AN201">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AO201">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AP201">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ201">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR201">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="AS201">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AT201">
         <v>2.19</v>
@@ -42944,25 +42944,25 @@
         <v>1.66</v>
       </c>
       <c r="AN202">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AO202">
         <v>1.88</v>
       </c>
       <c r="AP202">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ202">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR202">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="AS202">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT202">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU202">
         <v>3</v>
@@ -43150,25 +43150,25 @@
         <v>1.75</v>
       </c>
       <c r="AN203">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="AO203">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AP203">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ203">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR203">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AS203">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT203">
-        <v>2.65</v>
+        <v>2.54</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43356,25 +43356,25 @@
         <v>1.11</v>
       </c>
       <c r="AN204">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AO204">
-        <v>2.19</v>
+        <v>2.27</v>
       </c>
       <c r="AP204">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ204">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR204">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AS204">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="AT204">
-        <v>3.15</v>
+        <v>3.29</v>
       </c>
       <c r="AU204">
         <v>6</v>
@@ -43562,25 +43562,25 @@
         <v>1.01</v>
       </c>
       <c r="AN205">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AO205">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AP205">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ205">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR205">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AS205">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="AT205">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="AU205">
         <v>7</v>
@@ -43768,25 +43768,25 @@
         <v>3.9</v>
       </c>
       <c r="AN206">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="AO206">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AP206">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ206">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR206">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="AS206">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT206">
-        <v>3.63</v>
+        <v>3.62</v>
       </c>
       <c r="AU206">
         <v>9</v>
@@ -43974,25 +43974,25 @@
         <v>1.5</v>
       </c>
       <c r="AN207">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="AO207">
-        <v>0.9399999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="AP207">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ207">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR207">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AS207">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="AT207">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="AU207">
         <v>5</v>
@@ -44180,25 +44180,25 @@
         <v>2.1</v>
       </c>
       <c r="AN208">
+        <v>1.12</v>
+      </c>
+      <c r="AO208">
+        <v>0.91</v>
+      </c>
+      <c r="AP208">
+        <v>1.26</v>
+      </c>
+      <c r="AQ208">
+        <v>0.92</v>
+      </c>
+      <c r="AR208">
         <v>1.29</v>
       </c>
-      <c r="AO208">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AP208">
-        <v>1.47</v>
-      </c>
-      <c r="AQ208">
-        <v>0.84</v>
-      </c>
-      <c r="AR208">
-        <v>1.46</v>
-      </c>
       <c r="AS208">
-        <v>0.9399999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="AT208">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AU208">
         <v>7</v>
@@ -44386,25 +44386,25 @@
         <v>2.2</v>
       </c>
       <c r="AN209">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AO209">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="AP209">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ209">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR209">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AS209">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AT209">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AU209">
         <v>7</v>
@@ -44592,25 +44592,25 @@
         <v>1.27</v>
       </c>
       <c r="AN210">
-        <v>1.38</v>
+        <v>0.88</v>
       </c>
       <c r="AO210">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AP210">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ210">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR210">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS210">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="AT210">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -44798,25 +44798,25 @@
         <v>4</v>
       </c>
       <c r="AN211">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="AO211">
-        <v>1.06</v>
+        <v>1.53</v>
       </c>
       <c r="AP211">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ211">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR211">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="AS211">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AT211">
-        <v>3.62</v>
+        <v>3.51</v>
       </c>
       <c r="AU211">
         <v>16</v>
@@ -45004,25 +45004,25 @@
         <v>1.85</v>
       </c>
       <c r="AN212">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AO212">
+        <v>2.31</v>
+      </c>
+      <c r="AP212">
+        <v>2.45</v>
+      </c>
+      <c r="AQ212">
         <v>2.24</v>
       </c>
-      <c r="AP212">
-        <v>2.53</v>
-      </c>
-      <c r="AQ212">
-        <v>2.05</v>
-      </c>
       <c r="AR212">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="AS212">
-        <v>1.86</v>
+        <v>2.13</v>
       </c>
       <c r="AT212">
-        <v>4.16</v>
+        <v>4.29</v>
       </c>
       <c r="AU212">
         <v>7</v>
@@ -45210,25 +45210,25 @@
         <v>1.5</v>
       </c>
       <c r="AN213">
-        <v>1.47</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO213">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AP213">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ213">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR213">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS213">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AT213">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="AU213">
         <v>3</v>
@@ -45416,25 +45416,25 @@
         <v>1.45</v>
       </c>
       <c r="AN214">
-        <v>1.59</v>
+        <v>1.31</v>
       </c>
       <c r="AO214">
-        <v>1</v>
+        <v>1.49</v>
       </c>
       <c r="AP214">
+        <v>1.24</v>
+      </c>
+      <c r="AQ214">
         <v>1.47</v>
       </c>
-      <c r="AQ214">
-        <v>1.11</v>
-      </c>
       <c r="AR214">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AS214">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AT214">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="AU214">
         <v>3</v>
@@ -45622,25 +45622,25 @@
         <v>2.15</v>
       </c>
       <c r="AN215">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AO215">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AP215">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ215">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR215">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="AS215">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="AT215">
-        <v>2.71</v>
+        <v>2.65</v>
       </c>
       <c r="AU215">
         <v>9</v>
@@ -45828,25 +45828,25 @@
         <v>1.42</v>
       </c>
       <c r="AN216">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="AO216">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AP216">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ216">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR216">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="AS216">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="AT216">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="AU216">
         <v>9</v>
@@ -46034,25 +46034,25 @@
         <v>1.78</v>
       </c>
       <c r="AN217">
+        <v>1.2</v>
+      </c>
+      <c r="AO217">
+        <v>1.17</v>
+      </c>
+      <c r="AP217">
+        <v>1.21</v>
+      </c>
+      <c r="AQ217">
+        <v>1.26</v>
+      </c>
+      <c r="AR217">
         <v>1.29</v>
       </c>
-      <c r="AO217">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AP217">
-        <v>1.32</v>
-      </c>
-      <c r="AQ217">
-        <v>1.05</v>
-      </c>
-      <c r="AR217">
-        <v>1.39</v>
-      </c>
       <c r="AS217">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AT217">
-        <v>2.52</v>
+        <v>2.59</v>
       </c>
       <c r="AU217">
         <v>5</v>
@@ -46240,25 +46240,25 @@
         <v>5</v>
       </c>
       <c r="AN218">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="AO218">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AP218">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ218">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR218">
-        <v>2.39</v>
+        <v>2.09</v>
       </c>
       <c r="AS218">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT218">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="AU218">
         <v>14</v>
@@ -46446,22 +46446,22 @@
         <v>1.07</v>
       </c>
       <c r="AN219">
-        <v>1.94</v>
+        <v>1.53</v>
       </c>
       <c r="AO219">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="AP219">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ219">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR219">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="AS219">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="AT219">
         <v>3.55</v>
@@ -46652,25 +46652,25 @@
         <v>1.5</v>
       </c>
       <c r="AN220">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="AO220">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AP220">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ220">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR220">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AS220">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT220">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="AU220">
         <v>6</v>
@@ -46858,25 +46858,25 @@
         <v>2.35</v>
       </c>
       <c r="AN221">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="AO221">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP221">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ221">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR221">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="AS221">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AT221">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="AU221">
         <v>8</v>
@@ -47064,25 +47064,25 @@
         <v>1.95</v>
       </c>
       <c r="AN222">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AO222">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AP222">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ222">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR222">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AS222">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AT222">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="AU222">
         <v>6</v>
@@ -47270,25 +47270,25 @@
         <v>1.57</v>
       </c>
       <c r="AN223">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AO223">
-        <v>0.44</v>
+        <v>0.92</v>
       </c>
       <c r="AP223">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ223">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR223">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AS223">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AT223">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="AU223">
         <v>4</v>
@@ -47476,25 +47476,25 @@
         <v>3.9</v>
       </c>
       <c r="AN224">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AO224">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="AP224">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ224">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR224">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AS224">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT224">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="AU224">
         <v>6</v>
@@ -47682,25 +47682,25 @@
         <v>1.48</v>
       </c>
       <c r="AN225">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AO225">
+        <v>1.49</v>
+      </c>
+      <c r="AP225">
         <v>1.11</v>
       </c>
-      <c r="AP225">
-        <v>1.26</v>
-      </c>
       <c r="AQ225">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR225">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AS225">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT225">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="AU225">
         <v>3</v>
@@ -47888,25 +47888,25 @@
         <v>1.15</v>
       </c>
       <c r="AN226">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="AO226">
+        <v>2.27</v>
+      </c>
+      <c r="AP226">
+        <v>1.79</v>
+      </c>
+      <c r="AQ226">
+        <v>2.24</v>
+      </c>
+      <c r="AR226">
+        <v>1.44</v>
+      </c>
+      <c r="AS226">
         <v>2.11</v>
       </c>
-      <c r="AP226">
-        <v>1.89</v>
-      </c>
-      <c r="AQ226">
-        <v>2.05</v>
-      </c>
-      <c r="AR226">
-        <v>1.61</v>
-      </c>
-      <c r="AS226">
-        <v>1.8</v>
-      </c>
       <c r="AT226">
-        <v>3.41</v>
+        <v>3.55</v>
       </c>
       <c r="AU226">
         <v>5</v>
@@ -48094,25 +48094,25 @@
         <v>1.28</v>
       </c>
       <c r="AN227">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="AO227">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AP227">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ227">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR227">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="AS227">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AT227">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="AU227">
         <v>4</v>
@@ -48300,25 +48300,25 @@
         <v>1.48</v>
       </c>
       <c r="AN228">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AO228">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AP228">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ228">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR228">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AS228">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AT228">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="AU228">
         <v>5</v>
@@ -48506,25 +48506,25 @@
         <v>1.53</v>
       </c>
       <c r="AN229">
-        <v>1.39</v>
+        <v>0.92</v>
       </c>
       <c r="AO229">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="AP229">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ229">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR229">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AS229">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="AT229">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="AU229">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -1750,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ2">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ6">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2780,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ7">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2980,25 +2980,25 @@
         <v>1.8</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ8">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR8">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>3</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ9">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR9">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>10</v>
@@ -3398,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ10">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR10">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>9</v>
@@ -3598,25 +3598,25 @@
         <v>1.09</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ11">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR11">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>3</v>
@@ -3804,25 +3804,25 @@
         <v>2.05</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR12">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.37</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>2</v>
@@ -4010,25 +4010,25 @@
         <v>1.5</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ13">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR13">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -4216,25 +4216,25 @@
         <v>1.06</v>
       </c>
       <c r="AN14">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO14">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ14">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR14">
-        <v>1.45</v>
+        <v>1.92</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT14">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -4428,19 +4428,19 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ15">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR15">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="AS15">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT15">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4631,22 +4631,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ16">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR16">
-        <v>1.29</v>
+        <v>1.85</v>
       </c>
       <c r="AS16">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="AT16">
-        <v>2.35</v>
+        <v>2.72</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4834,25 +4834,25 @@
         <v>1.65</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ17">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR17">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="AS17">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AT17">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="AU17">
         <v>8</v>
@@ -5040,25 +5040,25 @@
         <v>1.35</v>
       </c>
       <c r="AN18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ18">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR18">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="AS18">
-        <v>1.58</v>
+        <v>2.16</v>
       </c>
       <c r="AT18">
-        <v>2.72</v>
+        <v>3.21</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5249,22 +5249,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP19">
+        <v>1.47</v>
+      </c>
+      <c r="AQ19">
+        <v>1.05</v>
+      </c>
+      <c r="AR19">
         <v>1.24</v>
       </c>
-      <c r="AQ19">
-        <v>1.26</v>
-      </c>
-      <c r="AR19">
-        <v>1.17</v>
-      </c>
       <c r="AS19">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="AT19">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5452,25 +5452,25 @@
         <v>1.75</v>
       </c>
       <c r="AN20">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ20">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR20">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AS20">
-        <v>1.29</v>
+        <v>0.99</v>
       </c>
       <c r="AT20">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="AU20">
         <v>5</v>
@@ -5658,25 +5658,25 @@
         <v>1.52</v>
       </c>
       <c r="AN21">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR21">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AS21">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AT21">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AU21">
         <v>4</v>
@@ -5864,25 +5864,25 @@
         <v>1.44</v>
       </c>
       <c r="AN22">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AS22">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AT22">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -6070,25 +6070,25 @@
         <v>1.6</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ23">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR23">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="AS23">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AT23">
-        <v>4.29</v>
+        <v>4.23</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -6276,25 +6276,25 @@
         <v>1.77</v>
       </c>
       <c r="AN24">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ24">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR24">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT24">
-        <v>2.96</v>
+        <v>2.38</v>
       </c>
       <c r="AU24">
         <v>2</v>
@@ -6482,25 +6482,25 @@
         <v>1.57</v>
       </c>
       <c r="AN25">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO25">
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ25">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR25">
-        <v>0.86</v>
+        <v>1.08</v>
       </c>
       <c r="AS25">
-        <v>1.32</v>
+        <v>0.74</v>
       </c>
       <c r="AT25">
-        <v>2.18</v>
+        <v>1.82</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6694,19 +6694,19 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR26">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AS26">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="AT26">
-        <v>3.01</v>
+        <v>3.16</v>
       </c>
       <c r="AU26">
         <v>2</v>
@@ -6894,25 +6894,25 @@
         <v>5</v>
       </c>
       <c r="AN27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO27">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ27">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR27">
-        <v>1.97</v>
+        <v>2.27</v>
       </c>
       <c r="AS27">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AT27">
-        <v>3.18</v>
+        <v>3.55</v>
       </c>
       <c r="AU27">
         <v>8</v>
@@ -7100,25 +7100,25 @@
         <v>1.78</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ28">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR28">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AS28">
-        <v>0.97</v>
+        <v>0.74</v>
       </c>
       <c r="AT28">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="AU28">
         <v>5</v>
@@ -7306,25 +7306,25 @@
         <v>1.53</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO29">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ29">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR29">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AS29">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="AT29">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7512,25 +7512,25 @@
         <v>1.65</v>
       </c>
       <c r="AN30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO30">
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ30">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AS30">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AT30">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="AU30">
         <v>8</v>
@@ -7721,22 +7721,22 @@
         <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP31">
+        <v>1.37</v>
+      </c>
+      <c r="AQ31">
+        <v>0.32</v>
+      </c>
+      <c r="AR31">
+        <v>1.44</v>
+      </c>
+      <c r="AS31">
         <v>0.92</v>
       </c>
-      <c r="AQ31">
-        <v>0.66</v>
-      </c>
-      <c r="AR31">
-        <v>1.26</v>
-      </c>
-      <c r="AS31">
-        <v>1.08</v>
-      </c>
       <c r="AT31">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7924,25 +7924,25 @@
         <v>1.04</v>
       </c>
       <c r="AN32">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR32">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="AS32">
-        <v>2.01</v>
+        <v>1.67</v>
       </c>
       <c r="AT32">
-        <v>3.02</v>
+        <v>2.91</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -8130,25 +8130,25 @@
         <v>1.5</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP33">
+        <v>1.26</v>
+      </c>
+      <c r="AQ33">
         <v>1.11</v>
       </c>
-      <c r="AQ33">
-        <v>1.47</v>
-      </c>
       <c r="AR33">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AS33">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT33">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -8336,25 +8336,25 @@
         <v>2.25</v>
       </c>
       <c r="AN34">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AO34">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ34">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR34">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="AS34">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AT34">
-        <v>2.31</v>
+        <v>2.59</v>
       </c>
       <c r="AU34">
         <v>9</v>
@@ -8542,25 +8542,25 @@
         <v>1.51</v>
       </c>
       <c r="AN35">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO35">
+        <v>1.5</v>
+      </c>
+      <c r="AP35">
+        <v>1.47</v>
+      </c>
+      <c r="AQ35">
+        <v>1.68</v>
+      </c>
+      <c r="AR35">
         <v>1.4</v>
       </c>
-      <c r="AP35">
-        <v>1.24</v>
-      </c>
-      <c r="AQ35">
-        <v>1.79</v>
-      </c>
-      <c r="AR35">
-        <v>1.23</v>
-      </c>
       <c r="AS35">
-        <v>1.45</v>
+        <v>1.82</v>
       </c>
       <c r="AT35">
-        <v>2.68</v>
+        <v>3.22</v>
       </c>
       <c r="AU35">
         <v>6</v>
@@ -8748,25 +8748,25 @@
         <v>1.9</v>
       </c>
       <c r="AN36">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ36">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR36">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="AS36">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="AT36">
-        <v>2.39</v>
+        <v>2.27</v>
       </c>
       <c r="AU36">
         <v>7</v>
@@ -8954,25 +8954,25 @@
         <v>3.9</v>
       </c>
       <c r="AN37">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO37">
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ37">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR37">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="AS37">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="AT37">
-        <v>3.42</v>
+        <v>3.19</v>
       </c>
       <c r="AU37">
         <v>8</v>
@@ -9160,25 +9160,25 @@
         <v>1.07</v>
       </c>
       <c r="AN38">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO38">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ38">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR38">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="AS38">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="AT38">
-        <v>3.37</v>
+        <v>3.25</v>
       </c>
       <c r="AU38">
         <v>5</v>
@@ -9369,22 +9369,22 @@
         <v>0.33</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR39">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="AS39">
-        <v>1.09</v>
+        <v>0.85</v>
       </c>
       <c r="AT39">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9575,22 +9575,22 @@
         <v>2</v>
       </c>
       <c r="AO40">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ40">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR40">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AS40">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT40">
-        <v>3.01</v>
+        <v>2.79</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9778,25 +9778,25 @@
         <v>1.42</v>
       </c>
       <c r="AN41">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO41">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ41">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR41">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="AS41">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="AT41">
-        <v>2.73</v>
+        <v>3.15</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9984,25 +9984,25 @@
         <v>1.6</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
         <v>2.33</v>
       </c>
       <c r="AP42">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ42">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR42">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="AS42">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AT42">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -10190,25 +10190,25 @@
         <v>2.1</v>
       </c>
       <c r="AN43">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP43">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ43">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR43">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
       <c r="AS43">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AT43">
-        <v>2.54</v>
+        <v>2.84</v>
       </c>
       <c r="AU43">
         <v>10</v>
@@ -10396,25 +10396,25 @@
         <v>5.5</v>
       </c>
       <c r="AN44">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="AO44">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP44">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ44">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR44">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="AS44">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AT44">
-        <v>3.45</v>
+        <v>3.83</v>
       </c>
       <c r="AU44">
         <v>13</v>
@@ -10602,25 +10602,25 @@
         <v>1.66</v>
       </c>
       <c r="AN45">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AO45">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR45">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AS45">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="AT45">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AU45">
         <v>6</v>
@@ -10808,25 +10808,25 @@
         <v>1.41</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO46">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR46">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="AS46">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AT46">
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -11014,25 +11014,25 @@
         <v>1.09</v>
       </c>
       <c r="AN47">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AO47">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ47">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR47">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="AS47">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="AT47">
-        <v>3.15</v>
+        <v>3.39</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>2.35</v>
       </c>
       <c r="AN48">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO48">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ48">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR48">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AS48">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AT48">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11426,25 +11426,25 @@
         <v>2.87</v>
       </c>
       <c r="AN49">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AO49">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ49">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR49">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AS49">
-        <v>1.59</v>
+        <v>1.18</v>
       </c>
       <c r="AT49">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11632,25 +11632,25 @@
         <v>1.82</v>
       </c>
       <c r="AN50">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AO50">
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ50">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
       </c>
       <c r="AS50">
-        <v>1.08</v>
+        <v>0.87</v>
       </c>
       <c r="AT50">
-        <v>2.47</v>
+        <v>2.26</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -11838,25 +11838,25 @@
         <v>1.13</v>
       </c>
       <c r="AN51">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AO51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ51">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR51">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="AS51">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="AT51">
-        <v>3.52</v>
+        <v>3.09</v>
       </c>
       <c r="AU51">
         <v>7</v>
@@ -12044,25 +12044,25 @@
         <v>1.57</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO52">
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ52">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR52">
         <v>1.05</v>
       </c>
       <c r="AS52">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AT52">
-        <v>2.31</v>
+        <v>2.16</v>
       </c>
       <c r="AU52">
         <v>10</v>
@@ -12250,25 +12250,25 @@
         <v>2.25</v>
       </c>
       <c r="AN53">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AO53">
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ53">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR53">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AS53">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT53">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12459,22 +12459,22 @@
         <v>1</v>
       </c>
       <c r="AO54">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ54">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR54">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="AS54">
-        <v>2.01</v>
+        <v>1.76</v>
       </c>
       <c r="AT54">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -12662,25 +12662,25 @@
         <v>1.53</v>
       </c>
       <c r="AN55">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AO55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR55">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="AS55">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="AT55">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -12868,25 +12868,25 @@
         <v>1.9</v>
       </c>
       <c r="AN56">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO56">
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ56">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR56">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AS56">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AT56">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -13074,25 +13074,25 @@
         <v>1.53</v>
       </c>
       <c r="AN57">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="AO57">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ57">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR57">
         <v>1.39</v>
       </c>
       <c r="AS57">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="AT57">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="AU57">
         <v>9</v>
@@ -13280,25 +13280,25 @@
         <v>3.4</v>
       </c>
       <c r="AN58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO58">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ58">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR58">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="AS58">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="AT58">
-        <v>3.41</v>
+        <v>3.6</v>
       </c>
       <c r="AU58">
         <v>6</v>
@@ -13492,19 +13492,19 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ59">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR59">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="AS59">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AT59">
-        <v>2.69</v>
+        <v>2.96</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13692,25 +13692,25 @@
         <v>1.47</v>
       </c>
       <c r="AN60">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AO60">
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ60">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR60">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="AS60">
-        <v>1.08</v>
+        <v>0.95</v>
       </c>
       <c r="AT60">
-        <v>2.39</v>
+        <v>2.41</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -13898,25 +13898,25 @@
         <v>2.05</v>
       </c>
       <c r="AN61">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AO61">
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ61">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR61">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AS61">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="AT61">
-        <v>2.41</v>
+        <v>2.22</v>
       </c>
       <c r="AU61">
         <v>11</v>
@@ -14104,25 +14104,25 @@
         <v>1.44</v>
       </c>
       <c r="AN62">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AO62">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR62">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AS62">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT62">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14310,25 +14310,25 @@
         <v>4.6</v>
       </c>
       <c r="AN63">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AO63">
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ63">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR63">
-        <v>1.99</v>
+        <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AT63">
-        <v>3.13</v>
+        <v>3.39</v>
       </c>
       <c r="AU63">
         <v>9</v>
@@ -14516,25 +14516,25 @@
         <v>1.07</v>
       </c>
       <c r="AN64">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AO64">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AP64">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ64">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR64">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT64">
-        <v>3.23</v>
+        <v>3.2</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14725,22 +14725,22 @@
         <v>1</v>
       </c>
       <c r="AO65">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AP65">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ65">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR65">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AS65">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="AT65">
-        <v>3.31</v>
+        <v>3.14</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -14928,25 +14928,25 @@
         <v>1.55</v>
       </c>
       <c r="AN66">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="AO66">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ66">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR66">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS66">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AT66">
-        <v>2.77</v>
+        <v>2.59</v>
       </c>
       <c r="AU66">
         <v>9</v>
@@ -15134,25 +15134,25 @@
         <v>1.64</v>
       </c>
       <c r="AN67">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AO67">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AP67">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ67">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR67">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AS67">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="AT67">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -15340,25 +15340,25 @@
         <v>1.42</v>
       </c>
       <c r="AN68">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR68">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="AS68">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="AT68">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="AU68">
         <v>4</v>
@@ -15546,25 +15546,25 @@
         <v>1.52</v>
       </c>
       <c r="AN69">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO69">
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ69">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR69">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AS69">
-        <v>1.36</v>
+        <v>1.08</v>
       </c>
       <c r="AT69">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="AU69">
         <v>5</v>
@@ -15752,25 +15752,25 @@
         <v>1.57</v>
       </c>
       <c r="AN70">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AO70">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ70">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR70">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AS70">
-        <v>1.15</v>
+        <v>0.97</v>
       </c>
       <c r="AT70">
-        <v>2.35</v>
+        <v>2.16</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15958,25 +15958,25 @@
         <v>1.45</v>
       </c>
       <c r="AN71">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AO71">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR71">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="AS71">
         <v>1.19</v>
       </c>
       <c r="AT71">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -16164,25 +16164,25 @@
         <v>1.47</v>
       </c>
       <c r="AN72">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO72">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ72">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR72">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT72">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="AU72">
         <v>2</v>
@@ -16373,22 +16373,22 @@
         <v>1</v>
       </c>
       <c r="AO73">
-        <v>1.33</v>
+        <v>0.4</v>
       </c>
       <c r="AP73">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ73">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR73">
-        <v>1.34</v>
+        <v>1.61</v>
       </c>
       <c r="AS73">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AT73">
-        <v>2.88</v>
+        <v>3.12</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16576,25 +16576,25 @@
         <v>1.01</v>
       </c>
       <c r="AN74">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO74">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="AP74">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR74">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="AS74">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="AT74">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16782,25 +16782,25 @@
         <v>4.33</v>
       </c>
       <c r="AN75">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AO75">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ75">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR75">
-        <v>2.17</v>
+        <v>2.39</v>
       </c>
       <c r="AS75">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="AT75">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="AU75">
         <v>11</v>
@@ -16988,25 +16988,25 @@
         <v>5.5</v>
       </c>
       <c r="AN76">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AO76">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ76">
+        <v>1.16</v>
+      </c>
+      <c r="AR76">
+        <v>2.44</v>
+      </c>
+      <c r="AS76">
         <v>1.13</v>
       </c>
-      <c r="AR76">
-        <v>2.21</v>
-      </c>
-      <c r="AS76">
-        <v>1.24</v>
-      </c>
       <c r="AT76">
-        <v>3.45</v>
+        <v>3.57</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -17194,25 +17194,25 @@
         <v>1.53</v>
       </c>
       <c r="AN77">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="AO77">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="AP77">
+        <v>1.26</v>
+      </c>
+      <c r="AQ77">
         <v>1.11</v>
-      </c>
-      <c r="AQ77">
-        <v>1.21</v>
       </c>
       <c r="AR77">
         <v>1.23</v>
       </c>
       <c r="AS77">
-        <v>1.32</v>
+        <v>1.07</v>
       </c>
       <c r="AT77">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AU77">
         <v>8</v>
@@ -17400,25 +17400,25 @@
         <v>2.05</v>
       </c>
       <c r="AN78">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AO78">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AP78">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ78">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR78">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AS78">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT78">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="AU78">
         <v>2</v>
@@ -17606,25 +17606,25 @@
         <v>1.37</v>
       </c>
       <c r="AN79">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AO79">
-        <v>1.23</v>
+        <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ79">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR79">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AS79">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT79">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17812,25 +17812,25 @@
         <v>2.5</v>
       </c>
       <c r="AN80">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AO80">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
       <c r="AP80">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ80">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR80">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AS80">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AT80">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -18018,25 +18018,25 @@
         <v>1.15</v>
       </c>
       <c r="AN81">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AO81">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ81">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR81">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
       <c r="AS81">
         <v>2.04</v>
       </c>
       <c r="AT81">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="AU81">
         <v>5</v>
@@ -18224,25 +18224,25 @@
         <v>1.47</v>
       </c>
       <c r="AN82">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="AO82">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ82">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR82">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AS82">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT82">
-        <v>2.31</v>
+        <v>2.19</v>
       </c>
       <c r="AU82">
         <v>3</v>
@@ -18430,25 +18430,25 @@
         <v>1.66</v>
       </c>
       <c r="AN83">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AO83">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ83">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR83">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AS83">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AT83">
-        <v>2.47</v>
+        <v>2.56</v>
       </c>
       <c r="AU83">
         <v>5</v>
@@ -18636,22 +18636,22 @@
         <v>1.52</v>
       </c>
       <c r="AN84">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="AO84">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ84">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR84">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AS84">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT84">
         <v>2.96</v>
@@ -18842,25 +18842,25 @@
         <v>1.04</v>
       </c>
       <c r="AN85">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="AO85">
-        <v>2.57</v>
+        <v>2.71</v>
       </c>
       <c r="AP85">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR85">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="AS85">
-        <v>2.21</v>
+        <v>2.01</v>
       </c>
       <c r="AT85">
-        <v>3.22</v>
+        <v>3.01</v>
       </c>
       <c r="AU85">
         <v>4</v>
@@ -19051,22 +19051,22 @@
         <v>1.29</v>
       </c>
       <c r="AO86">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="AP86">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ86">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR86">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="AS86">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="AT86">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="AU86">
         <v>4</v>
@@ -19254,25 +19254,25 @@
         <v>4</v>
       </c>
       <c r="AN87">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AO87">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AP87">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ87">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR87">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="AS87">
-        <v>1.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT87">
-        <v>3.21</v>
+        <v>2.98</v>
       </c>
       <c r="AU87">
         <v>7</v>
@@ -19460,25 +19460,25 @@
         <v>1.55</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO88">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ88">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR88">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AS88">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AT88">
-        <v>2.37</v>
+        <v>2.29</v>
       </c>
       <c r="AU88">
         <v>7</v>
@@ -19666,25 +19666,25 @@
         <v>4.5</v>
       </c>
       <c r="AN89">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="AO89">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ89">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR89">
-        <v>2.22</v>
+        <v>2.41</v>
       </c>
       <c r="AS89">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="AT89">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="AU89">
         <v>13</v>
@@ -19872,25 +19872,25 @@
         <v>1.47</v>
       </c>
       <c r="AN90">
-        <v>0.79</v>
+        <v>1.13</v>
       </c>
       <c r="AO90">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AP90">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR90">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="AS90">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AT90">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AU90">
         <v>6</v>
@@ -20081,22 +20081,22 @@
         <v>1</v>
       </c>
       <c r="AO91">
-        <v>1.13</v>
+        <v>0.43</v>
       </c>
       <c r="AP91">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ91">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR91">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AS91">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT91">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20284,25 +20284,25 @@
         <v>1.12</v>
       </c>
       <c r="AN92">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AO92">
-        <v>2.21</v>
+        <v>2.29</v>
       </c>
       <c r="AP92">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ92">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR92">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AS92">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="AT92">
-        <v>3.56</v>
+        <v>3.7</v>
       </c>
       <c r="AU92">
         <v>6</v>
@@ -20490,25 +20490,25 @@
         <v>1.68</v>
       </c>
       <c r="AN93">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AO93">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AP93">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ93">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR93">
+        <v>1.3</v>
+      </c>
+      <c r="AS93">
         <v>1.12</v>
       </c>
-      <c r="AS93">
-        <v>1.19</v>
-      </c>
       <c r="AT93">
-        <v>2.31</v>
+        <v>2.42</v>
       </c>
       <c r="AU93">
         <v>7</v>
@@ -20696,25 +20696,25 @@
         <v>1.44</v>
       </c>
       <c r="AN94">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="AO94">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="AP94">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ94">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR94">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AS94">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>2.6</v>
+        <v>2.53</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -20902,25 +20902,25 @@
         <v>1.37</v>
       </c>
       <c r="AN95">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AO95">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AP95">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR95">
-        <v>0.99</v>
+        <v>1.09</v>
       </c>
       <c r="AS95">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="AT95">
-        <v>2.24</v>
+        <v>2.13</v>
       </c>
       <c r="AU95">
         <v>4</v>
@@ -21108,25 +21108,25 @@
         <v>1.66</v>
       </c>
       <c r="AN96">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO96">
-        <v>0.93</v>
+        <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ96">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR96">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AS96">
         <v>1.03</v>
       </c>
       <c r="AT96">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21314,25 +21314,25 @@
         <v>4.8</v>
       </c>
       <c r="AN97">
-        <v>2.27</v>
+        <v>2.14</v>
       </c>
       <c r="AO97">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP97">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ97">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR97">
         <v>2.09</v>
       </c>
       <c r="AS97">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AT97">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="AU97">
         <v>10</v>
@@ -21520,25 +21520,25 @@
         <v>1.1</v>
       </c>
       <c r="AN98">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO98">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AP98">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ98">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR98">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AS98">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="AT98">
-        <v>3.68</v>
+        <v>3.61</v>
       </c>
       <c r="AU98">
         <v>7</v>
@@ -21726,25 +21726,25 @@
         <v>1.65</v>
       </c>
       <c r="AN99">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="AO99">
-        <v>1.2</v>
+        <v>0.86</v>
       </c>
       <c r="AP99">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ99">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR99">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AS99">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT99">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="AU99">
         <v>4</v>
@@ -21932,25 +21932,25 @@
         <v>1.72</v>
       </c>
       <c r="AN100">
+        <v>2.13</v>
+      </c>
+      <c r="AO100">
+        <v>0.75</v>
+      </c>
+      <c r="AP100">
         <v>1.47</v>
       </c>
-      <c r="AO100">
-        <v>0.88</v>
-      </c>
-      <c r="AP100">
-        <v>1.24</v>
-      </c>
       <c r="AQ100">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR100">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AS100">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AT100">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -22138,25 +22138,25 @@
         <v>1.32</v>
       </c>
       <c r="AN101">
-        <v>0.9399999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="AO101">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AP101">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR101">
         <v>1.04</v>
       </c>
       <c r="AS101">
-        <v>1.23</v>
+        <v>1.02</v>
       </c>
       <c r="AT101">
-        <v>2.27</v>
+        <v>2.06</v>
       </c>
       <c r="AU101">
         <v>8</v>
@@ -22344,25 +22344,25 @@
         <v>1.35</v>
       </c>
       <c r="AN102">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AO102">
-        <v>1.35</v>
+        <v>0.75</v>
       </c>
       <c r="AP102">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ102">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR102">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AS102">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT102">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="AU102">
         <v>2</v>
@@ -22550,25 +22550,25 @@
         <v>3.8</v>
       </c>
       <c r="AN103">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AO103">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AP103">
+        <v>2.53</v>
+      </c>
+      <c r="AQ103">
+        <v>1.68</v>
+      </c>
+      <c r="AR103">
         <v>2.45</v>
       </c>
-      <c r="AQ103">
-        <v>1.79</v>
-      </c>
-      <c r="AR103">
-        <v>2.22</v>
-      </c>
       <c r="AS103">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AT103">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
       <c r="AU103">
         <v>6</v>
@@ -22756,22 +22756,22 @@
         <v>2.2</v>
       </c>
       <c r="AN104">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AO104">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="AP104">
+        <v>1.47</v>
+      </c>
+      <c r="AQ104">
+        <v>0.32</v>
+      </c>
+      <c r="AR104">
         <v>1.26</v>
       </c>
-      <c r="AQ104">
-        <v>0.66</v>
-      </c>
-      <c r="AR104">
-        <v>1.19</v>
-      </c>
       <c r="AS104">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="AT104">
         <v>2.18</v>
@@ -22962,25 +22962,25 @@
         <v>5.8</v>
       </c>
       <c r="AN105">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="AO105">
-        <v>1.06</v>
+        <v>0.43</v>
       </c>
       <c r="AP105">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ105">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR105">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="AS105">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AT105">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="AU105">
         <v>9</v>
@@ -23168,25 +23168,25 @@
         <v>6.5</v>
       </c>
       <c r="AN106">
-        <v>2.33</v>
+        <v>2.22</v>
       </c>
       <c r="AO106">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP106">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ106">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR106">
-        <v>2.23</v>
+        <v>2.43</v>
       </c>
       <c r="AS106">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="AT106">
-        <v>3.24</v>
+        <v>3.4</v>
       </c>
       <c r="AU106">
         <v>8</v>
@@ -23374,25 +23374,25 @@
         <v>1.78</v>
       </c>
       <c r="AN107">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AO107">
-        <v>1.44</v>
+        <v>0.89</v>
       </c>
       <c r="AP107">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ107">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR107">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="AS107">
-        <v>1.15</v>
+        <v>0.99</v>
       </c>
       <c r="AT107">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="AU107">
         <v>7</v>
@@ -23580,25 +23580,25 @@
         <v>2.1</v>
       </c>
       <c r="AN108">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="AO108">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AP108">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ108">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR108">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AS108">
-        <v>1.03</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT108">
-        <v>2.46</v>
+        <v>2.49</v>
       </c>
       <c r="AU108">
         <v>7</v>
@@ -23786,25 +23786,25 @@
         <v>1.12</v>
       </c>
       <c r="AN109">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AO109">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AP109">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ109">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR109">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AS109">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AT109">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="AU109">
         <v>0</v>
@@ -23992,25 +23992,25 @@
         <v>1.07</v>
       </c>
       <c r="AN110">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AO110">
+        <v>2.44</v>
+      </c>
+      <c r="AP110">
+        <v>1.26</v>
+      </c>
+      <c r="AQ110">
         <v>2.37</v>
       </c>
-      <c r="AP110">
-        <v>1.11</v>
-      </c>
-      <c r="AQ110">
-        <v>2.45</v>
-      </c>
       <c r="AR110">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AS110">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="AT110">
-        <v>3.51</v>
+        <v>3.31</v>
       </c>
       <c r="AU110">
         <v>2</v>
@@ -24198,25 +24198,25 @@
         <v>1.51</v>
       </c>
       <c r="AN111">
-        <v>0.61</v>
+        <v>0.75</v>
       </c>
       <c r="AO111">
-        <v>0.95</v>
+        <v>0.33</v>
       </c>
       <c r="AP111">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ111">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR111">
-        <v>0.97</v>
+        <v>1.06</v>
       </c>
       <c r="AS111">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="AT111">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="AU111">
         <v>4</v>
@@ -24404,25 +24404,25 @@
         <v>1.46</v>
       </c>
       <c r="AN112">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="AO112">
-        <v>1.42</v>
+        <v>0.78</v>
       </c>
       <c r="AP112">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ112">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR112">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="AS112">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AT112">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24610,25 +24610,25 @@
         <v>1.57</v>
       </c>
       <c r="AN113">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO113">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AP113">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ113">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR113">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AS113">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT113">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="AU113">
         <v>5</v>
@@ -24816,25 +24816,25 @@
         <v>1.72</v>
       </c>
       <c r="AN114">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AO114">
-        <v>2.39</v>
+        <v>2.44</v>
       </c>
       <c r="AP114">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ114">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR114">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="AS114">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="AT114">
-        <v>4.38</v>
+        <v>4.46</v>
       </c>
       <c r="AU114">
         <v>7</v>
@@ -25022,25 +25022,25 @@
         <v>2.15</v>
       </c>
       <c r="AN115">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="AO115">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP115">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ115">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR115">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
       <c r="AS115">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AT115">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="AU115">
         <v>8</v>
@@ -25228,25 +25228,25 @@
         <v>1.72</v>
       </c>
       <c r="AN116">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AO116">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ116">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR116">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AS116">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AT116">
-        <v>2.37</v>
+        <v>2.29</v>
       </c>
       <c r="AU116">
         <v>4</v>
@@ -25434,25 +25434,25 @@
         <v>1.95</v>
       </c>
       <c r="AN117">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="AO117">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AP117">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ117">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR117">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AS117">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="AT117">
-        <v>2.22</v>
+        <v>2.21</v>
       </c>
       <c r="AU117">
         <v>5</v>
@@ -25640,25 +25640,25 @@
         <v>1.83</v>
       </c>
       <c r="AN118">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO118">
+        <v>1.13</v>
+      </c>
+      <c r="AP118">
+        <v>1.84</v>
+      </c>
+      <c r="AQ118">
+        <v>0.95</v>
+      </c>
+      <c r="AR118">
+        <v>1.57</v>
+      </c>
+      <c r="AS118">
         <v>1.24</v>
       </c>
-      <c r="AP118">
-        <v>1.47</v>
-      </c>
-      <c r="AQ118">
-        <v>1.11</v>
-      </c>
-      <c r="AR118">
-        <v>1.43</v>
-      </c>
-      <c r="AS118">
-        <v>1.23</v>
-      </c>
       <c r="AT118">
-        <v>2.66</v>
+        <v>2.81</v>
       </c>
       <c r="AU118">
         <v>5</v>
@@ -25846,25 +25846,25 @@
         <v>1.3</v>
       </c>
       <c r="AN119">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="AO119">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AP119">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR119">
-        <v>0.99</v>
+        <v>1.1</v>
       </c>
       <c r="AS119">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="AT119">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="AU119">
         <v>4</v>
@@ -26052,22 +26052,22 @@
         <v>3.6</v>
       </c>
       <c r="AN120">
-        <v>2.26</v>
+        <v>2.33</v>
       </c>
       <c r="AO120">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="AP120">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ120">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR120">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="AS120">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AT120">
         <v>3.47</v>
@@ -26258,25 +26258,25 @@
         <v>1.38</v>
       </c>
       <c r="AN121">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AO121">
+        <v>1</v>
+      </c>
+      <c r="AP121">
+        <v>1.37</v>
+      </c>
+      <c r="AQ121">
+        <v>1.05</v>
+      </c>
+      <c r="AR121">
+        <v>1.24</v>
+      </c>
+      <c r="AS121">
         <v>1.12</v>
       </c>
-      <c r="AP121">
-        <v>0.92</v>
-      </c>
-      <c r="AQ121">
-        <v>1.26</v>
-      </c>
-      <c r="AR121">
-        <v>1.19</v>
-      </c>
-      <c r="AS121">
-        <v>1.22</v>
-      </c>
       <c r="AT121">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26464,25 +26464,25 @@
         <v>1.9</v>
       </c>
       <c r="AN122">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AO122">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="AP122">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ122">
+        <v>1.16</v>
+      </c>
+      <c r="AR122">
+        <v>1.45</v>
+      </c>
+      <c r="AS122">
         <v>1.13</v>
       </c>
-      <c r="AR122">
-        <v>1.2</v>
-      </c>
-      <c r="AS122">
-        <v>1.23</v>
-      </c>
       <c r="AT122">
-        <v>2.43</v>
+        <v>2.58</v>
       </c>
       <c r="AU122">
         <v>4</v>
@@ -26670,25 +26670,25 @@
         <v>1.06</v>
       </c>
       <c r="AN123">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="AO123">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AP123">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ123">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR123">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AS123">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT123">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="AU123">
         <v>0</v>
@@ -26876,25 +26876,25 @@
         <v>2.05</v>
       </c>
       <c r="AN124">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AO124">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AP124">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ124">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR124">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="AS124">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AT124">
-        <v>2.61</v>
+        <v>2.81</v>
       </c>
       <c r="AU124">
         <v>7</v>
@@ -27082,25 +27082,25 @@
         <v>1.27</v>
       </c>
       <c r="AN125">
-        <v>0.95</v>
+        <v>1.5</v>
       </c>
       <c r="AO125">
         <v>1.22</v>
       </c>
       <c r="AP125">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ125">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR125">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="AS125">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AT125">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -27288,25 +27288,25 @@
         <v>1.09</v>
       </c>
       <c r="AN126">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AO126">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AP126">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ126">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR126">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="AS126">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="AT126">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="AU126">
         <v>4</v>
@@ -27494,25 +27494,25 @@
         <v>1.09</v>
       </c>
       <c r="AN127">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
       <c r="AO127">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AP127">
+        <v>1.47</v>
+      </c>
+      <c r="AQ127">
+        <v>2.05</v>
+      </c>
+      <c r="AR127">
         <v>1.24</v>
       </c>
-      <c r="AQ127">
-        <v>2.24</v>
-      </c>
-      <c r="AR127">
-        <v>1.12</v>
-      </c>
       <c r="AS127">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT127">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="AU127">
         <v>3</v>
@@ -27700,25 +27700,25 @@
         <v>1.68</v>
       </c>
       <c r="AN128">
-        <v>1.41</v>
+        <v>1.91</v>
       </c>
       <c r="AO128">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AP128">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ128">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR128">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AS128">
-        <v>1.19</v>
+        <v>0.98</v>
       </c>
       <c r="AT128">
-        <v>2.59</v>
+        <v>2.51</v>
       </c>
       <c r="AU128">
         <v>2</v>
@@ -27906,25 +27906,25 @@
         <v>6.5</v>
       </c>
       <c r="AN129">
-        <v>2.45</v>
+        <v>2.36</v>
       </c>
       <c r="AO129">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="AP129">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ129">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR129">
-        <v>2.27</v>
+        <v>2.36</v>
       </c>
       <c r="AS129">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AT129">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="AU129">
         <v>8</v>
@@ -28112,25 +28112,25 @@
         <v>1.65</v>
       </c>
       <c r="AN130">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AO130">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AP130">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ130">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR130">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="AS130">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AT130">
-        <v>2.64</v>
+        <v>2.77</v>
       </c>
       <c r="AU130">
         <v>6</v>
@@ -28318,25 +28318,25 @@
         <v>1.42</v>
       </c>
       <c r="AN131">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="AO131">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AP131">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ131">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR131">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AS131">
         <v>1.21</v>
       </c>
       <c r="AT131">
-        <v>2.21</v>
+        <v>2.33</v>
       </c>
       <c r="AU131">
         <v>4</v>
@@ -28524,25 +28524,25 @@
         <v>1.57</v>
       </c>
       <c r="AN132">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="AO132">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AP132">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ132">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR132">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="AS132">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AT132">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="AU132">
         <v>5</v>
@@ -28730,25 +28730,25 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AO133">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AP133">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ133">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR133">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AS133">
         <v>1.2</v>
       </c>
       <c r="AT133">
-        <v>2.44</v>
+        <v>2.51</v>
       </c>
       <c r="AU133">
         <v>5</v>
@@ -28936,25 +28936,25 @@
         <v>1.62</v>
       </c>
       <c r="AN134">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="AO134">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AP134">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ134">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR134">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="AS134">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AT134">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29142,25 +29142,25 @@
         <v>1.09</v>
       </c>
       <c r="AN135">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AO135">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="AP135">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ135">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR135">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AS135">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AT135">
-        <v>3.49</v>
+        <v>3.47</v>
       </c>
       <c r="AU135">
         <v>4</v>
@@ -29348,25 +29348,25 @@
         <v>1.58</v>
       </c>
       <c r="AN136">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AO136">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AP136">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ136">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR136">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="AS136">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="AT136">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AU136">
         <v>6</v>
@@ -29554,22 +29554,22 @@
         <v>6.5</v>
       </c>
       <c r="AN137">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AO137">
-        <v>0.57</v>
+        <v>0.45</v>
       </c>
       <c r="AP137">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ137">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR137">
-        <v>2.01</v>
+        <v>2.16</v>
       </c>
       <c r="AS137">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AT137">
         <v>3.06</v>
@@ -29760,25 +29760,25 @@
         <v>1.38</v>
       </c>
       <c r="AN138">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="AO138">
-        <v>1.39</v>
+        <v>0.91</v>
       </c>
       <c r="AP138">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ138">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR138">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AS138">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AT138">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -29969,22 +29969,22 @@
         <v>1.18</v>
       </c>
       <c r="AO139">
-        <v>1.26</v>
+        <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ139">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR139">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AS139">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="AT139">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="AU139">
         <v>2</v>
@@ -30172,25 +30172,25 @@
         <v>1.39</v>
       </c>
       <c r="AN140">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AO140">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AP140">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ140">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR140">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AS140">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="AT140">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AU140">
         <v>9</v>
@@ -30378,25 +30378,25 @@
         <v>1.7</v>
       </c>
       <c r="AN141">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="AO141">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AP141">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ141">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR141">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AS141">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT141">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AU141">
         <v>10</v>
@@ -30584,25 +30584,25 @@
         <v>3.6</v>
       </c>
       <c r="AN142">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="AO142">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AP142">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ142">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR142">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="AS142">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AT142">
-        <v>3.26</v>
+        <v>3.39</v>
       </c>
       <c r="AU142">
         <v>8</v>
@@ -30790,25 +30790,25 @@
         <v>1.28</v>
       </c>
       <c r="AN143">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="AO143">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AP143">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR143">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AS143">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT143">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="AU143">
         <v>3</v>
@@ -30996,25 +30996,25 @@
         <v>2.25</v>
       </c>
       <c r="AN144">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="AO144">
-        <v>0.54</v>
+        <v>0.42</v>
       </c>
       <c r="AP144">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ144">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR144">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AS144">
-        <v>1.01</v>
+        <v>0.84</v>
       </c>
       <c r="AT144">
-        <v>2.36</v>
+        <v>2.33</v>
       </c>
       <c r="AU144">
         <v>7</v>
@@ -31202,25 +31202,25 @@
         <v>1.07</v>
       </c>
       <c r="AN145">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AO145">
         <v>2.42</v>
       </c>
       <c r="AP145">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ145">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR145">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="AS145">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="AT145">
-        <v>3.43</v>
+        <v>3.49</v>
       </c>
       <c r="AU145">
         <v>5</v>
@@ -31408,25 +31408,25 @@
         <v>1.63</v>
       </c>
       <c r="AN146">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO146">
+        <v>1.17</v>
+      </c>
+      <c r="AP146">
+        <v>1.47</v>
+      </c>
+      <c r="AQ146">
+        <v>0.95</v>
+      </c>
+      <c r="AR146">
+        <v>1.22</v>
+      </c>
+      <c r="AS146">
         <v>1.18</v>
       </c>
-      <c r="AP146">
-        <v>1.24</v>
-      </c>
-      <c r="AQ146">
-        <v>1.11</v>
-      </c>
-      <c r="AR146">
-        <v>1.13</v>
-      </c>
-      <c r="AS146">
-        <v>1.22</v>
-      </c>
       <c r="AT146">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AU146">
         <v>7</v>
@@ -31614,25 +31614,25 @@
         <v>1.6</v>
       </c>
       <c r="AN147">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AO147">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="AP147">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ147">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR147">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AS147">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="AT147">
-        <v>2.24</v>
+        <v>2.19</v>
       </c>
       <c r="AU147">
         <v>7</v>
@@ -31820,25 +31820,25 @@
         <v>4.8</v>
       </c>
       <c r="AN148">
+        <v>2.5</v>
+      </c>
+      <c r="AO148">
+        <v>0.67</v>
+      </c>
+      <c r="AP148">
         <v>2.42</v>
       </c>
-      <c r="AO148">
-        <v>0.83</v>
-      </c>
-      <c r="AP148">
-        <v>2.24</v>
-      </c>
       <c r="AQ148">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR148">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="AS148">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT148">
-        <v>3.22</v>
+        <v>3.33</v>
       </c>
       <c r="AU148">
         <v>24</v>
@@ -32026,25 +32026,25 @@
         <v>2</v>
       </c>
       <c r="AN149">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AO149">
-        <v>1.04</v>
+        <v>0.82</v>
       </c>
       <c r="AP149">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR149">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AS149">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AT149">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="AU149">
         <v>8</v>
@@ -32232,25 +32232,25 @@
         <v>1.7</v>
       </c>
       <c r="AN150">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AO150">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AP150">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ150">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR150">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AS150">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AT150">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="AU150">
         <v>13</v>
@@ -32438,25 +32438,25 @@
         <v>4</v>
       </c>
       <c r="AN151">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="AO151">
-        <v>1.44</v>
+        <v>0.92</v>
       </c>
       <c r="AP151">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ151">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR151">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="AS151">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AT151">
-        <v>3.56</v>
+        <v>3.54</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32644,25 +32644,25 @@
         <v>1.91</v>
       </c>
       <c r="AN152">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="AO152">
-        <v>0.79</v>
+        <v>0.62</v>
       </c>
       <c r="AP152">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ152">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR152">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AS152">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AT152">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AU152">
         <v>5</v>
@@ -32850,25 +32850,25 @@
         <v>2.1</v>
       </c>
       <c r="AN153">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="AO153">
-        <v>1.04</v>
+        <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ153">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR153">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AS153">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="AT153">
-        <v>2.69</v>
+        <v>2.76</v>
       </c>
       <c r="AU153">
         <v>8</v>
@@ -33056,25 +33056,25 @@
         <v>1.3</v>
       </c>
       <c r="AN154">
-        <v>0.52</v>
+        <v>0.67</v>
       </c>
       <c r="AO154">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ154">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR154">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="AS154">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="AT154">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU154">
         <v>4</v>
@@ -33262,25 +33262,25 @@
         <v>1.05</v>
       </c>
       <c r="AN155">
-        <v>0.96</v>
+        <v>1.31</v>
       </c>
       <c r="AO155">
-        <v>2.44</v>
+        <v>2.33</v>
       </c>
       <c r="AP155">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ155">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR155">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AS155">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="AT155">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="AU155">
         <v>0</v>
@@ -33468,25 +33468,25 @@
         <v>3.65</v>
       </c>
       <c r="AN156">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="AO156">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ156">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR156">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
       <c r="AS156">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="AT156">
-        <v>3.59</v>
+        <v>3.67</v>
       </c>
       <c r="AU156">
         <v>13</v>
@@ -33674,25 +33674,25 @@
         <v>1.95</v>
       </c>
       <c r="AN157">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="AO157">
-        <v>0.92</v>
+        <v>0.58</v>
       </c>
       <c r="AP157">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ157">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR157">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="AS157">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="AT157">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AU157">
         <v>7</v>
@@ -33880,25 +33880,25 @@
         <v>1.65</v>
       </c>
       <c r="AN158">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="AO158">
-        <v>0.62</v>
+        <v>0.38</v>
       </c>
       <c r="AP158">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ158">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR158">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AS158">
-        <v>1.02</v>
+        <v>0.87</v>
       </c>
       <c r="AT158">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AU158">
         <v>7</v>
@@ -34086,25 +34086,25 @@
         <v>1.73</v>
       </c>
       <c r="AN159">
-        <v>1.42</v>
+        <v>1.92</v>
       </c>
       <c r="AO159">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AP159">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ159">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR159">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AS159">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AT159">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="AU159">
         <v>10</v>
@@ -34292,25 +34292,25 @@
         <v>1.83</v>
       </c>
       <c r="AN160">
+        <v>1</v>
+      </c>
+      <c r="AO160">
         <v>1.08</v>
       </c>
-      <c r="AO160">
-        <v>1.28</v>
-      </c>
       <c r="AP160">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ160">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR160">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AT160">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="AU160">
         <v>10</v>
@@ -34498,22 +34498,22 @@
         <v>1.06</v>
       </c>
       <c r="AN161">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AO161">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="AP161">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ161">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR161">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AS161">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT161">
         <v>3.43</v>
@@ -34704,22 +34704,22 @@
         <v>1.4</v>
       </c>
       <c r="AN162">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AO162">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="AP162">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ162">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR162">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AS162">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
       <c r="AT162">
         <v>2.38</v>
@@ -34910,25 +34910,25 @@
         <v>2.25</v>
       </c>
       <c r="AN163">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="AO163">
-        <v>0.89</v>
+        <v>0.54</v>
       </c>
       <c r="AP163">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ163">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR163">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AS163">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="AT163">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="AU163">
         <v>7</v>
@@ -35116,25 +35116,25 @@
         <v>4.2</v>
       </c>
       <c r="AN164">
-        <v>2.41</v>
+        <v>2.31</v>
       </c>
       <c r="AO164">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="AP164">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ164">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR164">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="AS164">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AT164">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="AU164">
         <v>11</v>
@@ -35322,25 +35322,25 @@
         <v>1.85</v>
       </c>
       <c r="AN165">
+        <v>1.85</v>
+      </c>
+      <c r="AO165">
+        <v>1.17</v>
+      </c>
+      <c r="AP165">
         <v>1.89</v>
       </c>
-      <c r="AO165">
-        <v>1.15</v>
-      </c>
-      <c r="AP165">
-        <v>1.79</v>
-      </c>
       <c r="AQ165">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR165">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="AS165">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
       <c r="AT165">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="AU165">
         <v>3</v>
@@ -35528,25 +35528,25 @@
         <v>1.1</v>
       </c>
       <c r="AN166">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="AO166">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="AP166">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ166">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR166">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AS166">
-        <v>2.13</v>
+        <v>1.85</v>
       </c>
       <c r="AT166">
-        <v>3.54</v>
+        <v>3.4</v>
       </c>
       <c r="AU166">
         <v>4</v>
@@ -35734,25 +35734,25 @@
         <v>1.42</v>
       </c>
       <c r="AN167">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AO167">
-        <v>0.96</v>
+        <v>0.77</v>
       </c>
       <c r="AP167">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ167">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR167">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="AS167">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AT167">
-        <v>2.29</v>
+        <v>2.32</v>
       </c>
       <c r="AU167">
         <v>5</v>
@@ -35940,25 +35940,25 @@
         <v>1.55</v>
       </c>
       <c r="AN168">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="AO168">
-        <v>1.43</v>
+        <v>0.92</v>
       </c>
       <c r="AP168">
+        <v>1.26</v>
+      </c>
+      <c r="AQ168">
         <v>1.11</v>
       </c>
-      <c r="AQ168">
-        <v>1.47</v>
-      </c>
       <c r="AR168">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AS168">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AT168">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="AU168">
         <v>6</v>
@@ -36146,25 +36146,25 @@
         <v>1.52</v>
       </c>
       <c r="AN169">
-        <v>1.39</v>
+        <v>1.71</v>
       </c>
       <c r="AO169">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AP169">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ169">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR169">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AS169">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT169">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AU169">
         <v>6</v>
@@ -36352,25 +36352,25 @@
         <v>1.57</v>
       </c>
       <c r="AN170">
-        <v>0.96</v>
+        <v>1.21</v>
       </c>
       <c r="AO170">
-        <v>0.57</v>
+        <v>0.36</v>
       </c>
       <c r="AP170">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ170">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR170">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="AS170">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="AT170">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="AU170">
         <v>4</v>
@@ -36558,25 +36558,25 @@
         <v>2.25</v>
       </c>
       <c r="AN171">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AO171">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AP171">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ171">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR171">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AS171">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AT171">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="AU171">
         <v>7</v>
@@ -36764,25 +36764,25 @@
         <v>5</v>
       </c>
       <c r="AN172">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AO172">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="AP172">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ172">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR172">
-        <v>2.11</v>
+        <v>2.39</v>
       </c>
       <c r="AS172">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AT172">
-        <v>3.37</v>
+        <v>3.58</v>
       </c>
       <c r="AU172">
         <v>12</v>
@@ -36970,25 +36970,25 @@
         <v>1.14</v>
       </c>
       <c r="AN173">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="AO173">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AP173">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ173">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR173">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AS173">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AT173">
-        <v>3.64</v>
+        <v>3.7</v>
       </c>
       <c r="AU173">
         <v>7</v>
@@ -37176,25 +37176,25 @@
         <v>1.44</v>
       </c>
       <c r="AN174">
-        <v>0.82</v>
+        <v>1.15</v>
       </c>
       <c r="AO174">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AP174">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ174">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR174">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AS174">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AT174">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="AU174">
         <v>4</v>
@@ -37382,25 +37382,25 @@
         <v>1.46</v>
       </c>
       <c r="AN175">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="AO175">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="AP175">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ175">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR175">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AS175">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="AT175">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU175">
         <v>7</v>
@@ -37588,25 +37588,25 @@
         <v>5.5</v>
       </c>
       <c r="AN176">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="AO176">
+        <v>0.71</v>
+      </c>
+      <c r="AP176">
+        <v>2.53</v>
+      </c>
+      <c r="AQ176">
+        <v>0.84</v>
+      </c>
+      <c r="AR176">
+        <v>2.28</v>
+      </c>
+      <c r="AS176">
         <v>0.97</v>
       </c>
-      <c r="AP176">
-        <v>2.45</v>
-      </c>
-      <c r="AQ176">
-        <v>0.92</v>
-      </c>
-      <c r="AR176">
-        <v>2.16</v>
-      </c>
-      <c r="AS176">
-        <v>1.03</v>
-      </c>
       <c r="AT176">
-        <v>3.19</v>
+        <v>3.25</v>
       </c>
       <c r="AU176">
         <v>11</v>
@@ -37794,22 +37794,22 @@
         <v>2.6</v>
       </c>
       <c r="AN177">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AO177">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="AP177">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ177">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR177">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AS177">
-        <v>1.06</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT177">
         <v>2.33</v>
@@ -38000,25 +38000,25 @@
         <v>1.72</v>
       </c>
       <c r="AN178">
-        <v>1.41</v>
+        <v>1.87</v>
       </c>
       <c r="AO178">
-        <v>1.45</v>
+        <v>1.07</v>
       </c>
       <c r="AP178">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ178">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR178">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AS178">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AT178">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU178">
         <v>9</v>
@@ -38206,25 +38206,25 @@
         <v>1.63</v>
       </c>
       <c r="AN179">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AO179">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="AP179">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ179">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR179">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AS179">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="AT179">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU179">
         <v>6</v>
@@ -38412,25 +38412,25 @@
         <v>1.22</v>
       </c>
       <c r="AN180">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AO180">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AP180">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ180">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR180">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AS180">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="AT180">
-        <v>2.58</v>
+        <v>2.49</v>
       </c>
       <c r="AU180">
         <v>4</v>
@@ -38618,25 +38618,25 @@
         <v>3.75</v>
       </c>
       <c r="AN181">
+        <v>2.4</v>
+      </c>
+      <c r="AO181">
+        <v>1.14</v>
+      </c>
+      <c r="AP181">
+        <v>2.42</v>
+      </c>
+      <c r="AQ181">
+        <v>1.11</v>
+      </c>
+      <c r="AR181">
         <v>2.41</v>
       </c>
-      <c r="AO181">
-        <v>1.27</v>
-      </c>
-      <c r="AP181">
-        <v>2.24</v>
-      </c>
-      <c r="AQ181">
-        <v>1.21</v>
-      </c>
-      <c r="AR181">
-        <v>2.13</v>
-      </c>
       <c r="AS181">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="AT181">
-        <v>3.4</v>
+        <v>3.56</v>
       </c>
       <c r="AU181">
         <v>9</v>
@@ -38827,22 +38827,22 @@
         <v>1.07</v>
       </c>
       <c r="AO182">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP182">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ182">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR182">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AS182">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
       <c r="AT182">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -39030,25 +39030,25 @@
         <v>1.47</v>
       </c>
       <c r="AN183">
+        <v>1.2</v>
+      </c>
+      <c r="AO183">
         <v>0.93</v>
       </c>
-      <c r="AO183">
-        <v>1.24</v>
-      </c>
       <c r="AP183">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ183">
+        <v>0.95</v>
+      </c>
+      <c r="AR183">
+        <v>1.09</v>
+      </c>
+      <c r="AS183">
         <v>1.11</v>
       </c>
-      <c r="AR183">
-        <v>1.02</v>
-      </c>
-      <c r="AS183">
-        <v>1.23</v>
-      </c>
       <c r="AT183">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU183">
         <v>5</v>
@@ -39236,25 +39236,25 @@
         <v>2.1</v>
       </c>
       <c r="AN184">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO184">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AP184">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ184">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR184">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AS184">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="AT184">
-        <v>2.42</v>
+        <v>2.49</v>
       </c>
       <c r="AU184">
         <v>5</v>
@@ -39442,25 +39442,25 @@
         <v>1.83</v>
       </c>
       <c r="AN185">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AO185">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AP185">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ185">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR185">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AS185">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="AT185">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="AU185">
         <v>7</v>
@@ -39648,25 +39648,25 @@
         <v>1.02</v>
       </c>
       <c r="AN186">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AO186">
+        <v>2.33</v>
+      </c>
+      <c r="AP186">
+        <v>1</v>
+      </c>
+      <c r="AQ186">
         <v>2.37</v>
       </c>
-      <c r="AP186">
-        <v>0.66</v>
-      </c>
-      <c r="AQ186">
-        <v>2.45</v>
-      </c>
       <c r="AR186">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AS186">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="AT186">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
       <c r="AU186">
         <v>2</v>
@@ -39854,25 +39854,25 @@
         <v>1.44</v>
       </c>
       <c r="AN187">
-        <v>1.39</v>
+        <v>1.8</v>
       </c>
       <c r="AO187">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AP187">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ187">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR187">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AS187">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AT187">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="AU187">
         <v>2</v>
@@ -40060,25 +40060,25 @@
         <v>1.63</v>
       </c>
       <c r="AN188">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AO188">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AP188">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ188">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR188">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AS188">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AT188">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU188">
         <v>3</v>
@@ -40266,25 +40266,25 @@
         <v>2.55</v>
       </c>
       <c r="AN189">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AO189">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="AP189">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ189">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR189">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="AS189">
-        <v>1.04</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT189">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AU189">
         <v>7</v>
@@ -40472,25 +40472,25 @@
         <v>2.65</v>
       </c>
       <c r="AN190">
-        <v>1.45</v>
+        <v>1.94</v>
       </c>
       <c r="AO190">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
       <c r="AP190">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ190">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR190">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS190">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AT190">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AU190">
         <v>6</v>
@@ -40678,25 +40678,25 @@
         <v>1.3</v>
       </c>
       <c r="AN191">
-        <v>0.55</v>
+        <v>0.73</v>
       </c>
       <c r="AO191">
-        <v>1.06</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP191">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ191">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR191">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AS191">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="AT191">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AU191">
         <v>2</v>
@@ -40884,25 +40884,25 @@
         <v>1.62</v>
       </c>
       <c r="AN192">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="AO192">
+        <v>2.38</v>
+      </c>
+      <c r="AP192">
+        <v>2.42</v>
+      </c>
+      <c r="AQ192">
+        <v>2.37</v>
+      </c>
+      <c r="AR192">
         <v>2.39</v>
       </c>
-      <c r="AP192">
-        <v>2.24</v>
-      </c>
-      <c r="AQ192">
-        <v>2.45</v>
-      </c>
-      <c r="AR192">
-        <v>2.13</v>
-      </c>
       <c r="AS192">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="AT192">
-        <v>4.33</v>
+        <v>4.47</v>
       </c>
       <c r="AU192">
         <v>6</v>
@@ -41090,25 +41090,25 @@
         <v>1.75</v>
       </c>
       <c r="AN193">
+        <v>1.2</v>
+      </c>
+      <c r="AO193">
         <v>1.06</v>
       </c>
-      <c r="AO193">
-        <v>1.26</v>
-      </c>
       <c r="AP193">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ193">
+        <v>0.95</v>
+      </c>
+      <c r="AR193">
+        <v>1.43</v>
+      </c>
+      <c r="AS193">
         <v>1.11</v>
       </c>
-      <c r="AR193">
-        <v>1.27</v>
-      </c>
-      <c r="AS193">
-        <v>1.21</v>
-      </c>
       <c r="AT193">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="AU193">
         <v>6</v>
@@ -41296,25 +41296,25 @@
         <v>4.4</v>
       </c>
       <c r="AN194">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="AO194">
-        <v>1.34</v>
+        <v>1</v>
       </c>
       <c r="AP194">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ194">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR194">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="AS194">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT194">
-        <v>3.39</v>
+        <v>3.45</v>
       </c>
       <c r="AU194">
         <v>10</v>
@@ -41502,25 +41502,25 @@
         <v>2.9</v>
       </c>
       <c r="AN195">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="AO195">
-        <v>0.5600000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="AP195">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ195">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR195">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="AS195">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="AT195">
-        <v>2.51</v>
+        <v>2.57</v>
       </c>
       <c r="AU195">
         <v>6</v>
@@ -41708,25 +41708,25 @@
         <v>1.44</v>
       </c>
       <c r="AN196">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AO196">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="AP196">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ196">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR196">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AS196">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="AT196">
-        <v>2.54</v>
+        <v>2.45</v>
       </c>
       <c r="AU196">
         <v>2</v>
@@ -41914,25 +41914,25 @@
         <v>1.28</v>
       </c>
       <c r="AN197">
-        <v>0.97</v>
+        <v>1.13</v>
       </c>
       <c r="AO197">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="AP197">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ197">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR197">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="AS197">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AT197">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="AU197">
         <v>-1</v>
@@ -42120,25 +42120,25 @@
         <v>1.02</v>
       </c>
       <c r="AN198">
-        <v>0.84</v>
+        <v>1.27</v>
       </c>
       <c r="AO198">
-        <v>2.39</v>
+        <v>2.43</v>
       </c>
       <c r="AP198">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ198">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR198">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AS198">
-        <v>2.11</v>
+        <v>1.83</v>
       </c>
       <c r="AT198">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="AU198">
         <v>7</v>
@@ -42326,25 +42326,25 @@
         <v>1.07</v>
       </c>
       <c r="AN199">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="AO199">
-        <v>2.31</v>
+        <v>2.27</v>
       </c>
       <c r="AP199">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ199">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR199">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AS199">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="AT199">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="AU199">
         <v>2</v>
@@ -42532,25 +42532,25 @@
         <v>1.28</v>
       </c>
       <c r="AN200">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AO200">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AP200">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ200">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR200">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="AS200">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="AT200">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AU200">
         <v>4</v>
@@ -42738,22 +42738,22 @@
         <v>1.5</v>
       </c>
       <c r="AN201">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AO201">
-        <v>0.91</v>
+        <v>0.47</v>
       </c>
       <c r="AP201">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ201">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR201">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AS201">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT201">
         <v>2.19</v>
@@ -42944,25 +42944,25 @@
         <v>1.66</v>
       </c>
       <c r="AN202">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="AO202">
         <v>1.88</v>
       </c>
       <c r="AP202">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ202">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR202">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AS202">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT202">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AU202">
         <v>3</v>
@@ -43150,25 +43150,25 @@
         <v>1.75</v>
       </c>
       <c r="AN203">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AO203">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AP203">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ203">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR203">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AS203">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT203">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43356,25 +43356,25 @@
         <v>1.11</v>
       </c>
       <c r="AN204">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="AO204">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AP204">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ204">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR204">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AS204">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="AT204">
-        <v>3.29</v>
+        <v>3.15</v>
       </c>
       <c r="AU204">
         <v>6</v>
@@ -43562,25 +43562,25 @@
         <v>1.01</v>
       </c>
       <c r="AN205">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AO205">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="AP205">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ205">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR205">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AS205">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="AT205">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="AU205">
         <v>7</v>
@@ -43768,25 +43768,25 @@
         <v>3.9</v>
       </c>
       <c r="AN206">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AO206">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AP206">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ206">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR206">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="AS206">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AT206">
-        <v>3.62</v>
+        <v>3.63</v>
       </c>
       <c r="AU206">
         <v>9</v>
@@ -43974,25 +43974,25 @@
         <v>1.5</v>
       </c>
       <c r="AN207">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AO207">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP207">
         <v>1.26</v>
       </c>
-      <c r="AP207">
-        <v>1.11</v>
-      </c>
       <c r="AQ207">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR207">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AS207">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="AT207">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="AU207">
         <v>5</v>
@@ -44180,25 +44180,25 @@
         <v>2.1</v>
       </c>
       <c r="AN208">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AO208">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP208">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ208">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR208">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AS208">
-        <v>1.04</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT208">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU208">
         <v>7</v>
@@ -44386,25 +44386,25 @@
         <v>2.2</v>
       </c>
       <c r="AN209">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AO209">
-        <v>0.62</v>
+        <v>0.35</v>
       </c>
       <c r="AP209">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ209">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR209">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AS209">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="AT209">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AU209">
         <v>7</v>
@@ -44592,25 +44592,25 @@
         <v>1.27</v>
       </c>
       <c r="AN210">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="AO210">
+        <v>1.18</v>
+      </c>
+      <c r="AP210">
+        <v>1.37</v>
+      </c>
+      <c r="AQ210">
+        <v>1.11</v>
+      </c>
+      <c r="AR210">
         <v>1.24</v>
       </c>
-      <c r="AP210">
-        <v>0.92</v>
-      </c>
-      <c r="AQ210">
-        <v>1.21</v>
-      </c>
-      <c r="AR210">
-        <v>1.15</v>
-      </c>
       <c r="AS210">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="AT210">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -44798,25 +44798,25 @@
         <v>4</v>
       </c>
       <c r="AN211">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="AO211">
-        <v>1.53</v>
+        <v>1.06</v>
       </c>
       <c r="AP211">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ211">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR211">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="AS211">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AT211">
-        <v>3.51</v>
+        <v>3.62</v>
       </c>
       <c r="AU211">
         <v>16</v>
@@ -45004,25 +45004,25 @@
         <v>1.85</v>
       </c>
       <c r="AN212">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="AO212">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AP212">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ212">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR212">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="AS212">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="AT212">
-        <v>4.29</v>
+        <v>4.16</v>
       </c>
       <c r="AU212">
         <v>7</v>
@@ -45210,25 +45210,25 @@
         <v>1.5</v>
       </c>
       <c r="AN213">
-        <v>0.9399999999999999</v>
+        <v>1.47</v>
       </c>
       <c r="AO213">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AP213">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ213">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR213">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AS213">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AT213">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU213">
         <v>3</v>
@@ -45416,25 +45416,25 @@
         <v>1.45</v>
       </c>
       <c r="AN214">
-        <v>1.31</v>
+        <v>1.59</v>
       </c>
       <c r="AO214">
-        <v>1.49</v>
+        <v>1</v>
       </c>
       <c r="AP214">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ214">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR214">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AS214">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AT214">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="AU214">
         <v>3</v>
@@ -45622,25 +45622,25 @@
         <v>2.15</v>
       </c>
       <c r="AN215">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AO215">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="AP215">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ215">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR215">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="AS215">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AT215">
-        <v>2.65</v>
+        <v>2.71</v>
       </c>
       <c r="AU215">
         <v>9</v>
@@ -45828,25 +45828,25 @@
         <v>1.42</v>
       </c>
       <c r="AN216">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="AO216">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="AP216">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ216">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR216">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="AS216">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="AT216">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="AU216">
         <v>9</v>
@@ -46034,25 +46034,25 @@
         <v>1.78</v>
       </c>
       <c r="AN217">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AO217">
-        <v>1.17</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP217">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ217">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR217">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AS217">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="AT217">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
       <c r="AU217">
         <v>5</v>
@@ -46240,25 +46240,25 @@
         <v>5</v>
       </c>
       <c r="AN218">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="AO218">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP218">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ218">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR218">
-        <v>2.09</v>
+        <v>2.39</v>
       </c>
       <c r="AS218">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT218">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="AU218">
         <v>14</v>
@@ -46446,22 +46446,22 @@
         <v>1.07</v>
       </c>
       <c r="AN219">
-        <v>1.53</v>
+        <v>1.94</v>
       </c>
       <c r="AO219">
-        <v>2.42</v>
+        <v>2.33</v>
       </c>
       <c r="AP219">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ219">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR219">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="AS219">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="AT219">
         <v>3.55</v>
@@ -46652,25 +46652,25 @@
         <v>1.5</v>
       </c>
       <c r="AN220">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="AO220">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AP220">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ220">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR220">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AS220">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AT220">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="AU220">
         <v>6</v>
@@ -46858,25 +46858,25 @@
         <v>2.35</v>
       </c>
       <c r="AN221">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="AO221">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP221">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ221">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR221">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="AS221">
-        <v>1.05</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT221">
-        <v>2.36</v>
+        <v>2.41</v>
       </c>
       <c r="AU221">
         <v>8</v>
@@ -47064,25 +47064,25 @@
         <v>1.95</v>
       </c>
       <c r="AN222">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AO222">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AP222">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ222">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR222">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AS222">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AT222">
-        <v>2.59</v>
+        <v>2.64</v>
       </c>
       <c r="AU222">
         <v>6</v>
@@ -47270,25 +47270,25 @@
         <v>1.57</v>
       </c>
       <c r="AN223">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AO223">
-        <v>0.92</v>
+        <v>0.44</v>
       </c>
       <c r="AP223">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ223">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR223">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AS223">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT223">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="AU223">
         <v>4</v>
@@ -47476,25 +47476,25 @@
         <v>3.9</v>
       </c>
       <c r="AN224">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AO224">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="AP224">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ224">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR224">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="AS224">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AT224">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="AU224">
         <v>6</v>
@@ -47682,25 +47682,25 @@
         <v>1.48</v>
       </c>
       <c r="AN225">
+        <v>1.28</v>
+      </c>
+      <c r="AO225">
         <v>1.11</v>
       </c>
-      <c r="AO225">
-        <v>1.49</v>
-      </c>
       <c r="AP225">
+        <v>1.26</v>
+      </c>
+      <c r="AQ225">
         <v>1.11</v>
       </c>
-      <c r="AQ225">
-        <v>1.47</v>
-      </c>
       <c r="AR225">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AS225">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AT225">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="AU225">
         <v>3</v>
@@ -47888,25 +47888,25 @@
         <v>1.15</v>
       </c>
       <c r="AN226">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="AO226">
-        <v>2.27</v>
+        <v>2.11</v>
       </c>
       <c r="AP226">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ226">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR226">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AS226">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="AT226">
-        <v>3.55</v>
+        <v>3.41</v>
       </c>
       <c r="AU226">
         <v>5</v>
@@ -48094,25 +48094,25 @@
         <v>1.28</v>
       </c>
       <c r="AN227">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="AO227">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AP227">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ227">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR227">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="AS227">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AT227">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="AU227">
         <v>4</v>
@@ -48300,25 +48300,25 @@
         <v>1.48</v>
       </c>
       <c r="AN228">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AO228">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AP228">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ228">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR228">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AS228">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AT228">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="AU228">
         <v>5</v>
@@ -48506,25 +48506,25 @@
         <v>1.53</v>
       </c>
       <c r="AN229">
-        <v>0.92</v>
+        <v>1.39</v>
       </c>
       <c r="AO229">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="AP229">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ229">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR229">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AS229">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AT229">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="AU229">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -1750,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ2">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ3">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ4">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ5">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ6">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2780,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2980,25 +2980,25 @@
         <v>1.8</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ8">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AU8">
         <v>3</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ9">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="AU9">
         <v>10</v>
@@ -3398,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ10">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AU10">
         <v>9</v>
@@ -3598,25 +3598,25 @@
         <v>1.09</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ11">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AU11">
         <v>3</v>
@@ -3804,25 +3804,25 @@
         <v>2.05</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ12">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="AU12">
         <v>2</v>
@@ -4010,25 +4010,25 @@
         <v>1.5</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ13">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -4216,25 +4216,25 @@
         <v>1.06</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP14">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ14">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR14">
-        <v>1.92</v>
+        <v>1.45</v>
       </c>
       <c r="AS14">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT14">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -4428,19 +4428,19 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ15">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR15">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AS15">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT15">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4631,22 +4631,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP16">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ16">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR16">
-        <v>1.85</v>
+        <v>1.29</v>
       </c>
       <c r="AS16">
-        <v>0.87</v>
+        <v>1.06</v>
       </c>
       <c r="AT16">
-        <v>2.72</v>
+        <v>2.35</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4834,25 +4834,25 @@
         <v>1.65</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP17">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ17">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR17">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="AS17">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AT17">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="AU17">
         <v>8</v>
@@ -5040,25 +5040,25 @@
         <v>1.35</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP18">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ18">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR18">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AS18">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="AT18">
-        <v>3.21</v>
+        <v>2.72</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5249,22 +5249,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ19">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR19">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AS19">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="AT19">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5452,25 +5452,25 @@
         <v>1.75</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ20">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR20">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AS20">
-        <v>0.99</v>
+        <v>1.29</v>
       </c>
       <c r="AT20">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU20">
         <v>5</v>
@@ -5658,25 +5658,25 @@
         <v>1.52</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ21">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR21">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AT21">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AU21">
         <v>4</v>
@@ -5864,25 +5864,25 @@
         <v>1.44</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO22">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR22">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="AS22">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AT22">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -6070,25 +6070,25 @@
         <v>1.6</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP23">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ23">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR23">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AS23">
-        <v>2.11</v>
+        <v>2.22</v>
       </c>
       <c r="AT23">
-        <v>4.23</v>
+        <v>4.29</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -6276,25 +6276,25 @@
         <v>1.77</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP24">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ24">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR24">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AS24">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AT24">
-        <v>2.38</v>
+        <v>2.96</v>
       </c>
       <c r="AU24">
         <v>2</v>
@@ -6482,25 +6482,25 @@
         <v>1.57</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO25">
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ25">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR25">
-        <v>1.08</v>
+        <v>0.86</v>
       </c>
       <c r="AS25">
-        <v>0.74</v>
+        <v>1.32</v>
       </c>
       <c r="AT25">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6694,19 +6694,19 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ26">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR26">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="AS26">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="AT26">
-        <v>3.16</v>
+        <v>3.01</v>
       </c>
       <c r="AU26">
         <v>2</v>
@@ -6894,25 +6894,25 @@
         <v>5</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO27">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP27">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ27">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR27">
-        <v>2.27</v>
+        <v>1.97</v>
       </c>
       <c r="AS27">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AT27">
-        <v>3.55</v>
+        <v>3.18</v>
       </c>
       <c r="AU27">
         <v>8</v>
@@ -7100,25 +7100,25 @@
         <v>1.78</v>
       </c>
       <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>0.5</v>
       </c>
-      <c r="AO28">
-        <v>1</v>
-      </c>
       <c r="AP28">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ28">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR28">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AS28">
-        <v>0.74</v>
+        <v>0.97</v>
       </c>
       <c r="AT28">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="AU28">
         <v>5</v>
@@ -7306,25 +7306,25 @@
         <v>1.53</v>
       </c>
       <c r="AN29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO29">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP29">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ29">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR29">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AS29">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="AT29">
-        <v>2.54</v>
+        <v>2.78</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7512,25 +7512,25 @@
         <v>1.65</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO30">
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR30">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AS30">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT30">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="AU30">
         <v>8</v>
@@ -7721,22 +7721,22 @@
         <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ31">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR31">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="AS31">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT31">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7924,25 +7924,25 @@
         <v>1.04</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ32">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR32">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>2.01</v>
       </c>
       <c r="AT32">
-        <v>2.91</v>
+        <v>3.02</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -8130,25 +8130,25 @@
         <v>1.5</v>
       </c>
       <c r="AN33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ33">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR33">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AS33">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AT33">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -8336,25 +8336,25 @@
         <v>2.25</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AO34">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AP34">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ34">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR34">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="AS34">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AT34">
-        <v>2.59</v>
+        <v>2.31</v>
       </c>
       <c r="AU34">
         <v>9</v>
@@ -8542,25 +8542,25 @@
         <v>1.51</v>
       </c>
       <c r="AN35">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO35">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP35">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ35">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR35">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AS35">
-        <v>1.82</v>
+        <v>1.45</v>
       </c>
       <c r="AT35">
-        <v>3.22</v>
+        <v>2.68</v>
       </c>
       <c r="AU35">
         <v>6</v>
@@ -8748,25 +8748,25 @@
         <v>1.9</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO36">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP36">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ36">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR36">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="AS36">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="AT36">
-        <v>2.27</v>
+        <v>2.39</v>
       </c>
       <c r="AU36">
         <v>7</v>
@@ -8954,25 +8954,25 @@
         <v>3.9</v>
       </c>
       <c r="AN37">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AO37">
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ37">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR37">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="AS37">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AT37">
-        <v>3.19</v>
+        <v>3.42</v>
       </c>
       <c r="AU37">
         <v>8</v>
@@ -9160,25 +9160,25 @@
         <v>1.07</v>
       </c>
       <c r="AN38">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO38">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AP38">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ38">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR38">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="AS38">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="AT38">
-        <v>3.25</v>
+        <v>3.37</v>
       </c>
       <c r="AU38">
         <v>5</v>
@@ -9369,22 +9369,22 @@
         <v>0.33</v>
       </c>
       <c r="AO39">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ39">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR39">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="AS39">
-        <v>0.85</v>
+        <v>1.09</v>
       </c>
       <c r="AT39">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9575,22 +9575,22 @@
         <v>2</v>
       </c>
       <c r="AO40">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP40">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ40">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR40">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="AS40">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AT40">
-        <v>2.79</v>
+        <v>3.01</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9778,25 +9778,25 @@
         <v>1.42</v>
       </c>
       <c r="AN41">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ41">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR41">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="AS41">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
       <c r="AT41">
-        <v>3.15</v>
+        <v>2.73</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9984,25 +9984,25 @@
         <v>1.6</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO42">
         <v>2.33</v>
       </c>
       <c r="AP42">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR42">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="AS42">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AT42">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -10190,25 +10190,25 @@
         <v>2.1</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO43">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ43">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR43">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
       <c r="AS43">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT43">
-        <v>2.84</v>
+        <v>2.54</v>
       </c>
       <c r="AU43">
         <v>10</v>
@@ -10396,25 +10396,25 @@
         <v>5.5</v>
       </c>
       <c r="AN44">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AO44">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ44">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR44">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="AS44">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AT44">
-        <v>3.83</v>
+        <v>3.45</v>
       </c>
       <c r="AU44">
         <v>13</v>
@@ -10602,25 +10602,25 @@
         <v>1.66</v>
       </c>
       <c r="AN45">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AO45">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP45">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ45">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR45">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="AS45">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="AT45">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="AU45">
         <v>6</v>
@@ -10808,25 +10808,25 @@
         <v>1.41</v>
       </c>
       <c r="AN46">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ46">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="AS46">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT46">
-        <v>2.57</v>
+        <v>2.44</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -11014,25 +11014,25 @@
         <v>1.09</v>
       </c>
       <c r="AN47">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AO47">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AP47">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ47">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR47">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="AS47">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="AT47">
-        <v>3.39</v>
+        <v>3.15</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>2.35</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO48">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AP48">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ48">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR48">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AS48">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="AT48">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11426,25 +11426,25 @@
         <v>2.87</v>
       </c>
       <c r="AN49">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AO49">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP49">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ49">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR49">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="AS49">
-        <v>1.18</v>
+        <v>1.59</v>
       </c>
       <c r="AT49">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11632,25 +11632,25 @@
         <v>1.82</v>
       </c>
       <c r="AN50">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AO50">
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ50">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
       </c>
       <c r="AS50">
-        <v>0.87</v>
+        <v>1.08</v>
       </c>
       <c r="AT50">
-        <v>2.26</v>
+        <v>2.47</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -11838,25 +11838,25 @@
         <v>1.13</v>
       </c>
       <c r="AN51">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AO51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AP51">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ51">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR51">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="AS51">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="AT51">
-        <v>3.09</v>
+        <v>3.52</v>
       </c>
       <c r="AU51">
         <v>7</v>
@@ -12044,25 +12044,25 @@
         <v>1.57</v>
       </c>
       <c r="AN52">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO52">
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ52">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR52">
         <v>1.05</v>
       </c>
       <c r="AS52">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AT52">
-        <v>2.16</v>
+        <v>2.31</v>
       </c>
       <c r="AU52">
         <v>10</v>
@@ -12250,25 +12250,25 @@
         <v>2.25</v>
       </c>
       <c r="AN53">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AO53">
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ53">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR53">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="AS53">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AT53">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12459,22 +12459,22 @@
         <v>1</v>
       </c>
       <c r="AO54">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AP54">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ54">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR54">
-        <v>2</v>
+        <v>1.49</v>
       </c>
       <c r="AS54">
-        <v>1.76</v>
+        <v>2.01</v>
       </c>
       <c r="AT54">
-        <v>3.76</v>
+        <v>3.5</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -12662,25 +12662,25 @@
         <v>1.53</v>
       </c>
       <c r="AN55">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AO55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ55">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR55">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="AS55">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AT55">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -12868,25 +12868,25 @@
         <v>1.9</v>
       </c>
       <c r="AN56">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO56">
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ56">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR56">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="AS56">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="AT56">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -13074,25 +13074,25 @@
         <v>1.53</v>
       </c>
       <c r="AN57">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AO57">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP57">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ57">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR57">
         <v>1.39</v>
       </c>
       <c r="AS57">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AT57">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="AU57">
         <v>9</v>
@@ -13280,25 +13280,25 @@
         <v>3.4</v>
       </c>
       <c r="AN58">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO58">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AP58">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ58">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR58">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="AS58">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AT58">
-        <v>3.6</v>
+        <v>3.41</v>
       </c>
       <c r="AU58">
         <v>6</v>
@@ -13492,19 +13492,19 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ59">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR59">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="AS59">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AT59">
-        <v>2.96</v>
+        <v>2.69</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13692,25 +13692,25 @@
         <v>1.47</v>
       </c>
       <c r="AN60">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AO60">
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ60">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR60">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="AS60">
-        <v>0.95</v>
+        <v>1.08</v>
       </c>
       <c r="AT60">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -13898,25 +13898,25 @@
         <v>2.05</v>
       </c>
       <c r="AN61">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AO61">
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ61">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR61">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AS61">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
       <c r="AT61">
-        <v>2.22</v>
+        <v>2.41</v>
       </c>
       <c r="AU61">
         <v>11</v>
@@ -14104,25 +14104,25 @@
         <v>1.44</v>
       </c>
       <c r="AN62">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AO62">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ62">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR62">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AT62">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14310,25 +14310,25 @@
         <v>4.6</v>
       </c>
       <c r="AN63">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AO63">
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR63">
-        <v>2.33</v>
+        <v>1.99</v>
       </c>
       <c r="AS63">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AT63">
-        <v>3.39</v>
+        <v>3.13</v>
       </c>
       <c r="AU63">
         <v>9</v>
@@ -14516,25 +14516,25 @@
         <v>1.07</v>
       </c>
       <c r="AN64">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AO64">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AP64">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ64">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR64">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AS64">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT64">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14725,22 +14725,22 @@
         <v>1</v>
       </c>
       <c r="AO65">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="AP65">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ65">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR65">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AS65">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="AT65">
-        <v>3.14</v>
+        <v>3.31</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -14928,25 +14928,25 @@
         <v>1.55</v>
       </c>
       <c r="AN66">
-        <v>1.83</v>
+        <v>1.18</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AP66">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ66">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR66">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS66">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AT66">
-        <v>2.59</v>
+        <v>2.77</v>
       </c>
       <c r="AU66">
         <v>9</v>
@@ -15134,25 +15134,25 @@
         <v>1.64</v>
       </c>
       <c r="AN67">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AO67">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AP67">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ67">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR67">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AS67">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="AT67">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -15340,25 +15340,25 @@
         <v>1.42</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO68">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ68">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR68">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="AS68">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="AT68">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="AU68">
         <v>4</v>
@@ -15546,25 +15546,25 @@
         <v>1.52</v>
       </c>
       <c r="AN69">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO69">
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ69">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR69">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AS69">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
       <c r="AT69">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="AU69">
         <v>5</v>
@@ -15752,25 +15752,25 @@
         <v>1.57</v>
       </c>
       <c r="AN70">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AO70">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AP70">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR70">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AS70">
-        <v>0.97</v>
+        <v>1.15</v>
       </c>
       <c r="AT70">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15958,25 +15958,25 @@
         <v>1.45</v>
       </c>
       <c r="AN71">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AO71">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ71">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR71">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="AS71">
         <v>1.19</v>
       </c>
       <c r="AT71">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -16164,25 +16164,25 @@
         <v>1.47</v>
       </c>
       <c r="AN72">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO72">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AP72">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ72">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR72">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AS72">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT72">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="AU72">
         <v>2</v>
@@ -16373,22 +16373,22 @@
         <v>1</v>
       </c>
       <c r="AO73">
-        <v>0.4</v>
+        <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ73">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR73">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="AS73">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AT73">
-        <v>3.12</v>
+        <v>2.88</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16576,25 +16576,25 @@
         <v>1.01</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO74">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ74">
+        <v>2.24</v>
+      </c>
+      <c r="AR74">
+        <v>1.02</v>
+      </c>
+      <c r="AS74">
         <v>2.05</v>
       </c>
-      <c r="AR74">
-        <v>1.17</v>
-      </c>
-      <c r="AS74">
-        <v>2.07</v>
-      </c>
       <c r="AT74">
-        <v>3.24</v>
+        <v>3.07</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16782,25 +16782,25 @@
         <v>4.33</v>
       </c>
       <c r="AN75">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AO75">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AP75">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ75">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR75">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="AS75">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="AT75">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="AU75">
         <v>11</v>
@@ -16988,25 +16988,25 @@
         <v>5.5</v>
       </c>
       <c r="AN76">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AO76">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AP76">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ76">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR76">
-        <v>2.44</v>
+        <v>2.21</v>
       </c>
       <c r="AS76">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT76">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -17194,25 +17194,25 @@
         <v>1.53</v>
       </c>
       <c r="AN77">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="AO77">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AP77">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ77">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR77">
         <v>1.23</v>
       </c>
       <c r="AS77">
-        <v>1.07</v>
+        <v>1.32</v>
       </c>
       <c r="AT77">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AU77">
         <v>8</v>
@@ -17400,25 +17400,25 @@
         <v>2.05</v>
       </c>
       <c r="AN78">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AO78">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AP78">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ78">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR78">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AS78">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AT78">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="AU78">
         <v>2</v>
@@ -17606,25 +17606,25 @@
         <v>1.37</v>
       </c>
       <c r="AN79">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AO79">
-        <v>0.33</v>
+        <v>1.23</v>
       </c>
       <c r="AP79">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ79">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR79">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AS79">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AT79">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17812,25 +17812,25 @@
         <v>2.5</v>
       </c>
       <c r="AN80">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AO80">
-        <v>0.4</v>
+        <v>0.92</v>
       </c>
       <c r="AP80">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ80">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR80">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AS80">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AT80">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -18018,25 +18018,25 @@
         <v>1.15</v>
       </c>
       <c r="AN81">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AO81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ81">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR81">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="AS81">
         <v>2.04</v>
       </c>
       <c r="AT81">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="AU81">
         <v>5</v>
@@ -18224,25 +18224,25 @@
         <v>1.47</v>
       </c>
       <c r="AN82">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AO82">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AP82">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR82">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AS82">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AT82">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
       <c r="AU82">
         <v>3</v>
@@ -18430,25 +18430,25 @@
         <v>1.66</v>
       </c>
       <c r="AN83">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AO83">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AP83">
+        <v>1.13</v>
+      </c>
+      <c r="AQ83">
         <v>1.11</v>
       </c>
-      <c r="AQ83">
-        <v>0.95</v>
-      </c>
       <c r="AR83">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AS83">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AT83">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AU83">
         <v>5</v>
@@ -18636,22 +18636,22 @@
         <v>1.52</v>
       </c>
       <c r="AN84">
-        <v>2</v>
+        <v>1.21</v>
       </c>
       <c r="AO84">
+        <v>1.54</v>
+      </c>
+      <c r="AP84">
+        <v>1.47</v>
+      </c>
+      <c r="AQ84">
+        <v>1.79</v>
+      </c>
+      <c r="AR84">
+        <v>1.46</v>
+      </c>
+      <c r="AS84">
         <v>1.5</v>
-      </c>
-      <c r="AP84">
-        <v>1.84</v>
-      </c>
-      <c r="AQ84">
-        <v>1.68</v>
-      </c>
-      <c r="AR84">
-        <v>1.55</v>
-      </c>
-      <c r="AS84">
-        <v>1.41</v>
       </c>
       <c r="AT84">
         <v>2.96</v>
@@ -18842,25 +18842,25 @@
         <v>1.04</v>
       </c>
       <c r="AN85">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="AO85">
-        <v>2.71</v>
+        <v>2.57</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ85">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR85">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AS85">
-        <v>2.01</v>
+        <v>2.21</v>
       </c>
       <c r="AT85">
-        <v>3.01</v>
+        <v>3.22</v>
       </c>
       <c r="AU85">
         <v>4</v>
@@ -19051,22 +19051,22 @@
         <v>1.29</v>
       </c>
       <c r="AO86">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="AP86">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ86">
+        <v>1.26</v>
+      </c>
+      <c r="AR86">
+        <v>1.3</v>
+      </c>
+      <c r="AS86">
         <v>1.05</v>
       </c>
-      <c r="AR86">
-        <v>1.54</v>
-      </c>
-      <c r="AS86">
-        <v>0.96</v>
-      </c>
       <c r="AT86">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="AU86">
         <v>4</v>
@@ -19254,25 +19254,25 @@
         <v>4</v>
       </c>
       <c r="AN87">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AO87">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AP87">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR87">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="AS87">
-        <v>0.9399999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="AT87">
-        <v>2.98</v>
+        <v>3.21</v>
       </c>
       <c r="AU87">
         <v>7</v>
@@ -19460,25 +19460,25 @@
         <v>1.55</v>
       </c>
       <c r="AN88">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO88">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AP88">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ88">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR88">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AS88">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AT88">
-        <v>2.29</v>
+        <v>2.37</v>
       </c>
       <c r="AU88">
         <v>7</v>
@@ -19666,25 +19666,25 @@
         <v>4.5</v>
       </c>
       <c r="AN89">
-        <v>2.43</v>
+        <v>2.6</v>
       </c>
       <c r="AO89">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ89">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR89">
-        <v>2.41</v>
+        <v>2.22</v>
       </c>
       <c r="AS89">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="AT89">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="AU89">
         <v>13</v>
@@ -19872,25 +19872,25 @@
         <v>1.47</v>
       </c>
       <c r="AN90">
-        <v>1.13</v>
+        <v>0.79</v>
       </c>
       <c r="AO90">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR90">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="AS90">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AT90">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AU90">
         <v>6</v>
@@ -20081,22 +20081,22 @@
         <v>1</v>
       </c>
       <c r="AO91">
-        <v>0.43</v>
+        <v>1.13</v>
       </c>
       <c r="AP91">
+        <v>1.26</v>
+      </c>
+      <c r="AQ91">
         <v>1.47</v>
       </c>
-      <c r="AQ91">
-        <v>1.11</v>
-      </c>
       <c r="AR91">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AS91">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT91">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20284,25 +20284,25 @@
         <v>1.12</v>
       </c>
       <c r="AN92">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AO92">
-        <v>2.29</v>
+        <v>2.21</v>
       </c>
       <c r="AP92">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ92">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR92">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AS92">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="AT92">
-        <v>3.7</v>
+        <v>3.56</v>
       </c>
       <c r="AU92">
         <v>6</v>
@@ -20490,25 +20490,25 @@
         <v>1.68</v>
       </c>
       <c r="AN93">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AO93">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AP93">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ93">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR93">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AS93">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AT93">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AU93">
         <v>7</v>
@@ -20696,25 +20696,25 @@
         <v>1.44</v>
       </c>
       <c r="AN94">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="AO94">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="AP94">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ94">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR94">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AS94">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT94">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -20902,25 +20902,25 @@
         <v>1.37</v>
       </c>
       <c r="AN95">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AO95">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ95">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR95">
-        <v>1.09</v>
+        <v>0.99</v>
       </c>
       <c r="AS95">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="AT95">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="AU95">
         <v>4</v>
@@ -21108,25 +21108,25 @@
         <v>1.66</v>
       </c>
       <c r="AN96">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO96">
-        <v>0.33</v>
+        <v>0.93</v>
       </c>
       <c r="AP96">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ96">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR96">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AS96">
         <v>1.03</v>
       </c>
       <c r="AT96">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21314,25 +21314,25 @@
         <v>4.8</v>
       </c>
       <c r="AN97">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="AO97">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP97">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ97">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR97">
         <v>2.09</v>
       </c>
       <c r="AS97">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AT97">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="AU97">
         <v>10</v>
@@ -21520,25 +21520,25 @@
         <v>1.1</v>
       </c>
       <c r="AN98">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AO98">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AP98">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ98">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR98">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AS98">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="AT98">
-        <v>3.61</v>
+        <v>3.68</v>
       </c>
       <c r="AU98">
         <v>7</v>
@@ -21726,25 +21726,25 @@
         <v>1.65</v>
       </c>
       <c r="AN99">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="AO99">
-        <v>0.86</v>
+        <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ99">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR99">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AS99">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT99">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="AU99">
         <v>4</v>
@@ -21932,25 +21932,25 @@
         <v>1.72</v>
       </c>
       <c r="AN100">
-        <v>2.13</v>
+        <v>1.47</v>
       </c>
       <c r="AO100">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AP100">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ100">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR100">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AS100">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT100">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -22138,25 +22138,25 @@
         <v>1.32</v>
       </c>
       <c r="AN101">
-        <v>1.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO101">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ101">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR101">
         <v>1.04</v>
       </c>
       <c r="AS101">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="AT101">
-        <v>2.06</v>
+        <v>2.27</v>
       </c>
       <c r="AU101">
         <v>8</v>
@@ -22344,25 +22344,25 @@
         <v>1.35</v>
       </c>
       <c r="AN102">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AO102">
-        <v>0.75</v>
+        <v>1.35</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ102">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR102">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="AS102">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AT102">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="AU102">
         <v>2</v>
@@ -22550,25 +22550,25 @@
         <v>3.8</v>
       </c>
       <c r="AN103">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AO103">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AP103">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ103">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR103">
-        <v>2.45</v>
+        <v>2.22</v>
       </c>
       <c r="AS103">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AT103">
-        <v>3.73</v>
+        <v>3.63</v>
       </c>
       <c r="AU103">
         <v>6</v>
@@ -22756,22 +22756,22 @@
         <v>2.2</v>
       </c>
       <c r="AN104">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AO104">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP104">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ104">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR104">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AS104">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="AT104">
         <v>2.18</v>
@@ -22962,25 +22962,25 @@
         <v>5.8</v>
       </c>
       <c r="AN105">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AO105">
-        <v>0.43</v>
+        <v>1.06</v>
       </c>
       <c r="AP105">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ105">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR105">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="AS105">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AT105">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="AU105">
         <v>9</v>
@@ -23168,25 +23168,25 @@
         <v>6.5</v>
       </c>
       <c r="AN106">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="AO106">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AP106">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ106">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR106">
-        <v>2.43</v>
+        <v>2.23</v>
       </c>
       <c r="AS106">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="AT106">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="AU106">
         <v>8</v>
@@ -23374,25 +23374,25 @@
         <v>1.78</v>
       </c>
       <c r="AN107">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AO107">
-        <v>0.89</v>
+        <v>1.44</v>
       </c>
       <c r="AP107">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR107">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="AS107">
-        <v>0.99</v>
+        <v>1.15</v>
       </c>
       <c r="AT107">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="AU107">
         <v>7</v>
@@ -23580,25 +23580,25 @@
         <v>2.1</v>
       </c>
       <c r="AN108">
-        <v>1.89</v>
+        <v>1.33</v>
       </c>
       <c r="AO108">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ108">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR108">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AS108">
-        <v>0.9399999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AT108">
-        <v>2.49</v>
+        <v>2.46</v>
       </c>
       <c r="AU108">
         <v>7</v>
@@ -23786,25 +23786,25 @@
         <v>1.12</v>
       </c>
       <c r="AN109">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AO109">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="AP109">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ109">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR109">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AS109">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AT109">
-        <v>3.47</v>
+        <v>3.38</v>
       </c>
       <c r="AU109">
         <v>0</v>
@@ -23992,25 +23992,25 @@
         <v>1.07</v>
       </c>
       <c r="AN110">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AO110">
-        <v>2.44</v>
+        <v>2.37</v>
       </c>
       <c r="AP110">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ110">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR110">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AS110">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="AT110">
-        <v>3.31</v>
+        <v>3.51</v>
       </c>
       <c r="AU110">
         <v>2</v>
@@ -24198,25 +24198,25 @@
         <v>1.51</v>
       </c>
       <c r="AN111">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="AO111">
-        <v>0.33</v>
+        <v>0.95</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ111">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR111">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
       <c r="AS111">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AT111">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="AU111">
         <v>4</v>
@@ -24404,25 +24404,25 @@
         <v>1.46</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="AO112">
-        <v>0.78</v>
+        <v>1.42</v>
       </c>
       <c r="AP112">
+        <v>1.24</v>
+      </c>
+      <c r="AQ112">
         <v>1.47</v>
       </c>
-      <c r="AQ112">
-        <v>1.11</v>
-      </c>
       <c r="AR112">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="AS112">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AT112">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24610,25 +24610,25 @@
         <v>1.57</v>
       </c>
       <c r="AN113">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO113">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AP113">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ113">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR113">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AS113">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AT113">
-        <v>2.69</v>
+        <v>2.58</v>
       </c>
       <c r="AU113">
         <v>5</v>
@@ -24816,25 +24816,25 @@
         <v>1.72</v>
       </c>
       <c r="AN114">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AO114">
-        <v>2.44</v>
+        <v>2.39</v>
       </c>
       <c r="AP114">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ114">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR114">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="AS114">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="AT114">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="AU114">
         <v>7</v>
@@ -25022,25 +25022,25 @@
         <v>2.15</v>
       </c>
       <c r="AN115">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="AO115">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ115">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR115">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="AS115">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AT115">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="AU115">
         <v>8</v>
@@ -25228,25 +25228,25 @@
         <v>1.72</v>
       </c>
       <c r="AN116">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AO116">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AP116">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR116">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AS116">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AT116">
-        <v>2.29</v>
+        <v>2.37</v>
       </c>
       <c r="AU116">
         <v>4</v>
@@ -25434,25 +25434,25 @@
         <v>1.95</v>
       </c>
       <c r="AN117">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="AO117">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AP117">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ117">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR117">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AS117">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="AT117">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="AU117">
         <v>5</v>
@@ -25640,25 +25640,25 @@
         <v>1.83</v>
       </c>
       <c r="AN118">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO118">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AP118">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ118">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR118">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AS118">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT118">
-        <v>2.81</v>
+        <v>2.66</v>
       </c>
       <c r="AU118">
         <v>5</v>
@@ -25846,25 +25846,25 @@
         <v>1.3</v>
       </c>
       <c r="AN119">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="AO119">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ119">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR119">
-        <v>1.1</v>
+        <v>0.99</v>
       </c>
       <c r="AS119">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="AT119">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="AU119">
         <v>4</v>
@@ -26052,22 +26052,22 @@
         <v>3.6</v>
       </c>
       <c r="AN120">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AO120">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AP120">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ120">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR120">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AS120">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AT120">
         <v>3.47</v>
@@ -26258,25 +26258,25 @@
         <v>1.38</v>
       </c>
       <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
+        <v>1.12</v>
+      </c>
+      <c r="AP121">
+        <v>0.92</v>
+      </c>
+      <c r="AQ121">
+        <v>1.26</v>
+      </c>
+      <c r="AR121">
+        <v>1.19</v>
+      </c>
+      <c r="AS121">
         <v>1.22</v>
       </c>
-      <c r="AO121">
-        <v>1</v>
-      </c>
-      <c r="AP121">
-        <v>1.37</v>
-      </c>
-      <c r="AQ121">
-        <v>1.05</v>
-      </c>
-      <c r="AR121">
-        <v>1.24</v>
-      </c>
-      <c r="AS121">
-        <v>1.12</v>
-      </c>
       <c r="AT121">
-        <v>2.36</v>
+        <v>2.41</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26464,25 +26464,25 @@
         <v>1.9</v>
       </c>
       <c r="AN122">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AO122">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AP122">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ122">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR122">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AS122">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AT122">
-        <v>2.58</v>
+        <v>2.43</v>
       </c>
       <c r="AU122">
         <v>4</v>
@@ -26670,25 +26670,25 @@
         <v>1.06</v>
       </c>
       <c r="AN123">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AO123">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AP123">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ123">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR123">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AS123">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="AT123">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="AU123">
         <v>0</v>
@@ -26876,25 +26876,25 @@
         <v>2.05</v>
       </c>
       <c r="AN124">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AO124">
+        <v>1.22</v>
+      </c>
+      <c r="AP124">
+        <v>1.79</v>
+      </c>
+      <c r="AQ124">
         <v>1.11</v>
       </c>
-      <c r="AP124">
-        <v>1.89</v>
-      </c>
-      <c r="AQ124">
-        <v>0.95</v>
-      </c>
       <c r="AR124">
-        <v>1.58</v>
+        <v>1.39</v>
       </c>
       <c r="AS124">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AT124">
-        <v>2.81</v>
+        <v>2.61</v>
       </c>
       <c r="AU124">
         <v>7</v>
@@ -27082,25 +27082,25 @@
         <v>1.27</v>
       </c>
       <c r="AN125">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="AO125">
         <v>1.22</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ125">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR125">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="AS125">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AT125">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -27288,25 +27288,25 @@
         <v>1.09</v>
       </c>
       <c r="AN126">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AO126">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AP126">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ126">
+        <v>2.24</v>
+      </c>
+      <c r="AR126">
+        <v>1.2</v>
+      </c>
+      <c r="AS126">
         <v>2.05</v>
       </c>
-      <c r="AR126">
-        <v>1.43</v>
-      </c>
-      <c r="AS126">
-        <v>1.93</v>
-      </c>
       <c r="AT126">
-        <v>3.36</v>
+        <v>3.25</v>
       </c>
       <c r="AU126">
         <v>4</v>
@@ -27494,25 +27494,25 @@
         <v>1.09</v>
       </c>
       <c r="AN127">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="AO127">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AP127">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ127">
+        <v>2.24</v>
+      </c>
+      <c r="AR127">
+        <v>1.12</v>
+      </c>
+      <c r="AS127">
         <v>2.05</v>
       </c>
-      <c r="AR127">
-        <v>1.24</v>
-      </c>
-      <c r="AS127">
-        <v>1.95</v>
-      </c>
       <c r="AT127">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="AU127">
         <v>3</v>
@@ -27700,25 +27700,25 @@
         <v>1.68</v>
       </c>
       <c r="AN128">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
       <c r="AO128">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AP128">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ128">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR128">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>0.98</v>
+        <v>1.19</v>
       </c>
       <c r="AT128">
-        <v>2.51</v>
+        <v>2.59</v>
       </c>
       <c r="AU128">
         <v>2</v>
@@ -27906,25 +27906,25 @@
         <v>6.5</v>
       </c>
       <c r="AN129">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="AO129">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AP129">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ129">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR129">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AS129">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AT129">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="AU129">
         <v>8</v>
@@ -28112,25 +28112,25 @@
         <v>1.65</v>
       </c>
       <c r="AN130">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="AO130">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AP130">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ130">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR130">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="AS130">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AT130">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU130">
         <v>6</v>
@@ -28318,25 +28318,25 @@
         <v>1.42</v>
       </c>
       <c r="AN131">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
       <c r="AO131">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AP131">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ131">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR131">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AS131">
         <v>1.21</v>
       </c>
       <c r="AT131">
-        <v>2.33</v>
+        <v>2.21</v>
       </c>
       <c r="AU131">
         <v>4</v>
@@ -28524,25 +28524,25 @@
         <v>1.57</v>
       </c>
       <c r="AN132">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="AO132">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ132">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR132">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="AS132">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT132">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="AU132">
         <v>5</v>
@@ -28730,25 +28730,25 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AO133">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AP133">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ133">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR133">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AS133">
         <v>1.2</v>
       </c>
       <c r="AT133">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="AU133">
         <v>5</v>
@@ -28936,25 +28936,25 @@
         <v>1.62</v>
       </c>
       <c r="AN134">
-        <v>0.64</v>
+        <v>0.55</v>
       </c>
       <c r="AO134">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AP134">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ134">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR134">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="AS134">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AT134">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29142,25 +29142,25 @@
         <v>1.09</v>
       </c>
       <c r="AN135">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AO135">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AP135">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ135">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR135">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AS135">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="AT135">
-        <v>3.47</v>
+        <v>3.49</v>
       </c>
       <c r="AU135">
         <v>4</v>
@@ -29348,25 +29348,25 @@
         <v>1.58</v>
       </c>
       <c r="AN136">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AO136">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AP136">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ136">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR136">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AS136">
-        <v>0.93</v>
+        <v>1.05</v>
       </c>
       <c r="AT136">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU136">
         <v>6</v>
@@ -29554,22 +29554,22 @@
         <v>6.5</v>
       </c>
       <c r="AN137">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AO137">
-        <v>0.45</v>
+        <v>0.57</v>
       </c>
       <c r="AP137">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ137">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR137">
-        <v>2.16</v>
+        <v>2.01</v>
       </c>
       <c r="AS137">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AT137">
         <v>3.06</v>
@@ -29760,25 +29760,25 @@
         <v>1.38</v>
       </c>
       <c r="AN138">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="AO138">
-        <v>0.91</v>
+        <v>1.39</v>
       </c>
       <c r="AP138">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ138">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR138">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AS138">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT138">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -29969,22 +29969,22 @@
         <v>1.18</v>
       </c>
       <c r="AO139">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="AP139">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR139">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AS139">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AT139">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="AU139">
         <v>2</v>
@@ -30172,25 +30172,25 @@
         <v>1.39</v>
       </c>
       <c r="AN140">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AO140">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AP140">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ140">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR140">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AS140">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="AT140">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AU140">
         <v>9</v>
@@ -30378,25 +30378,25 @@
         <v>1.7</v>
       </c>
       <c r="AN141">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AO141">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="AP141">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ141">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR141">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AS141">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AT141">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU141">
         <v>10</v>
@@ -30584,25 +30584,25 @@
         <v>3.6</v>
       </c>
       <c r="AN142">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="AO142">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AP142">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ142">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR142">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="AS142">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AT142">
-        <v>3.39</v>
+        <v>3.26</v>
       </c>
       <c r="AU142">
         <v>8</v>
@@ -30790,25 +30790,25 @@
         <v>1.28</v>
       </c>
       <c r="AN143">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="AO143">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AP143">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ143">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR143">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="AS143">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AT143">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="AU143">
         <v>3</v>
@@ -30996,25 +30996,25 @@
         <v>2.25</v>
       </c>
       <c r="AN144">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AO144">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="AP144">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ144">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR144">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AS144">
-        <v>0.84</v>
+        <v>1.01</v>
       </c>
       <c r="AT144">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AU144">
         <v>7</v>
@@ -31202,25 +31202,25 @@
         <v>1.07</v>
       </c>
       <c r="AN145">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AO145">
         <v>2.42</v>
       </c>
       <c r="AP145">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ145">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR145">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AS145">
-        <v>2.15</v>
+        <v>2.24</v>
       </c>
       <c r="AT145">
-        <v>3.49</v>
+        <v>3.43</v>
       </c>
       <c r="AU145">
         <v>5</v>
@@ -31408,25 +31408,25 @@
         <v>1.63</v>
       </c>
       <c r="AN146">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO146">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AP146">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ146">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR146">
+        <v>1.13</v>
+      </c>
+      <c r="AS146">
         <v>1.22</v>
       </c>
-      <c r="AS146">
-        <v>1.18</v>
-      </c>
       <c r="AT146">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AU146">
         <v>7</v>
@@ -31614,25 +31614,25 @@
         <v>1.6</v>
       </c>
       <c r="AN147">
+        <v>1.13</v>
+      </c>
+      <c r="AO147">
+        <v>1</v>
+      </c>
+      <c r="AP147">
+        <v>1.11</v>
+      </c>
+      <c r="AQ147">
+        <v>0.92</v>
+      </c>
+      <c r="AR147">
         <v>1.2</v>
       </c>
-      <c r="AO147">
-        <v>0.64</v>
-      </c>
-      <c r="AP147">
-        <v>1.26</v>
-      </c>
-      <c r="AQ147">
-        <v>0.84</v>
-      </c>
-      <c r="AR147">
-        <v>1.26</v>
-      </c>
       <c r="AS147">
-        <v>0.93</v>
+        <v>1.04</v>
       </c>
       <c r="AT147">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU147">
         <v>7</v>
@@ -31820,25 +31820,25 @@
         <v>4.8</v>
       </c>
       <c r="AN148">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AO148">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP148">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ148">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR148">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="AS148">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AT148">
-        <v>3.33</v>
+        <v>3.22</v>
       </c>
       <c r="AU148">
         <v>24</v>
@@ -32026,25 +32026,25 @@
         <v>2</v>
       </c>
       <c r="AN149">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="AO149">
-        <v>0.82</v>
+        <v>1.04</v>
       </c>
       <c r="AP149">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ149">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR149">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AS149">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AT149">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="AU149">
         <v>8</v>
@@ -32232,25 +32232,25 @@
         <v>1.7</v>
       </c>
       <c r="AN150">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AO150">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AP150">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ150">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR150">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AS150">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AT150">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="AU150">
         <v>13</v>
@@ -32438,25 +32438,25 @@
         <v>4</v>
       </c>
       <c r="AN151">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="AO151">
-        <v>0.92</v>
+        <v>1.44</v>
       </c>
       <c r="AP151">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ151">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR151">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="AS151">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AT151">
-        <v>3.54</v>
+        <v>3.56</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32644,25 +32644,25 @@
         <v>1.91</v>
       </c>
       <c r="AN152">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="AO152">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AP152">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ152">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR152">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AS152">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AT152">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="AU152">
         <v>5</v>
@@ -32850,25 +32850,25 @@
         <v>2.1</v>
       </c>
       <c r="AN153">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="AO153">
-        <v>0.83</v>
+        <v>1.04</v>
       </c>
       <c r="AP153">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ153">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR153">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AS153">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AT153">
-        <v>2.76</v>
+        <v>2.69</v>
       </c>
       <c r="AU153">
         <v>8</v>
@@ -33056,25 +33056,25 @@
         <v>1.3</v>
       </c>
       <c r="AN154">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="AO154">
+        <v>1.4</v>
+      </c>
+      <c r="AP154">
+        <v>0.66</v>
+      </c>
+      <c r="AQ154">
+        <v>1.24</v>
+      </c>
+      <c r="AR154">
+        <v>1.02</v>
+      </c>
+      <c r="AS154">
         <v>1.17</v>
       </c>
-      <c r="AP154">
-        <v>1</v>
-      </c>
-      <c r="AQ154">
-        <v>1</v>
-      </c>
-      <c r="AR154">
-        <v>1.19</v>
-      </c>
-      <c r="AS154">
-        <v>1.05</v>
-      </c>
       <c r="AT154">
-        <v>2.24</v>
+        <v>2.19</v>
       </c>
       <c r="AU154">
         <v>4</v>
@@ -33262,25 +33262,25 @@
         <v>1.05</v>
       </c>
       <c r="AN155">
-        <v>1.31</v>
+        <v>0.96</v>
       </c>
       <c r="AO155">
-        <v>2.33</v>
+        <v>2.44</v>
       </c>
       <c r="AP155">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ155">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR155">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AS155">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="AT155">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="AU155">
         <v>0</v>
@@ -33468,25 +33468,25 @@
         <v>3.65</v>
       </c>
       <c r="AN156">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="AO156">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="AP156">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ156">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR156">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="AS156">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="AT156">
-        <v>3.67</v>
+        <v>3.59</v>
       </c>
       <c r="AU156">
         <v>13</v>
@@ -33674,25 +33674,25 @@
         <v>1.95</v>
       </c>
       <c r="AN157">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="AO157">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="AP157">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ157">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR157">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="AS157">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AT157">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AU157">
         <v>7</v>
@@ -33880,25 +33880,25 @@
         <v>1.65</v>
       </c>
       <c r="AN158">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="AO158">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="AP158">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ158">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR158">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS158">
-        <v>0.87</v>
+        <v>1.02</v>
       </c>
       <c r="AT158">
-        <v>2.11</v>
+        <v>2.17</v>
       </c>
       <c r="AU158">
         <v>7</v>
@@ -34086,25 +34086,25 @@
         <v>1.73</v>
       </c>
       <c r="AN159">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="AO159">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AP159">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ159">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR159">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AS159">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AT159">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="AU159">
         <v>10</v>
@@ -34292,25 +34292,25 @@
         <v>1.83</v>
       </c>
       <c r="AN160">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AO160">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="AP160">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ160">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR160">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AS160">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AT160">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="AU160">
         <v>10</v>
@@ -34498,22 +34498,22 @@
         <v>1.06</v>
       </c>
       <c r="AN161">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="AO161">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="AP161">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ161">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR161">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AS161">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="AT161">
         <v>3.43</v>
@@ -34704,22 +34704,22 @@
         <v>1.4</v>
       </c>
       <c r="AN162">
+        <v>0.85</v>
+      </c>
+      <c r="AO162">
+        <v>1.41</v>
+      </c>
+      <c r="AP162">
+        <v>0.92</v>
+      </c>
+      <c r="AQ162">
+        <v>1.24</v>
+      </c>
+      <c r="AR162">
         <v>1.17</v>
       </c>
-      <c r="AO162">
-        <v>1.08</v>
-      </c>
-      <c r="AP162">
-        <v>1.37</v>
-      </c>
-      <c r="AQ162">
-        <v>1</v>
-      </c>
-      <c r="AR162">
-        <v>1.28</v>
-      </c>
       <c r="AS162">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="AT162">
         <v>2.38</v>
@@ -34910,25 +34910,25 @@
         <v>2.25</v>
       </c>
       <c r="AN163">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="AO163">
-        <v>0.54</v>
+        <v>0.89</v>
       </c>
       <c r="AP163">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ163">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR163">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AS163">
-        <v>0.96</v>
+        <v>1.02</v>
       </c>
       <c r="AT163">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="AU163">
         <v>7</v>
@@ -35116,25 +35116,25 @@
         <v>4.2</v>
       </c>
       <c r="AN164">
-        <v>2.31</v>
+        <v>2.41</v>
       </c>
       <c r="AO164">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AP164">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ164">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR164">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="AS164">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AT164">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="AU164">
         <v>11</v>
@@ -35322,25 +35322,25 @@
         <v>1.85</v>
       </c>
       <c r="AN165">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AO165">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AP165">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ165">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR165">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="AS165">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
       <c r="AT165">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AU165">
         <v>3</v>
@@ -35528,25 +35528,25 @@
         <v>1.1</v>
       </c>
       <c r="AN166">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AO166">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="AP166">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ166">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR166">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AS166">
-        <v>1.85</v>
+        <v>2.13</v>
       </c>
       <c r="AT166">
-        <v>3.4</v>
+        <v>3.54</v>
       </c>
       <c r="AU166">
         <v>4</v>
@@ -35734,25 +35734,25 @@
         <v>1.42</v>
       </c>
       <c r="AN167">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AO167">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="AP167">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ167">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR167">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="AS167">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT167">
-        <v>2.32</v>
+        <v>2.29</v>
       </c>
       <c r="AU167">
         <v>5</v>
@@ -35940,25 +35940,25 @@
         <v>1.55</v>
       </c>
       <c r="AN168">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="AO168">
-        <v>0.92</v>
+        <v>1.43</v>
       </c>
       <c r="AP168">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ168">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR168">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AS168">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AT168">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AU168">
         <v>6</v>
@@ -36146,25 +36146,25 @@
         <v>1.52</v>
       </c>
       <c r="AN169">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="AO169">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AP169">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ169">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR169">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AS169">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AT169">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU169">
         <v>6</v>
@@ -36352,25 +36352,25 @@
         <v>1.57</v>
       </c>
       <c r="AN170">
-        <v>1.21</v>
+        <v>0.96</v>
       </c>
       <c r="AO170">
-        <v>0.36</v>
+        <v>0.57</v>
       </c>
       <c r="AP170">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ170">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR170">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="AS170">
-        <v>0.93</v>
+        <v>1.05</v>
       </c>
       <c r="AT170">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="AU170">
         <v>4</v>
@@ -36558,25 +36558,25 @@
         <v>2.25</v>
       </c>
       <c r="AN171">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AO171">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AP171">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ171">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR171">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AS171">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AT171">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="AU171">
         <v>7</v>
@@ -36764,25 +36764,25 @@
         <v>5</v>
       </c>
       <c r="AN172">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AO172">
-        <v>0.93</v>
+        <v>1.04</v>
       </c>
       <c r="AP172">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ172">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR172">
-        <v>2.39</v>
+        <v>2.11</v>
       </c>
       <c r="AS172">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AT172">
-        <v>3.58</v>
+        <v>3.37</v>
       </c>
       <c r="AU172">
         <v>12</v>
@@ -36970,25 +36970,25 @@
         <v>1.14</v>
       </c>
       <c r="AN173">
+        <v>1.86</v>
+      </c>
+      <c r="AO173">
+        <v>2.43</v>
+      </c>
+      <c r="AP173">
         <v>1.79</v>
       </c>
-      <c r="AO173">
-        <v>2.5</v>
-      </c>
-      <c r="AP173">
-        <v>1.89</v>
-      </c>
       <c r="AQ173">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR173">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AS173">
-        <v>2.09</v>
+        <v>2.19</v>
       </c>
       <c r="AT173">
-        <v>3.7</v>
+        <v>3.64</v>
       </c>
       <c r="AU173">
         <v>7</v>
@@ -37176,25 +37176,25 @@
         <v>1.44</v>
       </c>
       <c r="AN174">
-        <v>1.15</v>
+        <v>0.82</v>
       </c>
       <c r="AO174">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AP174">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ174">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR174">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AS174">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AT174">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="AU174">
         <v>4</v>
@@ -37382,25 +37382,25 @@
         <v>1.46</v>
       </c>
       <c r="AN175">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="AO175">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="AP175">
+        <v>1.11</v>
+      </c>
+      <c r="AQ175">
         <v>1.26</v>
       </c>
-      <c r="AQ175">
-        <v>1.05</v>
-      </c>
       <c r="AR175">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AS175">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="AT175">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU175">
         <v>7</v>
@@ -37588,25 +37588,25 @@
         <v>5.5</v>
       </c>
       <c r="AN176">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="AO176">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AP176">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ176">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR176">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AS176">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AT176">
-        <v>3.25</v>
+        <v>3.19</v>
       </c>
       <c r="AU176">
         <v>11</v>
@@ -37794,22 +37794,22 @@
         <v>2.6</v>
       </c>
       <c r="AN177">
+        <v>1.21</v>
+      </c>
+      <c r="AO177">
+        <v>0.59</v>
+      </c>
+      <c r="AP177">
+        <v>1.21</v>
+      </c>
+      <c r="AQ177">
+        <v>0.66</v>
+      </c>
+      <c r="AR177">
         <v>1.27</v>
       </c>
-      <c r="AO177">
-        <v>0.4</v>
-      </c>
-      <c r="AP177">
-        <v>1.32</v>
-      </c>
-      <c r="AQ177">
-        <v>0.32</v>
-      </c>
-      <c r="AR177">
-        <v>1.39</v>
-      </c>
       <c r="AS177">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT177">
         <v>2.33</v>
@@ -38000,25 +38000,25 @@
         <v>1.72</v>
       </c>
       <c r="AN178">
-        <v>1.87</v>
+        <v>1.41</v>
       </c>
       <c r="AO178">
-        <v>1.07</v>
+        <v>1.45</v>
       </c>
       <c r="AP178">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ178">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR178">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AS178">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AT178">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="AU178">
         <v>9</v>
@@ -38206,25 +38206,25 @@
         <v>1.63</v>
       </c>
       <c r="AN179">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AO179">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="AP179">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ179">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AR179">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AS179">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="AT179">
-        <v>2.44</v>
+        <v>2.53</v>
       </c>
       <c r="AU179">
         <v>6</v>
@@ -38412,25 +38412,25 @@
         <v>1.22</v>
       </c>
       <c r="AN180">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AO180">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AP180">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ180">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR180">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AS180">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AT180">
-        <v>2.49</v>
+        <v>2.58</v>
       </c>
       <c r="AU180">
         <v>4</v>
@@ -38618,25 +38618,25 @@
         <v>3.75</v>
       </c>
       <c r="AN181">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AO181">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AP181">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ181">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR181">
-        <v>2.41</v>
+        <v>2.13</v>
       </c>
       <c r="AS181">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="AT181">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="AU181">
         <v>9</v>
@@ -38827,22 +38827,22 @@
         <v>1.07</v>
       </c>
       <c r="AO182">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP182">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ182">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR182">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AS182">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="AT182">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -39030,25 +39030,25 @@
         <v>1.47</v>
       </c>
       <c r="AN183">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AO183">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AP183">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ183">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR183">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="AS183">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="AT183">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU183">
         <v>5</v>
@@ -39236,25 +39236,25 @@
         <v>2.1</v>
       </c>
       <c r="AN184">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AO184">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AP184">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ184">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR184">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AS184">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AT184">
-        <v>2.49</v>
+        <v>2.42</v>
       </c>
       <c r="AU184">
         <v>5</v>
@@ -39442,25 +39442,25 @@
         <v>1.83</v>
       </c>
       <c r="AN185">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AO185">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AP185">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ185">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR185">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AS185">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="AT185">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AU185">
         <v>7</v>
@@ -39648,25 +39648,25 @@
         <v>1.02</v>
       </c>
       <c r="AN186">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AO186">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AP186">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ186">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR186">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AS186">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="AT186">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="AU186">
         <v>2</v>
@@ -39854,25 +39854,25 @@
         <v>1.44</v>
       </c>
       <c r="AN187">
-        <v>1.8</v>
+        <v>1.39</v>
       </c>
       <c r="AO187">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AP187">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ187">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AR187">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AS187">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="AT187">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="AU187">
         <v>2</v>
@@ -40060,25 +40060,25 @@
         <v>1.63</v>
       </c>
       <c r="AN188">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AO188">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AP188">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ188">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AR188">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AS188">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AT188">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AU188">
         <v>3</v>
@@ -40266,25 +40266,25 @@
         <v>2.55</v>
       </c>
       <c r="AN189">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AO189">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AP189">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AQ189">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR189">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="AS189">
-        <v>0.9399999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="AT189">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="AU189">
         <v>7</v>
@@ -40472,25 +40472,25 @@
         <v>2.65</v>
       </c>
       <c r="AN190">
-        <v>1.94</v>
+        <v>1.45</v>
       </c>
       <c r="AO190">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="AP190">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AQ190">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AR190">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AS190">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AT190">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AU190">
         <v>6</v>
@@ -40678,25 +40678,25 @@
         <v>1.3</v>
       </c>
       <c r="AN191">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="AO191">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AP191">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="AQ191">
+        <v>1.26</v>
+      </c>
+      <c r="AR191">
         <v>1.05</v>
       </c>
-      <c r="AR191">
-        <v>1.14</v>
-      </c>
       <c r="AS191">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="AT191">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU191">
         <v>2</v>
@@ -40884,25 +40884,25 @@
         <v>1.62</v>
       </c>
       <c r="AN192">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
       <c r="AO192">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="AP192">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="AQ192">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AR192">
-        <v>2.39</v>
+        <v>2.13</v>
       </c>
       <c r="AS192">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="AT192">
-        <v>4.47</v>
+        <v>4.33</v>
       </c>
       <c r="AU192">
         <v>6</v>
@@ -41090,25 +41090,25 @@
         <v>1.75</v>
       </c>
       <c r="AN193">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AO193">
-        <v>1.06</v>
+        <v>1.26</v>
       </c>
       <c r="AP193">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AQ193">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AR193">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AS193">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT193">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="AU193">
         <v>6</v>
@@ -41296,25 +41296,25 @@
         <v>4.4</v>
       </c>
       <c r="AN194">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="AO194">
-        <v>1</v>
+        <v>1.34</v>
       </c>
       <c r="AP194">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AQ194">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR194">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="AS194">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT194">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="AU194">
         <v>10</v>
@@ -41502,25 +41502,25 @@
         <v>2.9</v>
       </c>
       <c r="AN195">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="AO195">
-        <v>0.38</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP195">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AQ195">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="AR195">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="AS195">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AT195">
-        <v>2.57</v>
+        <v>2.51</v>
       </c>
       <c r="AU195">
         <v>6</v>
@@ -41708,25 +41708,25 @@
         <v>1.44</v>
       </c>
       <c r="AN196">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AO196">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AP196">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ196">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR196">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AS196">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="AT196">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="AU196">
         <v>2</v>
@@ -41914,25 +41914,25 @@
         <v>1.28</v>
       </c>
       <c r="AN197">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="AO197">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="AP197">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ197">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR197">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="AS197">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AT197">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AU197">
         <v>-1</v>
@@ -42120,25 +42120,25 @@
         <v>1.02</v>
       </c>
       <c r="AN198">
-        <v>1.27</v>
+        <v>0.84</v>
       </c>
       <c r="AO198">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
       <c r="AP198">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AQ198">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR198">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AS198">
-        <v>1.83</v>
+        <v>2.11</v>
       </c>
       <c r="AT198">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="AU198">
         <v>7</v>
@@ -42326,25 +42326,25 @@
         <v>1.07</v>
       </c>
       <c r="AN199">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AO199">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AP199">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AQ199">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="AR199">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AS199">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="AT199">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="AU199">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -1750,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ2">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>4</v>
       </c>
       <c r="AY2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA2">
         <v>4</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>6</v>
       </c>
       <c r="AY3">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA3">
         <v>7</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2189,10 +2189,10 @@
         <v>5</v>
       </c>
       <c r="AY4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BA4">
         <v>7</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>7</v>
       </c>
       <c r="AY5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ5">
         <v>17</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ6">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         <v>11</v>
       </c>
       <c r="AY6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA6">
         <v>2</v>
@@ -2780,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ7">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>2</v>
       </c>
       <c r="AY7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA7">
         <v>2</v>
@@ -2980,25 +2980,25 @@
         <v>1.8</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ8">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR8">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>3</v>
@@ -3013,10 +3013,10 @@
         <v>2</v>
       </c>
       <c r="AY8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA8">
         <v>4</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ9">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR9">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>10</v>
@@ -3219,7 +3219,7 @@
         <v>4</v>
       </c>
       <c r="AY9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ9">
         <v>7</v>
@@ -3398,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ10">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR10">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>9</v>
@@ -3425,10 +3425,10 @@
         <v>6</v>
       </c>
       <c r="AY10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA10">
         <v>6</v>
@@ -3598,25 +3598,25 @@
         <v>1.09</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ11">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR11">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>3</v>
@@ -3631,10 +3631,10 @@
         <v>4</v>
       </c>
       <c r="AY11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA11">
         <v>9</v>
@@ -3804,25 +3804,25 @@
         <v>2.05</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR12">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.37</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>2</v>
@@ -3837,10 +3837,10 @@
         <v>5</v>
       </c>
       <c r="AY12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA12">
         <v>6</v>
@@ -4010,25 +4010,25 @@
         <v>1.5</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ13">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR13">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="AY13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA13">
         <v>5</v>
@@ -4216,25 +4216,25 @@
         <v>1.06</v>
       </c>
       <c r="AN14">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO14">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ14">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR14">
-        <v>1.45</v>
+        <v>1.92</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT14">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -4249,10 +4249,10 @@
         <v>6</v>
       </c>
       <c r="AY14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ14">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="BA14">
         <v>4</v>
@@ -4428,19 +4428,19 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ15">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR15">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="AS15">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT15">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4455,7 +4455,7 @@
         <v>3</v>
       </c>
       <c r="AY15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ15">
         <v>6</v>
@@ -4631,22 +4631,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ16">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR16">
-        <v>1.29</v>
+        <v>1.85</v>
       </c>
       <c r="AS16">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="AT16">
-        <v>2.35</v>
+        <v>2.72</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4661,10 +4661,10 @@
         <v>2</v>
       </c>
       <c r="AY16">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AZ16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA16">
         <v>9</v>
@@ -4834,25 +4834,25 @@
         <v>1.65</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ17">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR17">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="AS17">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AT17">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="AU17">
         <v>8</v>
@@ -4867,10 +4867,10 @@
         <v>5</v>
       </c>
       <c r="AY17">
+        <v>14</v>
+      </c>
+      <c r="AZ17">
         <v>13</v>
-      </c>
-      <c r="AZ17">
-        <v>9</v>
       </c>
       <c r="BA17">
         <v>1</v>
@@ -5040,25 +5040,25 @@
         <v>1.35</v>
       </c>
       <c r="AN18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ18">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR18">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="AS18">
-        <v>1.58</v>
+        <v>2.16</v>
       </c>
       <c r="AT18">
-        <v>2.72</v>
+        <v>3.21</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5073,10 +5073,10 @@
         <v>3</v>
       </c>
       <c r="AY18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA18">
         <v>3</v>
@@ -5249,22 +5249,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP19">
+        <v>1.47</v>
+      </c>
+      <c r="AQ19">
+        <v>1.05</v>
+      </c>
+      <c r="AR19">
         <v>1.24</v>
       </c>
-      <c r="AQ19">
-        <v>1.26</v>
-      </c>
-      <c r="AR19">
-        <v>1.17</v>
-      </c>
       <c r="AS19">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="AT19">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5279,10 +5279,10 @@
         <v>1</v>
       </c>
       <c r="AY19">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA19">
         <v>4</v>
@@ -5452,25 +5452,25 @@
         <v>1.75</v>
       </c>
       <c r="AN20">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ20">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR20">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AS20">
-        <v>1.29</v>
+        <v>0.99</v>
       </c>
       <c r="AT20">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="AU20">
         <v>5</v>
@@ -5485,10 +5485,10 @@
         <v>3</v>
       </c>
       <c r="AY20">
+        <v>16</v>
+      </c>
+      <c r="AZ20">
         <v>10</v>
-      </c>
-      <c r="AZ20">
-        <v>8</v>
       </c>
       <c r="BA20">
         <v>14</v>
@@ -5658,25 +5658,25 @@
         <v>1.52</v>
       </c>
       <c r="AN21">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR21">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AS21">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AT21">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AU21">
         <v>4</v>
@@ -5694,7 +5694,7 @@
         <v>9</v>
       </c>
       <c r="AZ21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA21">
         <v>4</v>
@@ -5864,25 +5864,25 @@
         <v>1.44</v>
       </c>
       <c r="AN22">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AS22">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AT22">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -5897,10 +5897,10 @@
         <v>3</v>
       </c>
       <c r="AY22">
+        <v>14</v>
+      </c>
+      <c r="AZ22">
         <v>10</v>
-      </c>
-      <c r="AZ22">
-        <v>8</v>
       </c>
       <c r="BA22">
         <v>6</v>
@@ -6070,25 +6070,25 @@
         <v>1.6</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ23">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR23">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="AS23">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AT23">
-        <v>4.29</v>
+        <v>4.23</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -6103,7 +6103,7 @@
         <v>3</v>
       </c>
       <c r="AY23">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ23">
         <v>9</v>
@@ -6276,25 +6276,25 @@
         <v>1.77</v>
       </c>
       <c r="AN24">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ24">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR24">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT24">
-        <v>2.96</v>
+        <v>2.38</v>
       </c>
       <c r="AU24">
         <v>2</v>
@@ -6309,10 +6309,10 @@
         <v>2</v>
       </c>
       <c r="AY24">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AZ24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA24">
         <v>16</v>
@@ -6482,25 +6482,25 @@
         <v>1.57</v>
       </c>
       <c r="AN25">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO25">
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ25">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR25">
-        <v>0.86</v>
+        <v>1.08</v>
       </c>
       <c r="AS25">
-        <v>1.32</v>
+        <v>0.74</v>
       </c>
       <c r="AT25">
-        <v>2.18</v>
+        <v>1.82</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6515,10 +6515,10 @@
         <v>7</v>
       </c>
       <c r="AY25">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA25">
         <v>7</v>
@@ -6694,19 +6694,19 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR26">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AS26">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="AT26">
-        <v>3.01</v>
+        <v>3.16</v>
       </c>
       <c r="AU26">
         <v>2</v>
@@ -6721,10 +6721,10 @@
         <v>10</v>
       </c>
       <c r="AY26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ26">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA26">
         <v>3</v>
@@ -6894,25 +6894,25 @@
         <v>5</v>
       </c>
       <c r="AN27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO27">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ27">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR27">
-        <v>1.97</v>
+        <v>2.27</v>
       </c>
       <c r="AS27">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AT27">
-        <v>3.18</v>
+        <v>3.55</v>
       </c>
       <c r="AU27">
         <v>8</v>
@@ -6927,7 +6927,7 @@
         <v>3</v>
       </c>
       <c r="AY27">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ27">
         <v>5</v>
@@ -7100,25 +7100,25 @@
         <v>1.78</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ28">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR28">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AS28">
-        <v>0.97</v>
+        <v>0.74</v>
       </c>
       <c r="AT28">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="AU28">
         <v>5</v>
@@ -7133,10 +7133,10 @@
         <v>3</v>
       </c>
       <c r="AY28">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA28">
         <v>9</v>
@@ -7306,25 +7306,25 @@
         <v>1.53</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO29">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ29">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR29">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AS29">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="AT29">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7339,10 +7339,10 @@
         <v>4</v>
       </c>
       <c r="AY29">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA29">
         <v>4</v>
@@ -7512,25 +7512,25 @@
         <v>1.65</v>
       </c>
       <c r="AN30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO30">
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ30">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AS30">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AT30">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="AU30">
         <v>8</v>
@@ -7545,10 +7545,10 @@
         <v>4</v>
       </c>
       <c r="AY30">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA30">
         <v>8</v>
@@ -7721,22 +7721,22 @@
         <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP31">
+        <v>1.37</v>
+      </c>
+      <c r="AQ31">
+        <v>0.32</v>
+      </c>
+      <c r="AR31">
+        <v>1.44</v>
+      </c>
+      <c r="AS31">
         <v>0.92</v>
       </c>
-      <c r="AQ31">
-        <v>0.66</v>
-      </c>
-      <c r="AR31">
-        <v>1.26</v>
-      </c>
-      <c r="AS31">
-        <v>1.08</v>
-      </c>
       <c r="AT31">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7751,10 +7751,10 @@
         <v>2</v>
       </c>
       <c r="AY31">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA31">
         <v>6</v>
@@ -7924,25 +7924,25 @@
         <v>1.04</v>
       </c>
       <c r="AN32">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR32">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="AS32">
-        <v>2.01</v>
+        <v>1.67</v>
       </c>
       <c r="AT32">
-        <v>3.02</v>
+        <v>2.91</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7957,10 +7957,10 @@
         <v>4</v>
       </c>
       <c r="AY32">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ32">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA32">
         <v>2</v>
@@ -8130,25 +8130,25 @@
         <v>1.5</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP33">
+        <v>1.26</v>
+      </c>
+      <c r="AQ33">
         <v>1.11</v>
       </c>
-      <c r="AQ33">
-        <v>1.47</v>
-      </c>
       <c r="AR33">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AS33">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT33">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -8163,10 +8163,10 @@
         <v>11</v>
       </c>
       <c r="AY33">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ33">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="BA33">
         <v>4</v>
@@ -8336,25 +8336,25 @@
         <v>2.25</v>
       </c>
       <c r="AN34">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AO34">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ34">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR34">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="AS34">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AT34">
-        <v>2.31</v>
+        <v>2.59</v>
       </c>
       <c r="AU34">
         <v>9</v>
@@ -8369,10 +8369,10 @@
         <v>6</v>
       </c>
       <c r="AY34">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ34">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA34">
         <v>4</v>
@@ -8542,25 +8542,25 @@
         <v>1.51</v>
       </c>
       <c r="AN35">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO35">
+        <v>1.5</v>
+      </c>
+      <c r="AP35">
+        <v>1.47</v>
+      </c>
+      <c r="AQ35">
+        <v>1.68</v>
+      </c>
+      <c r="AR35">
         <v>1.4</v>
       </c>
-      <c r="AP35">
-        <v>1.24</v>
-      </c>
-      <c r="AQ35">
-        <v>1.79</v>
-      </c>
-      <c r="AR35">
-        <v>1.23</v>
-      </c>
       <c r="AS35">
-        <v>1.45</v>
+        <v>1.82</v>
       </c>
       <c r="AT35">
-        <v>2.68</v>
+        <v>3.22</v>
       </c>
       <c r="AU35">
         <v>6</v>
@@ -8575,10 +8575,10 @@
         <v>4</v>
       </c>
       <c r="AY35">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA35">
         <v>4</v>
@@ -8748,25 +8748,25 @@
         <v>1.9</v>
       </c>
       <c r="AN36">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ36">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR36">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="AS36">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="AT36">
-        <v>2.39</v>
+        <v>2.27</v>
       </c>
       <c r="AU36">
         <v>7</v>
@@ -8781,10 +8781,10 @@
         <v>6</v>
       </c>
       <c r="AY36">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ36">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA36">
         <v>5</v>
@@ -8954,25 +8954,25 @@
         <v>3.9</v>
       </c>
       <c r="AN37">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO37">
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ37">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR37">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="AS37">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="AT37">
-        <v>3.42</v>
+        <v>3.19</v>
       </c>
       <c r="AU37">
         <v>8</v>
@@ -8987,10 +8987,10 @@
         <v>3</v>
       </c>
       <c r="AY37">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ37">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA37">
         <v>2</v>
@@ -9160,25 +9160,25 @@
         <v>1.07</v>
       </c>
       <c r="AN38">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO38">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ38">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR38">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="AS38">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="AT38">
-        <v>3.37</v>
+        <v>3.25</v>
       </c>
       <c r="AU38">
         <v>5</v>
@@ -9193,10 +9193,10 @@
         <v>10</v>
       </c>
       <c r="AY38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ38">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="BA38">
         <v>4</v>
@@ -9369,22 +9369,22 @@
         <v>0.33</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR39">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="AS39">
-        <v>1.09</v>
+        <v>0.85</v>
       </c>
       <c r="AT39">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9399,10 +9399,10 @@
         <v>1</v>
       </c>
       <c r="AY39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA39">
         <v>5</v>
@@ -9575,22 +9575,22 @@
         <v>2</v>
       </c>
       <c r="AO40">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ40">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR40">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AS40">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT40">
-        <v>3.01</v>
+        <v>2.79</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9605,10 +9605,10 @@
         <v>3</v>
       </c>
       <c r="AY40">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA40">
         <v>5</v>
@@ -9778,25 +9778,25 @@
         <v>1.42</v>
       </c>
       <c r="AN41">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO41">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ41">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR41">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="AS41">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="AT41">
-        <v>2.73</v>
+        <v>3.15</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9811,10 +9811,10 @@
         <v>8</v>
       </c>
       <c r="AY41">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ41">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA41">
         <v>5</v>
@@ -9984,25 +9984,25 @@
         <v>1.6</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
         <v>2.33</v>
       </c>
       <c r="AP42">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ42">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR42">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="AS42">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AT42">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -10017,10 +10017,10 @@
         <v>2</v>
       </c>
       <c r="AY42">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA42">
         <v>7</v>
@@ -10190,25 +10190,25 @@
         <v>2.1</v>
       </c>
       <c r="AN43">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP43">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ43">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR43">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
       <c r="AS43">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AT43">
-        <v>2.54</v>
+        <v>2.84</v>
       </c>
       <c r="AU43">
         <v>10</v>
@@ -10223,10 +10223,10 @@
         <v>5</v>
       </c>
       <c r="AY43">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ43">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA43">
         <v>14</v>
@@ -10396,25 +10396,25 @@
         <v>5.5</v>
       </c>
       <c r="AN44">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="AO44">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP44">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ44">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR44">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="AS44">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AT44">
-        <v>3.45</v>
+        <v>3.83</v>
       </c>
       <c r="AU44">
         <v>13</v>
@@ -10429,7 +10429,7 @@
         <v>5</v>
       </c>
       <c r="AY44">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AZ44">
         <v>7</v>
@@ -10602,25 +10602,25 @@
         <v>1.66</v>
       </c>
       <c r="AN45">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AO45">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR45">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AS45">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="AT45">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AU45">
         <v>6</v>
@@ -10635,10 +10635,10 @@
         <v>4</v>
       </c>
       <c r="AY45">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AZ45">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BA45">
         <v>7</v>
@@ -10808,25 +10808,25 @@
         <v>1.41</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO46">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR46">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="AS46">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AT46">
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="AY46">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA46">
         <v>3</v>
@@ -11014,25 +11014,25 @@
         <v>1.09</v>
       </c>
       <c r="AN47">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AO47">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ47">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR47">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="AS47">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="AT47">
-        <v>3.15</v>
+        <v>3.39</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -11047,10 +11047,10 @@
         <v>3</v>
       </c>
       <c r="AY47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ47">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA47">
         <v>3</v>
@@ -11220,25 +11220,25 @@
         <v>2.35</v>
       </c>
       <c r="AN48">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO48">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ48">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR48">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AS48">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AT48">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11253,10 +11253,10 @@
         <v>6</v>
       </c>
       <c r="AY48">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ48">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA48">
         <v>5</v>
@@ -11426,25 +11426,25 @@
         <v>2.87</v>
       </c>
       <c r="AN49">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AO49">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ49">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR49">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AS49">
-        <v>1.59</v>
+        <v>1.18</v>
       </c>
       <c r="AT49">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11459,10 +11459,10 @@
         <v>2</v>
       </c>
       <c r="AY49">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AZ49">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA49">
         <v>5</v>
@@ -11632,25 +11632,25 @@
         <v>1.82</v>
       </c>
       <c r="AN50">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AO50">
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ50">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
       </c>
       <c r="AS50">
-        <v>1.08</v>
+        <v>0.87</v>
       </c>
       <c r="AT50">
-        <v>2.47</v>
+        <v>2.26</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -11665,10 +11665,10 @@
         <v>7</v>
       </c>
       <c r="AY50">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ50">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA50">
         <v>5</v>
@@ -11838,25 +11838,25 @@
         <v>1.13</v>
       </c>
       <c r="AN51">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AO51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ51">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR51">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="AS51">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="AT51">
-        <v>3.52</v>
+        <v>3.09</v>
       </c>
       <c r="AU51">
         <v>7</v>
@@ -11871,10 +11871,10 @@
         <v>4</v>
       </c>
       <c r="AY51">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ51">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="BA51">
         <v>3</v>
@@ -12044,25 +12044,25 @@
         <v>1.57</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO52">
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ52">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR52">
         <v>1.05</v>
       </c>
       <c r="AS52">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AT52">
-        <v>2.31</v>
+        <v>2.16</v>
       </c>
       <c r="AU52">
         <v>10</v>
@@ -12077,7 +12077,7 @@
         <v>2</v>
       </c>
       <c r="AY52">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ52">
         <v>7</v>
@@ -12250,25 +12250,25 @@
         <v>2.25</v>
       </c>
       <c r="AN53">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AO53">
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ53">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR53">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AS53">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT53">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12283,10 +12283,10 @@
         <v>7</v>
       </c>
       <c r="AY53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ53">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA53">
         <v>4</v>
@@ -12459,22 +12459,22 @@
         <v>1</v>
       </c>
       <c r="AO54">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ54">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR54">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="AS54">
-        <v>2.01</v>
+        <v>1.76</v>
       </c>
       <c r="AT54">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -12489,10 +12489,10 @@
         <v>10</v>
       </c>
       <c r="AY54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ54">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA54">
         <v>3</v>
@@ -12662,25 +12662,25 @@
         <v>1.53</v>
       </c>
       <c r="AN55">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AO55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR55">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="AS55">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="AT55">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -12698,7 +12698,7 @@
         <v>5</v>
       </c>
       <c r="AZ55">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA55">
         <v>1</v>
@@ -12868,25 +12868,25 @@
         <v>1.9</v>
       </c>
       <c r="AN56">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO56">
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ56">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR56">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AS56">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AT56">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12901,10 +12901,10 @@
         <v>7</v>
       </c>
       <c r="AY56">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA56">
         <v>6</v>
@@ -13074,25 +13074,25 @@
         <v>1.53</v>
       </c>
       <c r="AN57">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="AO57">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ57">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR57">
         <v>1.39</v>
       </c>
       <c r="AS57">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="AT57">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="AU57">
         <v>9</v>
@@ -13107,10 +13107,10 @@
         <v>1</v>
       </c>
       <c r="AY57">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ57">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA57">
         <v>9</v>
@@ -13280,25 +13280,25 @@
         <v>3.4</v>
       </c>
       <c r="AN58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO58">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ58">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR58">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="AS58">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="AT58">
-        <v>3.41</v>
+        <v>3.6</v>
       </c>
       <c r="AU58">
         <v>6</v>
@@ -13313,10 +13313,10 @@
         <v>3</v>
       </c>
       <c r="AY58">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AZ58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA58">
         <v>11</v>
@@ -13492,19 +13492,19 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ59">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR59">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="AS59">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AT59">
-        <v>2.69</v>
+        <v>2.96</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13519,10 +13519,10 @@
         <v>4</v>
       </c>
       <c r="AY59">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ59">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA59">
         <v>5</v>
@@ -13692,25 +13692,25 @@
         <v>1.47</v>
       </c>
       <c r="AN60">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AO60">
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ60">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR60">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="AS60">
-        <v>1.08</v>
+        <v>0.95</v>
       </c>
       <c r="AT60">
-        <v>2.39</v>
+        <v>2.41</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -13725,10 +13725,10 @@
         <v>3</v>
       </c>
       <c r="AY60">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ60">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA60">
         <v>1</v>
@@ -13898,25 +13898,25 @@
         <v>2.05</v>
       </c>
       <c r="AN61">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AO61">
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ61">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR61">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AS61">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="AT61">
-        <v>2.41</v>
+        <v>2.22</v>
       </c>
       <c r="AU61">
         <v>11</v>
@@ -13931,10 +13931,10 @@
         <v>4</v>
       </c>
       <c r="AY61">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA61">
         <v>12</v>
@@ -14104,25 +14104,25 @@
         <v>1.44</v>
       </c>
       <c r="AN62">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AO62">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR62">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AS62">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT62">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14137,10 +14137,10 @@
         <v>10</v>
       </c>
       <c r="AY62">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AZ62">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BA62">
         <v>5</v>
@@ -14310,25 +14310,25 @@
         <v>4.6</v>
       </c>
       <c r="AN63">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AO63">
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ63">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR63">
-        <v>1.99</v>
+        <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AT63">
-        <v>3.13</v>
+        <v>3.39</v>
       </c>
       <c r="AU63">
         <v>9</v>
@@ -14343,10 +14343,10 @@
         <v>1</v>
       </c>
       <c r="AY63">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ63">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA63">
         <v>12</v>
@@ -14516,25 +14516,25 @@
         <v>1.07</v>
       </c>
       <c r="AN64">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AO64">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AP64">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ64">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR64">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT64">
-        <v>3.23</v>
+        <v>3.2</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14549,10 +14549,10 @@
         <v>9</v>
       </c>
       <c r="AY64">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ64">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="BA64">
         <v>6</v>
@@ -14725,22 +14725,22 @@
         <v>1</v>
       </c>
       <c r="AO65">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AP65">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ65">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR65">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AS65">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="AT65">
-        <v>3.31</v>
+        <v>3.14</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -14758,7 +14758,7 @@
         <v>4</v>
       </c>
       <c r="AZ65">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="BA65">
         <v>2</v>
@@ -14928,25 +14928,25 @@
         <v>1.55</v>
       </c>
       <c r="AN66">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="AO66">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ66">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR66">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS66">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AT66">
-        <v>2.77</v>
+        <v>2.59</v>
       </c>
       <c r="AU66">
         <v>9</v>
@@ -14961,10 +14961,10 @@
         <v>8</v>
       </c>
       <c r="AY66">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ66">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA66">
         <v>9</v>
@@ -15134,25 +15134,25 @@
         <v>1.64</v>
       </c>
       <c r="AN67">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AO67">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AP67">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ67">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR67">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AS67">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="AT67">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -15167,10 +15167,10 @@
         <v>7</v>
       </c>
       <c r="AY67">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ67">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA67">
         <v>5</v>
@@ -15340,25 +15340,25 @@
         <v>1.42</v>
       </c>
       <c r="AN68">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR68">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="AS68">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="AT68">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="AU68">
         <v>4</v>
@@ -15373,10 +15373,10 @@
         <v>3</v>
       </c>
       <c r="AY68">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ68">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA68">
         <v>6</v>
@@ -15546,25 +15546,25 @@
         <v>1.52</v>
       </c>
       <c r="AN69">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO69">
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ69">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR69">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AS69">
-        <v>1.36</v>
+        <v>1.08</v>
       </c>
       <c r="AT69">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="AU69">
         <v>5</v>
@@ -15579,10 +15579,10 @@
         <v>2</v>
       </c>
       <c r="AY69">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ69">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA69">
         <v>3</v>
@@ -15752,25 +15752,25 @@
         <v>1.57</v>
       </c>
       <c r="AN70">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AO70">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ70">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR70">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AS70">
-        <v>1.15</v>
+        <v>0.97</v>
       </c>
       <c r="AT70">
-        <v>2.35</v>
+        <v>2.16</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15785,7 +15785,7 @@
         <v>6</v>
       </c>
       <c r="AY70">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ70">
         <v>6</v>
@@ -15958,25 +15958,25 @@
         <v>1.45</v>
       </c>
       <c r="AN71">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AO71">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR71">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="AS71">
         <v>1.19</v>
       </c>
       <c r="AT71">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15991,10 +15991,10 @@
         <v>1</v>
       </c>
       <c r="AY71">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ71">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA71">
         <v>3</v>
@@ -16164,25 +16164,25 @@
         <v>1.47</v>
       </c>
       <c r="AN72">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO72">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ72">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR72">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT72">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="AU72">
         <v>2</v>
@@ -16197,10 +16197,10 @@
         <v>5</v>
       </c>
       <c r="AY72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ72">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA72">
         <v>4</v>
@@ -16373,22 +16373,22 @@
         <v>1</v>
       </c>
       <c r="AO73">
-        <v>1.33</v>
+        <v>0.4</v>
       </c>
       <c r="AP73">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ73">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR73">
-        <v>1.34</v>
+        <v>1.61</v>
       </c>
       <c r="AS73">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AT73">
-        <v>2.88</v>
+        <v>3.12</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16406,7 +16406,7 @@
         <v>8</v>
       </c>
       <c r="AZ73">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA73">
         <v>5</v>
@@ -16576,25 +16576,25 @@
         <v>1.01</v>
       </c>
       <c r="AN74">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO74">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="AP74">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR74">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="AS74">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="AT74">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16612,7 +16612,7 @@
         <v>5</v>
       </c>
       <c r="AZ74">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA74">
         <v>3</v>
@@ -16782,25 +16782,25 @@
         <v>4.33</v>
       </c>
       <c r="AN75">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AO75">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ75">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR75">
-        <v>2.17</v>
+        <v>2.39</v>
       </c>
       <c r="AS75">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="AT75">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="AU75">
         <v>11</v>
@@ -16815,7 +16815,7 @@
         <v>2</v>
       </c>
       <c r="AY75">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ75">
         <v>4</v>
@@ -16988,25 +16988,25 @@
         <v>5.5</v>
       </c>
       <c r="AN76">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AO76">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ76">
+        <v>1.16</v>
+      </c>
+      <c r="AR76">
+        <v>2.44</v>
+      </c>
+      <c r="AS76">
         <v>1.13</v>
       </c>
-      <c r="AR76">
-        <v>2.21</v>
-      </c>
-      <c r="AS76">
-        <v>1.24</v>
-      </c>
       <c r="AT76">
-        <v>3.45</v>
+        <v>3.57</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -17021,10 +17021,10 @@
         <v>4</v>
       </c>
       <c r="AY76">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ76">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA76">
         <v>13</v>
@@ -17194,25 +17194,25 @@
         <v>1.53</v>
       </c>
       <c r="AN77">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="AO77">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="AP77">
+        <v>1.26</v>
+      </c>
+      <c r="AQ77">
         <v>1.11</v>
-      </c>
-      <c r="AQ77">
-        <v>1.21</v>
       </c>
       <c r="AR77">
         <v>1.23</v>
       </c>
       <c r="AS77">
-        <v>1.32</v>
+        <v>1.07</v>
       </c>
       <c r="AT77">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AU77">
         <v>8</v>
@@ -17227,10 +17227,10 @@
         <v>3</v>
       </c>
       <c r="AY77">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ77">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA77">
         <v>7</v>
@@ -17400,25 +17400,25 @@
         <v>2.05</v>
       </c>
       <c r="AN78">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AO78">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AP78">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ78">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR78">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AS78">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT78">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="AU78">
         <v>2</v>
@@ -17433,10 +17433,10 @@
         <v>5</v>
       </c>
       <c r="AY78">
+        <v>17</v>
+      </c>
+      <c r="AZ78">
         <v>12</v>
-      </c>
-      <c r="AZ78">
-        <v>7</v>
       </c>
       <c r="BA78">
         <v>7</v>
@@ -17606,25 +17606,25 @@
         <v>1.37</v>
       </c>
       <c r="AN79">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AO79">
-        <v>1.23</v>
+        <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ79">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR79">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AS79">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT79">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17639,10 +17639,10 @@
         <v>5</v>
       </c>
       <c r="AY79">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ79">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA79">
         <v>9</v>
@@ -17812,25 +17812,25 @@
         <v>2.5</v>
       </c>
       <c r="AN80">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AO80">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
       <c r="AP80">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ80">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR80">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AS80">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AT80">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17845,10 +17845,10 @@
         <v>1</v>
       </c>
       <c r="AY80">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ80">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BA80">
         <v>6</v>
@@ -18018,25 +18018,25 @@
         <v>1.15</v>
       </c>
       <c r="AN81">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AO81">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ81">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR81">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
       <c r="AS81">
         <v>2.04</v>
       </c>
       <c r="AT81">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="AU81">
         <v>5</v>
@@ -18054,7 +18054,7 @@
         <v>6</v>
       </c>
       <c r="AZ81">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BA81">
         <v>0</v>
@@ -18224,25 +18224,25 @@
         <v>1.47</v>
       </c>
       <c r="AN82">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="AO82">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ82">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR82">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AS82">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT82">
-        <v>2.31</v>
+        <v>2.19</v>
       </c>
       <c r="AU82">
         <v>3</v>
@@ -18257,10 +18257,10 @@
         <v>4</v>
       </c>
       <c r="AY82">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ82">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA82">
         <v>7</v>
@@ -18430,25 +18430,25 @@
         <v>1.66</v>
       </c>
       <c r="AN83">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AO83">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ83">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR83">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AS83">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AT83">
-        <v>2.47</v>
+        <v>2.56</v>
       </c>
       <c r="AU83">
         <v>5</v>
@@ -18463,10 +18463,10 @@
         <v>6</v>
       </c>
       <c r="AY83">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ83">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA83">
         <v>4</v>
@@ -18636,22 +18636,22 @@
         <v>1.52</v>
       </c>
       <c r="AN84">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="AO84">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ84">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR84">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AS84">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT84">
         <v>2.96</v>
@@ -18669,10 +18669,10 @@
         <v>5</v>
       </c>
       <c r="AY84">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ84">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA84">
         <v>7</v>
@@ -18842,25 +18842,25 @@
         <v>1.04</v>
       </c>
       <c r="AN85">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="AO85">
-        <v>2.57</v>
+        <v>2.71</v>
       </c>
       <c r="AP85">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR85">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="AS85">
-        <v>2.21</v>
+        <v>2.01</v>
       </c>
       <c r="AT85">
-        <v>3.22</v>
+        <v>3.01</v>
       </c>
       <c r="AU85">
         <v>4</v>
@@ -18878,7 +18878,7 @@
         <v>6</v>
       </c>
       <c r="AZ85">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BA85">
         <v>2</v>
@@ -19051,22 +19051,22 @@
         <v>1.29</v>
       </c>
       <c r="AO86">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="AP86">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ86">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR86">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="AS86">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="AT86">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="AU86">
         <v>4</v>
@@ -19081,10 +19081,10 @@
         <v>12</v>
       </c>
       <c r="AY86">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ86">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BA86">
         <v>6</v>
@@ -19254,25 +19254,25 @@
         <v>4</v>
       </c>
       <c r="AN87">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AO87">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AP87">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ87">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR87">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="AS87">
-        <v>1.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT87">
-        <v>3.21</v>
+        <v>2.98</v>
       </c>
       <c r="AU87">
         <v>7</v>
@@ -19287,7 +19287,7 @@
         <v>1</v>
       </c>
       <c r="AY87">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ87">
         <v>5</v>
@@ -19460,25 +19460,25 @@
         <v>1.55</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO88">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ88">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR88">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AS88">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AT88">
-        <v>2.37</v>
+        <v>2.29</v>
       </c>
       <c r="AU88">
         <v>7</v>
@@ -19493,10 +19493,10 @@
         <v>8</v>
       </c>
       <c r="AY88">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ88">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA88">
         <v>6</v>
@@ -19666,25 +19666,25 @@
         <v>4.5</v>
       </c>
       <c r="AN89">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="AO89">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ89">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR89">
-        <v>2.22</v>
+        <v>2.41</v>
       </c>
       <c r="AS89">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="AT89">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="AU89">
         <v>13</v>
@@ -19699,10 +19699,10 @@
         <v>2</v>
       </c>
       <c r="AY89">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AZ89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA89">
         <v>11</v>
@@ -19872,25 +19872,25 @@
         <v>1.47</v>
       </c>
       <c r="AN90">
-        <v>0.79</v>
+        <v>1.13</v>
       </c>
       <c r="AO90">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AP90">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR90">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="AS90">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AT90">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AU90">
         <v>6</v>
@@ -19905,10 +19905,10 @@
         <v>5</v>
       </c>
       <c r="AY90">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ90">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA90">
         <v>0</v>
@@ -20081,22 +20081,22 @@
         <v>1</v>
       </c>
       <c r="AO91">
-        <v>1.13</v>
+        <v>0.43</v>
       </c>
       <c r="AP91">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ91">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR91">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AS91">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT91">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20111,10 +20111,10 @@
         <v>4</v>
       </c>
       <c r="AY91">
+        <v>19</v>
+      </c>
+      <c r="AZ91">
         <v>9</v>
-      </c>
-      <c r="AZ91">
-        <v>7</v>
       </c>
       <c r="BA91">
         <v>4</v>
@@ -20284,25 +20284,25 @@
         <v>1.12</v>
       </c>
       <c r="AN92">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AO92">
-        <v>2.21</v>
+        <v>2.29</v>
       </c>
       <c r="AP92">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ92">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR92">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AS92">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="AT92">
-        <v>3.56</v>
+        <v>3.7</v>
       </c>
       <c r="AU92">
         <v>6</v>
@@ -20317,10 +20317,10 @@
         <v>10</v>
       </c>
       <c r="AY92">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ92">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BA92">
         <v>6</v>
@@ -20490,25 +20490,25 @@
         <v>1.68</v>
       </c>
       <c r="AN93">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AO93">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AP93">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ93">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR93">
+        <v>1.3</v>
+      </c>
+      <c r="AS93">
         <v>1.12</v>
       </c>
-      <c r="AS93">
-        <v>1.19</v>
-      </c>
       <c r="AT93">
-        <v>2.31</v>
+        <v>2.42</v>
       </c>
       <c r="AU93">
         <v>7</v>
@@ -20523,10 +20523,10 @@
         <v>4</v>
       </c>
       <c r="AY93">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA93">
         <v>10</v>
@@ -20696,25 +20696,25 @@
         <v>1.44</v>
       </c>
       <c r="AN94">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="AO94">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="AP94">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ94">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR94">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AS94">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>2.6</v>
+        <v>2.53</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -20729,7 +20729,7 @@
         <v>2</v>
       </c>
       <c r="AY94">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ94">
         <v>6</v>
@@ -20902,25 +20902,25 @@
         <v>1.37</v>
       </c>
       <c r="AN95">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AO95">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AP95">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR95">
-        <v>0.99</v>
+        <v>1.09</v>
       </c>
       <c r="AS95">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="AT95">
-        <v>2.24</v>
+        <v>2.13</v>
       </c>
       <c r="AU95">
         <v>4</v>
@@ -20935,7 +20935,7 @@
         <v>2</v>
       </c>
       <c r="AY95">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ95">
         <v>6</v>
@@ -21108,25 +21108,25 @@
         <v>1.66</v>
       </c>
       <c r="AN96">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO96">
-        <v>0.93</v>
+        <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ96">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR96">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AS96">
         <v>1.03</v>
       </c>
       <c r="AT96">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21141,10 +21141,10 @@
         <v>8</v>
       </c>
       <c r="AY96">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ96">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA96">
         <v>3</v>
@@ -21314,25 +21314,25 @@
         <v>4.8</v>
       </c>
       <c r="AN97">
-        <v>2.27</v>
+        <v>2.14</v>
       </c>
       <c r="AO97">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP97">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ97">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR97">
         <v>2.09</v>
       </c>
       <c r="AS97">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AT97">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="AU97">
         <v>10</v>
@@ -21347,10 +21347,10 @@
         <v>5</v>
       </c>
       <c r="AY97">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ97">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA97">
         <v>5</v>
@@ -21520,25 +21520,25 @@
         <v>1.1</v>
       </c>
       <c r="AN98">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO98">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AP98">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ98">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR98">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AS98">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="AT98">
-        <v>3.68</v>
+        <v>3.61</v>
       </c>
       <c r="AU98">
         <v>7</v>
@@ -21553,10 +21553,10 @@
         <v>4</v>
       </c>
       <c r="AY98">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ98">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA98">
         <v>5</v>
@@ -21726,25 +21726,25 @@
         <v>1.65</v>
       </c>
       <c r="AN99">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="AO99">
-        <v>1.2</v>
+        <v>0.86</v>
       </c>
       <c r="AP99">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ99">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR99">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AS99">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT99">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="AU99">
         <v>4</v>
@@ -21759,10 +21759,10 @@
         <v>6</v>
       </c>
       <c r="AY99">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ99">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA99">
         <v>2</v>
@@ -21932,25 +21932,25 @@
         <v>1.72</v>
       </c>
       <c r="AN100">
+        <v>2.13</v>
+      </c>
+      <c r="AO100">
+        <v>0.75</v>
+      </c>
+      <c r="AP100">
         <v>1.47</v>
       </c>
-      <c r="AO100">
-        <v>0.88</v>
-      </c>
-      <c r="AP100">
-        <v>1.24</v>
-      </c>
       <c r="AQ100">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR100">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AS100">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AT100">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -21965,10 +21965,10 @@
         <v>2</v>
       </c>
       <c r="AY100">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ100">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA100">
         <v>6</v>
@@ -22138,25 +22138,25 @@
         <v>1.32</v>
       </c>
       <c r="AN101">
-        <v>0.9399999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="AO101">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AP101">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR101">
         <v>1.04</v>
       </c>
       <c r="AS101">
-        <v>1.23</v>
+        <v>1.02</v>
       </c>
       <c r="AT101">
-        <v>2.27</v>
+        <v>2.06</v>
       </c>
       <c r="AU101">
         <v>8</v>
@@ -22171,10 +22171,10 @@
         <v>2</v>
       </c>
       <c r="AY101">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA101">
         <v>5</v>
@@ -22344,25 +22344,25 @@
         <v>1.35</v>
       </c>
       <c r="AN102">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AO102">
-        <v>1.35</v>
+        <v>0.75</v>
       </c>
       <c r="AP102">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ102">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR102">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AS102">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT102">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="AU102">
         <v>2</v>
@@ -22377,10 +22377,10 @@
         <v>6</v>
       </c>
       <c r="AY102">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ102">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA102">
         <v>0</v>
@@ -22550,25 +22550,25 @@
         <v>3.8</v>
       </c>
       <c r="AN103">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AO103">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AP103">
+        <v>2.53</v>
+      </c>
+      <c r="AQ103">
+        <v>1.68</v>
+      </c>
+      <c r="AR103">
         <v>2.45</v>
       </c>
-      <c r="AQ103">
-        <v>1.79</v>
-      </c>
-      <c r="AR103">
-        <v>2.22</v>
-      </c>
       <c r="AS103">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AT103">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
       <c r="AU103">
         <v>6</v>
@@ -22583,10 +22583,10 @@
         <v>2</v>
       </c>
       <c r="AY103">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ103">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA103">
         <v>18</v>
@@ -22756,22 +22756,22 @@
         <v>2.2</v>
       </c>
       <c r="AN104">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AO104">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="AP104">
+        <v>1.47</v>
+      </c>
+      <c r="AQ104">
+        <v>0.32</v>
+      </c>
+      <c r="AR104">
         <v>1.26</v>
       </c>
-      <c r="AQ104">
-        <v>0.66</v>
-      </c>
-      <c r="AR104">
-        <v>1.19</v>
-      </c>
       <c r="AS104">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="AT104">
         <v>2.18</v>
@@ -22789,10 +22789,10 @@
         <v>4</v>
       </c>
       <c r="AY104">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ104">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA104">
         <v>1</v>
@@ -22962,25 +22962,25 @@
         <v>5.8</v>
       </c>
       <c r="AN105">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="AO105">
-        <v>1.06</v>
+        <v>0.43</v>
       </c>
       <c r="AP105">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ105">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR105">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="AS105">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AT105">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="AU105">
         <v>9</v>
@@ -22995,10 +22995,10 @@
         <v>2</v>
       </c>
       <c r="AY105">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AZ105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA105">
         <v>9</v>
@@ -23168,25 +23168,25 @@
         <v>6.5</v>
       </c>
       <c r="AN106">
-        <v>2.33</v>
+        <v>2.22</v>
       </c>
       <c r="AO106">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP106">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ106">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR106">
-        <v>2.23</v>
+        <v>2.43</v>
       </c>
       <c r="AS106">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="AT106">
-        <v>3.24</v>
+        <v>3.4</v>
       </c>
       <c r="AU106">
         <v>8</v>
@@ -23201,7 +23201,7 @@
         <v>0</v>
       </c>
       <c r="AY106">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ106">
         <v>0</v>
@@ -23374,25 +23374,25 @@
         <v>1.78</v>
       </c>
       <c r="AN107">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AO107">
-        <v>1.44</v>
+        <v>0.89</v>
       </c>
       <c r="AP107">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ107">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR107">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="AS107">
-        <v>1.15</v>
+        <v>0.99</v>
       </c>
       <c r="AT107">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="AU107">
         <v>7</v>
@@ -23407,10 +23407,10 @@
         <v>3</v>
       </c>
       <c r="AY107">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ107">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA107">
         <v>8</v>
@@ -23580,25 +23580,25 @@
         <v>2.1</v>
       </c>
       <c r="AN108">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="AO108">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AP108">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ108">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR108">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AS108">
-        <v>1.03</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT108">
-        <v>2.46</v>
+        <v>2.49</v>
       </c>
       <c r="AU108">
         <v>7</v>
@@ -23613,10 +23613,10 @@
         <v>2</v>
       </c>
       <c r="AY108">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA108">
         <v>5</v>
@@ -23786,25 +23786,25 @@
         <v>1.12</v>
       </c>
       <c r="AN109">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AO109">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AP109">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ109">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR109">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AS109">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AT109">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="AU109">
         <v>0</v>
@@ -23819,10 +23819,10 @@
         <v>4</v>
       </c>
       <c r="AY109">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ109">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA109">
         <v>3</v>
@@ -23992,25 +23992,25 @@
         <v>1.07</v>
       </c>
       <c r="AN110">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AO110">
+        <v>2.44</v>
+      </c>
+      <c r="AP110">
+        <v>1.26</v>
+      </c>
+      <c r="AQ110">
         <v>2.37</v>
       </c>
-      <c r="AP110">
-        <v>1.11</v>
-      </c>
-      <c r="AQ110">
-        <v>2.45</v>
-      </c>
       <c r="AR110">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AS110">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="AT110">
-        <v>3.51</v>
+        <v>3.31</v>
       </c>
       <c r="AU110">
         <v>2</v>
@@ -24025,10 +24025,10 @@
         <v>16</v>
       </c>
       <c r="AY110">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ110">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="BA110">
         <v>1</v>
@@ -24198,25 +24198,25 @@
         <v>1.51</v>
       </c>
       <c r="AN111">
-        <v>0.61</v>
+        <v>0.75</v>
       </c>
       <c r="AO111">
-        <v>0.95</v>
+        <v>0.33</v>
       </c>
       <c r="AP111">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ111">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR111">
-        <v>0.97</v>
+        <v>1.06</v>
       </c>
       <c r="AS111">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="AT111">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="AU111">
         <v>4</v>
@@ -24231,10 +24231,10 @@
         <v>1</v>
       </c>
       <c r="AY111">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA111">
         <v>6</v>
@@ -24404,25 +24404,25 @@
         <v>1.46</v>
       </c>
       <c r="AN112">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="AO112">
-        <v>1.42</v>
+        <v>0.78</v>
       </c>
       <c r="AP112">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ112">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR112">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="AS112">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AT112">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24437,10 +24437,10 @@
         <v>5</v>
       </c>
       <c r="AY112">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ112">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA112">
         <v>4</v>
@@ -24610,25 +24610,25 @@
         <v>1.57</v>
       </c>
       <c r="AN113">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO113">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AP113">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ113">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR113">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AS113">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT113">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="AU113">
         <v>5</v>
@@ -24643,10 +24643,10 @@
         <v>4</v>
       </c>
       <c r="AY113">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ113">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA113">
         <v>6</v>
@@ -24816,25 +24816,25 @@
         <v>1.72</v>
       </c>
       <c r="AN114">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AO114">
-        <v>2.39</v>
+        <v>2.44</v>
       </c>
       <c r="AP114">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ114">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR114">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="AS114">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="AT114">
-        <v>4.38</v>
+        <v>4.46</v>
       </c>
       <c r="AU114">
         <v>7</v>
@@ -24849,10 +24849,10 @@
         <v>5</v>
       </c>
       <c r="AY114">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ114">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA114">
         <v>4</v>
@@ -25022,25 +25022,25 @@
         <v>2.15</v>
       </c>
       <c r="AN115">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="AO115">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP115">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ115">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR115">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
       <c r="AS115">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AT115">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="AU115">
         <v>8</v>
@@ -25055,10 +25055,10 @@
         <v>5</v>
       </c>
       <c r="AY115">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ115">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA115">
         <v>9</v>
@@ -25228,25 +25228,25 @@
         <v>1.72</v>
       </c>
       <c r="AN116">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AO116">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ116">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR116">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AS116">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AT116">
-        <v>2.37</v>
+        <v>2.29</v>
       </c>
       <c r="AU116">
         <v>4</v>
@@ -25261,10 +25261,10 @@
         <v>1</v>
       </c>
       <c r="AY116">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AZ116">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA116">
         <v>13</v>
@@ -25434,25 +25434,25 @@
         <v>1.95</v>
       </c>
       <c r="AN117">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="AO117">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AP117">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ117">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR117">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AS117">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="AT117">
-        <v>2.22</v>
+        <v>2.21</v>
       </c>
       <c r="AU117">
         <v>5</v>
@@ -25467,10 +25467,10 @@
         <v>6</v>
       </c>
       <c r="AY117">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ117">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA117">
         <v>4</v>
@@ -25640,25 +25640,25 @@
         <v>1.83</v>
       </c>
       <c r="AN118">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO118">
+        <v>1.13</v>
+      </c>
+      <c r="AP118">
+        <v>1.84</v>
+      </c>
+      <c r="AQ118">
+        <v>0.95</v>
+      </c>
+      <c r="AR118">
+        <v>1.57</v>
+      </c>
+      <c r="AS118">
         <v>1.24</v>
       </c>
-      <c r="AP118">
-        <v>1.47</v>
-      </c>
-      <c r="AQ118">
-        <v>1.11</v>
-      </c>
-      <c r="AR118">
-        <v>1.43</v>
-      </c>
-      <c r="AS118">
-        <v>1.23</v>
-      </c>
       <c r="AT118">
-        <v>2.66</v>
+        <v>2.81</v>
       </c>
       <c r="AU118">
         <v>5</v>
@@ -25673,7 +25673,7 @@
         <v>6</v>
       </c>
       <c r="AY118">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ118">
         <v>9</v>
@@ -25846,25 +25846,25 @@
         <v>1.3</v>
       </c>
       <c r="AN119">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="AO119">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AP119">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR119">
-        <v>0.99</v>
+        <v>1.1</v>
       </c>
       <c r="AS119">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="AT119">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="AU119">
         <v>4</v>
@@ -25879,7 +25879,7 @@
         <v>5</v>
       </c>
       <c r="AY119">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ119">
         <v>11</v>
@@ -26052,22 +26052,22 @@
         <v>3.6</v>
       </c>
       <c r="AN120">
-        <v>2.26</v>
+        <v>2.33</v>
       </c>
       <c r="AO120">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="AP120">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ120">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR120">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="AS120">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AT120">
         <v>3.47</v>
@@ -26085,10 +26085,10 @@
         <v>3</v>
       </c>
       <c r="AY120">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ120">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA120">
         <v>7</v>
@@ -26258,25 +26258,25 @@
         <v>1.38</v>
       </c>
       <c r="AN121">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AO121">
+        <v>1</v>
+      </c>
+      <c r="AP121">
+        <v>1.37</v>
+      </c>
+      <c r="AQ121">
+        <v>1.05</v>
+      </c>
+      <c r="AR121">
+        <v>1.24</v>
+      </c>
+      <c r="AS121">
         <v>1.12</v>
       </c>
-      <c r="AP121">
-        <v>0.92</v>
-      </c>
-      <c r="AQ121">
-        <v>1.26</v>
-      </c>
-      <c r="AR121">
-        <v>1.19</v>
-      </c>
-      <c r="AS121">
-        <v>1.22</v>
-      </c>
       <c r="AT121">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26291,10 +26291,10 @@
         <v>2</v>
       </c>
       <c r="AY121">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ121">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA121">
         <v>4</v>
@@ -26464,25 +26464,25 @@
         <v>1.9</v>
       </c>
       <c r="AN122">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AO122">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="AP122">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ122">
+        <v>1.16</v>
+      </c>
+      <c r="AR122">
+        <v>1.45</v>
+      </c>
+      <c r="AS122">
         <v>1.13</v>
       </c>
-      <c r="AR122">
-        <v>1.2</v>
-      </c>
-      <c r="AS122">
-        <v>1.23</v>
-      </c>
       <c r="AT122">
-        <v>2.43</v>
+        <v>2.58</v>
       </c>
       <c r="AU122">
         <v>4</v>
@@ -26497,10 +26497,10 @@
         <v>4</v>
       </c>
       <c r="AY122">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AZ122">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA122">
         <v>7</v>
@@ -26670,25 +26670,25 @@
         <v>1.06</v>
       </c>
       <c r="AN123">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="AO123">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AP123">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ123">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR123">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AS123">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AT123">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="AU123">
         <v>0</v>
@@ -26703,10 +26703,10 @@
         <v>4</v>
       </c>
       <c r="AY123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ123">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="BA123">
         <v>1</v>
@@ -26876,25 +26876,25 @@
         <v>2.05</v>
       </c>
       <c r="AN124">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AO124">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AP124">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ124">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR124">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="AS124">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AT124">
-        <v>2.61</v>
+        <v>2.81</v>
       </c>
       <c r="AU124">
         <v>7</v>
@@ -26909,10 +26909,10 @@
         <v>2</v>
       </c>
       <c r="AY124">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ124">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA124">
         <v>7</v>
@@ -27082,25 +27082,25 @@
         <v>1.27</v>
       </c>
       <c r="AN125">
-        <v>0.95</v>
+        <v>1.5</v>
       </c>
       <c r="AO125">
         <v>1.22</v>
       </c>
       <c r="AP125">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ125">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR125">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="AS125">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AT125">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -27115,10 +27115,10 @@
         <v>4</v>
       </c>
       <c r="AY125">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ125">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA125">
         <v>1</v>
@@ -27288,25 +27288,25 @@
         <v>1.09</v>
       </c>
       <c r="AN126">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AO126">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AP126">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ126">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR126">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="AS126">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="AT126">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="AU126">
         <v>4</v>
@@ -27321,10 +27321,10 @@
         <v>8</v>
       </c>
       <c r="AY126">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ126">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BA126">
         <v>4</v>
@@ -27494,25 +27494,25 @@
         <v>1.09</v>
       </c>
       <c r="AN127">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
       <c r="AO127">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AP127">
+        <v>1.47</v>
+      </c>
+      <c r="AQ127">
+        <v>2.05</v>
+      </c>
+      <c r="AR127">
         <v>1.24</v>
       </c>
-      <c r="AQ127">
-        <v>2.24</v>
-      </c>
-      <c r="AR127">
-        <v>1.12</v>
-      </c>
       <c r="AS127">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT127">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="AU127">
         <v>3</v>
@@ -27527,10 +27527,10 @@
         <v>5</v>
       </c>
       <c r="AY127">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ127">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA127">
         <v>4</v>
@@ -27700,25 +27700,25 @@
         <v>1.68</v>
       </c>
       <c r="AN128">
-        <v>1.41</v>
+        <v>1.91</v>
       </c>
       <c r="AO128">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AP128">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ128">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR128">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AS128">
-        <v>1.19</v>
+        <v>0.98</v>
       </c>
       <c r="AT128">
-        <v>2.59</v>
+        <v>2.51</v>
       </c>
       <c r="AU128">
         <v>2</v>
@@ -27733,10 +27733,10 @@
         <v>6</v>
       </c>
       <c r="AY128">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ128">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA128">
         <v>7</v>
@@ -27906,25 +27906,25 @@
         <v>6.5</v>
       </c>
       <c r="AN129">
-        <v>2.45</v>
+        <v>2.36</v>
       </c>
       <c r="AO129">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="AP129">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ129">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR129">
-        <v>2.27</v>
+        <v>2.36</v>
       </c>
       <c r="AS129">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AT129">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="AU129">
         <v>8</v>
@@ -27939,10 +27939,10 @@
         <v>5</v>
       </c>
       <c r="AY129">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ129">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA129">
         <v>7</v>
@@ -28112,25 +28112,25 @@
         <v>1.65</v>
       </c>
       <c r="AN130">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AO130">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AP130">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ130">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR130">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="AS130">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AT130">
-        <v>2.64</v>
+        <v>2.77</v>
       </c>
       <c r="AU130">
         <v>6</v>
@@ -28145,10 +28145,10 @@
         <v>7</v>
       </c>
       <c r="AY130">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ130">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA130">
         <v>7</v>
@@ -28318,25 +28318,25 @@
         <v>1.42</v>
       </c>
       <c r="AN131">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="AO131">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AP131">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ131">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR131">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AS131">
         <v>1.21</v>
       </c>
       <c r="AT131">
-        <v>2.21</v>
+        <v>2.33</v>
       </c>
       <c r="AU131">
         <v>4</v>
@@ -28351,10 +28351,10 @@
         <v>0</v>
       </c>
       <c r="AY131">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ131">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA131">
         <v>5</v>
@@ -28524,25 +28524,25 @@
         <v>1.57</v>
       </c>
       <c r="AN132">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="AO132">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AP132">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ132">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR132">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="AS132">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AT132">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="AU132">
         <v>5</v>
@@ -28560,7 +28560,7 @@
         <v>8</v>
       </c>
       <c r="AZ132">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA132">
         <v>0</v>
@@ -28730,25 +28730,25 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AO133">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AP133">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ133">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR133">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AS133">
         <v>1.2</v>
       </c>
       <c r="AT133">
-        <v>2.44</v>
+        <v>2.51</v>
       </c>
       <c r="AU133">
         <v>5</v>
@@ -28763,10 +28763,10 @@
         <v>2</v>
       </c>
       <c r="AY133">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ133">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA133">
         <v>0</v>
@@ -28936,25 +28936,25 @@
         <v>1.62</v>
       </c>
       <c r="AN134">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="AO134">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AP134">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ134">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR134">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="AS134">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AT134">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -28969,10 +28969,10 @@
         <v>2</v>
       </c>
       <c r="AY134">
+        <v>14</v>
+      </c>
+      <c r="AZ134">
         <v>11</v>
-      </c>
-      <c r="AZ134">
-        <v>7</v>
       </c>
       <c r="BA134">
         <v>5</v>
@@ -29142,25 +29142,25 @@
         <v>1.09</v>
       </c>
       <c r="AN135">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AO135">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="AP135">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ135">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR135">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AS135">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AT135">
-        <v>3.49</v>
+        <v>3.47</v>
       </c>
       <c r="AU135">
         <v>4</v>
@@ -29175,10 +29175,10 @@
         <v>9</v>
       </c>
       <c r="AY135">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ135">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="BA135">
         <v>1</v>
@@ -29348,25 +29348,25 @@
         <v>1.58</v>
       </c>
       <c r="AN136">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AO136">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AP136">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ136">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR136">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="AS136">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="AT136">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AU136">
         <v>6</v>
@@ -29381,10 +29381,10 @@
         <v>4</v>
       </c>
       <c r="AY136">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ136">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA136">
         <v>8</v>
@@ -29554,22 +29554,22 @@
         <v>6.5</v>
       </c>
       <c r="AN137">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AO137">
-        <v>0.57</v>
+        <v>0.45</v>
       </c>
       <c r="AP137">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ137">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR137">
-        <v>2.01</v>
+        <v>2.16</v>
       </c>
       <c r="AS137">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AT137">
         <v>3.06</v>
@@ -29587,7 +29587,7 @@
         <v>0</v>
       </c>
       <c r="AY137">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AZ137">
         <v>0</v>
@@ -29760,25 +29760,25 @@
         <v>1.38</v>
       </c>
       <c r="AN138">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="AO138">
-        <v>1.39</v>
+        <v>0.91</v>
       </c>
       <c r="AP138">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ138">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR138">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AS138">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AT138">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -29793,10 +29793,10 @@
         <v>1</v>
       </c>
       <c r="AY138">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA138">
         <v>6</v>
@@ -29969,22 +29969,22 @@
         <v>1.18</v>
       </c>
       <c r="AO139">
-        <v>1.26</v>
+        <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ139">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR139">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AS139">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="AT139">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="AU139">
         <v>2</v>
@@ -29999,10 +29999,10 @@
         <v>4</v>
       </c>
       <c r="AY139">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ139">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA139">
         <v>6</v>
@@ -30172,25 +30172,25 @@
         <v>1.39</v>
       </c>
       <c r="AN140">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AO140">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AP140">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ140">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR140">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AS140">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="AT140">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AU140">
         <v>9</v>
@@ -30205,10 +30205,10 @@
         <v>4</v>
       </c>
       <c r="AY140">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ140">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BA140">
         <v>8</v>
@@ -30378,25 +30378,25 @@
         <v>1.7</v>
       </c>
       <c r="AN141">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="AO141">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AP141">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ141">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR141">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AS141">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT141">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AU141">
         <v>10</v>
@@ -30411,10 +30411,10 @@
         <v>5</v>
       </c>
       <c r="AY141">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ141">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA141">
         <v>3</v>
@@ -30584,25 +30584,25 @@
         <v>3.6</v>
       </c>
       <c r="AN142">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="AO142">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AP142">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ142">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR142">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="AS142">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AT142">
-        <v>3.26</v>
+        <v>3.39</v>
       </c>
       <c r="AU142">
         <v>8</v>
@@ -30617,10 +30617,10 @@
         <v>3</v>
       </c>
       <c r="AY142">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AZ142">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA142">
         <v>13</v>
@@ -30790,25 +30790,25 @@
         <v>1.28</v>
       </c>
       <c r="AN143">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="AO143">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AP143">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR143">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AS143">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT143">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="AU143">
         <v>3</v>
@@ -30823,10 +30823,10 @@
         <v>3</v>
       </c>
       <c r="AY143">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ143">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA143">
         <v>2</v>
@@ -30996,25 +30996,25 @@
         <v>2.25</v>
       </c>
       <c r="AN144">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="AO144">
-        <v>0.54</v>
+        <v>0.42</v>
       </c>
       <c r="AP144">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ144">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR144">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AS144">
-        <v>1.01</v>
+        <v>0.84</v>
       </c>
       <c r="AT144">
-        <v>2.36</v>
+        <v>2.33</v>
       </c>
       <c r="AU144">
         <v>7</v>
@@ -31029,10 +31029,10 @@
         <v>5</v>
       </c>
       <c r="AY144">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ144">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA144">
         <v>9</v>
@@ -31202,25 +31202,25 @@
         <v>1.07</v>
       </c>
       <c r="AN145">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AO145">
         <v>2.42</v>
       </c>
       <c r="AP145">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ145">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR145">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="AS145">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="AT145">
-        <v>3.43</v>
+        <v>3.49</v>
       </c>
       <c r="AU145">
         <v>5</v>
@@ -31235,10 +31235,10 @@
         <v>4</v>
       </c>
       <c r="AY145">
+        <v>13</v>
+      </c>
+      <c r="AZ145">
         <v>9</v>
-      </c>
-      <c r="AZ145">
-        <v>8</v>
       </c>
       <c r="BA145">
         <v>4</v>
@@ -31408,25 +31408,25 @@
         <v>1.63</v>
       </c>
       <c r="AN146">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO146">
+        <v>1.17</v>
+      </c>
+      <c r="AP146">
+        <v>1.47</v>
+      </c>
+      <c r="AQ146">
+        <v>0.95</v>
+      </c>
+      <c r="AR146">
+        <v>1.22</v>
+      </c>
+      <c r="AS146">
         <v>1.18</v>
       </c>
-      <c r="AP146">
-        <v>1.24</v>
-      </c>
-      <c r="AQ146">
-        <v>1.11</v>
-      </c>
-      <c r="AR146">
-        <v>1.13</v>
-      </c>
-      <c r="AS146">
-        <v>1.22</v>
-      </c>
       <c r="AT146">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AU146">
         <v>7</v>
@@ -31441,10 +31441,10 @@
         <v>3</v>
       </c>
       <c r="AY146">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ146">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA146">
         <v>6</v>
@@ -31614,25 +31614,25 @@
         <v>1.6</v>
       </c>
       <c r="AN147">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AO147">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="AP147">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ147">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR147">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AS147">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="AT147">
-        <v>2.24</v>
+        <v>2.19</v>
       </c>
       <c r="AU147">
         <v>7</v>
@@ -31647,10 +31647,10 @@
         <v>6</v>
       </c>
       <c r="AY147">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AZ147">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA147">
         <v>13</v>
@@ -31820,25 +31820,25 @@
         <v>4.8</v>
       </c>
       <c r="AN148">
+        <v>2.5</v>
+      </c>
+      <c r="AO148">
+        <v>0.67</v>
+      </c>
+      <c r="AP148">
         <v>2.42</v>
       </c>
-      <c r="AO148">
-        <v>0.83</v>
-      </c>
-      <c r="AP148">
-        <v>2.24</v>
-      </c>
       <c r="AQ148">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR148">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="AS148">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT148">
-        <v>3.22</v>
+        <v>3.33</v>
       </c>
       <c r="AU148">
         <v>24</v>
@@ -31853,10 +31853,10 @@
         <v>2</v>
       </c>
       <c r="AY148">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AZ148">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA148">
         <v>20</v>
@@ -32026,25 +32026,25 @@
         <v>2</v>
       </c>
       <c r="AN149">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AO149">
-        <v>1.04</v>
+        <v>0.82</v>
       </c>
       <c r="AP149">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR149">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AS149">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AT149">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="AU149">
         <v>8</v>
@@ -32059,10 +32059,10 @@
         <v>0</v>
       </c>
       <c r="AY149">
+        <v>15</v>
+      </c>
+      <c r="AZ149">
         <v>13</v>
-      </c>
-      <c r="AZ149">
-        <v>9</v>
       </c>
       <c r="BA149">
         <v>7</v>
@@ -32232,25 +32232,25 @@
         <v>1.7</v>
       </c>
       <c r="AN150">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AO150">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AP150">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ150">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR150">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AS150">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AT150">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="AU150">
         <v>13</v>
@@ -32265,10 +32265,10 @@
         <v>0</v>
       </c>
       <c r="AY150">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ150">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA150">
         <v>4</v>
@@ -32438,25 +32438,25 @@
         <v>4</v>
       </c>
       <c r="AN151">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="AO151">
-        <v>1.44</v>
+        <v>0.92</v>
       </c>
       <c r="AP151">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ151">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR151">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="AS151">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AT151">
-        <v>3.56</v>
+        <v>3.54</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32471,10 +32471,10 @@
         <v>6</v>
       </c>
       <c r="AY151">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ151">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA151">
         <v>8</v>
@@ -32644,25 +32644,25 @@
         <v>1.91</v>
       </c>
       <c r="AN152">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="AO152">
-        <v>0.79</v>
+        <v>0.62</v>
       </c>
       <c r="AP152">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ152">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR152">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AS152">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AT152">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AU152">
         <v>5</v>
@@ -32677,10 +32677,10 @@
         <v>6</v>
       </c>
       <c r="AY152">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ152">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA152">
         <v>6</v>
@@ -32850,25 +32850,25 @@
         <v>2.1</v>
       </c>
       <c r="AN153">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="AO153">
-        <v>1.04</v>
+        <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ153">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR153">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AS153">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="AT153">
-        <v>2.69</v>
+        <v>2.76</v>
       </c>
       <c r="AU153">
         <v>8</v>
@@ -32883,10 +32883,10 @@
         <v>3</v>
       </c>
       <c r="AY153">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ153">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA153">
         <v>9</v>
@@ -33056,25 +33056,25 @@
         <v>1.3</v>
       </c>
       <c r="AN154">
-        <v>0.52</v>
+        <v>0.67</v>
       </c>
       <c r="AO154">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ154">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR154">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="AS154">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="AT154">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AU154">
         <v>4</v>
@@ -33089,10 +33089,10 @@
         <v>11</v>
       </c>
       <c r="AY154">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ154">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA154">
         <v>4</v>
@@ -33262,25 +33262,25 @@
         <v>1.05</v>
       </c>
       <c r="AN155">
-        <v>0.96</v>
+        <v>1.31</v>
       </c>
       <c r="AO155">
-        <v>2.44</v>
+        <v>2.33</v>
       </c>
       <c r="AP155">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ155">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR155">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AS155">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="AT155">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="AU155">
         <v>0</v>
@@ -33295,10 +33295,10 @@
         <v>4</v>
       </c>
       <c r="AY155">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ155">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA155">
         <v>3</v>
@@ -33468,25 +33468,25 @@
         <v>3.65</v>
       </c>
       <c r="AN156">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="AO156">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="AP156">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ156">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR156">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
       <c r="AS156">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="AT156">
-        <v>3.59</v>
+        <v>3.67</v>
       </c>
       <c r="AU156">
         <v>13</v>
@@ -33501,10 +33501,10 @@
         <v>5</v>
       </c>
       <c r="AY156">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ156">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA156">
         <v>4</v>
@@ -33674,25 +33674,25 @@
         <v>1.95</v>
       </c>
       <c r="AN157">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="AO157">
-        <v>0.92</v>
+        <v>0.58</v>
       </c>
       <c r="AP157">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ157">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR157">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="AS157">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="AT157">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AU157">
         <v>7</v>
@@ -33707,10 +33707,10 @@
         <v>2</v>
       </c>
       <c r="AY157">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ157">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA157">
         <v>5</v>
@@ -33880,25 +33880,25 @@
         <v>1.65</v>
       </c>
       <c r="AN158">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="AO158">
-        <v>0.62</v>
+        <v>0.38</v>
       </c>
       <c r="AP158">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ158">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR158">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AS158">
-        <v>1.02</v>
+        <v>0.87</v>
       </c>
       <c r="AT158">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AU158">
         <v>7</v>
@@ -33916,7 +33916,7 @@
         <v>14</v>
       </c>
       <c r="AZ158">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BA158">
         <v>6</v>
@@ -34086,25 +34086,25 @@
         <v>1.73</v>
       </c>
       <c r="AN159">
-        <v>1.42</v>
+        <v>1.92</v>
       </c>
       <c r="AO159">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AP159">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ159">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR159">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AS159">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AT159">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="AU159">
         <v>10</v>
@@ -34119,10 +34119,10 @@
         <v>2</v>
       </c>
       <c r="AY159">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ159">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BA159">
         <v>5</v>
@@ -34292,25 +34292,25 @@
         <v>1.83</v>
       </c>
       <c r="AN160">
+        <v>1</v>
+      </c>
+      <c r="AO160">
         <v>1.08</v>
       </c>
-      <c r="AO160">
-        <v>1.28</v>
-      </c>
       <c r="AP160">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ160">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR160">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AT160">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="AU160">
         <v>10</v>
@@ -34325,10 +34325,10 @@
         <v>3</v>
       </c>
       <c r="AY160">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ160">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA160">
         <v>10</v>
@@ -34498,22 +34498,22 @@
         <v>1.06</v>
       </c>
       <c r="AN161">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AO161">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="AP161">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ161">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR161">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AS161">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT161">
         <v>3.43</v>
@@ -34531,10 +34531,10 @@
         <v>6</v>
       </c>
       <c r="AY161">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ161">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA161">
         <v>4</v>
@@ -34704,22 +34704,22 @@
         <v>1.4</v>
       </c>
       <c r="AN162">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AO162">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="AP162">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ162">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR162">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AS162">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
       <c r="AT162">
         <v>2.38</v>
@@ -34737,10 +34737,10 @@
         <v>5</v>
       </c>
       <c r="AY162">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ162">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA162">
         <v>3</v>
@@ -34910,25 +34910,25 @@
         <v>2.25</v>
       </c>
       <c r="AN163">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="AO163">
-        <v>0.89</v>
+        <v>0.54</v>
       </c>
       <c r="AP163">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ163">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR163">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AS163">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="AT163">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="AU163">
         <v>7</v>
@@ -34943,10 +34943,10 @@
         <v>3</v>
       </c>
       <c r="AY163">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ163">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA163">
         <v>11</v>
@@ -35116,25 +35116,25 @@
         <v>4.2</v>
       </c>
       <c r="AN164">
-        <v>2.41</v>
+        <v>2.31</v>
       </c>
       <c r="AO164">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="AP164">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ164">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AR164">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="AS164">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AT164">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="AU164">
         <v>11</v>
@@ -35149,10 +35149,10 @@
         <v>4</v>
       </c>
       <c r="AY164">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ164">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA164">
         <v>5</v>
@@ -35322,25 +35322,25 @@
         <v>1.85</v>
       </c>
       <c r="AN165">
+        <v>1.85</v>
+      </c>
+      <c r="AO165">
+        <v>1.17</v>
+      </c>
+      <c r="AP165">
         <v>1.89</v>
       </c>
-      <c r="AO165">
-        <v>1.15</v>
-      </c>
-      <c r="AP165">
-        <v>1.79</v>
-      </c>
       <c r="AQ165">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR165">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="AS165">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
       <c r="AT165">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="AU165">
         <v>3</v>
@@ -35355,10 +35355,10 @@
         <v>6</v>
       </c>
       <c r="AY165">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AZ165">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="BA165">
         <v>4</v>
@@ -35528,25 +35528,25 @@
         <v>1.1</v>
       </c>
       <c r="AN166">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="AO166">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="AP166">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ166">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR166">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AS166">
-        <v>2.13</v>
+        <v>1.85</v>
       </c>
       <c r="AT166">
-        <v>3.54</v>
+        <v>3.4</v>
       </c>
       <c r="AU166">
         <v>4</v>
@@ -35561,10 +35561,10 @@
         <v>7</v>
       </c>
       <c r="AY166">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ166">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA166">
         <v>8</v>
@@ -35734,25 +35734,25 @@
         <v>1.42</v>
       </c>
       <c r="AN167">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AO167">
-        <v>0.96</v>
+        <v>0.77</v>
       </c>
       <c r="AP167">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ167">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR167">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="AS167">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AT167">
-        <v>2.29</v>
+        <v>2.32</v>
       </c>
       <c r="AU167">
         <v>5</v>
@@ -35767,10 +35767,10 @@
         <v>8</v>
       </c>
       <c r="AY167">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ167">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA167">
         <v>1</v>
@@ -35940,25 +35940,25 @@
         <v>1.55</v>
       </c>
       <c r="AN168">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="AO168">
-        <v>1.43</v>
+        <v>0.92</v>
       </c>
       <c r="AP168">
+        <v>1.26</v>
+      </c>
+      <c r="AQ168">
         <v>1.11</v>
       </c>
-      <c r="AQ168">
-        <v>1.47</v>
-      </c>
       <c r="AR168">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AS168">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AT168">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="AU168">
         <v>6</v>
@@ -35973,10 +35973,10 @@
         <v>1</v>
       </c>
       <c r="AY168">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ168">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA168">
         <v>4</v>
@@ -36146,25 +36146,25 @@
         <v>1.52</v>
       </c>
       <c r="AN169">
-        <v>1.39</v>
+        <v>1.71</v>
       </c>
       <c r="AO169">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AP169">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ169">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR169">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AS169">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT169">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AU169">
         <v>6</v>
@@ -36179,10 +36179,10 @@
         <v>4</v>
       </c>
       <c r="AY169">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ169">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA169">
         <v>3</v>
@@ -36352,25 +36352,25 @@
         <v>1.57</v>
       </c>
       <c r="AN170">
-        <v>0.96</v>
+        <v>1.21</v>
       </c>
       <c r="AO170">
-        <v>0.57</v>
+        <v>0.36</v>
       </c>
       <c r="AP170">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ170">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR170">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="AS170">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="AT170">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="AU170">
         <v>4</v>
@@ -36385,10 +36385,10 @@
         <v>2</v>
       </c>
       <c r="AY170">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA170">
         <v>2</v>
@@ -36558,25 +36558,25 @@
         <v>2.25</v>
       </c>
       <c r="AN171">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AO171">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AP171">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ171">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR171">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AS171">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AT171">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="AU171">
         <v>7</v>
@@ -36591,10 +36591,10 @@
         <v>1</v>
       </c>
       <c r="AY171">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ171">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA171">
         <v>8</v>
@@ -36764,25 +36764,25 @@
         <v>5</v>
       </c>
       <c r="AN172">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AO172">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="AP172">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="AQ172">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR172">
-        <v>2.11</v>
+        <v>2.39</v>
       </c>
       <c r="AS172">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AT172">
-        <v>3.37</v>
+        <v>3.58</v>
       </c>
       <c r="AU172">
         <v>12</v>
@@ -36797,10 +36797,10 @@
         <v>5</v>
       </c>
       <c r="AY172">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AZ172">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA172">
         <v>15</v>
@@ -36970,25 +36970,25 @@
         <v>1.14</v>
       </c>
       <c r="AN173">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="AO173">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AP173">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ173">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AR173">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AS173">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AT173">
-        <v>3.64</v>
+        <v>3.7</v>
       </c>
       <c r="AU173">
         <v>7</v>
@@ -37003,10 +37003,10 @@
         <v>5</v>
       </c>
       <c r="AY173">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ173">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA173">
         <v>7</v>
@@ -37176,25 +37176,25 @@
         <v>1.44</v>
       </c>
       <c r="AN174">
-        <v>0.82</v>
+        <v>1.15</v>
       </c>
       <c r="AO174">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AP174">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ174">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR174">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AS174">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AT174">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="AU174">
         <v>4</v>
@@ -37209,10 +37209,10 @@
         <v>4</v>
       </c>
       <c r="AY174">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ174">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA174">
         <v>2</v>
@@ -37382,25 +37382,25 @@
         <v>1.46</v>
       </c>
       <c r="AN175">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="AO175">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="AP175">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ175">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR175">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AS175">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="AT175">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU175">
         <v>7</v>
@@ -37415,10 +37415,10 @@
         <v>3</v>
       </c>
       <c r="AY175">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ175">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA175">
         <v>6</v>
@@ -37588,25 +37588,25 @@
         <v>5.5</v>
       </c>
       <c r="AN176">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="AO176">
+        <v>0.71</v>
+      </c>
+      <c r="AP176">
+        <v>2.53</v>
+      </c>
+      <c r="AQ176">
+        <v>0.84</v>
+      </c>
+      <c r="AR176">
+        <v>2.28</v>
+      </c>
+      <c r="AS176">
         <v>0.97</v>
       </c>
-      <c r="AP176">
-        <v>2.45</v>
-      </c>
-      <c r="AQ176">
-        <v>0.92</v>
-      </c>
-      <c r="AR176">
-        <v>2.16</v>
-      </c>
-      <c r="AS176">
-        <v>1.03</v>
-      </c>
       <c r="AT176">
-        <v>3.19</v>
+        <v>3.25</v>
       </c>
       <c r="AU176">
         <v>11</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="AY176">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ176">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA176">
         <v>10</v>
@@ -37794,22 +37794,22 @@
         <v>2.6</v>
       </c>
       <c r="AN177">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AO177">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="AP177">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ177">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR177">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AS177">
-        <v>1.06</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT177">
         <v>2.33</v>
@@ -37827,10 +37827,10 @@
         <v>5</v>
       </c>
       <c r="AY177">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ177">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA177">
         <v>3</v>
@@ -38000,25 +38000,25 @@
         <v>1.72</v>
       </c>
       <c r="AN178">
-        <v>1.41</v>
+        <v>1.87</v>
       </c>
       <c r="AO178">
-        <v>1.45</v>
+        <v>1.07</v>
       </c>
       <c r="AP178">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ178">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR178">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AS178">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AT178">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU178">
         <v>9</v>
@@ -38033,10 +38033,10 @@
         <v>4</v>
       </c>
       <c r="AY178">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ178">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA178">
         <v>1</v>
@@ -38206,25 +38206,25 @@
         <v>1.63</v>
       </c>
       <c r="AN179">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AO179">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="AP179">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ179">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR179">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AS179">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="AT179">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU179">
         <v>6</v>
@@ -38239,10 +38239,10 @@
         <v>5</v>
       </c>
       <c r="AY179">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ179">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA179">
         <v>6</v>
@@ -38412,25 +38412,25 @@
         <v>1.22</v>
       </c>
       <c r="AN180">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AO180">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AP180">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ180">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR180">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AS180">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="AT180">
-        <v>2.58</v>
+        <v>2.49</v>
       </c>
       <c r="AU180">
         <v>4</v>
@@ -38445,10 +38445,10 @@
         <v>7</v>
       </c>
       <c r="AY180">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ180">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="BA180">
         <v>2</v>
@@ -38618,25 +38618,25 @@
         <v>3.75</v>
       </c>
       <c r="AN181">
+        <v>2.4</v>
+      </c>
+      <c r="AO181">
+        <v>1.14</v>
+      </c>
+      <c r="AP181">
+        <v>2.42</v>
+      </c>
+      <c r="AQ181">
+        <v>1.11</v>
+      </c>
+      <c r="AR181">
         <v>2.41</v>
       </c>
-      <c r="AO181">
-        <v>1.27</v>
-      </c>
-      <c r="AP181">
-        <v>2.24</v>
-      </c>
-      <c r="AQ181">
-        <v>1.21</v>
-      </c>
-      <c r="AR181">
-        <v>2.13</v>
-      </c>
       <c r="AS181">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="AT181">
-        <v>3.4</v>
+        <v>3.56</v>
       </c>
       <c r="AU181">
         <v>9</v>
@@ -38651,10 +38651,10 @@
         <v>3</v>
       </c>
       <c r="AY181">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AZ181">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA181">
         <v>9</v>
@@ -38827,22 +38827,22 @@
         <v>1.07</v>
       </c>
       <c r="AO182">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP182">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ182">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR182">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AS182">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
       <c r="AT182">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -38857,10 +38857,10 @@
         <v>9</v>
       </c>
       <c r="AY182">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ182">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA182">
         <v>4</v>
@@ -39030,25 +39030,25 @@
         <v>1.47</v>
       </c>
       <c r="AN183">
+        <v>1.2</v>
+      </c>
+      <c r="AO183">
         <v>0.93</v>
       </c>
-      <c r="AO183">
-        <v>1.24</v>
-      </c>
       <c r="AP183">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ183">
+        <v>0.95</v>
+      </c>
+      <c r="AR183">
+        <v>1.09</v>
+      </c>
+      <c r="AS183">
         <v>1.11</v>
       </c>
-      <c r="AR183">
-        <v>1.02</v>
-      </c>
-      <c r="AS183">
-        <v>1.23</v>
-      </c>
       <c r="AT183">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU183">
         <v>5</v>
@@ -39063,10 +39063,10 @@
         <v>4</v>
       </c>
       <c r="AY183">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ183">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA183">
         <v>11</v>
@@ -39236,25 +39236,25 @@
         <v>2.1</v>
       </c>
       <c r="AN184">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO184">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AP184">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ184">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR184">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AS184">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="AT184">
-        <v>2.42</v>
+        <v>2.49</v>
       </c>
       <c r="AU184">
         <v>5</v>
@@ -39269,10 +39269,10 @@
         <v>5</v>
       </c>
       <c r="AY184">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ184">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA184">
         <v>2</v>
@@ -39442,25 +39442,25 @@
         <v>1.83</v>
       </c>
       <c r="AN185">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AO185">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AP185">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ185">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR185">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AS185">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="AT185">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="AU185">
         <v>7</v>
@@ -39475,10 +39475,10 @@
         <v>5</v>
       </c>
       <c r="AY185">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ185">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA185">
         <v>7</v>
@@ -39648,25 +39648,25 @@
         <v>1.02</v>
       </c>
       <c r="AN186">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AO186">
+        <v>2.33</v>
+      </c>
+      <c r="AP186">
+        <v>1</v>
+      </c>
+      <c r="AQ186">
         <v>2.37</v>
       </c>
-      <c r="AP186">
-        <v>0.66</v>
-      </c>
-      <c r="AQ186">
-        <v>2.45</v>
-      </c>
       <c r="AR186">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AS186">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="AT186">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
       <c r="AU186">
         <v>2</v>
@@ -39681,10 +39681,10 @@
         <v>7</v>
       </c>
       <c r="AY186">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ186">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA186">
         <v>0</v>
@@ -39854,25 +39854,25 @@
         <v>1.44</v>
       </c>
       <c r="AN187">
-        <v>1.39</v>
+        <v>1.8</v>
       </c>
       <c r="AO187">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AP187">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ187">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR187">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AS187">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AT187">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="AU187">
         <v>2</v>
@@ -39887,10 +39887,10 @@
         <v>5</v>
       </c>
       <c r="AY187">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ187">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA187">
         <v>8</v>
@@ -40060,25 +40060,25 @@
         <v>1.63</v>
       </c>
       <c r="AN188">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AO188">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AP188">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ188">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AR188">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AS188">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AT188">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU188">
         <v>3</v>
@@ -40093,10 +40093,10 @@
         <v>9</v>
       </c>
       <c r="AY188">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ188">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA188">
         <v>3</v>
@@ -40266,25 +40266,25 @@
         <v>2.55</v>
       </c>
       <c r="AN189">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AO189">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="AP189">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AQ189">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AR189">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="AS189">
-        <v>1.04</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT189">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AU189">
         <v>7</v>
@@ -40299,10 +40299,10 @@
         <v>2</v>
       </c>
       <c r="AY189">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ189">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA189">
         <v>13</v>
@@ -40472,25 +40472,25 @@
         <v>2.65</v>
       </c>
       <c r="AN190">
-        <v>1.45</v>
+        <v>1.94</v>
       </c>
       <c r="AO190">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
       <c r="AP190">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AQ190">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="AR190">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS190">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AT190">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AU190">
         <v>6</v>
@@ -40505,10 +40505,10 @@
         <v>4</v>
       </c>
       <c r="AY190">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ190">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA190">
         <v>4</v>
@@ -40678,25 +40678,25 @@
         <v>1.3</v>
       </c>
       <c r="AN191">
-        <v>0.55</v>
+        <v>0.73</v>
       </c>
       <c r="AO191">
-        <v>1.06</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP191">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AQ191">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AR191">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AS191">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="AT191">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AU191">
         <v>2</v>
@@ -40711,10 +40711,10 @@
         <v>1</v>
       </c>
       <c r="AY191">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ191">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA191">
         <v>2</v>
@@ -40884,25 +40884,25 @@
         <v>1.62</v>
       </c>
       <c r="AN192">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="AO192">
+        <v>2.38</v>
+      </c>
+      <c r="AP192">
+        <v>2.42</v>
+      </c>
+      <c r="AQ192">
+        <v>2.37</v>
+      </c>
+      <c r="AR192">
         <v>2.39</v>
       </c>
-      <c r="AP192">
-        <v>2.24</v>
-      </c>
-      <c r="AQ192">
-        <v>2.45</v>
-      </c>
-      <c r="AR192">
-        <v>2.13</v>
-      </c>
       <c r="AS192">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="AT192">
-        <v>4.33</v>
+        <v>4.47</v>
       </c>
       <c r="AU192">
         <v>6</v>
@@ -40917,10 +40917,10 @@
         <v>5</v>
       </c>
       <c r="AY192">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ192">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA192">
         <v>3</v>
@@ -41090,25 +41090,25 @@
         <v>1.75</v>
       </c>
       <c r="AN193">
+        <v>1.2</v>
+      </c>
+      <c r="AO193">
         <v>1.06</v>
       </c>
-      <c r="AO193">
-        <v>1.26</v>
-      </c>
       <c r="AP193">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AQ193">
+        <v>0.95</v>
+      </c>
+      <c r="AR193">
+        <v>1.43</v>
+      </c>
+      <c r="AS193">
         <v>1.11</v>
       </c>
-      <c r="AR193">
-        <v>1.27</v>
-      </c>
-      <c r="AS193">
-        <v>1.21</v>
-      </c>
       <c r="AT193">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="AU193">
         <v>6</v>
@@ -41123,10 +41123,10 @@
         <v>9</v>
       </c>
       <c r="AY193">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ193">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA193">
         <v>3</v>
@@ -41296,25 +41296,25 @@
         <v>4.4</v>
       </c>
       <c r="AN194">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="AO194">
-        <v>1.34</v>
+        <v>1</v>
       </c>
       <c r="AP194">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AQ194">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR194">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="AS194">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT194">
-        <v>3.39</v>
+        <v>3.45</v>
       </c>
       <c r="AU194">
         <v>10</v>
@@ -41329,7 +41329,7 @@
         <v>3</v>
       </c>
       <c r="AY194">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ194">
         <v>3</v>
@@ -41502,25 +41502,25 @@
         <v>2.9</v>
       </c>
       <c r="AN195">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="AO195">
-        <v>0.5600000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="AP195">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ195">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="AR195">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="AS195">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="AT195">
-        <v>2.51</v>
+        <v>2.57</v>
       </c>
       <c r="AU195">
         <v>6</v>
@@ -41535,10 +41535,10 @@
         <v>4</v>
       </c>
       <c r="AY195">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ195">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA195">
         <v>5</v>
@@ -41708,25 +41708,25 @@
         <v>1.44</v>
       </c>
       <c r="AN196">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AO196">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="AP196">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ196">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AR196">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AS196">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="AT196">
-        <v>2.54</v>
+        <v>2.45</v>
       </c>
       <c r="AU196">
         <v>2</v>
@@ -41741,10 +41741,10 @@
         <v>4</v>
       </c>
       <c r="AY196">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ196">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA196">
         <v>4</v>
@@ -41914,25 +41914,25 @@
         <v>1.28</v>
       </c>
       <c r="AN197">
-        <v>0.97</v>
+        <v>1.13</v>
       </c>
       <c r="AO197">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="AP197">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ197">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AR197">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="AS197">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AT197">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="AU197">
         <v>-1</v>
@@ -42120,25 +42120,25 @@
         <v>1.02</v>
       </c>
       <c r="AN198">
-        <v>0.84</v>
+        <v>1.27</v>
       </c>
       <c r="AO198">
-        <v>2.39</v>
+        <v>2.43</v>
       </c>
       <c r="AP198">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AQ198">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR198">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AS198">
-        <v>2.11</v>
+        <v>1.83</v>
       </c>
       <c r="AT198">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="AU198">
         <v>7</v>
@@ -42153,10 +42153,10 @@
         <v>11</v>
       </c>
       <c r="AY198">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ198">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="BA198">
         <v>3</v>
@@ -42326,25 +42326,25 @@
         <v>1.07</v>
       </c>
       <c r="AN199">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="AO199">
-        <v>2.31</v>
+        <v>2.27</v>
       </c>
       <c r="AP199">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AQ199">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR199">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AS199">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="AT199">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="AU199">
         <v>2</v>
@@ -42359,10 +42359,10 @@
         <v>6</v>
       </c>
       <c r="AY199">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ199">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA199">
         <v>2</v>
@@ -42565,10 +42565,10 @@
         <v>4</v>
       </c>
       <c r="AY200">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ200">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA200">
         <v>1</v>
@@ -42771,10 +42771,10 @@
         <v>3</v>
       </c>
       <c r="AY201">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ201">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA201">
         <v>4</v>
@@ -42977,10 +42977,10 @@
         <v>7</v>
       </c>
       <c r="AY202">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AZ202">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA202">
         <v>8</v>
@@ -43183,10 +43183,10 @@
         <v>3</v>
       </c>
       <c r="AY203">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ203">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA203">
         <v>10</v>
@@ -43389,10 +43389,10 @@
         <v>9</v>
       </c>
       <c r="AY204">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ204">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA204">
         <v>4</v>
@@ -43595,10 +43595,10 @@
         <v>5</v>
       </c>
       <c r="AY205">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ205">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA205">
         <v>8</v>
@@ -43801,10 +43801,10 @@
         <v>1</v>
       </c>
       <c r="AY206">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ206">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA206">
         <v>17</v>
@@ -44007,7 +44007,7 @@
         <v>5</v>
       </c>
       <c r="AY207">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ207">
         <v>13</v>
@@ -44213,10 +44213,10 @@
         <v>5</v>
       </c>
       <c r="AY208">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ208">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA208">
         <v>7</v>
@@ -44419,10 +44419,10 @@
         <v>2</v>
       </c>
       <c r="AY209">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ209">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA209">
         <v>6</v>
@@ -44625,10 +44625,10 @@
         <v>7</v>
       </c>
       <c r="AY210">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ210">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BA210">
         <v>3</v>
@@ -44831,10 +44831,10 @@
         <v>2</v>
       </c>
       <c r="AY211">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AZ211">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA211">
         <v>16</v>
@@ -45037,10 +45037,10 @@
         <v>3</v>
       </c>
       <c r="AY212">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ212">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA212">
         <v>10</v>
@@ -45243,10 +45243,10 @@
         <v>6</v>
       </c>
       <c r="AY213">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ213">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA213">
         <v>8</v>
@@ -45449,10 +45449,10 @@
         <v>6</v>
       </c>
       <c r="AY214">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ214">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA214">
         <v>8</v>
@@ -45655,10 +45655,10 @@
         <v>7</v>
       </c>
       <c r="AY215">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ215">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA215">
         <v>2</v>
@@ -45861,10 +45861,10 @@
         <v>15</v>
       </c>
       <c r="AY216">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ216">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA216">
         <v>4</v>
@@ -46067,10 +46067,10 @@
         <v>8</v>
       </c>
       <c r="AY217">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ217">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA217">
         <v>8</v>
@@ -46273,10 +46273,10 @@
         <v>2</v>
       </c>
       <c r="AY218">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AZ218">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA218">
         <v>6</v>
@@ -46479,10 +46479,10 @@
         <v>6</v>
       </c>
       <c r="AY219">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ219">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="BA219">
         <v>2</v>
@@ -46685,10 +46685,10 @@
         <v>2</v>
       </c>
       <c r="AY220">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ220">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA220">
         <v>4</v>
@@ -46891,10 +46891,10 @@
         <v>3</v>
       </c>
       <c r="AY221">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ221">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA221">
         <v>6</v>
@@ -47097,10 +47097,10 @@
         <v>4</v>
       </c>
       <c r="AY222">
+        <v>13</v>
+      </c>
+      <c r="AZ222">
         <v>10</v>
-      </c>
-      <c r="AZ222">
-        <v>8</v>
       </c>
       <c r="BA222">
         <v>8</v>
@@ -47303,10 +47303,10 @@
         <v>1</v>
       </c>
       <c r="AY223">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ223">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA223">
         <v>4</v>
@@ -47509,10 +47509,10 @@
         <v>6</v>
       </c>
       <c r="AY224">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ224">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA224">
         <v>11</v>
@@ -47715,10 +47715,10 @@
         <v>8</v>
       </c>
       <c r="AY225">
+        <v>16</v>
+      </c>
+      <c r="AZ225">
         <v>13</v>
-      </c>
-      <c r="AZ225">
-        <v>11</v>
       </c>
       <c r="BA225">
         <v>4</v>
@@ -47921,10 +47921,10 @@
         <v>13</v>
       </c>
       <c r="AY226">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ226">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="BA226">
         <v>2</v>
@@ -48127,10 +48127,10 @@
         <v>11</v>
       </c>
       <c r="AY227">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ227">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA227">
         <v>4</v>
@@ -48333,10 +48333,10 @@
         <v>5</v>
       </c>
       <c r="AY228">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ228">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA228">
         <v>7</v>
@@ -48539,10 +48539,10 @@
         <v>7</v>
       </c>
       <c r="AY229">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ229">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA229">
         <v>3</v>
